--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="746">
   <si>
     <t>Batch Name</t>
   </si>
@@ -2360,7 +2360,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2421,12 +2421,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2479,7 +2473,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2602,9 +2596,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2808,14 +2799,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2839,7 +2830,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="619125" y="1904999"/>
+          <a:off x="619125" y="2085974"/>
           <a:ext cx="8401050" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2918,75 +2909,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>409575</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
-          <xdr:row>22</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3087,15 +3019,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>214562</xdr:colOff>
+      <xdr:colOff>252662</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3118,7 +3050,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="514350"/>
+          <a:off x="3162300" y="533400"/>
           <a:ext cx="2767262" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3420,7 +3352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3550,58 +3482,33 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4">
+        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId4">
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>409575</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4"/>
+        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId6">
+        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId6">
           <objectPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId8">
-          <objectPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -3620,7 +3527,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId8"/>
+        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -3631,7 +3538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -3647,7 +3554,7 @@
     <col min="5" max="5" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="4" bestFit="1" customWidth="1"/>
@@ -3782,7 +3689,7 @@
         <v>43726</v>
       </c>
       <c r="H4" s="9">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="I4" s="9">
         <v>43819</v>
@@ -3833,7 +3740,7 @@
         <v>43731</v>
       </c>
       <c r="H5" s="9">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="I5" s="9">
         <v>43819</v>
@@ -3884,7 +3791,7 @@
         <v>43731</v>
       </c>
       <c r="H6" s="9">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="I6" s="9">
         <v>43819</v>
@@ -3952,7 +3859,9 @@
         <f>'Pune-Mumbai Batch Candidates'!D3</f>
         <v>4</v>
       </c>
-      <c r="M7" s="44"/>
+      <c r="M7" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>743</v>
       </c>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="747">
   <si>
     <t>Batch Name</t>
   </si>
@@ -34,12 +34,6 @@
     <t>Onboarding  Date</t>
   </si>
   <si>
-    <t>L1 date</t>
-  </si>
-  <si>
-    <t>L1 retest date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Initial Batch Size </t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>Regular HTD</t>
   </si>
   <si>
-    <t xml:space="preserve">Priyanka </t>
-  </si>
-  <si>
     <t>Praveen</t>
   </si>
   <si>
@@ -76,12 +67,6 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">Vikas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giridhar </t>
-  </si>
-  <si>
     <t>Varsha</t>
   </si>
   <si>
@@ -115,9 +100,6 @@
     <t>Pune-Mumbai Batch</t>
   </si>
   <si>
-    <t xml:space="preserve">TY Mentor </t>
-  </si>
-  <si>
     <t>Present Status</t>
   </si>
   <si>
@@ -2258,6 +2240,27 @@
   </si>
   <si>
     <t>BDD is in-progress</t>
+  </si>
+  <si>
+    <t>L1 Re-test Date</t>
+  </si>
+  <si>
+    <t>L1 Date</t>
+  </si>
+  <si>
+    <t>TY Mentor Details</t>
+  </si>
+  <si>
+    <t>TY Mentor Contact Number</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>Giridhar</t>
   </si>
 </sst>
 </file>
@@ -2629,8 +2632,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2640,7 +2643,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="190500" y="238125"/>
-          <a:ext cx="9153524" cy="5105400"/>
+          <a:ext cx="9153524" cy="4924425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2853,15 +2856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2885,7 +2888,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3124200" y="4848226"/>
+          <a:off x="3105150" y="4686301"/>
           <a:ext cx="1447800" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2962,15 +2965,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>133350</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:colOff>200025</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3366,7 +3369,7 @@
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" s="37" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E3"/>
     </row>
@@ -3512,15 +3515,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>133350</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:colOff>200025</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3536,7 +3539,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q9"/>
+  <dimension ref="B1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
@@ -3560,20 +3563,21 @@
     <col min="11" max="11" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="4"/>
+    <col min="14" max="14" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -3588,51 +3592,54 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>32</v>
+        <v>742</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>743</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="9">
         <v>43678</v>
@@ -3656,34 +3663,37 @@
         <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>745</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="O3" s="5">
+        <v>9448246364</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R3" s="16"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="G4" s="9">
         <v>43726</v>
@@ -3699,42 +3709,45 @@
         <v>52</v>
       </c>
       <c r="K4" s="40">
+        <f>'Noida Batch Candidates'!D3</f>
+        <v>25</v>
+      </c>
+      <c r="L4" s="38">
         <f>'Noida Batch Candidates'!D4</f>
         <v>27</v>
       </c>
-      <c r="L4" s="38">
-        <f>'Noida Batch Candidates'!D3</f>
-        <v>25</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N4" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8377841525</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="9">
         <v>43731</v>
@@ -3750,42 +3763,45 @@
         <v>12</v>
       </c>
       <c r="K5" s="40">
+        <f>'Bhuvaneswar Batch Candidates'!D3</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="38">
         <f>'Bhuvaneswar Batch Candidates'!D4</f>
         <v>8</v>
       </c>
-      <c r="L5" s="38">
-        <f>'Bhuvaneswar Batch Candidates'!D3</f>
-        <v>4</v>
-      </c>
       <c r="M5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8073098283</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G6" s="9">
         <v>43731</v>
@@ -3801,42 +3817,45 @@
         <v>82</v>
       </c>
       <c r="K6" s="40">
+        <f>'Bangalore Batch Candidates'!D3</f>
+        <v>10</v>
+      </c>
+      <c r="L6" s="38">
         <f>'Bangalore Batch Candidates'!D4</f>
         <v>72</v>
       </c>
-      <c r="L6" s="38">
-        <f>'Bangalore Batch Candidates'!D3</f>
-        <v>10</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+      <c r="O6" s="3">
+        <v>8762928822</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="G7" s="9">
         <v>43738</v>
@@ -3852,28 +3871,31 @@
         <v>43</v>
       </c>
       <c r="K7" s="40">
+        <f>'Pune-Mumbai Batch Candidates'!D3</f>
+        <v>4</v>
+      </c>
+      <c r="L7" s="38">
         <f>'Pune-Mumbai Batch Candidates'!D4</f>
         <v>39</v>
       </c>
-      <c r="L7" s="38">
-        <f>'Pune-Mumbai Batch Candidates'!D3</f>
-        <v>4</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="12"/>
+        <v>737</v>
+      </c>
+      <c r="O7" s="3">
+        <v>9897145195</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="Q7" s="12"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="12"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G9" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3945,44 +3967,44 @@
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C7" s="43"/>
       <c r="H7" s="43" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -3990,31 +4012,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -4022,31 +4044,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -4054,31 +4076,31 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -4086,31 +4108,31 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -4118,31 +4140,31 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -4150,31 +4172,31 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H14" s="3">
         <v>6</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -4182,31 +4204,31 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H15" s="3">
         <v>7</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -4214,16 +4236,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -4231,16 +4253,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -4248,16 +4270,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4265,16 +4287,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -4282,16 +4304,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -4299,16 +4321,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -4316,16 +4338,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -4333,16 +4355,16 @@
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -4350,16 +4372,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -4367,16 +4389,16 @@
         <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -4384,16 +4406,16 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -4401,16 +4423,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -4418,16 +4440,16 @@
         <v>20</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -4435,16 +4457,16 @@
         <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -4452,16 +4474,16 @@
         <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -4469,16 +4491,16 @@
         <v>23</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -4486,16 +4508,16 @@
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -4503,16 +4525,16 @@
         <v>25</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -4520,16 +4542,16 @@
         <v>26</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -4537,16 +4559,16 @@
         <v>27</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -4554,16 +4576,16 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -4571,16 +4593,16 @@
         <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -4588,16 +4610,16 @@
         <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -4605,16 +4627,16 @@
         <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -4622,16 +4644,16 @@
         <v>32</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -4639,16 +4661,16 @@
         <v>33</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -4656,16 +4678,16 @@
         <v>34</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -4673,16 +4695,16 @@
         <v>35</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -4690,16 +4712,16 @@
         <v>36</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -4707,16 +4729,16 @@
         <v>37</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -4724,16 +4746,16 @@
         <v>38</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
@@ -4741,16 +4763,16 @@
         <v>39</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -4758,16 +4780,16 @@
         <v>40</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -4775,16 +4797,16 @@
         <v>41</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -4792,16 +4814,16 @@
         <v>42</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -4809,16 +4831,16 @@
         <v>43</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
@@ -4826,16 +4848,16 @@
         <v>44</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -4843,16 +4865,16 @@
         <v>45</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
@@ -4860,16 +4882,16 @@
         <v>46</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
@@ -4877,16 +4899,16 @@
         <v>47</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -4894,16 +4916,16 @@
         <v>48</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -4911,16 +4933,16 @@
         <v>49</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -4928,16 +4950,16 @@
         <v>50</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
@@ -4945,16 +4967,16 @@
         <v>51</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
@@ -4962,16 +4984,16 @@
         <v>52</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
@@ -4979,16 +5001,16 @@
         <v>53</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
@@ -4996,16 +5018,16 @@
         <v>54</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
@@ -5013,16 +5035,16 @@
         <v>55</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
@@ -5030,16 +5052,16 @@
         <v>56</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
@@ -5047,16 +5069,16 @@
         <v>57</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
@@ -5064,16 +5086,16 @@
         <v>58</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5211,44 +5233,44 @@
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -5256,31 +5278,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" s="29">
         <v>6394671596</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H8" s="35">
         <v>1</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -5288,31 +5310,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="29">
         <v>8009311439</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H9" s="35">
         <v>2</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -5320,31 +5342,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E10" s="29">
         <v>9468247375</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H10" s="35">
         <v>3</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K10" s="30" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -5352,31 +5374,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="29">
         <v>9872512451</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H11" s="35">
         <v>4</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -5384,31 +5406,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12" s="29">
         <v>9695676355</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="H12" s="35">
         <v>5</v>
       </c>
       <c r="I12" s="30" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K12" s="30" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -5416,31 +5438,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E13" s="29">
         <v>8826679369</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="H13" s="35">
         <v>6</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K13" s="30" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -5448,31 +5470,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="29">
         <v>9368519717</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H14" s="35">
         <v>7</v>
       </c>
       <c r="I14" s="30" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -5480,31 +5502,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E15" s="29">
         <v>8115712543</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H15" s="35">
         <v>8</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -5512,31 +5534,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E16" s="29">
         <v>8512097276</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H16" s="35">
         <v>9</v>
       </c>
       <c r="I16" s="30" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K16" s="30" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -5544,31 +5566,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="29">
         <v>8076728958</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="H17" s="35">
         <v>10</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="J17" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K17" s="30" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -5576,31 +5598,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E18" s="29">
         <v>7669604203</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="H18" s="35">
         <v>11</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -5608,31 +5630,31 @@
         <v>12</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E19" s="29">
         <v>8860817681</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="H19" s="35">
         <v>12</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -5640,31 +5662,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E20" s="29">
         <v>9015270530</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="H20" s="35">
         <v>13</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -5672,31 +5694,31 @@
         <v>14</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="29">
         <v>7827327267</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H21" s="35">
         <v>14</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="J21" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -5704,31 +5726,31 @@
         <v>15</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E22" s="29">
         <v>8800709136</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="H22" s="35">
         <v>15</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -5736,31 +5758,31 @@
         <v>16</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E23" s="29">
         <v>9971884734</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H23" s="35">
         <v>16</v>
       </c>
       <c r="I23" s="30" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="J23" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -5768,31 +5790,31 @@
         <v>17</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E24" s="29">
         <v>7988643977</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="H24" s="35">
         <v>17</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K24" s="30" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -5800,31 +5822,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E25" s="29">
         <v>9910920931</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="H25" s="35">
         <v>18</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -5832,31 +5854,31 @@
         <v>19</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E26" s="29">
         <v>7073862831</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H26" s="35">
         <v>19</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -5864,31 +5886,31 @@
         <v>20</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E27" s="29">
         <v>9810943877</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="H27" s="35">
         <v>20</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -5896,31 +5918,31 @@
         <v>21</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E28" s="29">
         <v>9582848409</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="H28" s="35">
         <v>21</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -5928,31 +5950,31 @@
         <v>22</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E29" s="29">
         <v>7065509255</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H29" s="35">
         <v>22</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -5960,31 +5982,31 @@
         <v>23</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E30" s="29">
         <v>9897133664</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="H30" s="35">
         <v>23</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -5992,31 +6014,31 @@
         <v>24</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E31" s="29">
         <v>8218128166</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H31" s="35">
         <v>24</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -6024,31 +6046,31 @@
         <v>25</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E32" s="29">
         <v>8512856779</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="H32" s="35">
         <v>25</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="L32" s="31" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -6056,16 +6078,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E33" s="29">
         <v>9067472225</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -6073,16 +6095,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E34" s="29">
         <v>8604793053</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -6217,44 +6239,44 @@
     </row>
     <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6262,31 +6284,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H8" s="34">
         <v>1</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K8" s="29" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6294,31 +6316,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H9" s="34">
         <v>2</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K9" s="29" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="L9" s="27" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6326,31 +6348,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H10" s="34">
         <v>3</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L10" s="27" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6358,31 +6380,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H11" s="34">
         <v>4</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K11" s="29" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L11" s="27" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6390,16 +6412,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6407,16 +6429,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6424,16 +6446,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6441,16 +6463,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6546,44 +6568,44 @@
     </row>
     <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -6591,31 +6613,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -6623,31 +6645,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -6655,31 +6677,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -6687,31 +6709,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -6719,31 +6741,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -6751,31 +6773,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -6783,31 +6805,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H14" s="3">
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -6815,31 +6837,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -6847,31 +6869,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -6879,31 +6901,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -6911,16 +6933,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -6928,16 +6950,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -6945,16 +6967,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -6962,16 +6984,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -6979,16 +7001,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -6996,16 +7018,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -7013,16 +7035,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -7030,16 +7052,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -7047,16 +7069,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -7064,16 +7086,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -7081,16 +7103,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -7098,16 +7120,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -7115,16 +7137,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -7132,16 +7154,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -7149,16 +7171,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -7166,16 +7188,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -7183,16 +7205,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -7200,16 +7222,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -7217,16 +7239,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -7234,16 +7256,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -7251,16 +7273,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -7268,16 +7290,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -7285,16 +7307,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -7302,16 +7324,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -7319,16 +7341,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -7336,16 +7358,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -7353,16 +7375,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -7370,16 +7392,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -7387,16 +7409,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -7404,16 +7426,16 @@
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -7421,16 +7443,16 @@
         <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -7438,16 +7460,16 @@
         <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -7455,16 +7477,16 @@
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -7472,16 +7494,16 @@
         <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -7489,16 +7511,16 @@
         <v>45</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -7506,16 +7528,16 @@
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -7523,16 +7545,16 @@
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -7540,16 +7562,16 @@
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -7557,16 +7579,16 @@
         <v>49</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -7574,16 +7596,16 @@
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -7591,16 +7613,16 @@
         <v>51</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -7608,16 +7630,16 @@
         <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -7625,16 +7647,16 @@
         <v>53</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -7642,16 +7664,16 @@
         <v>54</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -7659,16 +7681,16 @@
         <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -7676,16 +7698,16 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -7693,16 +7715,16 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -7710,16 +7732,16 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -7727,16 +7749,16 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -7744,16 +7766,16 @@
         <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -7761,16 +7783,16 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -7778,16 +7800,16 @@
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -7795,16 +7817,16 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -7812,16 +7834,16 @@
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -7829,16 +7851,16 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -7846,16 +7868,16 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -7863,16 +7885,16 @@
         <v>67</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -7880,16 +7902,16 @@
         <v>68</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -7897,16 +7919,16 @@
         <v>69</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -7914,16 +7936,16 @@
         <v>70</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -7931,16 +7953,16 @@
         <v>71</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -7948,16 +7970,16 @@
         <v>72</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -8123,44 +8145,44 @@
     </row>
     <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J7" s="32" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="L7" s="32" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -8168,31 +8190,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5">
         <v>7558289080</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -8200,31 +8222,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5">
         <v>7387213425</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -8232,31 +8254,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5">
         <v>9833446728</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="K10" s="5">
         <v>9422115479</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -8264,31 +8286,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5">
         <v>9763563987</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -8296,16 +8318,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12" s="5">
         <v>7066705430</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -8313,16 +8335,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5">
         <v>8237496955</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -8330,16 +8352,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5">
         <v>9049796915</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -8347,16 +8369,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5">
         <v>9987648115</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -8364,16 +8386,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E16" s="5">
         <v>9820958424</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -8381,16 +8403,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5">
         <v>7887669198</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -8398,16 +8420,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5">
         <v>7666038604</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -8415,16 +8437,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5">
         <v>7303752979</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -8432,16 +8454,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E20" s="5">
         <v>8857819155</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -8449,16 +8471,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" s="5">
         <v>8825054152</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -8466,16 +8488,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E22" s="5">
         <v>9765914865</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -8483,16 +8505,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E23" s="5">
         <v>7710859052</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -8500,16 +8522,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E24" s="5">
         <v>8857863105</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -8517,16 +8539,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E25" s="5">
         <v>9423561361</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -8534,16 +8556,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E26" s="5">
         <v>8424956867</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -8551,16 +8573,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E27" s="5">
         <v>8390700404</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -8568,16 +8590,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E28" s="5">
         <v>8421163930</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -8585,16 +8607,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E29" s="5">
         <v>7083906951</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -8602,16 +8624,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E30" s="5">
         <v>8689929864</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -8619,16 +8641,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E31" s="5">
         <v>7362933380</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -8636,16 +8658,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E32" s="5">
         <v>7218583912</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -8653,16 +8675,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E33" s="5">
         <v>8978213151</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -8670,16 +8692,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E34" s="5">
         <v>9326855136</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -8687,16 +8709,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E35" s="5">
         <v>9172029365</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -8704,16 +8726,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E36" s="5">
         <v>7743949634</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -8721,16 +8743,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5">
         <v>8624039380</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -8738,16 +8760,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E38" s="5">
         <v>7218454570</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -8755,16 +8777,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E39" s="5">
         <v>9359467647</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -8772,16 +8794,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E40" s="5">
         <v>8691942385</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -8789,16 +8811,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E41" s="5">
         <v>8850419292</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -8806,16 +8828,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E42" s="5">
         <v>9621029028</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -8823,16 +8845,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E43" s="5">
         <v>7066020092</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -8840,16 +8862,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E44" s="5">
         <v>8349830798</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -8857,16 +8879,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E45" s="5">
         <v>7225848488</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -8874,16 +8896,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E46" s="5">
         <v>7719862298</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -37,9 +37,6 @@
     <t xml:space="preserve">Initial Batch Size </t>
   </si>
   <si>
-    <t>Dropout/Abscondee</t>
-  </si>
-  <si>
     <t>Current Batch Size</t>
   </si>
   <si>
@@ -2261,6 +2258,9 @@
   </si>
   <si>
     <t>Giridhar</t>
+  </si>
+  <si>
+    <t>Dropout/Absconded</t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" s="37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E3"/>
     </row>
@@ -3574,10 +3574,10 @@
     <row r="1" spans="2:18" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -3592,37 +3592,37 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="N2" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>743</v>
-      </c>
       <c r="P2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
@@ -3630,16 +3630,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="G3" s="9">
         <v>43678</v>
@@ -3663,19 +3663,19 @@
         <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O3" s="5">
         <v>9448246364</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R3" s="16"/>
     </row>
@@ -3684,16 +3684,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="9">
         <v>43726</v>
@@ -3717,19 +3717,19 @@
         <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O4" s="3">
         <v>8377841525</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R4" s="12"/>
     </row>
@@ -3738,16 +3738,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="9">
         <v>43731</v>
@@ -3771,19 +3771,19 @@
         <v>8</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O5" s="3">
         <v>8073098283</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R5" s="12"/>
     </row>
@@ -3792,16 +3792,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="9">
         <v>43731</v>
@@ -3825,19 +3825,19 @@
         <v>72</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O6" s="3">
         <v>8762928822</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R6" s="12"/>
     </row>
@@ -3846,16 +3846,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="9">
         <v>43738</v>
@@ -3879,23 +3879,23 @@
         <v>39</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="O7" s="3">
         <v>9897145195</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G9" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3940,7 +3940,7 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" s="23" t="str">
         <f>Summary!$K$2</f>
-        <v>Dropout/Abscondee</v>
+        <v>Dropout/Absconded</v>
       </c>
       <c r="D3" s="24">
         <f>COUNT($H$1:$H$100)</f>
@@ -3967,44 +3967,44 @@
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C7" s="43"/>
       <c r="H7" s="43" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="K8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="L8" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -4012,31 +4012,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="19" t="s">
         <v>716</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -4044,31 +4044,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>40</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="19" t="s">
         <v>719</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -4076,31 +4076,31 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="19" t="s">
         <v>722</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -4108,31 +4108,31 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="19" t="s">
         <v>725</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -4140,31 +4140,31 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="19" t="s">
         <v>728</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -4172,31 +4172,31 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="H14" s="3">
         <v>6</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="19" t="s">
         <v>731</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -4204,31 +4204,31 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="H15" s="3">
         <v>7</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="19" t="s">
         <v>734</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -4236,16 +4236,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -4253,16 +4253,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -4270,16 +4270,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4287,16 +4287,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -4304,16 +4304,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -4321,16 +4321,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -4338,16 +4338,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -4355,16 +4355,16 @@
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -4372,16 +4372,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -4389,16 +4389,16 @@
         <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="19" t="s">
         <v>84</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -4406,16 +4406,16 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -4423,16 +4423,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -4440,16 +4440,16 @@
         <v>20</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="19" t="s">
         <v>93</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -4457,16 +4457,16 @@
         <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -4474,16 +4474,16 @@
         <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -4491,16 +4491,16 @@
         <v>23</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -4508,16 +4508,16 @@
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -4525,16 +4525,16 @@
         <v>25</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="19" t="s">
         <v>108</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -4542,16 +4542,16 @@
         <v>26</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="19" t="s">
         <v>111</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -4559,16 +4559,16 @@
         <v>27</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -4576,16 +4576,16 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -4593,16 +4593,16 @@
         <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -4610,16 +4610,16 @@
         <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -4627,16 +4627,16 @@
         <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="19" t="s">
         <v>126</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -4644,16 +4644,16 @@
         <v>32</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -4661,16 +4661,16 @@
         <v>33</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -4678,16 +4678,16 @@
         <v>34</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -4695,16 +4695,16 @@
         <v>35</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -4712,16 +4712,16 @@
         <v>36</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="19" t="s">
         <v>141</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -4729,16 +4729,16 @@
         <v>37</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="19" t="s">
         <v>144</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -4746,16 +4746,16 @@
         <v>38</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
@@ -4763,16 +4763,16 @@
         <v>39</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="19" t="s">
         <v>150</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -4780,16 +4780,16 @@
         <v>40</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="19" t="s">
         <v>153</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -4797,16 +4797,16 @@
         <v>41</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -4814,16 +4814,16 @@
         <v>42</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="19" t="s">
         <v>159</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -4831,16 +4831,16 @@
         <v>43</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="19" t="s">
         <v>162</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
@@ -4848,16 +4848,16 @@
         <v>44</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="19" t="s">
         <v>165</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -4865,16 +4865,16 @@
         <v>45</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
@@ -4882,16 +4882,16 @@
         <v>46</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
@@ -4899,16 +4899,16 @@
         <v>47</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="19" t="s">
         <v>174</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -4916,16 +4916,16 @@
         <v>48</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="19" t="s">
         <v>177</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -4933,16 +4933,16 @@
         <v>49</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="19" t="s">
         <v>180</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -4950,16 +4950,16 @@
         <v>50</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
@@ -4967,16 +4967,16 @@
         <v>51</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="19" t="s">
         <v>186</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
@@ -4984,16 +4984,16 @@
         <v>52</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="19" t="s">
         <v>189</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
@@ -5001,16 +5001,16 @@
         <v>53</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="F61" s="19" t="s">
         <v>192</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
@@ -5018,16 +5018,16 @@
         <v>54</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
@@ -5035,16 +5035,16 @@
         <v>55</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="19" t="s">
         <v>198</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
@@ -5052,16 +5052,16 @@
         <v>56</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="19" t="s">
         <v>201</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
@@ -5069,16 +5069,16 @@
         <v>57</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="19" t="s">
         <v>204</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
@@ -5086,16 +5086,16 @@
         <v>58</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="19" t="s">
         <v>207</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5211,7 +5211,7 @@
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" s="23" t="str">
         <f>Summary!$K$2</f>
-        <v>Dropout/Abscondee</v>
+        <v>Dropout/Absconded</v>
       </c>
       <c r="D3" s="24">
         <f>COUNT($H$1:$H$100)</f>
@@ -5233,44 +5233,44 @@
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>493</v>
-      </c>
       <c r="H7" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>492</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -5278,31 +5278,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="29">
         <v>6394671596</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H8" s="35">
         <v>1</v>
       </c>
       <c r="I8" s="30" t="s">
+        <v>547</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="30" t="s">
+      <c r="L8" s="31" t="s">
         <v>549</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -5310,31 +5310,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="29">
         <v>8009311439</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H9" s="35">
         <v>2</v>
       </c>
       <c r="I9" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="30" t="s">
+      <c r="L9" s="31" t="s">
         <v>552</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -5342,31 +5342,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="29">
         <v>9468247375</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H10" s="35">
         <v>3</v>
       </c>
       <c r="I10" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>554</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="30" t="s">
+      <c r="L10" s="31" t="s">
         <v>555</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -5374,31 +5374,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="29">
         <v>9872512451</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H11" s="35">
         <v>4</v>
       </c>
       <c r="I11" s="30" t="s">
+        <v>556</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="30" t="s">
         <v>557</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="30" t="s">
+      <c r="L11" s="31" t="s">
         <v>558</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -5406,31 +5406,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="29">
         <v>9695676355</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H12" s="35">
         <v>5</v>
       </c>
       <c r="I12" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="30" t="s">
         <v>560</v>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="30" t="s">
+      <c r="L12" s="31" t="s">
         <v>561</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -5438,31 +5438,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="29">
         <v>8826679369</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H13" s="35">
         <v>6</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="30" t="s">
+        <v>562</v>
+      </c>
+      <c r="L13" s="31" t="s">
         <v>563</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -5470,31 +5470,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="29">
         <v>9368519717</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H14" s="35">
         <v>7</v>
       </c>
       <c r="I14" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>565</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="30" t="s">
+      <c r="L14" s="31" t="s">
         <v>566</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -5502,31 +5502,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="29">
         <v>8115712543</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H15" s="35">
         <v>8</v>
       </c>
       <c r="I15" s="30" t="s">
+        <v>567</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="30" t="s">
         <v>568</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="30" t="s">
+      <c r="L15" s="31" t="s">
         <v>569</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -5534,31 +5534,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="29">
         <v>8512097276</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H16" s="35">
         <v>9</v>
       </c>
       <c r="I16" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="30" t="s">
         <v>571</v>
       </c>
-      <c r="J16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="30" t="s">
+      <c r="L16" s="31" t="s">
         <v>572</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -5566,31 +5566,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="29">
         <v>8076728958</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H17" s="35">
         <v>10</v>
       </c>
       <c r="I17" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="30" t="s">
         <v>574</v>
       </c>
-      <c r="J17" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="30" t="s">
+      <c r="L17" s="31" t="s">
         <v>575</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -5598,31 +5598,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="29">
         <v>7669604203</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H18" s="35">
         <v>11</v>
       </c>
       <c r="I18" s="30" t="s">
+        <v>576</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="J18" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="30" t="s">
+      <c r="L18" s="31" t="s">
         <v>578</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -5630,31 +5630,31 @@
         <v>12</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="29">
         <v>8860817681</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H19" s="35">
         <v>12</v>
       </c>
       <c r="I19" s="30" t="s">
+        <v>579</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="J19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="30" t="s">
+      <c r="L19" s="31" t="s">
         <v>581</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -5662,31 +5662,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="29">
         <v>9015270530</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H20" s="35">
         <v>13</v>
       </c>
       <c r="I20" s="30" t="s">
+        <v>582</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="30" t="s">
         <v>583</v>
       </c>
-      <c r="J20" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="30" t="s">
+      <c r="L20" s="31" t="s">
         <v>584</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -5694,31 +5694,31 @@
         <v>14</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="29">
         <v>7827327267</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H21" s="35">
         <v>14</v>
       </c>
       <c r="I21" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="30" t="s">
         <v>586</v>
       </c>
-      <c r="J21" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="30" t="s">
+      <c r="L21" s="31" t="s">
         <v>587</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -5726,31 +5726,31 @@
         <v>15</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="29">
         <v>8800709136</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H22" s="35">
         <v>15</v>
       </c>
       <c r="I22" s="30" t="s">
+        <v>588</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="30" t="s">
+      <c r="L22" s="31" t="s">
         <v>590</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -5758,31 +5758,31 @@
         <v>16</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="29">
         <v>9971884734</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H23" s="35">
         <v>16</v>
       </c>
       <c r="I23" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="J23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" s="30" t="s">
+      <c r="L23" s="31" t="s">
         <v>593</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -5790,31 +5790,31 @@
         <v>17</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="29">
         <v>7988643977</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H24" s="35">
         <v>17</v>
       </c>
       <c r="I24" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="30" t="s">
         <v>595</v>
       </c>
-      <c r="J24" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K24" s="30" t="s">
+      <c r="L24" s="31" t="s">
         <v>596</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -5822,31 +5822,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="29">
         <v>9910920931</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H25" s="35">
         <v>18</v>
       </c>
       <c r="I25" s="30" t="s">
+        <v>597</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="J25" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="30" t="s">
+      <c r="L25" s="31" t="s">
         <v>599</v>
-      </c>
-      <c r="L25" s="31" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -5854,31 +5854,31 @@
         <v>19</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="29">
         <v>7073862831</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H26" s="35">
         <v>19</v>
       </c>
       <c r="I26" s="30" t="s">
+        <v>600</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="30" t="s">
         <v>601</v>
       </c>
-      <c r="J26" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K26" s="30" t="s">
+      <c r="L26" s="31" t="s">
         <v>602</v>
-      </c>
-      <c r="L26" s="31" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -5886,31 +5886,31 @@
         <v>20</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="29">
         <v>9810943877</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H27" s="35">
         <v>20</v>
       </c>
       <c r="I27" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="30" t="s">
         <v>604</v>
       </c>
-      <c r="J27" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K27" s="30" t="s">
+      <c r="L27" s="31" t="s">
         <v>605</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -5918,31 +5918,31 @@
         <v>21</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="29">
         <v>9582848409</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H28" s="35">
         <v>21</v>
       </c>
       <c r="I28" s="30" t="s">
+        <v>606</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="30" t="s">
         <v>607</v>
       </c>
-      <c r="J28" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="30" t="s">
+      <c r="L28" s="31" t="s">
         <v>608</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -5950,31 +5950,31 @@
         <v>22</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="29">
         <v>7065509255</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H29" s="35">
         <v>22</v>
       </c>
       <c r="I29" s="30" t="s">
+        <v>609</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="30" t="s">
         <v>610</v>
       </c>
-      <c r="J29" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="30" t="s">
+      <c r="L29" s="31" t="s">
         <v>611</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -5982,31 +5982,31 @@
         <v>23</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="29">
         <v>9897133664</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H30" s="35">
         <v>23</v>
       </c>
       <c r="I30" s="30" t="s">
+        <v>612</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="J30" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="K30" s="30" t="s">
+      <c r="L30" s="31" t="s">
         <v>614</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -6014,31 +6014,31 @@
         <v>24</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="29">
         <v>8218128166</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H31" s="35">
         <v>24</v>
       </c>
       <c r="I31" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="30" t="s">
         <v>616</v>
       </c>
-      <c r="J31" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K31" s="30" t="s">
+      <c r="L31" s="31" t="s">
         <v>617</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -6046,31 +6046,31 @@
         <v>25</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="29">
         <v>8512856779</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H32" s="35">
         <v>25</v>
       </c>
       <c r="I32" s="30" t="s">
+        <v>618</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="30" t="s">
         <v>619</v>
       </c>
-      <c r="J32" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K32" s="30" t="s">
+      <c r="L32" s="31" t="s">
         <v>620</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -6078,16 +6078,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E33" s="29">
         <v>9067472225</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -6095,16 +6095,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="29">
         <v>8604793053</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6212,7 +6212,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="23" t="str">
         <f>Summary!$K$2</f>
-        <v>Dropout/Abscondee</v>
+        <v>Dropout/Absconded</v>
       </c>
       <c r="D3" s="24">
         <f>COUNT($H$1:$H$100)</f>
@@ -6239,44 +6239,44 @@
     </row>
     <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>493</v>
-      </c>
       <c r="H7" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>492</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6284,31 +6284,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="27" t="s">
         <v>210</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>211</v>
       </c>
       <c r="H8" s="34">
         <v>1</v>
       </c>
       <c r="I8" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="29" t="s">
+      <c r="L8" s="27" t="s">
         <v>234</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6316,31 +6316,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="27" t="s">
         <v>213</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>214</v>
       </c>
       <c r="H9" s="34">
         <v>2</v>
       </c>
       <c r="I9" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="L9" s="27" t="s">
         <v>237</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6348,31 +6348,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="27" t="s">
         <v>216</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>217</v>
       </c>
       <c r="H10" s="34">
         <v>3</v>
       </c>
       <c r="I10" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="J10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="29" t="s">
+      <c r="L10" s="27" t="s">
         <v>240</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6380,31 +6380,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="27" t="s">
         <v>219</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>220</v>
       </c>
       <c r="H11" s="34">
         <v>4</v>
       </c>
       <c r="I11" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="29" t="s">
         <v>242</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="29" t="s">
+      <c r="L11" s="27" t="s">
         <v>243</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6412,16 +6412,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="27" t="s">
         <v>222</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6429,16 +6429,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="F13" s="27" t="s">
         <v>225</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6446,16 +6446,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="F14" s="27" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6463,16 +6463,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="F15" s="27" t="s">
         <v>231</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6541,7 +6541,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="23" t="str">
         <f>Summary!$K$2</f>
-        <v>Dropout/Abscondee</v>
+        <v>Dropout/Absconded</v>
       </c>
       <c r="D3" s="24">
         <f>COUNT($H$1:$H$100)</f>
@@ -6568,44 +6568,44 @@
     </row>
     <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>493</v>
-      </c>
       <c r="H7" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>492</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -6613,31 +6613,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>247</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="19" t="s">
         <v>462</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -6645,31 +6645,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>250</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="19" t="s">
         <v>465</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -6677,31 +6677,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="19" t="s">
         <v>252</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>253</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="19" t="s">
         <v>468</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -6709,31 +6709,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="19" t="s">
         <v>471</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -6741,31 +6741,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="19" t="s">
         <v>258</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>259</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="19" t="s">
         <v>474</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -6773,31 +6773,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="19" t="s">
         <v>261</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="19" t="s">
         <v>477</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -6805,31 +6805,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>265</v>
       </c>
       <c r="H14" s="3">
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="19" t="s">
         <v>480</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -6837,31 +6837,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="19" t="s">
         <v>267</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="19" t="s">
         <v>483</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -6869,31 +6869,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="19" t="s">
         <v>270</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>271</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="19" t="s">
         <v>486</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -6901,31 +6901,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="19" t="s">
         <v>273</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="19" t="s">
         <v>489</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -6933,16 +6933,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="19" t="s">
         <v>276</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -6950,16 +6950,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="19" t="s">
         <v>279</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -6967,16 +6967,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="19" t="s">
         <v>282</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -6984,16 +6984,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="19" t="s">
         <v>285</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -7001,16 +7001,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="19" t="s">
         <v>288</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -7018,16 +7018,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="19" t="s">
         <v>291</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -7035,16 +7035,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -7052,16 +7052,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="19" t="s">
         <v>297</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -7069,16 +7069,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="19" t="s">
         <v>300</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -7086,16 +7086,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="19" t="s">
         <v>303</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -7103,16 +7103,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="19" t="s">
         <v>306</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -7120,16 +7120,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="19" t="s">
         <v>309</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -7137,16 +7137,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="19" t="s">
         <v>312</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -7154,16 +7154,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="19" t="s">
         <v>315</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -7171,16 +7171,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="19" t="s">
         <v>318</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -7188,16 +7188,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="19" t="s">
         <v>321</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -7205,16 +7205,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="19" t="s">
         <v>324</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -7222,16 +7222,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="19" t="s">
         <v>327</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -7239,16 +7239,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="19" t="s">
         <v>330</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -7256,16 +7256,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="19" t="s">
         <v>333</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -7273,16 +7273,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="19" t="s">
         <v>336</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -7290,16 +7290,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="19" t="s">
         <v>339</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -7307,16 +7307,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="19" t="s">
         <v>342</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -7324,16 +7324,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="19" t="s">
         <v>345</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -7341,16 +7341,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="19" t="s">
         <v>348</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -7358,16 +7358,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="19" t="s">
         <v>351</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -7375,16 +7375,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="19" t="s">
         <v>354</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -7392,16 +7392,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -7409,16 +7409,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="19" t="s">
         <v>360</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -7426,16 +7426,16 @@
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="19" t="s">
         <v>363</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -7443,16 +7443,16 @@
         <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="19" t="s">
         <v>366</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -7460,16 +7460,16 @@
         <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -7477,16 +7477,16 @@
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="19" t="s">
         <v>372</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -7494,16 +7494,16 @@
         <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="19" t="s">
         <v>375</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -7511,16 +7511,16 @@
         <v>45</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="19" t="s">
         <v>378</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -7528,16 +7528,16 @@
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -7545,16 +7545,16 @@
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="19" t="s">
         <v>384</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -7562,16 +7562,16 @@
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="19" t="s">
         <v>387</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -7579,16 +7579,16 @@
         <v>49</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="19" t="s">
         <v>390</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -7596,16 +7596,16 @@
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="19" t="s">
         <v>393</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -7613,16 +7613,16 @@
         <v>51</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="19" t="s">
         <v>396</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -7630,16 +7630,16 @@
         <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="19" t="s">
         <v>399</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -7647,16 +7647,16 @@
         <v>53</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="19" t="s">
         <v>402</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -7664,16 +7664,16 @@
         <v>54</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="F61" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -7681,16 +7681,16 @@
         <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="19" t="s">
         <v>408</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -7698,16 +7698,16 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="19" t="s">
         <v>411</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -7715,16 +7715,16 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="19" t="s">
         <v>414</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -7732,16 +7732,16 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="19" t="s">
         <v>417</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -7749,16 +7749,16 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="19" t="s">
         <v>420</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -7766,16 +7766,16 @@
         <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="19" t="s">
         <v>423</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -7783,16 +7783,16 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="19" t="s">
         <v>426</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -7800,16 +7800,16 @@
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="19" t="s">
         <v>429</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -7817,16 +7817,16 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="5" t="s">
+      <c r="F70" s="19" t="s">
         <v>432</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -7834,16 +7834,16 @@
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="19" t="s">
         <v>435</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -7851,16 +7851,16 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="19" t="s">
         <v>438</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -7868,16 +7868,16 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="19" t="s">
         <v>441</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -7885,16 +7885,16 @@
         <v>67</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="19" t="s">
         <v>444</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -7902,16 +7902,16 @@
         <v>68</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="19" t="s">
         <v>447</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -7919,16 +7919,16 @@
         <v>69</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="19" t="s">
         <v>450</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -7936,16 +7936,16 @@
         <v>70</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="19" t="s">
         <v>453</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -7953,16 +7953,16 @@
         <v>71</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E78" s="5" t="s">
+      <c r="F78" s="19" t="s">
         <v>456</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -7970,16 +7970,16 @@
         <v>72</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E79" s="5" t="s">
+      <c r="F79" s="19" t="s">
         <v>459</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -8118,7 +8118,7 @@
       <c r="B3" s="33"/>
       <c r="C3" s="23" t="str">
         <f>Summary!$K$2</f>
-        <v>Dropout/Abscondee</v>
+        <v>Dropout/Absconded</v>
       </c>
       <c r="D3" s="24">
         <f>COUNT($H$1:$H$100)</f>
@@ -8145,44 +8145,44 @@
     </row>
     <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>493</v>
-      </c>
       <c r="H7" s="32" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>492</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -8190,31 +8190,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5">
         <v>7558289080</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="19" t="s">
         <v>701</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -8222,31 +8222,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="5">
         <v>7387213425</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="19" t="s">
         <v>704</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -8254,31 +8254,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5">
         <v>9833446728</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="K10" s="5">
         <v>9422115479</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -8286,31 +8286,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="5">
         <v>9763563987</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="19" t="s">
         <v>710</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -8318,16 +8318,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5">
         <v>7066705430</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -8335,16 +8335,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="5">
         <v>8237496955</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -8352,16 +8352,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="5">
         <v>9049796915</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -8369,16 +8369,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5">
         <v>9987648115</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -8386,16 +8386,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5">
         <v>9820958424</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -8403,16 +8403,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="5">
         <v>7887669198</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -8420,16 +8420,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="5">
         <v>7666038604</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -8437,16 +8437,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5">
         <v>7303752979</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -8454,16 +8454,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="5">
         <v>8857819155</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -8471,16 +8471,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="5">
         <v>8825054152</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -8488,16 +8488,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="5">
         <v>9765914865</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -8505,16 +8505,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="5">
         <v>7710859052</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -8522,16 +8522,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" s="5">
         <v>8857863105</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -8539,16 +8539,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="5">
         <v>9423561361</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -8556,16 +8556,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="5">
         <v>8424956867</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -8573,16 +8573,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="5">
         <v>8390700404</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -8590,16 +8590,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="5">
         <v>8421163930</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -8607,16 +8607,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="5">
         <v>7083906951</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -8624,16 +8624,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="5">
         <v>8689929864</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -8641,16 +8641,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="5">
         <v>7362933380</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -8658,16 +8658,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="5">
         <v>7218583912</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -8675,16 +8675,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="5">
         <v>8978213151</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -8692,16 +8692,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E34" s="5">
         <v>9326855136</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -8709,16 +8709,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="5">
         <v>9172029365</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -8726,16 +8726,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="5">
         <v>7743949634</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -8743,16 +8743,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="5">
         <v>8624039380</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -8760,16 +8760,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="5">
         <v>7218454570</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -8777,16 +8777,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" s="5">
         <v>9359467647</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -8794,16 +8794,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" s="5">
         <v>8691942385</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -8811,16 +8811,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" s="5">
         <v>8850419292</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -8828,16 +8828,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" s="5">
         <v>9621029028</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -8845,16 +8845,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43" s="5">
         <v>7066020092</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -8862,16 +8862,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E44" s="5">
         <v>8349830798</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -8879,16 +8879,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45" s="5">
         <v>7225848488</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -8896,16 +8896,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" s="5">
         <v>7719862298</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="August Batch Candidates" sheetId="5" r:id="rId3"/>
-    <sheet name="Noida Batch Candidates" sheetId="6" r:id="rId4"/>
-    <sheet name="Bhuvaneswar Batch Candidates" sheetId="7" r:id="rId5"/>
-    <sheet name="Bangalore Batch Candidates" sheetId="8" r:id="rId6"/>
-    <sheet name="Pune-Mumbai Batch Candidates" sheetId="9" r:id="rId7"/>
+    <sheet name="MPT-MTT-ParallelProject-PLP" sheetId="10" r:id="rId3"/>
+    <sheet name="August Batch Candidates" sheetId="5" r:id="rId4"/>
+    <sheet name="Noida Batch Candidates" sheetId="6" r:id="rId5"/>
+    <sheet name="Bhuvaneswar Batch Candidates" sheetId="7" r:id="rId6"/>
+    <sheet name="Bangalore Batch Candidates" sheetId="8" r:id="rId7"/>
+    <sheet name="Pune-Mumbai Batch Candidates" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="779">
   <si>
     <t>Batch Name</t>
   </si>
@@ -40,9 +41,6 @@
     <t>Current Batch Size</t>
   </si>
   <si>
-    <t>Batch Mentor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Java </t>
   </si>
   <si>
@@ -73,9 +71,6 @@
     <t xml:space="preserve">Veena / Nitish 24th September </t>
   </si>
   <si>
-    <t>Core Java and SQL is going on</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -2236,18 +2231,12 @@
     <t xml:space="preserve">                                                                       </t>
   </si>
   <si>
-    <t>BDD is in-progress</t>
-  </si>
-  <si>
     <t>L1 Re-test Date</t>
   </si>
   <si>
     <t>L1 Date</t>
   </si>
   <si>
-    <t>TY Mentor Details</t>
-  </si>
-  <si>
     <t>TY Mentor Contact Number</t>
   </si>
   <si>
@@ -2261,6 +2250,119 @@
   </si>
   <si>
     <t>Dropout/Absconded</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>MTT</t>
+  </si>
+  <si>
+    <t>MPT</t>
+  </si>
+  <si>
+    <t>Module 2</t>
+  </si>
+  <si>
+    <t>CG Mentor</t>
+  </si>
+  <si>
+    <t>TY Mentor</t>
+  </si>
+  <si>
+    <t>Test Conducted-Results to be Shared</t>
+  </si>
+  <si>
+    <t>Module 3</t>
+  </si>
+  <si>
+    <t>Module 4</t>
+  </si>
+  <si>
+    <t>Parallel Project</t>
+  </si>
+  <si>
+    <t>PLP Project</t>
+  </si>
+  <si>
+    <t>Shared-Review Pending</t>
+  </si>
+  <si>
+    <t>Test Conducted-Results Shared</t>
+  </si>
+  <si>
+    <t>To be Shared</t>
+  </si>
+  <si>
+    <t>Reviewed-Project Going On</t>
+  </si>
+  <si>
+    <t>Reviewed-Ready for Test</t>
+  </si>
+  <si>
+    <t>Parallel Project Name</t>
+  </si>
+  <si>
+    <t>PLP Project Name</t>
+  </si>
+  <si>
+    <t>Bus Scheduling and Booking System</t>
+  </si>
+  <si>
+    <t>Library Management System</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Bharathi reviewed M1, M2 &amp; M3 papers &amp; results
+Bharathi reviewed Parallel Project
+Mohammed reviewed M4 &amp; PLP papers</t>
+  </si>
+  <si>
+    <t>University Admission System</t>
+  </si>
+  <si>
+    <t>Asset Management System</t>
+  </si>
+  <si>
+    <t>Survey Management System</t>
+  </si>
+  <si>
+    <t>Feedback Management System</t>
+  </si>
+  <si>
+    <t>Banking System</t>
+  </si>
+  <si>
+    <t>Airline Reservation System</t>
+  </si>
+  <si>
+    <t>Online medical Booking Store Project</t>
+  </si>
+  <si>
+    <t>Hotel Bookings Management System</t>
+  </si>
+  <si>
+    <t>Git Repository URL where we can find all the documents related to HTD</t>
+  </si>
+  <si>
+    <t>https://github.com/Praveen-TestYantra/JSpiders-CG-HTDProgram</t>
+  </si>
+  <si>
+    <t>Varsha has reviewd M1 MTT &amp; MPT on Thrusday 17th Oct 2019</t>
+  </si>
+  <si>
+    <t>BDD is Completed
+Module 4 Test Conducted</t>
+  </si>
+  <si>
+    <t>Core Java, SQL and JDBC Completed
+Module 1 Test Conducted</t>
+  </si>
+  <si>
+    <t>Core Java is going on
+SQL Completed</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2465,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2424,8 +2526,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2470,13 +2584,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2515,12 +2836,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2577,12 +2892,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2598,8 +2907,113 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2607,8 +3021,626 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3355,127 +4387,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="17" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="2.85546875" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="37" t="s">
-        <v>737</v>
-      </c>
-      <c r="E3"/>
+      <c r="D3" s="39" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="37"/>
-      <c r="E4"/>
+      <c r="D4" s="39"/>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="37"/>
-      <c r="E5"/>
+      <c r="D5" s="39"/>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="37"/>
-      <c r="E6"/>
+      <c r="D6" s="39"/>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="37"/>
-      <c r="E7"/>
+      <c r="D7" s="39"/>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="37"/>
-      <c r="E8"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="37"/>
-      <c r="E9"/>
+      <c r="D9" s="39"/>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="37"/>
-      <c r="E10"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="37"/>
-      <c r="E11"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="37"/>
-      <c r="E12"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="37"/>
-      <c r="E13"/>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="37"/>
-      <c r="E15"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="37"/>
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="37"/>
-      <c r="E17"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="37"/>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="37"/>
-      <c r="E19"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="37"/>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="37"/>
-      <c r="E21"/>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="37"/>
-      <c r="E22"/>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="37"/>
-      <c r="E23"/>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="37"/>
-      <c r="E24"/>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D25" s="37"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D26" s="37"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" s="37"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" s="37"/>
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D29" s="37"/>
-      <c r="E29"/>
+      <c r="D16" s="39"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="39"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="39"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="39"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="39"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="39"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="39"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="39"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="39"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="39"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" s="39"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="39"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3539,10 +4541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R9"/>
+  <dimension ref="B2:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -3562,22 +4564,21 @@
     <col min="10" max="10" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -3592,54 +4593,54 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>6</v>
+        <v>747</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="P2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="G3" s="9">
         <v>43678</v>
@@ -3650,50 +4651,50 @@
       <c r="I3" s="9">
         <v>43781</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="37">
         <f>'August Batch Candidates'!D2</f>
         <v>65</v>
       </c>
-      <c r="K3" s="39">
+      <c r="K3" s="35">
         <f>'August Batch Candidates'!D3</f>
         <v>7</v>
       </c>
-      <c r="L3" s="38">
+      <c r="L3" s="34">
         <f>'August Batch Candidates'!D4</f>
         <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" s="5">
         <v>9448246364</v>
       </c>
-      <c r="P3" s="14" t="s">
-        <v>738</v>
+      <c r="P3" s="73" t="s">
+        <v>776</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="16"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" s="9">
         <v>43726</v>
@@ -3704,50 +4705,50 @@
       <c r="I4" s="9">
         <v>43819</v>
       </c>
-      <c r="J4" s="42">
+      <c r="J4" s="38">
         <f>'Noida Batch Candidates'!D2</f>
         <v>52</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="36">
         <f>'Noida Batch Candidates'!D3</f>
         <v>25</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="34">
         <f>'Noida Batch Candidates'!D4</f>
         <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="O4" s="3">
         <v>8377841525</v>
       </c>
-      <c r="P4" s="15" t="s">
-        <v>17</v>
+      <c r="P4" s="74" t="s">
+        <v>777</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="9">
         <v>43731</v>
@@ -3758,50 +4759,50 @@
       <c r="I5" s="9">
         <v>43819</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="38">
         <f>'Bhuvaneswar Batch Candidates'!D2</f>
         <v>12</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="36">
         <f>'Bhuvaneswar Batch Candidates'!D3</f>
         <v>4</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="34">
         <f>'Bhuvaneswar Batch Candidates'!D4</f>
         <v>8</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="O5" s="3">
         <v>8073098283</v>
       </c>
-      <c r="P5" s="15" t="s">
-        <v>17</v>
+      <c r="P5" s="74" t="s">
+        <v>777</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="9">
         <v>43731</v>
@@ -3812,50 +4813,50 @@
       <c r="I6" s="9">
         <v>43819</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="38">
         <f>'Bangalore Batch Candidates'!D2</f>
         <v>82</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="36">
         <f>'Bangalore Batch Candidates'!D3</f>
         <v>10</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="34">
         <f>'Bangalore Batch Candidates'!D4</f>
         <v>72</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="O6" s="3">
         <v>8762928822</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>17</v>
+      <c r="P6" s="74" t="s">
+        <v>777</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="9">
         <v>43738</v>
@@ -3866,36 +4867,36 @@
       <c r="I7" s="9">
         <v>43843</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="38">
         <f>'Pune-Mumbai Batch Candidates'!D2</f>
         <v>43</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="36">
         <f>'Pune-Mumbai Batch Candidates'!D3</f>
         <v>4</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="34">
         <f>'Pune-Mumbai Batch Candidates'!D4</f>
         <v>39</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="O7" s="3">
         <v>9897145195</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>17</v>
+      <c r="P7" s="74" t="s">
+        <v>778</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3906,105 +4907,640 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="40" customWidth="1"/>
+    <col min="6" max="7" width="45.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="39" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="45.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="42.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B2" s="68" t="s">
+        <v>773</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69" t="s">
+        <v>774</v>
+      </c>
+      <c r="G2" s="69"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="51" t="str">
+        <f>Summary!$D$2</f>
+        <v>Batch Name</v>
+      </c>
+      <c r="D4" s="63" t="str">
+        <f>Summary!H2</f>
+        <v>L1 Date</v>
+      </c>
+      <c r="E4" s="51" t="str">
+        <f>Summary!$M$2</f>
+        <v>CG Mentor</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>743</v>
+      </c>
+      <c r="G4" s="54"/>
+      <c r="H4" s="53" t="s">
+        <v>746</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="53" t="s">
+        <v>750</v>
+      </c>
+      <c r="K4" s="54"/>
+      <c r="L4" s="53" t="s">
+        <v>751</v>
+      </c>
+      <c r="M4" s="54"/>
+      <c r="N4" s="51" t="s">
+        <v>752</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>753</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>759</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>760</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>745</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>745</v>
+      </c>
+      <c r="J5" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>745</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="M5" s="50" t="s">
+        <v>745</v>
+      </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+    </row>
+    <row r="6" spans="2:18" ht="60" x14ac:dyDescent="0.2">
+      <c r="B6" s="45">
+        <f>Summary!B3</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="42" t="str">
+        <f>Summary!D3</f>
+        <v>August Batch</v>
+      </c>
+      <c r="D6" s="65">
+        <f>Summary!H3</f>
+        <v>43774</v>
+      </c>
+      <c r="E6" s="42" t="str">
+        <f>Summary!M3</f>
+        <v xml:space="preserve">Mohammed </v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>755</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>755</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>755</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>755</v>
+      </c>
+      <c r="J6" s="41" t="s">
+        <v>755</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>755</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>757</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>758</v>
+      </c>
+      <c r="P6" s="60" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q6" s="60" t="s">
+        <v>762</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="46">
+        <f>Summary!B4</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="43" t="str">
+        <f>Summary!D4</f>
+        <v>Noida Batch</v>
+      </c>
+      <c r="D7" s="65">
+        <f>Summary!H4</f>
+        <v>43811</v>
+      </c>
+      <c r="E7" s="43" t="str">
+        <f>Summary!M4</f>
+        <v xml:space="preserve">Mohammed </v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="J7" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="P7" s="60" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q7" s="60" t="s">
+        <v>770</v>
+      </c>
+      <c r="R7" s="70" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="46">
+        <f>Summary!B5</f>
+        <v>3</v>
+      </c>
+      <c r="C8" s="43" t="str">
+        <f>Summary!D5</f>
+        <v>Bhuvaneswar Batch</v>
+      </c>
+      <c r="D8" s="65">
+        <f>Summary!H5</f>
+        <v>43811</v>
+      </c>
+      <c r="E8" s="43" t="str">
+        <f>Summary!M5</f>
+        <v>Sudheer</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="J8" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="N8" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="O8" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="P8" s="60" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q8" s="60" t="s">
+        <v>767</v>
+      </c>
+      <c r="R8" s="71"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="46">
+        <f>Summary!B6</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="43" t="str">
+        <f>Summary!D6</f>
+        <v>Bangalore Batch</v>
+      </c>
+      <c r="D9" s="65">
+        <f>Summary!H6</f>
+        <v>43811</v>
+      </c>
+      <c r="E9" s="43" t="str">
+        <f>Summary!M6</f>
+        <v>Varsha</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>749</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="N9" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="O9" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="P9" s="60" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q9" s="60" t="s">
+        <v>768</v>
+      </c>
+      <c r="R9" s="72"/>
+    </row>
+    <row r="10" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="47">
+        <f>Summary!B7</f>
+        <v>5</v>
+      </c>
+      <c r="C10" s="44" t="str">
+        <f>Summary!D7</f>
+        <v>Pune-Mumbai Batch</v>
+      </c>
+      <c r="D10" s="66">
+        <f>Summary!H7</f>
+        <v>43836</v>
+      </c>
+      <c r="E10" s="44" t="str">
+        <f>Summary!M7</f>
+        <v>Sudheer</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>756</v>
+      </c>
+      <c r="N10" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="O10" s="41" t="s">
+        <v>754</v>
+      </c>
+      <c r="P10" s="60" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q10" s="60" t="s">
+        <v>772</v>
+      </c>
+      <c r="R10" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S3:Y102 A3:O4 A5:C5 E5:O5 A6:O102">
+    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Reviewed-Ready for Test">
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Reviewed-Project Going On">
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="To be Shared">
+      <formula>NOT(ISERROR(SEARCH("To be Shared",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Test Conducted-Results to be Shared">
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Shared-Review Pending">
+      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",A3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Test Conducted-Results Shared">
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",A3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:Q5 P11:Q102">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Reviewed-Ready for Test">
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",P3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Reviewed-Project Going On">
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",P3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="To be Shared">
+      <formula>NOT(ISERROR(SEARCH("To be Shared",P3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Test Conducted-Results to be Shared">
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",P3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Shared-Review Pending">
+      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",P3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Test Conducted-Results Shared">
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",P3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:Q10">
+    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Reviewed-Ready for Test">
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",P6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Reviewed-Project Going On">
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",P6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="To be Shared">
+      <formula>NOT(ISERROR(SEARCH("To be Shared",P6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Test Conducted-Results to be Shared">
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",P6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Shared-Review Pending">
+      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",P6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Test Conducted-Results Shared">
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",P6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:R5 R11:R102">
+    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Reviewed-Ready for Test">
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",R3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Reviewed-Project Going On">
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",R3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="To be Shared">
+      <formula>NOT(ISERROR(SEARCH("To be Shared",R3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Test Conducted-Results to be Shared">
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",R3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Shared-Review Pending">
+      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",R3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Test Conducted-Results Shared">
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",R3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R7 R10">
+    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Reviewed-Ready for Test">
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",R6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Reviewed-Project Going On">
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",R6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="To be Shared">
+      <formula>NOT(ISERROR(SEARCH("To be Shared",R6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Test Conducted-Results to be Shared">
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",R6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Shared-Review Pending">
+      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",R6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Test Conducted-Results Shared">
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",R6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:O10">
+      <formula1>"NA,To be Shared,Shared-Review Pending,Review In-progress,Reviewed-Ready for Test,Reviewed-Project Going On,Project Done &amp; to be Evaluated,Project Evaluated,Test Conducted-Results to be Shared,Test Conducted-Results Shared"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="18"/>
-    <col min="8" max="8" width="4.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="3.140625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="16"/>
+    <col min="8" max="8" width="4.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C2" s="23" t="str">
+      <c r="C2" s="21" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <f>$D$4+$D$3</f>
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="21" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <f>COUNT($H$1:$H$100)</f>
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="23" t="str">
+      <c r="C4" s="21" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f>COUNT($B$1:$B$100)</f>
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="43" t="s">
-        <v>711</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="H7" s="43" t="s">
-        <v>735</v>
-      </c>
-      <c r="I7" s="43"/>
+      <c r="B7" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="H7" s="55" t="s">
+        <v>733</v>
+      </c>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="21" t="s">
+      <c r="H8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="L8" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -4012,31 +5548,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="17" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>714</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -4044,31 +5580,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>717</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -4076,31 +5612,31 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="L11" s="17" t="s">
         <v>720</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -4108,31 +5644,31 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>723</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -4140,31 +5676,31 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="L13" s="17" t="s">
         <v>726</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -4172,31 +5708,31 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="H14" s="3">
         <v>6</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="L14" s="17" t="s">
         <v>729</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -4204,31 +5740,31 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="H15" s="3">
         <v>7</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>732</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -4236,16 +5772,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -4253,16 +5789,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -4270,16 +5806,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4287,16 +5823,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -4304,16 +5840,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -4321,16 +5857,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -4338,16 +5874,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -4355,16 +5891,16 @@
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>76</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -4372,16 +5908,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -4389,16 +5925,16 @@
         <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -4406,16 +5942,16 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -4423,16 +5959,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -4440,16 +5976,16 @@
         <v>20</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -4457,16 +5993,16 @@
         <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -4474,16 +6010,16 @@
         <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>97</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -4491,16 +6027,16 @@
         <v>23</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -4508,16 +6044,16 @@
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -4525,16 +6061,16 @@
         <v>25</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>106</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -4542,16 +6078,16 @@
         <v>26</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -4559,16 +6095,16 @@
         <v>27</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -4576,16 +6112,16 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -4593,16 +6129,16 @@
         <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -4610,16 +6146,16 @@
         <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -4627,16 +6163,16 @@
         <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -4644,16 +6180,16 @@
         <v>32</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -4661,16 +6197,16 @@
         <v>33</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>130</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -4678,16 +6214,16 @@
         <v>34</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -4695,16 +6231,16 @@
         <v>35</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -4712,16 +6248,16 @@
         <v>36</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -4729,16 +6265,16 @@
         <v>37</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -4746,16 +6282,16 @@
         <v>38</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F46" s="17" t="s">
         <v>145</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
@@ -4763,16 +6299,16 @@
         <v>39</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -4780,16 +6316,16 @@
         <v>40</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -4797,16 +6333,16 @@
         <v>41</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -4814,16 +6350,16 @@
         <v>42</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -4831,16 +6367,16 @@
         <v>43</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
@@ -4848,16 +6384,16 @@
         <v>44</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -4865,16 +6401,16 @@
         <v>45</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
@@ -4882,16 +6418,16 @@
         <v>46</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
@@ -4899,16 +6435,16 @@
         <v>47</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -4916,16 +6452,16 @@
         <v>48</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -4933,16 +6469,16 @@
         <v>49</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="17" t="s">
         <v>178</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -4950,16 +6486,16 @@
         <v>50</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
@@ -4967,16 +6503,16 @@
         <v>51</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
@@ -4984,16 +6520,16 @@
         <v>52</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
@@ -5001,16 +6537,16 @@
         <v>53</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F61" s="17" t="s">
         <v>190</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
@@ -5018,16 +6554,16 @@
         <v>54</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
@@ -5035,16 +6571,16 @@
         <v>55</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F63" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
@@ -5052,16 +6588,16 @@
         <v>56</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F64" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
@@ -5069,16 +6605,16 @@
         <v>57</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
@@ -5086,16 +6622,16 @@
         <v>58</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F66" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5175,7 +6711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L34"/>
   <sheetViews>
@@ -5183,928 +6719,928 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="26"/>
-    <col min="8" max="8" width="5.140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="3.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="24"/>
+    <col min="8" max="8" width="5.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C2" s="23" t="str">
+      <c r="C2" s="21" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <f>$D$4+$D$3</f>
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="23" t="str">
+      <c r="C3" s="21" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <f>COUNT($H$1:$H$100)</f>
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="23" t="str">
+      <c r="C4" s="21" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f>COUNT($B$1:$B$100)</f>
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D5" s="25"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="H6" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>713</v>
-      </c>
-      <c r="I6" s="43"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="H7" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="32">
+        <v>1</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="D8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="27">
+        <v>6394671596</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="34">
+      <c r="H8" s="33">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="I8" s="28" t="s">
+        <v>545</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>546</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="32">
+        <v>2</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="29">
-        <v>6394671596</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="D9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="27">
+        <v>8009311439</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="H8" s="35">
-        <v>1</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>547</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="30" t="s">
+      <c r="H9" s="33">
+        <v>2</v>
+      </c>
+      <c r="I9" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="J9" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="28" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="34">
-        <v>2</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="L9" s="29" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="32">
+        <v>3</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="29">
-        <v>8009311439</v>
-      </c>
-      <c r="F9" s="27" t="s">
+      <c r="D10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="27">
+        <v>9468247375</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="H9" s="35">
-        <v>2</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>550</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="30" t="s">
+      <c r="H10" s="33">
+        <v>3</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="J10" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="28" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="34">
-        <v>3</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="L10" s="29" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="32">
+        <v>4</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="29">
-        <v>9468247375</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="D11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="27">
+        <v>9872512451</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="H10" s="35">
-        <v>3</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>553</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="30" t="s">
+      <c r="H11" s="33">
+        <v>4</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="L10" s="31" t="s">
+      <c r="J11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="28" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="34">
-        <v>4</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="L11" s="29" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="32">
+        <v>5</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="29">
-        <v>9872512451</v>
-      </c>
-      <c r="F11" s="27" t="s">
+      <c r="D12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="27">
+        <v>9695676355</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="H11" s="35">
-        <v>4</v>
-      </c>
-      <c r="I11" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="30" t="s">
+      <c r="H12" s="33">
+        <v>5</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="J12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="28" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="34">
-        <v>5</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="L12" s="29" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="32">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="29">
-        <v>9695676355</v>
-      </c>
-      <c r="F12" s="27" t="s">
+      <c r="D13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="27">
+        <v>8826679369</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="H12" s="35">
-        <v>5</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="30" t="s">
+      <c r="H13" s="33">
+        <v>6</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L13" s="29" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="34">
-        <v>6</v>
-      </c>
-      <c r="C13" s="27" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="32">
+        <v>7</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="29">
-        <v>8826679369</v>
-      </c>
-      <c r="F13" s="27" t="s">
+      <c r="D14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="27">
+        <v>9368519717</v>
+      </c>
+      <c r="F14" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="H13" s="35">
-        <v>6</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="30" t="s">
+      <c r="H14" s="33">
+        <v>7</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="J14" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="28" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="34">
-        <v>7</v>
-      </c>
-      <c r="C14" s="27" t="s">
+      <c r="L14" s="29" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="32">
+        <v>8</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="29">
-        <v>9368519717</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="D15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="27">
+        <v>8115712543</v>
+      </c>
+      <c r="F15" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="H14" s="35">
-        <v>7</v>
-      </c>
-      <c r="I14" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="30" t="s">
+      <c r="H15" s="33">
+        <v>8</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="L14" s="31" t="s">
+      <c r="J15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="28" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="34">
-        <v>8</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="L15" s="29" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="32">
+        <v>9</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="29">
-        <v>8115712543</v>
-      </c>
-      <c r="F15" s="27" t="s">
+      <c r="D16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="27">
+        <v>8512097276</v>
+      </c>
+      <c r="F16" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="H15" s="35">
-        <v>8</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="J15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="30" t="s">
+      <c r="H16" s="33">
+        <v>9</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="J16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K16" s="28" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="34">
-        <v>9</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="L16" s="29" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="32">
+        <v>10</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>509</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="29">
-        <v>8512097276</v>
-      </c>
-      <c r="F16" s="27" t="s">
+      <c r="D17" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="27">
+        <v>8076728958</v>
+      </c>
+      <c r="F17" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="H16" s="35">
-        <v>9</v>
-      </c>
-      <c r="I16" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="30" t="s">
+      <c r="H17" s="33">
+        <v>10</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="J17" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" s="28" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="34">
-        <v>10</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="L17" s="29" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="32">
+        <v>11</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>511</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="29">
-        <v>8076728958</v>
-      </c>
-      <c r="F17" s="27" t="s">
+      <c r="D18" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="27">
+        <v>7669604203</v>
+      </c>
+      <c r="F18" s="25" t="s">
         <v>512</v>
       </c>
-      <c r="H17" s="35">
-        <v>10</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="30" t="s">
+      <c r="H18" s="33">
+        <v>11</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="J18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="28" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="34">
-        <v>11</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="L18" s="29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="32">
+        <v>12</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="29">
-        <v>7669604203</v>
-      </c>
-      <c r="F18" s="27" t="s">
+      <c r="D19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="27">
+        <v>8860817681</v>
+      </c>
+      <c r="F19" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="H18" s="35">
-        <v>11</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>576</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="30" t="s">
+      <c r="H19" s="33">
+        <v>12</v>
+      </c>
+      <c r="I19" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="J19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="28" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="34">
-        <v>12</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="L19" s="29" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="32">
+        <v>13</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="29">
-        <v>8860817681</v>
-      </c>
-      <c r="F19" s="27" t="s">
+      <c r="D20" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="27">
+        <v>9015270530</v>
+      </c>
+      <c r="F20" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="H19" s="35">
-        <v>12</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>579</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="30" t="s">
+      <c r="H20" s="33">
+        <v>13</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="L19" s="31" t="s">
+      <c r="J20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="28" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="34">
-        <v>13</v>
-      </c>
-      <c r="C20" s="27" t="s">
+      <c r="L20" s="29" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="32">
+        <v>14</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="29">
-        <v>9015270530</v>
-      </c>
-      <c r="F20" s="27" t="s">
+      <c r="D21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="27">
+        <v>7827327267</v>
+      </c>
+      <c r="F21" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="H20" s="35">
-        <v>13</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>582</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="30" t="s">
+      <c r="H21" s="33">
+        <v>14</v>
+      </c>
+      <c r="I21" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="J21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="34">
-        <v>14</v>
-      </c>
-      <c r="C21" s="27" t="s">
+      <c r="L21" s="29" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="32">
+        <v>15</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="29">
-        <v>7827327267</v>
-      </c>
-      <c r="F21" s="27" t="s">
+      <c r="D22" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="27">
+        <v>8800709136</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="H21" s="35">
-        <v>14</v>
-      </c>
-      <c r="I21" s="30" t="s">
-        <v>585</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="30" t="s">
+      <c r="H22" s="33">
+        <v>15</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="J22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K22" s="28" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="34">
-        <v>15</v>
-      </c>
-      <c r="C22" s="27" t="s">
+      <c r="L22" s="29" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="32">
+        <v>16</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="29">
-        <v>8800709136</v>
-      </c>
-      <c r="F22" s="27" t="s">
+      <c r="D23" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="27">
+        <v>9971884734</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="H22" s="35">
-        <v>15</v>
-      </c>
-      <c r="I22" s="30" t="s">
-        <v>588</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="30" t="s">
+      <c r="H23" s="33">
+        <v>16</v>
+      </c>
+      <c r="I23" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="L22" s="31" t="s">
+      <c r="J23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="28" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="34">
-        <v>16</v>
-      </c>
-      <c r="C23" s="27" t="s">
+      <c r="L23" s="29" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="32">
+        <v>17</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="29">
-        <v>9971884734</v>
-      </c>
-      <c r="F23" s="27" t="s">
+      <c r="D24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="27">
+        <v>7988643977</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>524</v>
       </c>
-      <c r="H23" s="35">
-        <v>16</v>
-      </c>
-      <c r="I23" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="30" t="s">
+      <c r="H24" s="33">
+        <v>17</v>
+      </c>
+      <c r="I24" s="28" t="s">
         <v>592</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="J24" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="28" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="34">
-        <v>17</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="L24" s="29" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="32">
+        <v>18</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="D24" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="29">
-        <v>7988643977</v>
-      </c>
-      <c r="F24" s="27" t="s">
+      <c r="D25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="27">
+        <v>9910920931</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>526</v>
       </c>
-      <c r="H24" s="35">
-        <v>17</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="30" t="s">
+      <c r="H25" s="33">
+        <v>18</v>
+      </c>
+      <c r="I25" s="28" t="s">
         <v>595</v>
       </c>
-      <c r="L24" s="31" t="s">
+      <c r="J25" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="28" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="34">
-        <v>18</v>
-      </c>
-      <c r="C25" s="27" t="s">
+      <c r="L25" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="32">
+        <v>19</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="29">
-        <v>9910920931</v>
-      </c>
-      <c r="F25" s="27" t="s">
+      <c r="D26" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="27">
+        <v>7073862831</v>
+      </c>
+      <c r="F26" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="H25" s="35">
-        <v>18</v>
-      </c>
-      <c r="I25" s="30" t="s">
-        <v>597</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="30" t="s">
+      <c r="H26" s="33">
+        <v>19</v>
+      </c>
+      <c r="I26" s="28" t="s">
         <v>598</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="J26" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K26" s="28" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="34">
-        <v>19</v>
-      </c>
-      <c r="C26" s="27" t="s">
+      <c r="L26" s="29" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="32">
+        <v>20</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="29">
-        <v>7073862831</v>
-      </c>
-      <c r="F26" s="27" t="s">
+      <c r="D27" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="27">
+        <v>9810943877</v>
+      </c>
+      <c r="F27" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="H26" s="35">
-        <v>19</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="30" t="s">
+      <c r="H27" s="33">
+        <v>20</v>
+      </c>
+      <c r="I27" s="28" t="s">
         <v>601</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="J27" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="28" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="34">
-        <v>20</v>
-      </c>
-      <c r="C27" s="27" t="s">
+      <c r="L27" s="29" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="32">
+        <v>21</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="29">
-        <v>9810943877</v>
-      </c>
-      <c r="F27" s="27" t="s">
+      <c r="D28" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="27">
+        <v>9582848409</v>
+      </c>
+      <c r="F28" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="H27" s="35">
-        <v>20</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>603</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="30" t="s">
+      <c r="H28" s="33">
+        <v>21</v>
+      </c>
+      <c r="I28" s="28" t="s">
         <v>604</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="J28" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="28" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="34">
-        <v>21</v>
-      </c>
-      <c r="C28" s="27" t="s">
+      <c r="L28" s="29" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="32">
+        <v>22</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="29">
-        <v>9582848409</v>
-      </c>
-      <c r="F28" s="27" t="s">
+      <c r="D29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="27">
+        <v>7065509255</v>
+      </c>
+      <c r="F29" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="H28" s="35">
-        <v>21</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>606</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="30" t="s">
+      <c r="H29" s="33">
+        <v>22</v>
+      </c>
+      <c r="I29" s="28" t="s">
         <v>607</v>
       </c>
-      <c r="L28" s="31" t="s">
+      <c r="J29" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K29" s="28" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="34">
-        <v>22</v>
-      </c>
-      <c r="C29" s="27" t="s">
+      <c r="L29" s="29" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="32">
+        <v>23</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="29">
-        <v>7065509255</v>
-      </c>
-      <c r="F29" s="27" t="s">
+      <c r="D30" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="27">
+        <v>9897133664</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="H29" s="35">
-        <v>22</v>
-      </c>
-      <c r="I29" s="30" t="s">
-        <v>609</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="30" t="s">
+      <c r="H30" s="33">
+        <v>23</v>
+      </c>
+      <c r="I30" s="28" t="s">
         <v>610</v>
       </c>
-      <c r="L29" s="31" t="s">
+      <c r="J30" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="28" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="34">
-        <v>23</v>
-      </c>
-      <c r="C30" s="27" t="s">
+      <c r="L30" s="29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="32">
+        <v>24</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="29">
-        <v>9897133664</v>
-      </c>
-      <c r="F30" s="27" t="s">
+      <c r="D31" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="27">
+        <v>8218128166</v>
+      </c>
+      <c r="F31" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="H30" s="35">
-        <v>23</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>612</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="30" t="s">
+      <c r="H31" s="33">
+        <v>24</v>
+      </c>
+      <c r="I31" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="L30" s="31" t="s">
+      <c r="J31" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="28" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="34">
-        <v>24</v>
-      </c>
-      <c r="C31" s="27" t="s">
+      <c r="L31" s="29" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="32">
+        <v>25</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="29">
-        <v>8218128166</v>
-      </c>
-      <c r="F31" s="27" t="s">
+      <c r="D32" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="27">
+        <v>8512856779</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="H31" s="35">
-        <v>24</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>615</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="30" t="s">
+      <c r="H32" s="33">
+        <v>25</v>
+      </c>
+      <c r="I32" s="28" t="s">
         <v>616</v>
       </c>
-      <c r="L31" s="31" t="s">
+      <c r="J32" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="28" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="34">
-        <v>25</v>
-      </c>
-      <c r="C32" s="27" t="s">
+      <c r="L32" s="29" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="32">
+        <v>26</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="29">
-        <v>8512856779</v>
-      </c>
-      <c r="F32" s="27" t="s">
+      <c r="D33" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="27">
+        <v>9067472225</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="H32" s="35">
-        <v>25</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>618</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="30" t="s">
-        <v>619</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="34">
-        <v>26</v>
-      </c>
-      <c r="C33" s="27" t="s">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="32">
+        <v>27</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="29">
-        <v>9067472225</v>
-      </c>
-      <c r="F33" s="27" t="s">
+      <c r="D34" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="27">
+        <v>8604793053</v>
+      </c>
+      <c r="F34" s="25" t="s">
         <v>544</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="34">
-        <v>27</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="D34" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="29">
-        <v>8604793053</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -6169,7 +7705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L15"/>
   <sheetViews>
@@ -6177,302 +7713,302 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="17"/>
-    <col min="8" max="8" width="5.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="3.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="8" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33"/>
-      <c r="C2" s="23" t="str">
+    <row r="1" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="31"/>
+      <c r="C2" s="21" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <f>$D$4+$D$3</f>
         <v>12</v>
       </c>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="C3" s="23" t="str">
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="31"/>
+      <c r="C3" s="21" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <f>COUNT($H$1:$H$100)</f>
         <v>4</v>
       </c>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33"/>
-      <c r="C4" s="23" t="str">
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="31"/>
+      <c r="C4" s="21" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f>COUNT($B$1:$B$100)</f>
         <v>8</v>
       </c>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="D5" s="25"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="31"/>
+      <c r="D5" s="23"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="H6" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>713</v>
-      </c>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="32" t="s">
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="32" t="s">
+      <c r="H7" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="L7" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>492</v>
-      </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>1</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="32">
+        <v>2</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="D9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="H8" s="34">
-        <v>1</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="29" t="s">
+      <c r="F9" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="H9" s="32">
+        <v>2</v>
+      </c>
+      <c r="I9" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="J9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="27" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="34">
-        <v>2</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="L9" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="32">
+        <v>3</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="D10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="H9" s="34">
-        <v>2</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="F10" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="32">
+        <v>3</v>
+      </c>
+      <c r="I10" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="J10" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="27" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="34">
-        <v>3</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="L10" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="32">
+        <v>4</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="D11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="H10" s="34">
-        <v>3</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="29" t="s">
+      <c r="F11" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="32">
+        <v>4</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="J11" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="27" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="34">
-        <v>4</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="L11" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="32">
+        <v>5</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="D12" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="H11" s="34">
-        <v>4</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="34">
-        <v>5</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="F12" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="29" t="s">
+    </row>
+    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="32">
+        <v>6</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="D13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="34">
-        <v>6</v>
-      </c>
-      <c r="C13" s="27" t="s">
+      <c r="F13" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="29" t="s">
+    </row>
+    <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="32">
+        <v>7</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="D14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="34">
-        <v>7</v>
-      </c>
-      <c r="C14" s="27" t="s">
+      <c r="F14" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="29" t="s">
+    </row>
+    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="32">
+        <v>8</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="D15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="34">
-        <v>8</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="F15" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>230</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -6498,7 +8034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L79"/>
   <sheetViews>
@@ -6506,106 +8042,106 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="17"/>
-    <col min="8" max="8" width="5.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="3.5703125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="8" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33"/>
-      <c r="C2" s="23" t="str">
+    <row r="1" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="31"/>
+      <c r="C2" s="21" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <f>$D$4+$D$3</f>
         <v>82</v>
       </c>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="C3" s="23" t="str">
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="31"/>
+      <c r="C3" s="21" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <f>COUNT($H$1:$H$100)</f>
         <v>10</v>
       </c>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33"/>
-      <c r="C4" s="23" t="str">
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="31"/>
+      <c r="C4" s="21" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f>COUNT($B$1:$B$100)</f>
         <v>72</v>
       </c>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="D5" s="25"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="31"/>
+      <c r="D5" s="23"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="H6" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>713</v>
-      </c>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="32" t="s">
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="32" t="s">
+      <c r="H7" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="L7" s="30" t="s">
         <v>490</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -6613,31 +8149,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>460</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -6645,31 +8181,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -6677,31 +8213,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>252</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>466</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -6709,31 +8245,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>253</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>255</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="L11" s="17" t="s">
         <v>469</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -6741,31 +8277,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>472</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -6773,31 +8309,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>259</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="L13" s="17" t="s">
         <v>475</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -6805,31 +8341,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>262</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="H14" s="3">
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="L14" s="17" t="s">
         <v>478</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -6837,31 +8373,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>265</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>267</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="L15" s="17" t="s">
         <v>481</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -6869,31 +8405,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>268</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="L16" s="17" t="s">
         <v>484</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -6901,31 +8437,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="L17" s="17" t="s">
         <v>487</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -6933,16 +8469,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -6950,16 +8486,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>277</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -6967,16 +8503,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>280</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -6984,16 +8520,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>283</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -7001,16 +8537,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -7018,16 +8554,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>289</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -7035,16 +8571,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>292</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -7052,16 +8588,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>295</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -7069,16 +8605,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>298</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -7086,16 +8622,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>301</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -7103,16 +8639,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -7120,16 +8656,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F29" s="17" t="s">
         <v>307</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -7137,16 +8673,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>310</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -7154,16 +8690,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>313</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -7171,16 +8707,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>316</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -7188,16 +8724,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>319</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -7205,16 +8741,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>322</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -7222,16 +8758,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>325</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -7239,16 +8775,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F36" s="17" t="s">
         <v>328</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -7256,16 +8792,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>331</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -7273,16 +8809,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>334</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -7290,16 +8826,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -7307,16 +8843,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>340</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -7324,16 +8860,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>343</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -7341,16 +8877,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F42" s="17" t="s">
         <v>346</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -7358,16 +8894,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F43" s="17" t="s">
         <v>349</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -7375,16 +8911,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F44" s="17" t="s">
         <v>352</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -7392,16 +8928,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F45" s="17" t="s">
         <v>355</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -7409,16 +8945,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F46" s="17" t="s">
         <v>358</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -7426,16 +8962,16 @@
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>361</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -7443,16 +8979,16 @@
         <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F48" s="17" t="s">
         <v>364</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -7460,16 +8996,16 @@
         <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>367</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -7477,16 +9013,16 @@
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F50" s="17" t="s">
         <v>370</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -7494,16 +9030,16 @@
         <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>373</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -7511,16 +9047,16 @@
         <v>45</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>376</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -7528,16 +9064,16 @@
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>379</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -7545,16 +9081,16 @@
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F54" s="17" t="s">
         <v>382</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -7562,16 +9098,16 @@
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>385</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -7579,16 +9115,16 @@
         <v>49</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56" s="17" t="s">
         <v>388</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -7596,16 +9132,16 @@
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F57" s="17" t="s">
         <v>391</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -7613,16 +9149,16 @@
         <v>51</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F58" s="17" t="s">
         <v>394</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -7630,16 +9166,16 @@
         <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F59" s="17" t="s">
         <v>397</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -7647,16 +9183,16 @@
         <v>53</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F60" s="17" t="s">
         <v>400</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -7664,16 +9200,16 @@
         <v>54</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="F61" s="17" t="s">
         <v>403</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -7681,16 +9217,16 @@
         <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F62" s="17" t="s">
         <v>406</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -7698,16 +9234,16 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F63" s="17" t="s">
         <v>409</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -7715,16 +9251,16 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="F64" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -7732,16 +9268,16 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F65" s="17" t="s">
         <v>415</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -7749,16 +9285,16 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F66" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -7766,16 +9302,16 @@
         <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F67" s="17" t="s">
         <v>421</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -7783,16 +9319,16 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F68" s="17" t="s">
         <v>424</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -7800,16 +9336,16 @@
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="F69" s="17" t="s">
         <v>427</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -7817,16 +9353,16 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F70" s="17" t="s">
         <v>430</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -7834,16 +9370,16 @@
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="F71" s="17" t="s">
         <v>433</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -7851,16 +9387,16 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="F72" s="17" t="s">
         <v>436</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -7868,16 +9404,16 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F73" s="17" t="s">
         <v>439</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -7885,16 +9421,16 @@
         <v>67</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F74" s="17" t="s">
         <v>442</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -7902,16 +9438,16 @@
         <v>68</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F75" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -7919,16 +9455,16 @@
         <v>69</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F76" s="17" t="s">
         <v>448</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -7936,16 +9472,16 @@
         <v>70</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F77" s="17" t="s">
         <v>451</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -7953,16 +9489,16 @@
         <v>71</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F78" s="17" t="s">
         <v>454</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -7970,16 +9506,16 @@
         <v>72</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F79" s="17" t="s">
         <v>457</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -8075,7 +9611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L46"/>
   <sheetViews>
@@ -8083,106 +9619,106 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="17" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="17"/>
-    <col min="8" max="8" width="5.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="4" style="15" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="15"/>
+    <col min="8" max="8" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="33"/>
-      <c r="C2" s="23" t="str">
+    <row r="1" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="31"/>
+      <c r="C2" s="21" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="22">
         <f>$D$4+$D$3</f>
         <v>43</v>
       </c>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="33"/>
-      <c r="C3" s="23" t="str">
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="31"/>
+      <c r="C3" s="21" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="22">
         <f>COUNT($H$1:$H$100)</f>
         <v>4</v>
       </c>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="33"/>
-      <c r="C4" s="23" t="str">
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="31"/>
+      <c r="C4" s="21" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f>COUNT($B$1:$B$100)</f>
         <v>39</v>
       </c>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="33"/>
-      <c r="D5" s="25"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="31"/>
+      <c r="D5" s="23"/>
+      <c r="H5" s="31"/>
+    </row>
+    <row r="6" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B6" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="H6" s="55" t="s">
         <v>711</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="H6" s="43" t="s">
-        <v>713</v>
-      </c>
-      <c r="I6" s="43"/>
-    </row>
-    <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="32" t="s">
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="32" t="s">
+      <c r="H7" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="L7" s="30" t="s">
         <v>490</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -8190,31 +9726,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5">
         <v>7558289080</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>622</v>
+      <c r="F8" s="17" t="s">
+        <v>620</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>699</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -8222,31 +9758,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5">
         <v>7387213425</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>624</v>
+      <c r="F9" s="17" t="s">
+        <v>622</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>702</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -8254,31 +9790,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5">
         <v>9833446728</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>626</v>
+      <c r="F10" s="17" t="s">
+        <v>624</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="K10" s="5">
         <v>9422115479</v>
       </c>
-      <c r="L10" s="19" t="s">
-        <v>707</v>
+      <c r="L10" s="17" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -8286,31 +9822,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5">
         <v>9763563987</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>628</v>
+      <c r="F11" s="17" t="s">
+        <v>626</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="L11" s="17" t="s">
         <v>708</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -8318,16 +9854,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="5">
         <v>7066705430</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>630</v>
+      <c r="F12" s="17" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -8335,16 +9871,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="5">
         <v>8237496955</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>632</v>
+      <c r="F13" s="17" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -8352,16 +9888,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="5">
         <v>9049796915</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>634</v>
+      <c r="F14" s="17" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -8369,16 +9905,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15" s="5">
         <v>9987648115</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>636</v>
+      <c r="F15" s="17" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -8386,16 +9922,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="5">
         <v>9820958424</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>638</v>
+      <c r="F16" s="17" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -8403,16 +9939,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="5">
         <v>7887669198</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>640</v>
+      <c r="F17" s="17" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -8420,16 +9956,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="5">
         <v>7666038604</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>642</v>
+      <c r="F18" s="17" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -8437,16 +9973,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="5">
         <v>7303752979</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>644</v>
+      <c r="F19" s="17" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -8454,16 +9990,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" s="5">
         <v>8857819155</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>646</v>
+      <c r="F20" s="17" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -8471,16 +10007,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="5">
         <v>8825054152</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>648</v>
+      <c r="F21" s="17" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -8488,16 +10024,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="5">
         <v>9765914865</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>650</v>
+      <c r="F22" s="17" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -8505,16 +10041,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E23" s="5">
         <v>7710859052</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>652</v>
+      <c r="F23" s="17" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -8522,16 +10058,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="5">
         <v>8857863105</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>654</v>
+      <c r="F24" s="17" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -8539,16 +10075,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25" s="5">
         <v>9423561361</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>656</v>
+      <c r="F25" s="17" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -8556,16 +10092,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" s="5">
         <v>8424956867</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>658</v>
+      <c r="F26" s="17" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -8573,16 +10109,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27" s="5">
         <v>8390700404</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>660</v>
+      <c r="F27" s="17" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -8590,16 +10126,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E28" s="5">
         <v>8421163930</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>662</v>
+      <c r="F28" s="17" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -8607,16 +10143,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" s="5">
         <v>7083906951</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>664</v>
+      <c r="F29" s="17" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -8624,16 +10160,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E30" s="5">
         <v>8689929864</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>666</v>
+      <c r="F30" s="17" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -8641,16 +10177,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" s="5">
         <v>7362933380</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>668</v>
+      <c r="F31" s="17" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -8658,16 +10194,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32" s="5">
         <v>7218583912</v>
       </c>
-      <c r="F32" s="19" t="s">
-        <v>670</v>
+      <c r="F32" s="17" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -8675,16 +10211,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E33" s="5">
         <v>8978213151</v>
       </c>
-      <c r="F33" s="19" t="s">
-        <v>672</v>
+      <c r="F33" s="17" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -8692,16 +10228,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" s="5">
         <v>9326855136</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>674</v>
+      <c r="F34" s="17" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -8709,16 +10245,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" s="5">
         <v>9172029365</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>676</v>
+      <c r="F35" s="17" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -8726,16 +10262,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36" s="5">
         <v>7743949634</v>
       </c>
-      <c r="F36" s="19" t="s">
-        <v>678</v>
+      <c r="F36" s="17" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -8743,16 +10279,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E37" s="5">
         <v>8624039380</v>
       </c>
-      <c r="F37" s="19" t="s">
-        <v>680</v>
+      <c r="F37" s="17" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -8760,16 +10296,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E38" s="5">
         <v>7218454570</v>
       </c>
-      <c r="F38" s="19" t="s">
-        <v>682</v>
+      <c r="F38" s="17" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -8777,16 +10313,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E39" s="5">
         <v>9359467647</v>
       </c>
-      <c r="F39" s="19" t="s">
-        <v>684</v>
+      <c r="F39" s="17" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -8794,16 +10330,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E40" s="5">
         <v>8691942385</v>
       </c>
-      <c r="F40" s="19" t="s">
-        <v>686</v>
+      <c r="F40" s="17" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -8811,16 +10347,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E41" s="5">
         <v>8850419292</v>
       </c>
-      <c r="F41" s="19" t="s">
-        <v>688</v>
+      <c r="F41" s="17" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -8828,16 +10364,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E42" s="5">
         <v>9621029028</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>690</v>
+      <c r="F42" s="17" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -8845,16 +10381,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E43" s="5">
         <v>7066020092</v>
       </c>
-      <c r="F43" s="19" t="s">
-        <v>692</v>
+      <c r="F43" s="17" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -8862,16 +10398,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E44" s="5">
         <v>8349830798</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>694</v>
+      <c r="F44" s="17" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -8879,16 +10415,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E45" s="5">
         <v>7225848488</v>
       </c>
-      <c r="F45" s="19" t="s">
-        <v>696</v>
+      <c r="F45" s="17" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -8896,16 +10432,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E46" s="5">
         <v>7719862298</v>
       </c>
-      <c r="F46" s="19" t="s">
-        <v>698</v>
+      <c r="F46" s="17" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="748">
   <si>
     <t>Batch Name</t>
   </si>
@@ -73,9 +73,6 @@
     <t xml:space="preserve">Veena / Nitish 24th September </t>
   </si>
   <si>
-    <t>Core Java and SQL is going on</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -2236,9 +2233,6 @@
     <t xml:space="preserve">                                                                       </t>
   </si>
   <si>
-    <t>BDD is in-progress</t>
-  </si>
-  <si>
     <t>L1 Re-test Date</t>
   </si>
   <si>
@@ -2261,6 +2255,18 @@
   </si>
   <si>
     <t>Dropout/Absconded</t>
+  </si>
+  <si>
+    <t>BDD is Completed
+Module 4 Test Conducted</t>
+  </si>
+  <si>
+    <t>Core Java, SQL and JDBC Completed
+Module 1 Test Conducted</t>
+  </si>
+  <si>
+    <t>Core Java is going on
+SQL Completed</t>
   </si>
 </sst>
 </file>
@@ -3355,7 +3361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3369,7 +3375,7 @@
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D3" s="37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E3"/>
     </row>
@@ -3541,11 +3547,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3574,10 +3580,10 @@
     <row r="1" spans="2:18" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -3592,16 +3598,16 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
@@ -3610,22 +3616,22 @@
         <v>6</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="P2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
@@ -3672,14 +3678,14 @@
         <v>9448246364</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -3687,7 +3693,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>7</v>
@@ -3720,20 +3726,20 @@
         <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="O4" s="3">
         <v>8377841525</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>17</v>
+        <v>746</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -3741,7 +3747,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>7</v>
@@ -3774,20 +3780,20 @@
         <v>15</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="O5" s="3">
         <v>8073098283</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>17</v>
+        <v>746</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -3795,7 +3801,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>7</v>
@@ -3828,20 +3834,20 @@
         <v>14</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="O6" s="3">
         <v>8762928822</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>17</v>
+        <v>746</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -3849,7 +3855,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>7</v>
@@ -3882,13 +3888,13 @@
         <v>15</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="O7" s="3">
         <v>9897145195</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>17</v>
+        <v>747</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
@@ -3967,44 +3973,44 @@
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C7" s="43"/>
       <c r="H7" s="43" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I7" s="43"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="K8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="L8" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -4012,31 +4018,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="19" t="s">
         <v>715</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -4044,31 +4050,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="19" t="s">
         <v>718</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -4076,31 +4082,31 @@
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="19" t="s">
         <v>721</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -4108,31 +4114,31 @@
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="19" t="s">
         <v>724</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -4140,31 +4146,31 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="19" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>48</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="19" t="s">
         <v>727</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -4172,31 +4178,31 @@
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="H14" s="3">
         <v>6</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="19" t="s">
         <v>730</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -4204,31 +4210,31 @@
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="H15" s="3">
         <v>7</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="19" t="s">
         <v>733</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -4236,16 +4242,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -4253,16 +4259,16 @@
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="19" t="s">
         <v>59</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -4270,16 +4276,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -4287,16 +4293,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -4304,16 +4310,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
@@ -4321,16 +4327,16 @@
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
@@ -4338,16 +4344,16 @@
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -4355,16 +4361,16 @@
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -4372,16 +4378,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="19" t="s">
         <v>80</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -4389,16 +4395,16 @@
         <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
@@ -4406,16 +4412,16 @@
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="19" t="s">
         <v>86</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -4423,16 +4429,16 @@
         <v>19</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="19" t="s">
         <v>89</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
@@ -4440,16 +4446,16 @@
         <v>20</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -4457,16 +4463,16 @@
         <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
@@ -4474,16 +4480,16 @@
         <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -4491,16 +4497,16 @@
         <v>23</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -4508,16 +4514,16 @@
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -4525,16 +4531,16 @@
         <v>25</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -4542,16 +4548,16 @@
         <v>26</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
@@ -4559,16 +4565,16 @@
         <v>27</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -4576,16 +4582,16 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -4593,16 +4599,16 @@
         <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -4610,16 +4616,16 @@
         <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -4627,16 +4633,16 @@
         <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -4644,16 +4650,16 @@
         <v>32</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -4661,16 +4667,16 @@
         <v>33</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -4678,16 +4684,16 @@
         <v>34</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.2">
@@ -4695,16 +4701,16 @@
         <v>35</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="19" t="s">
         <v>137</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.2">
@@ -4712,16 +4718,16 @@
         <v>36</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="19" t="s">
         <v>140</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -4729,16 +4735,16 @@
         <v>37</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="19" t="s">
         <v>143</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.2">
@@ -4746,16 +4752,16 @@
         <v>38</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
@@ -4763,16 +4769,16 @@
         <v>39</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="19" t="s">
         <v>149</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -4780,16 +4786,16 @@
         <v>40</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="19" t="s">
         <v>152</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -4797,16 +4803,16 @@
         <v>41</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="19" t="s">
         <v>155</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.2">
@@ -4814,16 +4820,16 @@
         <v>42</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="19" t="s">
         <v>158</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.2">
@@ -4831,16 +4837,16 @@
         <v>43</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
@@ -4848,16 +4854,16 @@
         <v>44</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="19" t="s">
         <v>164</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -4865,16 +4871,16 @@
         <v>45</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
@@ -4882,16 +4888,16 @@
         <v>46</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
@@ -4899,16 +4905,16 @@
         <v>47</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="19" t="s">
         <v>173</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -4916,16 +4922,16 @@
         <v>48</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -4933,16 +4939,16 @@
         <v>49</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="19" t="s">
         <v>179</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
@@ -4950,16 +4956,16 @@
         <v>50</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="19" t="s">
         <v>182</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.2">
@@ -4967,16 +4973,16 @@
         <v>51</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="19" t="s">
         <v>185</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
@@ -4984,16 +4990,16 @@
         <v>52</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
@@ -5001,16 +5007,16 @@
         <v>53</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="F61" s="19" t="s">
         <v>191</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.2">
@@ -5018,16 +5024,16 @@
         <v>54</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.2">
@@ -5035,16 +5041,16 @@
         <v>55</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.2">
@@ -5052,16 +5058,16 @@
         <v>56</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="19" t="s">
         <v>200</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.2">
@@ -5069,16 +5075,16 @@
         <v>57</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="19" t="s">
         <v>203</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.2">
@@ -5086,16 +5092,16 @@
         <v>58</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="19" t="s">
         <v>206</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5233,44 +5239,44 @@
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>492</v>
-      </c>
       <c r="H7" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>491</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -5278,31 +5284,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="29">
         <v>6394671596</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H8" s="35">
         <v>1</v>
       </c>
       <c r="I8" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>547</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="30" t="s">
+      <c r="L8" s="31" t="s">
         <v>548</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -5310,31 +5316,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="29">
         <v>8009311439</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H9" s="35">
         <v>2</v>
       </c>
       <c r="I9" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>550</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="30" t="s">
+      <c r="L9" s="31" t="s">
         <v>551</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -5342,31 +5348,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="29">
         <v>9468247375</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H10" s="35">
         <v>3</v>
       </c>
       <c r="I10" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>553</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="30" t="s">
+      <c r="L10" s="31" t="s">
         <v>554</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
@@ -5374,31 +5380,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="29">
         <v>9872512451</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H11" s="35">
         <v>4</v>
       </c>
       <c r="I11" s="30" t="s">
+        <v>555</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="30" t="s">
         <v>556</v>
       </c>
-      <c r="J11" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="30" t="s">
+      <c r="L11" s="31" t="s">
         <v>557</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
@@ -5406,31 +5412,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="29">
         <v>9695676355</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H12" s="35">
         <v>5</v>
       </c>
       <c r="I12" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="J12" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="30" t="s">
+      <c r="L12" s="31" t="s">
         <v>560</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -5438,31 +5444,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="29">
         <v>8826679369</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H13" s="35">
         <v>6</v>
       </c>
       <c r="I13" s="30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="30" t="s">
+        <v>561</v>
+      </c>
+      <c r="L13" s="31" t="s">
         <v>562</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -5470,31 +5476,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="29">
         <v>9368519717</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H14" s="35">
         <v>7</v>
       </c>
       <c r="I14" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="30" t="s">
         <v>564</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="30" t="s">
+      <c r="L14" s="31" t="s">
         <v>565</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -5502,31 +5508,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="29">
         <v>8115712543</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H15" s="35">
         <v>8</v>
       </c>
       <c r="I15" s="30" t="s">
+        <v>566</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="30" t="s">
         <v>567</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="30" t="s">
+      <c r="L15" s="31" t="s">
         <v>568</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
@@ -5534,31 +5540,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="29">
         <v>8512097276</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H16" s="35">
         <v>9</v>
       </c>
       <c r="I16" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="30" t="s">
         <v>570</v>
       </c>
-      <c r="J16" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="30" t="s">
+      <c r="L16" s="31" t="s">
         <v>571</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -5566,31 +5572,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="29">
         <v>8076728958</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H17" s="35">
         <v>10</v>
       </c>
       <c r="I17" s="30" t="s">
+        <v>572</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="30" t="s">
         <v>573</v>
       </c>
-      <c r="J17" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="30" t="s">
+      <c r="L17" s="31" t="s">
         <v>574</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
@@ -5598,31 +5604,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="29">
         <v>7669604203</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H18" s="35">
         <v>11</v>
       </c>
       <c r="I18" s="30" t="s">
+        <v>575</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="30" t="s">
         <v>576</v>
       </c>
-      <c r="J18" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="30" t="s">
+      <c r="L18" s="31" t="s">
         <v>577</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
@@ -5630,31 +5636,31 @@
         <v>12</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="29">
         <v>8860817681</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H19" s="35">
         <v>12</v>
       </c>
       <c r="I19" s="30" t="s">
+        <v>578</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="30" t="s">
         <v>579</v>
       </c>
-      <c r="J19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="30" t="s">
+      <c r="L19" s="31" t="s">
         <v>580</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
@@ -5662,31 +5668,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="29">
         <v>9015270530</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H20" s="35">
         <v>13</v>
       </c>
       <c r="I20" s="30" t="s">
+        <v>581</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="J20" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="30" t="s">
+      <c r="L20" s="31" t="s">
         <v>583</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
@@ -5694,31 +5700,31 @@
         <v>14</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="29">
         <v>7827327267</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H21" s="35">
         <v>14</v>
       </c>
       <c r="I21" s="30" t="s">
+        <v>584</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="30" t="s">
         <v>585</v>
       </c>
-      <c r="J21" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="30" t="s">
+      <c r="L21" s="31" t="s">
         <v>586</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
@@ -5726,31 +5732,31 @@
         <v>15</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="29">
         <v>8800709136</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H22" s="35">
         <v>15</v>
       </c>
       <c r="I22" s="30" t="s">
+        <v>587</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="30" t="s">
+      <c r="L22" s="31" t="s">
         <v>589</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
@@ -5758,31 +5764,31 @@
         <v>16</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="29">
         <v>9971884734</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H23" s="35">
         <v>16</v>
       </c>
       <c r="I23" s="30" t="s">
+        <v>590</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="J23" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="30" t="s">
+      <c r="L23" s="31" t="s">
         <v>592</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
@@ -5790,31 +5796,31 @@
         <v>17</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="29">
         <v>7988643977</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H24" s="35">
         <v>17</v>
       </c>
       <c r="I24" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="J24" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K24" s="30" t="s">
+      <c r="L24" s="31" t="s">
         <v>595</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
@@ -5822,31 +5828,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="29">
         <v>9910920931</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H25" s="35">
         <v>18</v>
       </c>
       <c r="I25" s="30" t="s">
+        <v>596</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="30" t="s">
         <v>597</v>
       </c>
-      <c r="J25" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K25" s="30" t="s">
+      <c r="L25" s="31" t="s">
         <v>598</v>
-      </c>
-      <c r="L25" s="31" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
@@ -5854,31 +5860,31 @@
         <v>19</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="29">
         <v>7073862831</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H26" s="35">
         <v>19</v>
       </c>
       <c r="I26" s="30" t="s">
+        <v>599</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="30" t="s">
         <v>600</v>
       </c>
-      <c r="J26" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="30" t="s">
+      <c r="L26" s="31" t="s">
         <v>601</v>
-      </c>
-      <c r="L26" s="31" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
@@ -5886,31 +5892,31 @@
         <v>20</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="29">
         <v>9810943877</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H27" s="35">
         <v>20</v>
       </c>
       <c r="I27" s="30" t="s">
+        <v>602</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="30" t="s">
         <v>603</v>
       </c>
-      <c r="J27" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="30" t="s">
+      <c r="L27" s="31" t="s">
         <v>604</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
@@ -5918,31 +5924,31 @@
         <v>21</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="29">
         <v>9582848409</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H28" s="35">
         <v>21</v>
       </c>
       <c r="I28" s="30" t="s">
+        <v>605</v>
+      </c>
+      <c r="J28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="30" t="s">
         <v>606</v>
       </c>
-      <c r="J28" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="30" t="s">
+      <c r="L28" s="31" t="s">
         <v>607</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
@@ -5950,31 +5956,31 @@
         <v>22</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="29">
         <v>7065509255</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H29" s="35">
         <v>22</v>
       </c>
       <c r="I29" s="30" t="s">
+        <v>608</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="30" t="s">
         <v>609</v>
       </c>
-      <c r="J29" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="30" t="s">
+      <c r="L29" s="31" t="s">
         <v>610</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
@@ -5982,31 +5988,31 @@
         <v>23</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="29">
         <v>9897133664</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H30" s="35">
         <v>23</v>
       </c>
       <c r="I30" s="30" t="s">
+        <v>611</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="30" t="s">
         <v>612</v>
       </c>
-      <c r="J30" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="30" t="s">
+      <c r="L30" s="31" t="s">
         <v>613</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
@@ -6014,31 +6020,31 @@
         <v>24</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="29">
         <v>8218128166</v>
       </c>
       <c r="F31" s="27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H31" s="35">
         <v>24</v>
       </c>
       <c r="I31" s="30" t="s">
+        <v>614</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="30" t="s">
         <v>615</v>
       </c>
-      <c r="J31" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="30" t="s">
+      <c r="L31" s="31" t="s">
         <v>616</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
@@ -6046,31 +6052,31 @@
         <v>25</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="29">
         <v>8512856779</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H32" s="35">
         <v>25</v>
       </c>
       <c r="I32" s="30" t="s">
+        <v>617</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="30" t="s">
         <v>618</v>
       </c>
-      <c r="J32" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="30" t="s">
+      <c r="L32" s="31" t="s">
         <v>619</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
@@ -6078,16 +6084,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="29">
         <v>9067472225</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
@@ -6095,16 +6101,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="29">
         <v>8604793053</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -6239,44 +6245,44 @@
     </row>
     <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>492</v>
-      </c>
       <c r="H7" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>491</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6284,31 +6290,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="27" t="s">
         <v>209</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>210</v>
       </c>
       <c r="H8" s="34">
         <v>1</v>
       </c>
       <c r="I8" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="J8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="29" t="s">
+      <c r="L8" s="27" t="s">
         <v>233</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6316,31 +6322,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="F9" s="27" t="s">
         <v>212</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>213</v>
       </c>
       <c r="H9" s="34">
         <v>2</v>
       </c>
       <c r="I9" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="29" t="s">
+      <c r="L9" s="27" t="s">
         <v>236</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6348,31 +6354,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="27" t="s">
         <v>215</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>216</v>
       </c>
       <c r="H10" s="34">
         <v>3</v>
       </c>
       <c r="I10" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>238</v>
       </c>
-      <c r="J10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="29" t="s">
+      <c r="L10" s="27" t="s">
         <v>239</v>
-      </c>
-      <c r="L10" s="27" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6380,31 +6386,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>219</v>
       </c>
       <c r="H11" s="34">
         <v>4</v>
       </c>
       <c r="I11" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="29" t="s">
         <v>241</v>
       </c>
-      <c r="J11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="29" t="s">
+      <c r="L11" s="27" t="s">
         <v>242</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6412,16 +6418,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="27" t="s">
         <v>221</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6429,16 +6435,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="F13" s="27" t="s">
         <v>224</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6446,16 +6452,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="F14" s="27" t="s">
         <v>227</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -6463,16 +6469,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="F15" s="27" t="s">
         <v>230</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -6568,44 +6574,44 @@
     </row>
     <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>492</v>
-      </c>
       <c r="H7" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>491</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -6613,31 +6619,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="19" t="s">
         <v>461</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -6645,31 +6651,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="19" t="s">
         <v>464</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -6677,31 +6683,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>252</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="19" t="s">
         <v>467</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -6709,31 +6715,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="19" t="s">
         <v>254</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>255</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="19" t="s">
         <v>470</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -6741,31 +6747,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="19" t="s">
         <v>473</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -6773,31 +6779,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="19" t="s">
         <v>476</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -6805,31 +6811,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="H14" s="3">
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="19" t="s">
         <v>479</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -6837,31 +6843,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="19" t="s">
         <v>266</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>267</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="19" t="s">
         <v>482</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -6869,31 +6875,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="19" t="s">
         <v>269</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -6901,31 +6907,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="19" t="s">
         <v>488</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -6933,16 +6939,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="19" t="s">
         <v>275</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -6950,16 +6956,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="19" t="s">
         <v>278</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -6967,16 +6973,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -6984,16 +6990,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="19" t="s">
         <v>284</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -7001,16 +7007,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="19" t="s">
         <v>287</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -7018,16 +7024,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -7035,16 +7041,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="19" t="s">
         <v>293</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -7052,16 +7058,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="19" t="s">
         <v>296</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -7069,16 +7075,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="19" t="s">
         <v>299</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -7086,16 +7092,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -7103,16 +7109,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="19" t="s">
         <v>305</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -7120,16 +7126,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="19" t="s">
         <v>308</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -7137,16 +7143,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="19" t="s">
         <v>311</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -7154,16 +7160,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="19" t="s">
         <v>314</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -7171,16 +7177,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="19" t="s">
         <v>317</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -7188,16 +7194,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="19" t="s">
         <v>320</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -7205,16 +7211,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="19" t="s">
         <v>323</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -7222,16 +7228,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="19" t="s">
         <v>326</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -7239,16 +7245,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -7256,16 +7262,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="19" t="s">
         <v>332</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -7273,16 +7279,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="19" t="s">
         <v>335</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -7290,16 +7296,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="19" t="s">
         <v>338</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -7307,16 +7313,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="19" t="s">
         <v>341</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -7324,16 +7330,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="19" t="s">
         <v>344</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -7341,16 +7347,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="19" t="s">
         <v>347</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -7358,16 +7364,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="19" t="s">
         <v>350</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -7375,16 +7381,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -7392,16 +7398,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="19" t="s">
         <v>356</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -7409,16 +7415,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="19" t="s">
         <v>359</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -7426,16 +7432,16 @@
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="19" t="s">
         <v>362</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -7443,16 +7449,16 @@
         <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="19" t="s">
         <v>365</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -7460,16 +7466,16 @@
         <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="19" t="s">
         <v>368</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -7477,16 +7483,16 @@
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -7494,16 +7500,16 @@
         <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="19" t="s">
         <v>374</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -7511,16 +7517,16 @@
         <v>45</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="19" t="s">
         <v>377</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -7528,16 +7534,16 @@
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="19" t="s">
         <v>380</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -7545,16 +7551,16 @@
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="19" t="s">
         <v>383</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -7562,16 +7568,16 @@
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="19" t="s">
         <v>386</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -7579,16 +7585,16 @@
         <v>49</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="19" t="s">
         <v>389</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -7596,16 +7602,16 @@
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="19" t="s">
         <v>392</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -7613,16 +7619,16 @@
         <v>51</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="19" t="s">
         <v>395</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -7630,16 +7636,16 @@
         <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="19" t="s">
         <v>398</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -7647,16 +7653,16 @@
         <v>53</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="19" t="s">
         <v>401</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -7664,16 +7670,16 @@
         <v>54</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="F61" s="19" t="s">
         <v>404</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -7681,16 +7687,16 @@
         <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -7698,16 +7704,16 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="19" t="s">
         <v>410</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -7715,16 +7721,16 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="19" t="s">
         <v>413</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -7732,16 +7738,16 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="19" t="s">
         <v>416</v>
-      </c>
-      <c r="F65" s="19" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -7749,16 +7755,16 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="19" t="s">
         <v>419</v>
-      </c>
-      <c r="F66" s="19" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -7766,16 +7772,16 @@
         <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="19" t="s">
         <v>422</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -7783,16 +7789,16 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="19" t="s">
         <v>425</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -7800,16 +7806,16 @@
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="19" t="s">
         <v>428</v>
-      </c>
-      <c r="F69" s="19" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -7817,16 +7823,16 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" s="5" t="s">
+      <c r="F70" s="19" t="s">
         <v>431</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -7834,16 +7840,16 @@
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="19" t="s">
         <v>434</v>
-      </c>
-      <c r="F71" s="19" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -7851,16 +7857,16 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="19" t="s">
         <v>437</v>
-      </c>
-      <c r="F72" s="19" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -7868,16 +7874,16 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="19" t="s">
         <v>440</v>
-      </c>
-      <c r="F73" s="19" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -7885,16 +7891,16 @@
         <v>67</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="19" t="s">
         <v>443</v>
-      </c>
-      <c r="F74" s="19" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -7902,16 +7908,16 @@
         <v>68</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="19" t="s">
         <v>446</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
@@ -7919,16 +7925,16 @@
         <v>69</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="19" t="s">
         <v>449</v>
-      </c>
-      <c r="F76" s="19" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
@@ -7936,16 +7942,16 @@
         <v>70</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E77" s="5" t="s">
+      <c r="F77" s="19" t="s">
         <v>452</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -7953,16 +7959,16 @@
         <v>71</v>
       </c>
       <c r="C78" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E78" s="5" t="s">
+      <c r="F78" s="19" t="s">
         <v>455</v>
-      </c>
-      <c r="F78" s="19" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
@@ -7970,16 +7976,16 @@
         <v>72</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="5" t="s">
+      <c r="F79" s="19" t="s">
         <v>458</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -8145,44 +8151,44 @@
     </row>
     <row r="6" spans="2:12" s="26" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="43" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C6" s="43"/>
       <c r="H6" s="43" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="F7" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>492</v>
-      </c>
       <c r="H7" s="32" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I7" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="L7" s="32" t="s">
         <v>491</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -8190,31 +8196,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5">
         <v>7558289080</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="19" t="s">
         <v>700</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -8222,31 +8228,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="5">
         <v>7387213425</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="19" t="s">
         <v>703</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
@@ -8254,31 +8260,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5">
         <v>9833446728</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>705</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>706</v>
       </c>
       <c r="K10" s="5">
         <v>9422115479</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -8286,31 +8292,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5">
         <v>9763563987</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="19" t="s">
         <v>709</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -8318,16 +8324,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5">
         <v>7066705430</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -8335,16 +8341,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="5">
         <v>8237496955</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -8352,16 +8358,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="5">
         <v>9049796915</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -8369,16 +8375,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="5">
         <v>9987648115</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -8386,16 +8392,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5">
         <v>9820958424</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -8403,16 +8409,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5">
         <v>7887669198</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -8420,16 +8426,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="5">
         <v>7666038604</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -8437,16 +8443,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5">
         <v>7303752979</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -8454,16 +8460,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5">
         <v>8857819155</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -8471,16 +8477,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="5">
         <v>8825054152</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -8488,16 +8494,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="5">
         <v>9765914865</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -8505,16 +8511,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E23" s="5">
         <v>7710859052</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -8522,16 +8528,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E24" s="5">
         <v>8857863105</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -8539,16 +8545,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="5">
         <v>9423561361</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -8556,16 +8562,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="5">
         <v>8424956867</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -8573,16 +8579,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="5">
         <v>8390700404</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -8590,16 +8596,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="5">
         <v>8421163930</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -8607,16 +8613,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="5">
         <v>7083906951</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -8624,16 +8630,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="5">
         <v>8689929864</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -8641,16 +8647,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="5">
         <v>7362933380</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -8658,16 +8664,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="5">
         <v>7218583912</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -8675,16 +8681,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="5">
         <v>8978213151</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -8692,16 +8698,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="5">
         <v>9326855136</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -8709,16 +8715,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E35" s="5">
         <v>9172029365</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -8726,16 +8732,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E36" s="5">
         <v>7743949634</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -8743,16 +8749,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="5">
         <v>8624039380</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -8760,16 +8766,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="5">
         <v>7218454570</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -8777,16 +8783,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="5">
         <v>9359467647</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -8794,16 +8800,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="5">
         <v>8691942385</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -8811,16 +8817,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="5">
         <v>8850419292</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -8828,16 +8834,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="5">
         <v>9621029028</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -8845,16 +8851,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" s="5">
         <v>7066020092</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -8862,16 +8868,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" s="5">
         <v>8349830798</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -8879,16 +8885,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E45" s="5">
         <v>7225848488</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -8896,16 +8902,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E46" s="5">
         <v>7719862298</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -2943,27 +2943,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2979,12 +2958,6 @@
     <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2993,6 +2966,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3009,11 +2988,32 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3021,279 +3021,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <b/>
@@ -4387,7 +4115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4543,8 +4271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -4672,7 +4400,7 @@
       <c r="O3" s="5">
         <v>9448246364</v>
       </c>
-      <c r="P3" s="73" t="s">
+      <c r="P3" s="59" t="s">
         <v>776</v>
       </c>
       <c r="Q3" s="12" t="s">
@@ -4726,7 +4454,7 @@
       <c r="O4" s="3">
         <v>8377841525</v>
       </c>
-      <c r="P4" s="74" t="s">
+      <c r="P4" s="60" t="s">
         <v>777</v>
       </c>
       <c r="Q4" s="12" t="s">
@@ -4780,7 +4508,7 @@
       <c r="O5" s="3">
         <v>8073098283</v>
       </c>
-      <c r="P5" s="74" t="s">
+      <c r="P5" s="60" t="s">
         <v>777</v>
       </c>
       <c r="Q5" s="12" t="s">
@@ -4834,7 +4562,7 @@
       <c r="O6" s="3">
         <v>8762928822</v>
       </c>
-      <c r="P6" s="74" t="s">
+      <c r="P6" s="60" t="s">
         <v>777</v>
       </c>
       <c r="Q6" s="12" t="s">
@@ -4888,7 +4616,7 @@
       <c r="O7" s="3">
         <v>9897145195</v>
       </c>
-      <c r="P7" s="74" t="s">
+      <c r="P7" s="60" t="s">
         <v>778</v>
       </c>
       <c r="Q7" s="12"/>
@@ -4910,10 +4638,10 @@
   <dimension ref="B2:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4921,87 +4649,87 @@
     <col min="1" max="1" width="3.42578125" style="24" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5703125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="55" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" style="40" customWidth="1"/>
     <col min="6" max="7" width="45.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="39" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="45.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="42.7109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="42.7109375" style="51" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="61" t="s">
         <v>773</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62" t="s">
         <v>774</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="51" t="str">
+      <c r="C4" s="70" t="str">
         <f>Summary!$D$2</f>
         <v>Batch Name</v>
       </c>
-      <c r="D4" s="63" t="str">
+      <c r="D4" s="68" t="str">
         <f>Summary!H2</f>
         <v>L1 Date</v>
       </c>
-      <c r="E4" s="51" t="str">
+      <c r="E4" s="70" t="str">
         <f>Summary!$M$2</f>
         <v>CG Mentor</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="72" t="s">
         <v>743</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="53" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="72" t="s">
         <v>746</v>
       </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="53" t="s">
+      <c r="I4" s="73"/>
+      <c r="J4" s="72" t="s">
         <v>750</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="53" t="s">
+      <c r="K4" s="73"/>
+      <c r="L4" s="72" t="s">
         <v>751</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="51" t="s">
+      <c r="M4" s="73"/>
+      <c r="N4" s="70" t="s">
         <v>752</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="O4" s="70" t="s">
         <v>753</v>
       </c>
-      <c r="P4" s="56" t="s">
+      <c r="P4" s="66" t="s">
         <v>759</v>
       </c>
-      <c r="Q4" s="56" t="s">
+      <c r="Q4" s="66" t="s">
         <v>760</v>
       </c>
-      <c r="R4" s="56" t="s">
+      <c r="R4" s="66" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="5" spans="2:18" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="49" t="s">
         <v>744</v>
       </c>
@@ -5026,11 +4754,11 @@
       <c r="M5" s="50" t="s">
         <v>745</v>
       </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
     </row>
     <row r="6" spans="2:18" ht="60" x14ac:dyDescent="0.2">
       <c r="B6" s="45">
@@ -5041,7 +4769,7 @@
         <f>Summary!D3</f>
         <v>August Batch</v>
       </c>
-      <c r="D6" s="65">
+      <c r="D6" s="56">
         <f>Summary!H3</f>
         <v>43774</v>
       </c>
@@ -5079,13 +4807,13 @@
       <c r="O6" s="41" t="s">
         <v>758</v>
       </c>
-      <c r="P6" s="60" t="s">
+      <c r="P6" s="53" t="s">
         <v>761</v>
       </c>
-      <c r="Q6" s="60" t="s">
+      <c r="Q6" s="53" t="s">
         <v>762</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="52" t="s">
         <v>764</v>
       </c>
     </row>
@@ -5098,7 +4826,7 @@
         <f>Summary!D4</f>
         <v>Noida Batch</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="56">
         <f>Summary!H4</f>
         <v>43811</v>
       </c>
@@ -5136,13 +4864,13 @@
       <c r="O7" s="41" t="s">
         <v>754</v>
       </c>
-      <c r="P7" s="60" t="s">
+      <c r="P7" s="53" t="s">
         <v>769</v>
       </c>
-      <c r="Q7" s="60" t="s">
+      <c r="Q7" s="53" t="s">
         <v>770</v>
       </c>
-      <c r="R7" s="70" t="s">
+      <c r="R7" s="63" t="s">
         <v>775</v>
       </c>
     </row>
@@ -5155,7 +4883,7 @@
         <f>Summary!D5</f>
         <v>Bhuvaneswar Batch</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="56">
         <f>Summary!H5</f>
         <v>43811</v>
       </c>
@@ -5193,13 +4921,13 @@
       <c r="O8" s="41" t="s">
         <v>754</v>
       </c>
-      <c r="P8" s="60" t="s">
+      <c r="P8" s="53" t="s">
         <v>766</v>
       </c>
-      <c r="Q8" s="60" t="s">
+      <c r="Q8" s="53" t="s">
         <v>767</v>
       </c>
-      <c r="R8" s="71"/>
+      <c r="R8" s="64"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="46">
@@ -5210,7 +4938,7 @@
         <f>Summary!D6</f>
         <v>Bangalore Batch</v>
       </c>
-      <c r="D9" s="65">
+      <c r="D9" s="56">
         <f>Summary!H6</f>
         <v>43811</v>
       </c>
@@ -5248,13 +4976,13 @@
       <c r="O9" s="41" t="s">
         <v>754</v>
       </c>
-      <c r="P9" s="60" t="s">
+      <c r="P9" s="53" t="s">
         <v>765</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="53" t="s">
         <v>768</v>
       </c>
-      <c r="R9" s="72"/>
+      <c r="R9" s="65"/>
     </row>
     <row r="10" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="47">
@@ -5265,7 +4993,7 @@
         <f>Summary!D7</f>
         <v>Pune-Mumbai Batch</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="57">
         <f>Summary!H7</f>
         <v>43836</v>
       </c>
@@ -5303,13 +5031,13 @@
       <c r="O10" s="41" t="s">
         <v>754</v>
       </c>
-      <c r="P10" s="60" t="s">
+      <c r="P10" s="53" t="s">
         <v>771</v>
       </c>
-      <c r="Q10" s="60" t="s">
+      <c r="Q10" s="53" t="s">
         <v>772</v>
       </c>
-      <c r="R10" s="59"/>
+      <c r="R10" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5331,102 +5059,102 @@
     <mergeCell ref="L4:M4"/>
   </mergeCells>
   <conditionalFormatting sqref="S3:Y102 A3:O4 A5:C5 E5:O5 A6:O102">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="Reviewed-Ready for Test">
+    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="Reviewed-Ready for Test">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="50" operator="containsText" text="Reviewed-Project Going On">
+    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="Reviewed-Project Going On">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="To be Shared">
+    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="To be Shared">
       <formula>NOT(ISERROR(SEARCH("To be Shared",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Test Conducted-Results to be Shared">
+    <cfRule type="containsText" dxfId="26" priority="52" operator="containsText" text="Test Conducted-Results to be Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="53" operator="containsText" text="Shared-Review Pending">
+    <cfRule type="containsText" dxfId="25" priority="53" operator="containsText" text="Shared-Review Pending">
       <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="54" operator="containsText" text="Test Conducted-Results Shared">
+    <cfRule type="containsText" dxfId="24" priority="54" operator="containsText" text="Test Conducted-Results Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:Q5 P11:Q102">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="Reviewed-Ready for Test">
+    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="Reviewed-Ready for Test">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Reviewed-Project Going On">
+    <cfRule type="containsText" dxfId="22" priority="44" operator="containsText" text="Reviewed-Project Going On">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="To be Shared">
+    <cfRule type="containsText" dxfId="21" priority="45" operator="containsText" text="To be Shared">
       <formula>NOT(ISERROR(SEARCH("To be Shared",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Test Conducted-Results to be Shared">
+    <cfRule type="containsText" dxfId="20" priority="46" operator="containsText" text="Test Conducted-Results to be Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="47" operator="containsText" text="Shared-Review Pending">
+    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="Shared-Review Pending">
       <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="48" operator="containsText" text="Test Conducted-Results Shared">
+    <cfRule type="containsText" dxfId="18" priority="48" operator="containsText" text="Test Conducted-Results Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:Q10">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="Reviewed-Ready for Test">
+    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="Reviewed-Ready for Test">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",P6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="38" operator="containsText" text="Reviewed-Project Going On">
+    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="Reviewed-Project Going On">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",P6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="To be Shared">
+    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="To be Shared">
       <formula>NOT(ISERROR(SEARCH("To be Shared",P6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Test Conducted-Results to be Shared">
+    <cfRule type="containsText" dxfId="14" priority="40" operator="containsText" text="Test Conducted-Results to be Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",P6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="Shared-Review Pending">
+    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="Shared-Review Pending">
       <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",P6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="Test Conducted-Results Shared">
+    <cfRule type="containsText" dxfId="12" priority="42" operator="containsText" text="Test Conducted-Results Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",P6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R5 R11:R102">
-    <cfRule type="containsText" dxfId="35" priority="31" operator="containsText" text="Reviewed-Ready for Test">
+    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Reviewed-Ready for Test">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",R3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="32" operator="containsText" text="Reviewed-Project Going On">
+    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="Reviewed-Project Going On">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",R3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="To be Shared">
+    <cfRule type="containsText" dxfId="9" priority="33" operator="containsText" text="To be Shared">
       <formula>NOT(ISERROR(SEARCH("To be Shared",R3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Test Conducted-Results to be Shared">
+    <cfRule type="containsText" dxfId="8" priority="34" operator="containsText" text="Test Conducted-Results to be Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",R3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="Shared-Review Pending">
+    <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="Shared-Review Pending">
       <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",R3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="36" operator="containsText" text="Test Conducted-Results Shared">
+    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="Test Conducted-Results Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",R3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R7 R10">
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="Reviewed-Ready for Test">
+    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="Reviewed-Ready for Test">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",R6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="Reviewed-Project Going On">
+    <cfRule type="containsText" dxfId="4" priority="26" operator="containsText" text="Reviewed-Project Going On">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",R6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="To be Shared">
+    <cfRule type="containsText" dxfId="3" priority="27" operator="containsText" text="To be Shared">
       <formula>NOT(ISERROR(SEARCH("To be Shared",R6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Test Conducted-Results to be Shared">
+    <cfRule type="containsText" dxfId="2" priority="28" operator="containsText" text="Test Conducted-Results to be Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",R6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="29" operator="containsText" text="Shared-Review Pending">
+    <cfRule type="containsText" dxfId="1" priority="29" operator="containsText" text="Shared-Review Pending">
       <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",R6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="30" operator="containsText" text="Test Conducted-Results Shared">
+    <cfRule type="containsText" dxfId="0" priority="30" operator="containsText" text="Test Conducted-Results Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",R6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5502,14 +5230,14 @@
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="74" t="s">
         <v>709</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="H7" s="55" t="s">
+      <c r="C7" s="74"/>
+      <c r="H7" s="74" t="s">
         <v>733</v>
       </c>
-      <c r="I7" s="55"/>
+      <c r="I7" s="74"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
@@ -6768,14 +6496,14 @@
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="74" t="s">
         <v>709</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="C6" s="74"/>
+      <c r="H6" s="74" t="s">
         <v>711</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
@@ -7774,14 +7502,14 @@
       <c r="H5" s="31"/>
     </row>
     <row r="6" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="74" t="s">
         <v>709</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="C6" s="74"/>
+      <c r="H6" s="74" t="s">
         <v>711</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
@@ -8103,14 +7831,14 @@
       <c r="H5" s="31"/>
     </row>
     <row r="6" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="74" t="s">
         <v>709</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="C6" s="74"/>
+      <c r="H6" s="74" t="s">
         <v>711</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
@@ -9680,14 +9408,14 @@
       <c r="H5" s="31"/>
     </row>
     <row r="6" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="74" t="s">
         <v>709</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="C6" s="74"/>
+      <c r="H6" s="74" t="s">
         <v>711</v>
       </c>
-      <c r="I6" s="55"/>
+      <c r="I6" s="74"/>
     </row>
     <row r="7" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4272,10 +4272,10 @@
   <dimension ref="B2:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -2297,9 +2297,6 @@
     <t>Reviewed-Project Going On</t>
   </si>
   <si>
-    <t>Reviewed-Ready for Test</t>
-  </si>
-  <si>
     <t>Parallel Project Name</t>
   </si>
   <si>
@@ -2353,16 +2350,20 @@
     <t>Varsha has reviewd M1 MTT &amp; MPT on Thrusday 17th Oct 2019</t>
   </si>
   <si>
-    <t>BDD is Completed
-Module 4 Test Conducted</t>
-  </si>
-  <si>
-    <t>Core Java, SQL and JDBC Completed
-Module 1 Test Conducted</t>
-  </si>
-  <si>
-    <t>Core Java is going on
-SQL Completed</t>
+    <t>Parllel Project Evalution Done
+PLP Started</t>
+  </si>
+  <si>
+    <t>HTML5, CSS3 with bootstrap 4 completed
+Javascript and Typescript completed
+Angular Started</t>
+  </si>
+  <si>
+    <t>Core Java and Sql completed
+JDBC going on</t>
+  </si>
+  <si>
+    <t>Project Evaluated</t>
   </si>
 </sst>
 </file>
@@ -4272,10 +4273,10 @@
   <dimension ref="B2:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,7 +4355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>1</v>
       </c>
@@ -4401,14 +4402,14 @@
         <v>9448246364</v>
       </c>
       <c r="P3" s="59" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="R3" s="14"/>
     </row>
-    <row r="4" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>2</v>
       </c>
@@ -4439,11 +4440,11 @@
       </c>
       <c r="K4" s="36">
         <f>'Noida Batch Candidates'!D3</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="L4" s="34">
         <f>'Noida Batch Candidates'!D4</f>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>11</v>
@@ -4455,14 +4456,14 @@
         <v>8377841525</v>
       </c>
       <c r="P4" s="60" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -4509,14 +4510,14 @@
         <v>8073098283</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>15</v>
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="71.25" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -4547,11 +4548,11 @@
       </c>
       <c r="K6" s="36">
         <f>'Bangalore Batch Candidates'!D3</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L6" s="34">
         <f>'Bangalore Batch Candidates'!D4</f>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>13</v>
@@ -4563,14 +4564,14 @@
         <v>8762928822</v>
       </c>
       <c r="P6" s="60" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="Q6" s="12" t="s">
         <v>15</v>
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -4601,11 +4602,11 @@
       </c>
       <c r="K7" s="36">
         <f>'Pune-Mumbai Batch Candidates'!D3</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" s="34">
         <f>'Pune-Mumbai Batch Candidates'!D4</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
@@ -4617,7 +4618,7 @@
         <v>9897145195</v>
       </c>
       <c r="P7" s="60" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
@@ -4654,8 +4655,7 @@
     <col min="6" max="7" width="45.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="39" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="45.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.140625" style="54" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="34.140625" style="54" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="42.7109375" style="51" bestFit="1" customWidth="1"/>
@@ -4664,13 +4664,13 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="61" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
       <c r="E2" s="61"/>
       <c r="F2" s="62" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G2" s="62"/>
       <c r="H2" s="58"/>
@@ -4716,13 +4716,13 @@
         <v>753</v>
       </c>
       <c r="P4" s="66" t="s">
+        <v>758</v>
+      </c>
+      <c r="Q4" s="66" t="s">
         <v>759</v>
       </c>
-      <c r="Q4" s="66" t="s">
-        <v>760</v>
-      </c>
       <c r="R4" s="66" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="5" spans="2:18" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4796,25 +4796,25 @@
         <v>755</v>
       </c>
       <c r="L6" s="41" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="N6" s="41" t="s">
+        <v>778</v>
+      </c>
+      <c r="O6" s="41" t="s">
         <v>757</v>
       </c>
-      <c r="O6" s="41" t="s">
-        <v>758</v>
-      </c>
       <c r="P6" s="53" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q6" s="53" t="s">
         <v>761</v>
       </c>
-      <c r="Q6" s="53" t="s">
-        <v>762</v>
-      </c>
       <c r="R6" s="52" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -4865,13 +4865,13 @@
         <v>754</v>
       </c>
       <c r="P7" s="53" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q7" s="53" t="s">
         <v>769</v>
       </c>
-      <c r="Q7" s="53" t="s">
-        <v>770</v>
-      </c>
       <c r="R7" s="63" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -4922,10 +4922,10 @@
         <v>754</v>
       </c>
       <c r="P8" s="53" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q8" s="53" t="s">
         <v>766</v>
-      </c>
-      <c r="Q8" s="53" t="s">
-        <v>767</v>
       </c>
       <c r="R8" s="64"/>
     </row>
@@ -4977,10 +4977,10 @@
         <v>754</v>
       </c>
       <c r="P9" s="53" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="Q9" s="53" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R9" s="65"/>
     </row>
@@ -5002,10 +5002,10 @@
         <v>Sudheer</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="H10" s="41" t="s">
         <v>754</v>
@@ -5032,10 +5032,10 @@
         <v>754</v>
       </c>
       <c r="P10" s="53" t="s">
+        <v>770</v>
+      </c>
+      <c r="Q10" s="53" t="s">
         <v>771</v>
-      </c>
-      <c r="Q10" s="53" t="s">
-        <v>772</v>
       </c>
       <c r="R10" s="52"/>
     </row>
@@ -6441,7 +6441,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L34"/>
+  <dimension ref="B2:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="D3" s="22">
         <f>COUNT($H$1:$H$100)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="D4" s="22">
         <f>COUNT($B$1:$B$100)</f>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -6734,16 +6734,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D14" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="27">
-        <v>9368519717</v>
+        <v>8512097276</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H14" s="33">
         <v>7</v>
@@ -6766,16 +6766,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="27">
-        <v>8115712543</v>
+        <v>8076728958</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H15" s="33">
         <v>8</v>
@@ -6798,16 +6798,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="27">
-        <v>8512097276</v>
+        <v>7669604203</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H16" s="33">
         <v>9</v>
@@ -6830,16 +6830,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E17" s="27">
-        <v>8076728958</v>
+        <v>8860817681</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H17" s="33">
         <v>10</v>
@@ -6862,16 +6862,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="27">
-        <v>7669604203</v>
+        <v>9015270530</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="H18" s="33">
         <v>11</v>
@@ -6894,16 +6894,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E19" s="27">
-        <v>8860817681</v>
+        <v>7827327267</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="H19" s="33">
         <v>12</v>
@@ -6926,16 +6926,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="27">
-        <v>9015270530</v>
+        <v>8800709136</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="H20" s="33">
         <v>13</v>
@@ -6958,16 +6958,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E21" s="27">
-        <v>7827327267</v>
+        <v>9971884734</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="H21" s="33">
         <v>14</v>
@@ -6990,16 +6990,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E22" s="27">
-        <v>8800709136</v>
+        <v>7988643977</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H22" s="33">
         <v>15</v>
@@ -7022,16 +7022,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E23" s="27">
-        <v>9971884734</v>
+        <v>9910920931</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H23" s="33">
         <v>16</v>
@@ -7054,16 +7054,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D24" s="26" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="27">
-        <v>7988643977</v>
+        <v>7073862831</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="H24" s="33">
         <v>17</v>
@@ -7086,16 +7086,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E25" s="27">
-        <v>9910920931</v>
+        <v>9810943877</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H25" s="33">
         <v>18</v>
@@ -7118,16 +7118,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E26" s="27">
-        <v>7073862831</v>
+        <v>9582848409</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="H26" s="33">
         <v>19</v>
@@ -7150,16 +7150,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="27">
-        <v>9810943877</v>
+        <v>7065509255</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H27" s="33">
         <v>20</v>
@@ -7182,16 +7182,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E28" s="27">
-        <v>9582848409</v>
+        <v>8218128166</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="H28" s="33">
         <v>21</v>
@@ -7214,16 +7214,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E29" s="27">
-        <v>7065509255</v>
+        <v>8512856779</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="H29" s="33">
         <v>22</v>
@@ -7246,16 +7246,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>31</v>
       </c>
       <c r="E30" s="27">
-        <v>9897133664</v>
+        <v>9067472225</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="H30" s="33">
         <v>23</v>
@@ -7274,21 +7274,6 @@
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="32">
-        <v>24</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>537</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="27">
-        <v>8218128166</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>538</v>
-      </c>
       <c r="H31" s="33">
         <v>24</v>
       </c>
@@ -7306,21 +7291,6 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="32">
-        <v>25</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="27">
-        <v>8512856779</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>540</v>
-      </c>
       <c r="H32" s="33">
         <v>25</v>
       </c>
@@ -7337,37 +7307,71 @@
         <v>618</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="32">
+    <row r="33" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H33" s="32">
         <v>26</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="27">
-        <v>9067472225</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="32">
+      <c r="I33" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="27">
+        <v>9368519717</v>
+      </c>
+      <c r="L33" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H34" s="32">
         <v>27</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="I34" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="27">
+        <v>8115712543</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H35" s="32">
+        <v>28</v>
+      </c>
+      <c r="I35" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="27">
+        <v>9897133664</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H36" s="32">
+        <v>29</v>
+      </c>
+      <c r="I36" s="25" t="s">
         <v>543</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="27">
+      <c r="J36" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="27">
         <v>8604793053</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="L36" s="25" t="s">
         <v>544</v>
       </c>
     </row>
@@ -7377,32 +7381,32 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F21" r:id="rId1"/>
-    <hyperlink ref="F23" r:id="rId2"/>
-    <hyperlink ref="F15" r:id="rId3"/>
+    <hyperlink ref="F19" r:id="rId1"/>
+    <hyperlink ref="F21" r:id="rId2"/>
+    <hyperlink ref="L34" r:id="rId3"/>
     <hyperlink ref="F9" r:id="rId4"/>
-    <hyperlink ref="F14" r:id="rId5"/>
-    <hyperlink ref="F26" r:id="rId6"/>
-    <hyperlink ref="F19" r:id="rId7"/>
+    <hyperlink ref="L33" r:id="rId5"/>
+    <hyperlink ref="F24" r:id="rId6"/>
+    <hyperlink ref="F17" r:id="rId7"/>
     <hyperlink ref="F11" r:id="rId8"/>
     <hyperlink ref="F8" r:id="rId9"/>
-    <hyperlink ref="F17" r:id="rId10"/>
-    <hyperlink ref="F16" r:id="rId11"/>
-    <hyperlink ref="F25" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="F14" r:id="rId11"/>
+    <hyperlink ref="F23" r:id="rId12"/>
     <hyperlink ref="F10" r:id="rId13"/>
-    <hyperlink ref="F32" r:id="rId14"/>
-    <hyperlink ref="F29" r:id="rId15"/>
-    <hyperlink ref="F24" r:id="rId16"/>
-    <hyperlink ref="F20" r:id="rId17"/>
-    <hyperlink ref="F18" r:id="rId18"/>
-    <hyperlink ref="F28" r:id="rId19"/>
-    <hyperlink ref="F22" r:id="rId20"/>
+    <hyperlink ref="F29" r:id="rId14"/>
+    <hyperlink ref="F27" r:id="rId15"/>
+    <hyperlink ref="F22" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F16" r:id="rId18"/>
+    <hyperlink ref="F26" r:id="rId19"/>
+    <hyperlink ref="F20" r:id="rId20"/>
     <hyperlink ref="F13" r:id="rId21"/>
     <hyperlink ref="F12" r:id="rId22"/>
-    <hyperlink ref="F30" r:id="rId23"/>
-    <hyperlink ref="F34" r:id="rId24"/>
-    <hyperlink ref="F33" r:id="rId25"/>
-    <hyperlink ref="F31" r:id="rId26"/>
+    <hyperlink ref="L35" r:id="rId23"/>
+    <hyperlink ref="L36" r:id="rId24"/>
+    <hyperlink ref="F30" r:id="rId25"/>
+    <hyperlink ref="F28" r:id="rId26"/>
     <hyperlink ref="L32" r:id="rId27" display="mailto:vishal2897@gmail.com"/>
     <hyperlink ref="L31" r:id="rId28" display="mailto:vinay2135@gmail.com"/>
     <hyperlink ref="L30" r:id="rId29" display="mailto:surbhisangal1997@gmail.com"/>
@@ -7764,7 +7768,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L79"/>
+  <dimension ref="B1:L74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7809,7 +7813,7 @@
       </c>
       <c r="D3" s="22">
         <f>COUNT($H$1:$H$100)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H3" s="31"/>
     </row>
@@ -7821,7 +7825,7 @@
       </c>
       <c r="D4" s="22">
         <f>COUNT($B$1:$B$100)</f>
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H4" s="31"/>
     </row>
@@ -7877,16 +7881,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -7909,16 +7913,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -7941,16 +7945,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
@@ -7973,16 +7977,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
@@ -8005,16 +8009,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
@@ -8037,16 +8041,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
@@ -8069,16 +8073,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H14" s="3">
         <v>7</v>
@@ -8101,16 +8105,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
@@ -8133,16 +8137,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
@@ -8165,16 +8169,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
@@ -8197,16 +8201,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>274</v>
+        <v>283</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
@@ -8214,16 +8233,31 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>277</v>
+        <v>286</v>
+      </c>
+      <c r="H19" s="3">
+        <v>12</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -8231,16 +8265,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>280</v>
+        <v>289</v>
+      </c>
+      <c r="H20" s="3">
+        <v>13</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -8248,16 +8297,31 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>283</v>
+        <v>292</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
@@ -8265,16 +8329,31 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>286</v>
+        <v>295</v>
+      </c>
+      <c r="H22" s="3">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -8282,16 +8361,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -8299,16 +8378,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -8316,16 +8395,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -8333,16 +8412,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -8350,16 +8429,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -8367,16 +8446,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -8384,16 +8463,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -8401,16 +8480,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -8418,16 +8497,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -8435,16 +8514,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -8452,16 +8531,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -8469,16 +8548,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -8486,16 +8565,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -8503,16 +8582,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -8520,16 +8599,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -8537,16 +8616,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -8554,16 +8633,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -8571,16 +8650,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -8588,16 +8667,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -8605,16 +8684,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -8622,16 +8701,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -8639,16 +8718,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -8656,16 +8735,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
@@ -8673,16 +8752,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
@@ -8690,16 +8769,16 @@
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
@@ -8707,16 +8786,16 @@
         <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -8724,16 +8803,16 @@
         <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -8741,16 +8820,16 @@
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -8758,16 +8837,16 @@
         <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -8775,16 +8854,16 @@
         <v>45</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -8792,16 +8871,16 @@
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -8809,16 +8888,16 @@
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -8826,16 +8905,16 @@
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -8843,16 +8922,16 @@
         <v>49</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -8860,16 +8939,16 @@
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -8877,16 +8956,16 @@
         <v>51</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -8894,16 +8973,16 @@
         <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -8911,16 +8990,16 @@
         <v>53</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -8928,16 +9007,16 @@
         <v>54</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
@@ -8945,16 +9024,16 @@
         <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -8962,16 +9041,16 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
@@ -8979,16 +9058,16 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -8996,16 +9075,16 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
@@ -9013,16 +9092,16 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
@@ -9030,16 +9109,16 @@
         <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
@@ -9047,16 +9126,16 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
@@ -9064,16 +9143,16 @@
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -9081,16 +9160,16 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
@@ -9098,16 +9177,16 @@
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -9115,16 +9194,16 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -9132,16 +9211,16 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -9149,100 +9228,15 @@
         <v>67</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="3">
-        <v>68</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="3">
-        <v>69</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="3">
-        <v>70</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="3">
-        <v>71</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="3">
-        <v>72</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F79" s="17" t="s">
         <v>457</v>
       </c>
     </row>
@@ -9252,78 +9246,78 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="mailto:kalyani.addagada@gmail.com"/>
-    <hyperlink ref="F9" r:id="rId2" display="mailto:amulyaps18@gmail.com"/>
-    <hyperlink ref="F10" r:id="rId3" display="mailto:tanilkumarreddy1998@gmail.com"/>
-    <hyperlink ref="F11" r:id="rId4" display="mailto:anjanashaju1997@gmail.com"/>
-    <hyperlink ref="F12" r:id="rId5" display="mailto:aartipawar070@gmail.com"/>
-    <hyperlink ref="F13" r:id="rId6" display="mailto:akbiswal0108@gmail.com"/>
-    <hyperlink ref="F14" r:id="rId7" display="mailto:hiregoudarpita777@gmail.com"/>
-    <hyperlink ref="F15" r:id="rId8" display="mailto:ashalr1997@gmail.com"/>
-    <hyperlink ref="F16" r:id="rId9" display="mailto:bhavyasree.banyala28@gmail.com"/>
-    <hyperlink ref="F17" r:id="rId10" display="mailto:basavarajtoli1800@gmail.com"/>
-    <hyperlink ref="F18" r:id="rId11" display="mailto:bhagyashree.preety321@gmail.com"/>
-    <hyperlink ref="F19" r:id="rId12" display="mailto:bharathachar437@gmail.com"/>
-    <hyperlink ref="F20" r:id="rId13" display="mailto:bhoomika.n89@gmail.com"/>
-    <hyperlink ref="F21" r:id="rId14" display="mailto:patisagar.1997@gmail.com"/>
-    <hyperlink ref="F22" r:id="rId15" display="mailto:chandulokesh426@gmail.com"/>
-    <hyperlink ref="F23" r:id="rId16" display="mailto:jaggu8191@gmail.com"/>
-    <hyperlink ref="F24" r:id="rId17" display="mailto:tejudesireddy4@gmail.com"/>
-    <hyperlink ref="F25" r:id="rId18" display="mailto:g.pavankalyan1998@gmail.com"/>
-    <hyperlink ref="F26" r:id="rId19" display="mailto:gayathrigayigk18@gmail.com"/>
-    <hyperlink ref="F27" r:id="rId20" display="mailto:yasasvi98@gmail.com"/>
-    <hyperlink ref="F28" r:id="rId21" display="mailto:reshueee.rymec@gmail.com"/>
-    <hyperlink ref="F29" r:id="rId22" display="mailto:kajalsinghmys@gmail.com"/>
-    <hyperlink ref="F30" r:id="rId23" display="mailto:skeerti00@gmail.com"/>
-    <hyperlink ref="F31" r:id="rId24" display="mailto:khadirshaik722@gmail.com"/>
-    <hyperlink ref="F32" r:id="rId25" display="mailto:guna.konda333@gmail.com"/>
-    <hyperlink ref="F33" r:id="rId26" display="mailto:mvmkoushik@gmail.com"/>
-    <hyperlink ref="F34" r:id="rId27" display="mailto:maluguveluanusha@gmail.com"/>
-    <hyperlink ref="F35" r:id="rId28" display="mailto:chundurumahendra@gmail.com"/>
-    <hyperlink ref="F36" r:id="rId29" display="mailto:hussainsaddan786@gmail.com"/>
-    <hyperlink ref="F37" r:id="rId30" display="mailto:vasuda.mikkilineni@gmail.com"/>
-    <hyperlink ref="F38" r:id="rId31" display="mailto:sureshma.reddy1997@gmail.com"/>
-    <hyperlink ref="F39" r:id="rId32" display="mailto:pallavi.nelli1@gmail.com"/>
-    <hyperlink ref="F40" r:id="rId33" display="mailto:mounikasharan4321@gmail.com"/>
-    <hyperlink ref="F41" r:id="rId34" display="mailto:venkatasaiprasad99@gmail.com"/>
-    <hyperlink ref="F42" r:id="rId35" display="mailto:parandhama.kokila98@gmail.com"/>
-    <hyperlink ref="F43" r:id="rId36" display="mailto:durgapriyapatnam@gmail.com"/>
-    <hyperlink ref="F44" r:id="rId37" display="mailto:pavannani741@gmail.com"/>
-    <hyperlink ref="F45" r:id="rId38" display="mailto:tejasvimurthy13@gmail.com"/>
-    <hyperlink ref="F46" r:id="rId39" display="mailto:saiprashanthi001@gmail.com"/>
-    <hyperlink ref="F47" r:id="rId40" display="mailto:pragyasharma3007@gmail.com"/>
-    <hyperlink ref="F48" r:id="rId41" display="mailto:r.b.karthik19@gmail.com"/>
-    <hyperlink ref="F49" r:id="rId42" display="mailto:raghavi6anandkumar@gmail.com"/>
-    <hyperlink ref="F50" r:id="rId43" display="mailto:rakshith.kumar.0697@gmail.com"/>
-    <hyperlink ref="F51" r:id="rId44" display="mailto:ram.prashanth97@gmail.com"/>
-    <hyperlink ref="F52" r:id="rId45" display="mailto:lasyaramireddy8@gmail.com"/>
-    <hyperlink ref="F53" r:id="rId46" display="mailto:ranibangale1997@gmail.com"/>
-    <hyperlink ref="F54" r:id="rId47" display="mailto:narainrb97@gmail.com"/>
-    <hyperlink ref="F55" r:id="rId48" display="mailto:mopuriruhia@gmail.com"/>
-    <hyperlink ref="F56" r:id="rId49" display="mailto:vasundhararoyal420@gmail.com"/>
-    <hyperlink ref="F57" r:id="rId50" display="mailto:sj30301@gmail.com"/>
-    <hyperlink ref="F58" r:id="rId51" display="mailto:sahananavale721@gmail.com"/>
-    <hyperlink ref="F59" r:id="rId52" display="mailto:sampadats@gmail.com"/>
-    <hyperlink ref="F60" r:id="rId53" display="mailto:gksandeep97@gmail.com"/>
-    <hyperlink ref="F61" r:id="rId54" display="mailto:kavyasrees143@gmail.com"/>
-    <hyperlink ref="F62" r:id="rId55" display="mailto:shahidafridshaik98@gmail.com"/>
-    <hyperlink ref="F63" r:id="rId56" display="mailto:shivakhilkumar@gmail.com"/>
-    <hyperlink ref="F64" r:id="rId57" display="mailto:shivashankardrif@gmail.com"/>
-    <hyperlink ref="F65" r:id="rId58" display="mailto:sireeshas97@gmail.com"/>
-    <hyperlink ref="F66" r:id="rId59" display="mailto:sirigowda999@gmail.com"/>
-    <hyperlink ref="F67" r:id="rId60" display="mailto:snoubad14@gmail.com"/>
-    <hyperlink ref="F68" r:id="rId61" display="mailto:suralakshmibhavani@gmail.com"/>
-    <hyperlink ref="F69" r:id="rId62" display="mailto:hamsajaanu2000@gmail.com"/>
-    <hyperlink ref="F70" r:id="rId63" display="mailto:premjoshua16@gmail.com"/>
-    <hyperlink ref="F71" r:id="rId64" display="mailto:tramyareddy98@gmail.com"/>
-    <hyperlink ref="F72" r:id="rId65" display="mailto:chaudharyv5221@gmail.com"/>
-    <hyperlink ref="F73" r:id="rId66" display="mailto:varsha9rani@gmail.com"/>
-    <hyperlink ref="F74" r:id="rId67" display="mailto:hadimanividyavat1i@gmail.com"/>
-    <hyperlink ref="F75" r:id="rId68" display="mailto:vindhya.kumbar1@gmail.com"/>
-    <hyperlink ref="F76" r:id="rId69" display="mailto:yasmeendvg97@gmail.com"/>
-    <hyperlink ref="F77" r:id="rId70" display="mailto:srinidhigonal@gmail.com"/>
-    <hyperlink ref="F78" r:id="rId71" display="mailto:divya.ravuri6@gmail.com"/>
-    <hyperlink ref="F79" r:id="rId72" display="mailto:saitejaswinia6@gmail.com"/>
+    <hyperlink ref="L18" r:id="rId1" display="mailto:kalyani.addagada@gmail.com"/>
+    <hyperlink ref="F8" r:id="rId2" display="mailto:amulyaps18@gmail.com"/>
+    <hyperlink ref="F9" r:id="rId3" display="mailto:tanilkumarreddy1998@gmail.com"/>
+    <hyperlink ref="F10" r:id="rId4" display="mailto:anjanashaju1997@gmail.com"/>
+    <hyperlink ref="L22" r:id="rId5" display="mailto:aartipawar070@gmail.com"/>
+    <hyperlink ref="F11" r:id="rId6" display="mailto:akbiswal0108@gmail.com"/>
+    <hyperlink ref="F12" r:id="rId7" display="mailto:hiregoudarpita777@gmail.com"/>
+    <hyperlink ref="F13" r:id="rId8" display="mailto:ashalr1997@gmail.com"/>
+    <hyperlink ref="F14" r:id="rId9" display="mailto:bhavyasree.banyala28@gmail.com"/>
+    <hyperlink ref="L19" r:id="rId10" display="mailto:basavarajtoli1800@gmail.com"/>
+    <hyperlink ref="F15" r:id="rId11" display="mailto:bhagyashree.preety321@gmail.com"/>
+    <hyperlink ref="F16" r:id="rId12" display="mailto:bharathachar437@gmail.com"/>
+    <hyperlink ref="F17" r:id="rId13" display="mailto:bhoomika.n89@gmail.com"/>
+    <hyperlink ref="F18" r:id="rId14" display="mailto:patisagar.1997@gmail.com"/>
+    <hyperlink ref="F19" r:id="rId15" display="mailto:chandulokesh426@gmail.com"/>
+    <hyperlink ref="F20" r:id="rId16" display="mailto:jaggu8191@gmail.com"/>
+    <hyperlink ref="F21" r:id="rId17" display="mailto:tejudesireddy4@gmail.com"/>
+    <hyperlink ref="F22" r:id="rId18" display="mailto:g.pavankalyan1998@gmail.com"/>
+    <hyperlink ref="F23" r:id="rId19" display="mailto:gayathrigayigk18@gmail.com"/>
+    <hyperlink ref="F24" r:id="rId20" display="mailto:yasasvi98@gmail.com"/>
+    <hyperlink ref="F25" r:id="rId21" display="mailto:reshueee.rymec@gmail.com"/>
+    <hyperlink ref="F26" r:id="rId22" display="mailto:kajalsinghmys@gmail.com"/>
+    <hyperlink ref="F27" r:id="rId23" display="mailto:skeerti00@gmail.com"/>
+    <hyperlink ref="F28" r:id="rId24" display="mailto:khadirshaik722@gmail.com"/>
+    <hyperlink ref="F29" r:id="rId25" display="mailto:guna.konda333@gmail.com"/>
+    <hyperlink ref="F30" r:id="rId26" display="mailto:mvmkoushik@gmail.com"/>
+    <hyperlink ref="F31" r:id="rId27" display="mailto:maluguveluanusha@gmail.com"/>
+    <hyperlink ref="F32" r:id="rId28" display="mailto:chundurumahendra@gmail.com"/>
+    <hyperlink ref="F33" r:id="rId29" display="mailto:hussainsaddan786@gmail.com"/>
+    <hyperlink ref="F34" r:id="rId30" display="mailto:vasuda.mikkilineni@gmail.com"/>
+    <hyperlink ref="F35" r:id="rId31" display="mailto:sureshma.reddy1997@gmail.com"/>
+    <hyperlink ref="F36" r:id="rId32" display="mailto:pallavi.nelli1@gmail.com"/>
+    <hyperlink ref="F37" r:id="rId33" display="mailto:mounikasharan4321@gmail.com"/>
+    <hyperlink ref="F38" r:id="rId34" display="mailto:venkatasaiprasad99@gmail.com"/>
+    <hyperlink ref="F39" r:id="rId35" display="mailto:parandhama.kokila98@gmail.com"/>
+    <hyperlink ref="F40" r:id="rId36" display="mailto:durgapriyapatnam@gmail.com"/>
+    <hyperlink ref="F41" r:id="rId37" display="mailto:pavannani741@gmail.com"/>
+    <hyperlink ref="F42" r:id="rId38" display="mailto:tejasvimurthy13@gmail.com"/>
+    <hyperlink ref="F43" r:id="rId39" display="mailto:saiprashanthi001@gmail.com"/>
+    <hyperlink ref="F44" r:id="rId40" display="mailto:pragyasharma3007@gmail.com"/>
+    <hyperlink ref="F45" r:id="rId41" display="mailto:r.b.karthik19@gmail.com"/>
+    <hyperlink ref="F46" r:id="rId42" display="mailto:raghavi6anandkumar@gmail.com"/>
+    <hyperlink ref="F47" r:id="rId43" display="mailto:rakshith.kumar.0697@gmail.com"/>
+    <hyperlink ref="F48" r:id="rId44" display="mailto:ram.prashanth97@gmail.com"/>
+    <hyperlink ref="F49" r:id="rId45" display="mailto:lasyaramireddy8@gmail.com"/>
+    <hyperlink ref="F50" r:id="rId46" display="mailto:ranibangale1997@gmail.com"/>
+    <hyperlink ref="F51" r:id="rId47" display="mailto:narainrb97@gmail.com"/>
+    <hyperlink ref="F52" r:id="rId48" display="mailto:mopuriruhia@gmail.com"/>
+    <hyperlink ref="F53" r:id="rId49" display="mailto:vasundhararoyal420@gmail.com"/>
+    <hyperlink ref="F54" r:id="rId50" display="mailto:sj30301@gmail.com"/>
+    <hyperlink ref="F55" r:id="rId51" display="mailto:sahananavale721@gmail.com"/>
+    <hyperlink ref="F56" r:id="rId52" display="mailto:sampadats@gmail.com"/>
+    <hyperlink ref="L21" r:id="rId53" display="mailto:gksandeep97@gmail.com"/>
+    <hyperlink ref="F57" r:id="rId54" display="mailto:kavyasrees143@gmail.com"/>
+    <hyperlink ref="F58" r:id="rId55" display="mailto:shahidafridshaik98@gmail.com"/>
+    <hyperlink ref="F59" r:id="rId56" display="mailto:shivakhilkumar@gmail.com"/>
+    <hyperlink ref="F60" r:id="rId57" display="mailto:shivashankardrif@gmail.com"/>
+    <hyperlink ref="F61" r:id="rId58" display="mailto:sireeshas97@gmail.com"/>
+    <hyperlink ref="F62" r:id="rId59" display="mailto:sirigowda999@gmail.com"/>
+    <hyperlink ref="F63" r:id="rId60" display="mailto:snoubad14@gmail.com"/>
+    <hyperlink ref="F64" r:id="rId61" display="mailto:suralakshmibhavani@gmail.com"/>
+    <hyperlink ref="F65" r:id="rId62" display="mailto:hamsajaanu2000@gmail.com"/>
+    <hyperlink ref="F66" r:id="rId63" display="mailto:premjoshua16@gmail.com"/>
+    <hyperlink ref="F67" r:id="rId64" display="mailto:tramyareddy98@gmail.com"/>
+    <hyperlink ref="F68" r:id="rId65" display="mailto:chaudharyv5221@gmail.com"/>
+    <hyperlink ref="F69" r:id="rId66" display="mailto:varsha9rani@gmail.com"/>
+    <hyperlink ref="F70" r:id="rId67" display="mailto:hadimanividyavat1i@gmail.com"/>
+    <hyperlink ref="L20" r:id="rId68" display="mailto:vindhya.kumbar1@gmail.com"/>
+    <hyperlink ref="F71" r:id="rId69" display="mailto:yasmeendvg97@gmail.com"/>
+    <hyperlink ref="F72" r:id="rId70" display="mailto:srinidhigonal@gmail.com"/>
+    <hyperlink ref="F73" r:id="rId71" display="mailto:divya.ravuri6@gmail.com"/>
+    <hyperlink ref="F74" r:id="rId72" display="mailto:saitejaswinia6@gmail.com"/>
     <hyperlink ref="L8" r:id="rId73" display="mailto:arpitha.m.dayananda@gmail.com"/>
     <hyperlink ref="L9" r:id="rId74" display="mailto:haripriya4565@gmail.com"/>
     <hyperlink ref="L10" r:id="rId75" display="mailto:harshitamj625@gmail.com"/>
@@ -9341,7 +9335,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L46"/>
+  <dimension ref="B1:L45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9386,7 +9380,7 @@
       </c>
       <c r="D3" s="22">
         <f>COUNT($H$1:$H$100)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="31"/>
     </row>
@@ -9398,7 +9392,7 @@
       </c>
       <c r="D4" s="22">
         <f>COUNT($B$1:$B$100)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="31"/>
     </row>
@@ -9593,6 +9587,21 @@
       <c r="F12" s="17" t="s">
         <v>628</v>
       </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="5">
+        <v>7743949634</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
@@ -9990,16 +9999,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E36" s="5">
-        <v>7743949634</v>
+        <v>8624039380</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -10007,16 +10016,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E37" s="5">
-        <v>8624039380</v>
+        <v>7218454570</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -10024,16 +10033,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E38" s="5">
-        <v>7218454570</v>
+        <v>9359467647</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -10041,16 +10050,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E39" s="5">
-        <v>9359467647</v>
+        <v>8691942385</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -10058,16 +10067,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E40" s="5">
-        <v>8691942385</v>
+        <v>8850419292</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -10075,16 +10084,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="5">
-        <v>8850419292</v>
+        <v>9621029028</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -10092,16 +10101,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E42" s="5">
-        <v>9621029028</v>
+        <v>7066020092</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -10109,16 +10118,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="5">
-        <v>7066020092</v>
+        <v>8349830798</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -10126,16 +10135,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E44" s="5">
-        <v>8349830798</v>
+        <v>7225848488</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
@@ -10143,32 +10152,15 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E45" s="5">
-        <v>7225848488</v>
+        <v>7719862298</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="3">
-        <v>39</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="5">
-        <v>7719862298</v>
-      </c>
-      <c r="F46" s="17" t="s">
         <v>696</v>
       </c>
     </row>
@@ -10179,11 +10171,11 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F8" r:id="rId1"/>
-    <hyperlink ref="F38" r:id="rId2"/>
+    <hyperlink ref="F37" r:id="rId2"/>
     <hyperlink ref="F28" r:id="rId3"/>
     <hyperlink ref="F32" r:id="rId4"/>
     <hyperlink ref="F21" r:id="rId5"/>
-    <hyperlink ref="F39" r:id="rId6"/>
+    <hyperlink ref="F38" r:id="rId6"/>
     <hyperlink ref="F29" r:id="rId7"/>
     <hyperlink ref="F22" r:id="rId8"/>
     <hyperlink ref="F31" r:id="rId9"/>
@@ -10192,20 +10184,20 @@
     <hyperlink ref="F26" r:id="rId12"/>
     <hyperlink ref="F10" r:id="rId13"/>
     <hyperlink ref="F24" r:id="rId14"/>
-    <hyperlink ref="F41" r:id="rId15"/>
+    <hyperlink ref="F40" r:id="rId15"/>
     <hyperlink ref="F13" r:id="rId16"/>
     <hyperlink ref="F35" r:id="rId17"/>
-    <hyperlink ref="F36" r:id="rId18"/>
-    <hyperlink ref="F43" r:id="rId19"/>
-    <hyperlink ref="F44" r:id="rId20"/>
+    <hyperlink ref="L12" r:id="rId18"/>
+    <hyperlink ref="F42" r:id="rId19"/>
+    <hyperlink ref="F43" r:id="rId20"/>
     <hyperlink ref="F23" r:id="rId21"/>
     <hyperlink ref="F14" r:id="rId22"/>
     <hyperlink ref="F12" r:id="rId23"/>
     <hyperlink ref="F25" r:id="rId24"/>
     <hyperlink ref="F11" r:id="rId25"/>
-    <hyperlink ref="F42" r:id="rId26"/>
+    <hyperlink ref="F41" r:id="rId26"/>
     <hyperlink ref="F9" r:id="rId27"/>
-    <hyperlink ref="F37" r:id="rId28"/>
+    <hyperlink ref="F36" r:id="rId28"/>
     <hyperlink ref="F20" r:id="rId29"/>
     <hyperlink ref="F33" r:id="rId30"/>
     <hyperlink ref="F34" r:id="rId31"/>
@@ -10214,9 +10206,9 @@
     <hyperlink ref="F18" r:id="rId34"/>
     <hyperlink ref="F27" r:id="rId35"/>
     <hyperlink ref="F30" r:id="rId36"/>
-    <hyperlink ref="F40" r:id="rId37"/>
-    <hyperlink ref="F45" r:id="rId38"/>
-    <hyperlink ref="F46" r:id="rId39"/>
+    <hyperlink ref="F39" r:id="rId37"/>
+    <hyperlink ref="F44" r:id="rId38"/>
+    <hyperlink ref="F45" r:id="rId39"/>
     <hyperlink ref="L8" r:id="rId40" display="mailto:rukhsarkausar2907@gmail.com"/>
     <hyperlink ref="L9" r:id="rId41" display="mailto:ghadgepratiksha22@gmail.com"/>
     <hyperlink ref="L10" r:id="rId42"/>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="775">
   <si>
     <t>Batch Name</t>
   </si>
@@ -44,18 +44,12 @@
     <t xml:space="preserve">Java </t>
   </si>
   <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bangalore </t>
   </si>
   <si>
     <t>Regular HTD</t>
   </si>
   <si>
-    <t>Praveen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mohammed </t>
   </si>
   <si>
@@ -78,9 +72,6 @@
   </si>
   <si>
     <t>Bangalore Batch</t>
-  </si>
-  <si>
-    <t>August Batch</t>
   </si>
   <si>
     <t>Noida Batch</t>
@@ -2350,20 +2341,15 @@
     <t>Varsha has reviewd M1 MTT &amp; MPT on Thrusday 17th Oct 2019</t>
   </si>
   <si>
-    <t>Parllel Project Evalution Done
-PLP Started</t>
-  </si>
-  <si>
-    <t>HTML5, CSS3 with bootstrap 4 completed
-Javascript and Typescript completed
+    <t>Project Evaluated</t>
+  </si>
+  <si>
+    <t>Servlet and Hibernate Started and Completed</t>
+  </si>
+  <si>
+    <t>HTML, CSS, Bootstrap Started and Completed
+JavaScript and TypeScript Started and Completed
 Angular Started</t>
-  </si>
-  <si>
-    <t>Core Java and Sql completed
-JDBC going on</t>
-  </si>
-  <si>
-    <t>Project Evaluated</t>
   </si>
 </sst>
 </file>
@@ -2373,7 +2359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2403,12 +2389,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Bahnschrift SemiLight"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Bahnschrift SemiLight"/>
       <family val="2"/>
     </font>
@@ -2796,9 +2776,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2839,9 +2819,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2850,170 +2827,161 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3674,7 +3642,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:colOff>412750</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -3682,7 +3650,7 @@
           <xdr:col>15</xdr:col>
           <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3728,13 +3696,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4116,97 +4084,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="2.81640625" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D3" s="39" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D5" s="39"/>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D7" s="39"/>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="39"/>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="39"/>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" s="39"/>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="39"/>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="39"/>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="39"/>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="39"/>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="39"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="39"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="39"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="39"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="39"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="39"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="39"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="39"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="39"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="39"/>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="39"/>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="39"/>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="39"/>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="39"/>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D3" s="36" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="36"/>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="36"/>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D13" s="36"/>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D15" s="36"/>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="36"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="36"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="36"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="36"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="36"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="36"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="36"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="36"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="36"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="36"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="36"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="36"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4221,7 +4189,7 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>409575</xdr:colOff>
+                <xdr:colOff>412750</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -4229,7 +4197,7 @@
                 <xdr:col>15</xdr:col>
                 <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>50800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4248,13 +4216,13 @@
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:colOff>203200</xdr:colOff>
                 <xdr:row>26</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4270,44 +4238,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R9"/>
+  <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.28515625" style="4"/>
+    <col min="12" max="12" width="21.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.26953125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -4322,48 +4290,48 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="28" x14ac:dyDescent="0.35">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
@@ -4372,61 +4340,61 @@
         <v>7</v>
       </c>
       <c r="G3" s="9">
-        <v>43678</v>
+        <v>43726</v>
       </c>
       <c r="H3" s="9">
-        <v>43774</v>
+        <v>43811</v>
       </c>
       <c r="I3" s="9">
-        <v>43781</v>
-      </c>
-      <c r="J3" s="37">
-        <f>'August Batch Candidates'!D2</f>
-        <v>65</v>
-      </c>
-      <c r="K3" s="35">
-        <f>'August Batch Candidates'!D3</f>
-        <v>7</v>
-      </c>
-      <c r="L3" s="34">
-        <f>'August Batch Candidates'!D4</f>
-        <v>58</v>
+        <v>43819</v>
+      </c>
+      <c r="J3" s="35">
+        <f>'Noida Batch Candidates'!D2</f>
+        <v>52</v>
+      </c>
+      <c r="K3" s="34">
+        <f>'Noida Batch Candidates'!D3</f>
+        <v>29</v>
+      </c>
+      <c r="L3" s="33">
+        <f>'Noida Batch Candidates'!D4</f>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="5">
-        <v>9448246364</v>
-      </c>
-      <c r="P3" s="59" t="s">
-        <v>775</v>
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="O3" s="3">
+        <v>8377841525</v>
+      </c>
+      <c r="P3" s="56" t="s">
+        <v>773</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="14"/>
-    </row>
-    <row r="4" spans="2:18" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+        <v>13</v>
+      </c>
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="2:18" ht="28" x14ac:dyDescent="0.35">
+      <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="9">
-        <v>43726</v>
+        <v>43731</v>
       </c>
       <c r="H4" s="9">
         <v>43811</v>
@@ -4434,50 +4402,50 @@
       <c r="I4" s="9">
         <v>43819</v>
       </c>
-      <c r="J4" s="38">
-        <f>'Noida Batch Candidates'!D2</f>
-        <v>52</v>
-      </c>
-      <c r="K4" s="36">
-        <f>'Noida Batch Candidates'!D3</f>
-        <v>29</v>
-      </c>
-      <c r="L4" s="34">
-        <f>'Noida Batch Candidates'!D4</f>
-        <v>23</v>
+      <c r="J4" s="35">
+        <f>'Bhuvaneswar Batch Candidates'!D2</f>
+        <v>12</v>
+      </c>
+      <c r="K4" s="34">
+        <f>'Bhuvaneswar Batch Candidates'!D3</f>
+        <v>4</v>
+      </c>
+      <c r="L4" s="33">
+        <f>'Bhuvaneswar Batch Candidates'!D4</f>
+        <v>8</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="O4" s="3">
-        <v>8377841525</v>
-      </c>
-      <c r="P4" s="60" t="s">
-        <v>776</v>
+        <v>8073098283</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>773</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="2:18" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+    <row r="5" spans="2:18" ht="28" x14ac:dyDescent="0.35">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>8</v>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="G5" s="9">
         <v>43731</v>
@@ -4488,144 +4456,90 @@
       <c r="I5" s="9">
         <v>43819</v>
       </c>
-      <c r="J5" s="38">
-        <f>'Bhuvaneswar Batch Candidates'!D2</f>
-        <v>12</v>
-      </c>
-      <c r="K5" s="36">
-        <f>'Bhuvaneswar Batch Candidates'!D3</f>
+      <c r="J5" s="35">
+        <f>'Bangalore Batch Candidates'!D2</f>
+        <v>82</v>
+      </c>
+      <c r="K5" s="34">
+        <f>'Bangalore Batch Candidates'!D3</f>
+        <v>15</v>
+      </c>
+      <c r="L5" s="33">
+        <f>'Bangalore Batch Candidates'!D4</f>
+        <v>67</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8762928822</v>
+      </c>
+      <c r="P5" s="56" t="s">
+        <v>773</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="2:18" ht="70" x14ac:dyDescent="0.35">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="L5" s="34">
-        <f>'Bhuvaneswar Batch Candidates'!D4</f>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="O5" s="3">
-        <v>8073098283</v>
-      </c>
-      <c r="P5" s="60" t="s">
-        <v>776</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="2:18" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="9">
-        <v>43731</v>
+        <v>43738</v>
       </c>
       <c r="H6" s="9">
-        <v>43811</v>
+        <v>43836</v>
       </c>
       <c r="I6" s="9">
-        <v>43819</v>
-      </c>
-      <c r="J6" s="38">
-        <f>'Bangalore Batch Candidates'!D2</f>
-        <v>82</v>
-      </c>
-      <c r="K6" s="36">
-        <f>'Bangalore Batch Candidates'!D3</f>
-        <v>15</v>
-      </c>
-      <c r="L6" s="34">
-        <f>'Bangalore Batch Candidates'!D4</f>
-        <v>67</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="O6" s="3">
-        <v>8762928822</v>
-      </c>
-      <c r="P6" s="60" t="s">
-        <v>776</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="R6" s="12"/>
-    </row>
-    <row r="7" spans="2:18" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="9">
-        <v>43738</v>
-      </c>
-      <c r="H7" s="9">
-        <v>43836</v>
-      </c>
-      <c r="I7" s="9">
         <v>43843</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J6" s="35">
         <f>'Pune-Mumbai Batch Candidates'!D2</f>
         <v>43</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K6" s="34">
         <f>'Pune-Mumbai Batch Candidates'!D3</f>
         <v>5</v>
       </c>
-      <c r="L7" s="34">
+      <c r="L6" s="33">
         <f>'Pune-Mumbai Batch Candidates'!D4</f>
         <v>38</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="M6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="O6" s="3">
         <v>9897145195</v>
       </c>
-      <c r="P7" s="60" t="s">
-        <v>777</v>
-      </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="G9" s="8" t="s">
-        <v>12</v>
+      <c r="P6" s="56" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="G8" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4645,399 +4559,399 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="55" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="40" customWidth="1"/>
-    <col min="6" max="7" width="45.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="39" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="45.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="33.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="42.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="3.453125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="37" customWidth="1"/>
+    <col min="6" max="7" width="45.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="39" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="45.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="33.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.1796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.1796875" style="51" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="42.7265625" style="48" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="61" t="s">
-        <v>772</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62" t="s">
-        <v>773</v>
-      </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:18" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="70" t="str">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="57" t="s">
+        <v>769</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
+        <v>770</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="66" t="str">
         <f>Summary!$D$2</f>
         <v>Batch Name</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="64" t="str">
         <f>Summary!H2</f>
         <v>L1 Date</v>
       </c>
-      <c r="E4" s="70" t="str">
+      <c r="E4" s="66" t="str">
         <f>Summary!$M$2</f>
         <v>CG Mentor</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="68" t="s">
+        <v>740</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="68" t="s">
         <v>743</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="72" t="s">
-        <v>746</v>
-      </c>
-      <c r="I4" s="73"/>
-      <c r="J4" s="72" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="68" t="s">
+        <v>747</v>
+      </c>
+      <c r="K4" s="69"/>
+      <c r="L4" s="68" t="s">
+        <v>748</v>
+      </c>
+      <c r="M4" s="69"/>
+      <c r="N4" s="66" t="s">
+        <v>749</v>
+      </c>
+      <c r="O4" s="66" t="s">
         <v>750</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="72" t="s">
-        <v>751</v>
-      </c>
-      <c r="M4" s="73"/>
-      <c r="N4" s="70" t="s">
+      <c r="P4" s="62" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q4" s="62" t="s">
+        <v>756</v>
+      </c>
+      <c r="R4" s="62" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" s="30" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="46" t="s">
+        <v>741</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>741</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>741</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>741</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>742</v>
+      </c>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+    </row>
+    <row r="6" spans="2:18" ht="60" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="e">
+        <f>Summary!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C6" s="39" t="e">
+        <f>Summary!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="53" t="e">
+        <f>Summary!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E6" s="39" t="e">
+        <f>Summary!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F6" s="38" t="s">
         <v>752</v>
       </c>
-      <c r="O4" s="70" t="s">
-        <v>753</v>
-      </c>
-      <c r="P4" s="66" t="s">
+      <c r="G6" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="J6" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="L6" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="N6" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="O6" s="38" t="s">
+        <v>754</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q6" s="50" t="s">
         <v>758</v>
       </c>
-      <c r="Q4" s="66" t="s">
-        <v>759</v>
-      </c>
-      <c r="R4" s="66" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="49" t="s">
-        <v>744</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>745</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>744</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>745</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>744</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>745</v>
-      </c>
-      <c r="L5" s="49" t="s">
-        <v>744</v>
-      </c>
-      <c r="M5" s="50" t="s">
-        <v>745</v>
-      </c>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-    </row>
-    <row r="6" spans="2:18" ht="60" x14ac:dyDescent="0.2">
-      <c r="B6" s="45">
+      <c r="R6" s="49" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="43">
         <f>Summary!B3</f>
         <v>1</v>
       </c>
-      <c r="C6" s="42" t="str">
+      <c r="C7" s="40" t="str">
         <f>Summary!D3</f>
-        <v>August Batch</v>
-      </c>
-      <c r="D6" s="56">
+        <v>Noida Batch</v>
+      </c>
+      <c r="D7" s="53">
         <f>Summary!H3</f>
-        <v>43774</v>
-      </c>
-      <c r="E6" s="42" t="str">
+        <v>43811</v>
+      </c>
+      <c r="E7" s="40" t="str">
         <f>Summary!M3</f>
         <v xml:space="preserve">Mohammed </v>
       </c>
-      <c r="F6" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="I6" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="J6" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="K6" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="L6" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="M6" s="41" t="s">
-        <v>755</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>778</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>757</v>
-      </c>
-      <c r="P6" s="53" t="s">
-        <v>760</v>
-      </c>
-      <c r="Q6" s="53" t="s">
-        <v>761</v>
-      </c>
-      <c r="R6" s="52" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="46">
+      <c r="F7" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>766</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="43">
         <f>Summary!B4</f>
         <v>2</v>
       </c>
-      <c r="C7" s="43" t="str">
+      <c r="C8" s="40" t="str">
         <f>Summary!D4</f>
-        <v>Noida Batch</v>
-      </c>
-      <c r="D7" s="56">
+        <v>Bhuvaneswar Batch</v>
+      </c>
+      <c r="D8" s="53">
         <f>Summary!H4</f>
         <v>43811</v>
       </c>
-      <c r="E7" s="43" t="str">
+      <c r="E8" s="40" t="str">
         <f>Summary!M4</f>
-        <v xml:space="preserve">Mohammed </v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>749</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>749</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="J7" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="K7" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="L7" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="M7" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="O7" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="P7" s="53" t="s">
-        <v>768</v>
-      </c>
-      <c r="Q7" s="53" t="s">
-        <v>769</v>
-      </c>
-      <c r="R7" s="63" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="46">
+        <v>Sudheer</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>763</v>
+      </c>
+      <c r="R8" s="60"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="43">
         <f>Summary!B5</f>
         <v>3</v>
       </c>
-      <c r="C8" s="43" t="str">
+      <c r="C9" s="40" t="str">
         <f>Summary!D5</f>
-        <v>Bhuvaneswar Batch</v>
-      </c>
-      <c r="D8" s="56">
+        <v>Bangalore Batch</v>
+      </c>
+      <c r="D9" s="53">
         <f>Summary!H5</f>
         <v>43811</v>
       </c>
-      <c r="E8" s="43" t="str">
+      <c r="E9" s="40" t="str">
         <f>Summary!M5</f>
-        <v>Sudheer</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>749</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>749</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="J8" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="L8" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q8" s="53" t="s">
-        <v>766</v>
-      </c>
-      <c r="R8" s="64"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="46">
+        <v>Varsha</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="L9" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="M9" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="N9" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="O9" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>761</v>
+      </c>
+      <c r="Q9" s="50" t="s">
+        <v>764</v>
+      </c>
+      <c r="R9" s="61"/>
+    </row>
+    <row r="10" spans="2:18" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="44">
         <f>Summary!B6</f>
         <v>4</v>
       </c>
-      <c r="C9" s="43" t="str">
+      <c r="C10" s="41" t="str">
         <f>Summary!D6</f>
-        <v>Bangalore Batch</v>
-      </c>
-      <c r="D9" s="56">
+        <v>Pune-Mumbai Batch</v>
+      </c>
+      <c r="D10" s="54">
         <f>Summary!H6</f>
-        <v>43811</v>
-      </c>
-      <c r="E9" s="43" t="str">
+        <v>43836</v>
+      </c>
+      <c r="E10" s="41" t="str">
         <f>Summary!M6</f>
-        <v>Varsha</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>749</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>749</v>
-      </c>
-      <c r="H9" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="K9" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="L9" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="N9" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="O9" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="P9" s="53" t="s">
-        <v>764</v>
-      </c>
-      <c r="Q9" s="53" t="s">
+        <v>Sudheer</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>746</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="I10" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>753</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>751</v>
+      </c>
+      <c r="P10" s="50" t="s">
         <v>767</v>
       </c>
-      <c r="R9" s="65"/>
-    </row>
-    <row r="10" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47">
-        <f>Summary!B7</f>
-        <v>5</v>
-      </c>
-      <c r="C10" s="44" t="str">
-        <f>Summary!D7</f>
-        <v>Pune-Mumbai Batch</v>
-      </c>
-      <c r="D10" s="57">
-        <f>Summary!H7</f>
-        <v>43836</v>
-      </c>
-      <c r="E10" s="44" t="str">
-        <f>Summary!M7</f>
-        <v>Sudheer</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>749</v>
-      </c>
-      <c r="G10" s="41" t="s">
-        <v>749</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="I10" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="J10" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="K10" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>756</v>
-      </c>
-      <c r="N10" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>754</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>770</v>
-      </c>
-      <c r="Q10" s="53" t="s">
-        <v>771</v>
-      </c>
-      <c r="R10" s="52"/>
+      <c r="Q10" s="50" t="s">
+        <v>768</v>
+      </c>
+      <c r="R10" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5174,1192 +5088,1192 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="16"/>
-    <col min="8" max="8" width="4.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="3.1796875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="15"/>
+    <col min="8" max="8" width="4.26953125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.453125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C2" s="21" t="str">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="20" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <f>$D$4+$D$3</f>
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="21" t="str">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="20" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <f>COUNT($H$1:$H$100)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="21" t="str">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="20" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <f>COUNT($B$1:$B$100)</f>
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B7" s="74" t="s">
-        <v>709</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="H7" s="74" t="s">
-        <v>733</v>
-      </c>
-      <c r="I7" s="74"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="19" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="2:12" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="70" t="s">
+        <v>706</v>
+      </c>
+      <c r="C7" s="70"/>
+      <c r="H7" s="70" t="s">
+        <v>730</v>
+      </c>
+      <c r="I7" s="70"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>33</v>
       </c>
       <c r="H9" s="3">
         <v>1</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+        <v>710</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="H10" s="3">
         <v>2</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+        <v>713</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>3</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+        <v>716</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>4</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>43</v>
       </c>
       <c r="H13" s="3">
         <v>5</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+        <v>722</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>6</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="H14" s="3">
         <v>6</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+        <v>725</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>7</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="H15" s="3">
         <v>7</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+        <v>728</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>9</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>12</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>13</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>15</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>18</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>19</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>20</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>21</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>23</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>24</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>25</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>26</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>27</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
+        <v>28</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F36" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="3">
-        <v>28</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>32</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F40" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="3">
-        <v>32</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>33</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>34</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>35</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>36</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>37</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>38</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>39</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>40</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>41</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>42</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>43</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>44</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>45</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>46</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>47</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>48</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>49</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>50</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>51</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>52</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>53</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>54</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>55</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
         <v>56</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>57</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <v>58</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6445,934 +6359,934 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="24"/>
-    <col min="8" max="8" width="5.140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="3.1796875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="23"/>
+    <col min="8" max="8" width="5.1796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.54296875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C2" s="21" t="str">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="20" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <f>$D$4+$D$3</f>
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="21" t="str">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="20" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <f>COUNT($H$1:$H$100)</f>
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C4" s="21" t="str">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="20" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <f>COUNT($B$1:$B$100)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="74" t="s">
-        <v>709</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="H6" s="74" t="s">
-        <v>711</v>
-      </c>
-      <c r="I6" s="74"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="C7" s="30" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D5" s="22"/>
+    </row>
+    <row r="6" spans="2:12" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="H6" s="70" t="s">
+        <v>708</v>
+      </c>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="31">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="26">
+        <v>6394671596</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="H8" s="32">
+        <v>1</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>543</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="31">
+        <v>2</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="26">
+        <v>8009311439</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="H9" s="32">
+        <v>2</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="31">
+        <v>3</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="26">
+        <v>9468247375</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="H10" s="32">
+        <v>3</v>
+      </c>
+      <c r="I10" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="31">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="26">
+        <v>9872512451</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" s="32">
+        <v>4</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="31">
+        <v>5</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="26">
+        <v>9695676355</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="H12" s="32">
+        <v>5</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="31">
+        <v>6</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="26">
+        <v>8826679369</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="H13" s="32">
+        <v>6</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>492</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="31">
+        <v>7</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="26">
+        <v>8512097276</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="H14" s="32">
+        <v>7</v>
+      </c>
+      <c r="I14" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="31">
+        <v>8</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="26">
+        <v>8076728958</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="32">
+        <v>8</v>
+      </c>
+      <c r="I15" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="31">
+        <v>9</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="26">
+        <v>7669604203</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="H16" s="32">
+        <v>9</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="31">
+        <v>10</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="26">
+        <v>8860817681</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="H17" s="32">
+        <v>10</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="31">
+        <v>11</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="26">
+        <v>9015270530</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="H18" s="32">
+        <v>11</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="31">
+        <v>12</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="26">
+        <v>7827327267</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="H19" s="32">
+        <v>12</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="L19" s="28" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="31">
+        <v>13</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="26">
+        <v>8800709136</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="H20" s="32">
+        <v>13</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>578</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="31">
+        <v>14</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="26">
+        <v>9971884734</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="H21" s="32">
+        <v>14</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>580</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="31">
+        <v>15</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="26">
+        <v>7988643977</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="H22" s="32">
+        <v>15</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="31">
+        <v>16</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="26">
+        <v>9910920931</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="H23" s="32">
+        <v>16</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>586</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="31">
+        <v>17</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="26">
+        <v>7073862831</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="H24" s="32">
+        <v>17</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>589</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="L24" s="28" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="31">
+        <v>18</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="26">
+        <v>9810943877</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>527</v>
+      </c>
+      <c r="H25" s="32">
+        <v>18</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>592</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="31">
+        <v>19</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>528</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="26">
+        <v>9582848409</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="H26" s="32">
+        <v>19</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>595</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="L26" s="28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="31">
+        <v>20</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="26">
+        <v>7065509255</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="H27" s="32">
+        <v>20</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>598</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="L27" s="28" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="31">
+        <v>21</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="26">
+        <v>8218128166</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="H28" s="32">
+        <v>21</v>
+      </c>
+      <c r="I28" s="27" t="s">
+        <v>601</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>602</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="31">
+        <v>22</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>536</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="26">
+        <v>8512856779</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>537</v>
+      </c>
+      <c r="H29" s="32">
+        <v>22</v>
+      </c>
+      <c r="I29" s="27" t="s">
+        <v>604</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>605</v>
+      </c>
+      <c r="L29" s="28" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="31">
+        <v>23</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="26">
+        <v>9067472225</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>539</v>
+      </c>
+      <c r="H30" s="32">
+        <v>23</v>
+      </c>
+      <c r="I30" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H31" s="32">
+        <v>24</v>
+      </c>
+      <c r="I31" s="27" t="s">
+        <v>610</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>611</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H32" s="32">
+        <v>25</v>
+      </c>
+      <c r="I32" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="J32" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H33" s="31">
         <v>26</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="32">
-        <v>1</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>491</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="27">
-        <v>6394671596</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="H8" s="33">
-        <v>1</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>545</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>546</v>
-      </c>
-      <c r="L8" s="29" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="32">
-        <v>2</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="27">
-        <v>8009311439</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>494</v>
-      </c>
-      <c r="H9" s="33">
-        <v>2</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="L9" s="29" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="32">
-        <v>3</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="27">
-        <v>9468247375</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="H10" s="33">
-        <v>3</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="L10" s="29" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="32">
-        <v>4</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>497</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="27">
-        <v>9872512451</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="H11" s="33">
-        <v>4</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="32">
-        <v>5</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="27">
-        <v>9695676355</v>
-      </c>
-      <c r="F12" s="25" t="s">
+      <c r="I33" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="H12" s="33">
-        <v>5</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="32">
-        <v>6</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="J33" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="26">
+        <v>9368519717</v>
+      </c>
+      <c r="L33" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="27">
-        <v>8826679369</v>
-      </c>
-      <c r="F13" s="25" t="s">
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H34" s="31">
+        <v>27</v>
+      </c>
+      <c r="I34" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="H13" s="33">
-        <v>6</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="32">
-        <v>7</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="27">
-        <v>8512097276</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="H14" s="33">
-        <v>7</v>
-      </c>
-      <c r="I14" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="32">
-        <v>8</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="27">
-        <v>8076728958</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="H15" s="33">
-        <v>8</v>
-      </c>
-      <c r="I15" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="32">
-        <v>9</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="27">
-        <v>7669604203</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="H16" s="33">
-        <v>9</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="32">
-        <v>10</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="27">
-        <v>8860817681</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="H17" s="33">
-        <v>10</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="L17" s="29" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="32">
-        <v>11</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="27">
-        <v>9015270530</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="H18" s="33">
-        <v>11</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="L18" s="29" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="32">
-        <v>12</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="27">
-        <v>7827327267</v>
-      </c>
-      <c r="F19" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="H19" s="33">
-        <v>12</v>
-      </c>
-      <c r="I19" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="L19" s="29" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="32">
-        <v>13</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="27">
-        <v>8800709136</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="H20" s="33">
-        <v>13</v>
-      </c>
-      <c r="I20" s="28" t="s">
-        <v>580</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="L20" s="29" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="32">
-        <v>14</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>521</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="27">
-        <v>9971884734</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="H21" s="33">
-        <v>14</v>
-      </c>
-      <c r="I21" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="32">
-        <v>15</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="27">
-        <v>7988643977</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="H22" s="33">
-        <v>15</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="L22" s="29" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="32">
-        <v>16</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>525</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="27">
-        <v>9910920931</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="H23" s="33">
-        <v>16</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>589</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="32">
-        <v>17</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>527</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="27">
-        <v>7073862831</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="H24" s="33">
-        <v>17</v>
-      </c>
-      <c r="I24" s="28" t="s">
-        <v>592</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>593</v>
-      </c>
-      <c r="L24" s="29" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="32">
-        <v>18</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="27">
-        <v>9810943877</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="H25" s="33">
-        <v>18</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>595</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="28" t="s">
-        <v>596</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="32">
-        <v>19</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="27">
-        <v>9582848409</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="J34" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="26">
+        <v>8115712543</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H35" s="31">
+        <v>28</v>
+      </c>
+      <c r="I35" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="H26" s="33">
-        <v>19</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="L26" s="29" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="32">
-        <v>20</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="J35" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="26">
+        <v>9897133664</v>
+      </c>
+      <c r="L35" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="27">
-        <v>7065509255</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="H27" s="33">
-        <v>20</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>601</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>602</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="32">
-        <v>21</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>537</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="27">
-        <v>8218128166</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="H28" s="33">
-        <v>21</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>604</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="32">
-        <v>22</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="27">
-        <v>8512856779</v>
-      </c>
-      <c r="F29" s="25" t="s">
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H36" s="31">
+        <v>29</v>
+      </c>
+      <c r="I36" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="H29" s="33">
-        <v>22</v>
-      </c>
-      <c r="I29" s="28" t="s">
-        <v>607</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K29" s="28" t="s">
-        <v>608</v>
-      </c>
-      <c r="L29" s="29" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="32">
-        <v>23</v>
-      </c>
-      <c r="C30" s="25" t="s">
+      <c r="J36" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="26">
+        <v>8604793053</v>
+      </c>
+      <c r="L36" s="24" t="s">
         <v>541</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="27">
-        <v>9067472225</v>
-      </c>
-      <c r="F30" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="H30" s="33">
-        <v>23</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>610</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H31" s="33">
-        <v>24</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="H32" s="33">
-        <v>25</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H33" s="32">
-        <v>26</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="J33" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K33" s="27">
-        <v>9368519717</v>
-      </c>
-      <c r="L33" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H34" s="32">
-        <v>27</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K34" s="27">
-        <v>8115712543</v>
-      </c>
-      <c r="L34" s="25" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H35" s="32">
-        <v>28</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="J35" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" s="27">
-        <v>9897133664</v>
-      </c>
-      <c r="L35" s="25" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H36" s="32">
-        <v>29</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="J36" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K36" s="27">
-        <v>8604793053</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -7443,304 +7357,304 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="15"/>
-    <col min="8" max="8" width="5.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="3.81640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="14"/>
+    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31"/>
-      <c r="C2" s="21" t="str">
+    <row r="1" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B2" s="30"/>
+      <c r="C2" s="20" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <f>$D$4+$D$3</f>
         <v>12</v>
       </c>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
-      <c r="C3" s="21" t="str">
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B3" s="30"/>
+      <c r="C3" s="20" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <f>COUNT($H$1:$H$100)</f>
         <v>4</v>
       </c>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31"/>
-      <c r="C4" s="21" t="str">
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B4" s="30"/>
+      <c r="C4" s="20" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <f>COUNT($B$1:$B$100)</f>
         <v>8</v>
       </c>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
-      <c r="D5" s="23"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="74" t="s">
-        <v>709</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="H6" s="74" t="s">
-        <v>711</v>
-      </c>
-      <c r="I6" s="74"/>
-    </row>
-    <row r="7" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="32">
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="30"/>
+      <c r="D5" s="22"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="2:12" s="23" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="H6" s="70" t="s">
+        <v>708</v>
+      </c>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="31">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="31">
+        <v>1</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="31">
+        <v>2</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="27" t="s">
+      <c r="D9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="32">
-        <v>1</v>
-      </c>
-      <c r="I8" s="25" t="s">
+      <c r="H9" s="31">
+        <v>2</v>
+      </c>
+      <c r="I9" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="27" t="s">
+      <c r="J9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L9" s="24" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="32">
-        <v>2</v>
-      </c>
-      <c r="C9" s="25" t="s">
+    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="31">
+        <v>3</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="27" t="s">
+      <c r="D10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="H9" s="32">
-        <v>2</v>
-      </c>
-      <c r="I9" s="25" t="s">
+      <c r="H10" s="31">
+        <v>3</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="27" t="s">
+      <c r="J10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="32">
-        <v>3</v>
-      </c>
-      <c r="C10" s="25" t="s">
+    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="31">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="27" t="s">
+      <c r="D11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="H10" s="32">
-        <v>3</v>
-      </c>
-      <c r="I10" s="25" t="s">
+      <c r="H11" s="31">
+        <v>4</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="27" t="s">
+      <c r="J11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="32">
-        <v>4</v>
-      </c>
-      <c r="C11" s="25" t="s">
+    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="31">
+        <v>5</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="27" t="s">
+      <c r="D12" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="H11" s="32">
-        <v>4</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="L11" s="25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="32">
-        <v>5</v>
-      </c>
-      <c r="C12" s="25" t="s">
+    </row>
+    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="31">
+        <v>6</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="27" t="s">
+      <c r="D13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F13" s="24" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="32">
-        <v>6</v>
-      </c>
-      <c r="C13" s="25" t="s">
+    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="31">
+        <v>7</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="27" t="s">
+      <c r="D14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="32">
-        <v>7</v>
-      </c>
-      <c r="C14" s="25" t="s">
+    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="31">
+        <v>8</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="27" t="s">
+      <c r="D15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F15" s="24" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="32">
-        <v>8</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7772,1472 +7686,1472 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="15"/>
-    <col min="8" max="8" width="5.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="3.54296875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="14"/>
+    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31"/>
-      <c r="C2" s="21" t="str">
+    <row r="1" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B2" s="30"/>
+      <c r="C2" s="20" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <f>$D$4+$D$3</f>
         <v>82</v>
       </c>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
-      <c r="C3" s="21" t="str">
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B3" s="30"/>
+      <c r="C3" s="20" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <f>COUNT($H$1:$H$100)</f>
         <v>15</v>
       </c>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31"/>
-      <c r="C4" s="21" t="str">
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B4" s="30"/>
+      <c r="C4" s="20" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <f>COUNT($B$1:$B$100)</f>
         <v>67</v>
       </c>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
-      <c r="D5" s="23"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="74" t="s">
-        <v>709</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="H6" s="74" t="s">
-        <v>711</v>
-      </c>
-      <c r="I6" s="74"/>
-    </row>
-    <row r="7" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="30"/>
+      <c r="D5" s="22"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="2:12" s="23" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="H6" s="70" t="s">
+        <v>708</v>
+      </c>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>253</v>
+        <v>249</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="L12" s="17" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>265</v>
+        <v>261</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>265</v>
       </c>
       <c r="H14" s="3">
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="L14" s="17" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>274</v>
+        <v>270</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>271</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>277</v>
+        <v>273</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="L17" s="17" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>283</v>
+        <v>279</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>280</v>
       </c>
       <c r="H18" s="3">
         <v>11</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="L18" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>286</v>
+        <v>282</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="H19" s="3">
         <v>12</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="H20" s="3">
         <v>13</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="L20" s="17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="H21" s="3">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="H22" s="3">
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F35" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
-        <v>28</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="3">
+        <v>32</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="F38" s="17" t="s">
+      <c r="F39" s="16" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
-        <v>32</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>45</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>49</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>51</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>53</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>54</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <v>67</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>457</v>
+        <v>453</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -9339,829 +9253,829 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4" style="15" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="15"/>
-    <col min="8" max="8" width="5.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="4" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="31"/>
-      <c r="C2" s="21" t="str">
+    <row r="1" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B2" s="30"/>
+      <c r="C2" s="20" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <f>$D$4+$D$3</f>
         <v>43</v>
       </c>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="31"/>
-      <c r="C3" s="21" t="str">
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B3" s="30"/>
+      <c r="C3" s="20" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <f>COUNT($H$1:$H$100)</f>
         <v>5</v>
       </c>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="4" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="31"/>
-      <c r="C4" s="21" t="str">
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B4" s="30"/>
+      <c r="C4" s="20" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <f>COUNT($B$1:$B$100)</f>
         <v>38</v>
       </c>
-      <c r="H4" s="31"/>
-    </row>
-    <row r="5" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
-      <c r="D5" s="23"/>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" spans="2:12" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B6" s="74" t="s">
-        <v>709</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="H6" s="74" t="s">
-        <v>711</v>
-      </c>
-      <c r="I6" s="74"/>
-    </row>
-    <row r="7" spans="2:12" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>488</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="30"/>
+      <c r="D5" s="22"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="2:12" s="23" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="70" t="s">
+        <v>706</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="H6" s="70" t="s">
+        <v>708</v>
+      </c>
+      <c r="I6" s="70"/>
+    </row>
+    <row r="7" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="K7" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8" s="5">
         <v>7558289080</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>620</v>
+      <c r="F8" s="16" t="s">
+        <v>617</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>695</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="5">
         <v>7387213425</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>622</v>
+      <c r="F9" s="16" t="s">
+        <v>619</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5">
         <v>9833446728</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>624</v>
+      <c r="F10" s="16" t="s">
+        <v>621</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="K10" s="5">
         <v>9422115479</v>
       </c>
-      <c r="L10" s="17" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="16" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5">
         <v>9763563987</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>626</v>
+      <c r="F11" s="16" t="s">
+        <v>623</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5">
         <v>7066705430</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>628</v>
+      <c r="F12" s="16" t="s">
+        <v>625</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K12" s="5">
         <v>7743949634</v>
       </c>
-      <c r="L12" s="17" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="16" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="5">
         <v>8237496955</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="16" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5">
         <v>9049796915</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="16" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="5">
         <v>9987648115</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="16" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5">
         <v>9820958424</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="16" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E17" s="5">
         <v>7887669198</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="16" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="5">
         <v>7666038604</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="16" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5">
         <v>7303752979</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="16" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E20" s="5">
         <v>8857819155</v>
       </c>
-      <c r="F20" s="17" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="16" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21" s="5">
         <v>8825054152</v>
       </c>
-      <c r="F21" s="17" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" s="5">
         <v>9765914865</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="16" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E23" s="5">
         <v>7710859052</v>
       </c>
-      <c r="F23" s="17" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="16" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5">
         <v>8857863105</v>
       </c>
-      <c r="F24" s="17" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="16" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25" s="5">
         <v>9423561361</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="16" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E26" s="5">
         <v>8424956867</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="16" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E27" s="5">
         <v>8390700404</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="16" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E28" s="5">
         <v>8421163930</v>
       </c>
-      <c r="F28" s="17" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="16" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E29" s="5">
         <v>7083906951</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="16" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E30" s="5">
         <v>8689929864</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="16" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E31" s="5">
         <v>7362933380</v>
       </c>
-      <c r="F31" s="17" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="16" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E32" s="5">
         <v>7218583912</v>
       </c>
-      <c r="F32" s="17" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="16" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E33" s="5">
         <v>8978213151</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="16" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E34" s="5">
         <v>9326855136</v>
       </c>
-      <c r="F34" s="17" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="16" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E35" s="5">
         <v>9172029365</v>
       </c>
-      <c r="F35" s="17" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="16" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E36" s="5">
         <v>8624039380</v>
       </c>
-      <c r="F36" s="17" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="16" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E37" s="5">
         <v>7218454570</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="16" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E38" s="5">
         <v>9359467647</v>
       </c>
-      <c r="F38" s="17" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="16" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E39" s="5">
         <v>8691942385</v>
       </c>
-      <c r="F39" s="17" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="16" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E40" s="5">
         <v>8850419292</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="16" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E41" s="5">
         <v>9621029028</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="16" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E42" s="5">
         <v>7066020092</v>
       </c>
-      <c r="F42" s="17" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="16" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E43" s="5">
         <v>8349830798</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E44" s="5">
         <v>7225848488</v>
       </c>
-      <c r="F44" s="17" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="16" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E45" s="5">
         <v>7719862298</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>696</v>
+      <c r="F45" s="16" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,24 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9290"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
     <sheet name="MPT-MTT-ParallelProject-PLP" sheetId="10" r:id="rId3"/>
-    <sheet name="August Batch Candidates" sheetId="5" r:id="rId4"/>
-    <sheet name="Noida Batch Candidates" sheetId="6" r:id="rId5"/>
-    <sheet name="Bhuvaneswar Batch Candidates" sheetId="7" r:id="rId6"/>
-    <sheet name="Bangalore Batch Candidates" sheetId="8" r:id="rId7"/>
-    <sheet name="Pune-Mumbai Batch Candidates" sheetId="9" r:id="rId8"/>
+    <sheet name="Noida Batch Candidates" sheetId="6" r:id="rId4"/>
+    <sheet name="Bhuvaneswar Batch Candidates" sheetId="7" r:id="rId5"/>
+    <sheet name="Bangalore Batch Candidates" sheetId="8" r:id="rId6"/>
+    <sheet name="Pune-Mumbai Batch Candidates" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="571">
   <si>
     <t>Batch Name</t>
   </si>
@@ -95,543 +94,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Akshay Chowdhary</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
-    <t>+91 9591977791</t>
-  </si>
-  <si>
-    <t>akshayc0470@gmail.com</t>
-  </si>
-  <si>
-    <t>Anupama N Puradal</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
-    <t>+91 9148530209</t>
-  </si>
-  <si>
-    <t>anupamanp1003@gmail.com</t>
-  </si>
-  <si>
-    <t>Ashley Revanth Kumar</t>
-  </si>
-  <si>
-    <t>+91 7795796056</t>
-  </si>
-  <si>
-    <t>ashleyrevanth@gmail.com</t>
-  </si>
-  <si>
-    <t>Ashritha H.D</t>
-  </si>
-  <si>
-    <t>+91 9449513406</t>
-  </si>
-  <si>
-    <t>ashrithahdgowda@gmail.com</t>
-  </si>
-  <si>
-    <t>Asmita Kori</t>
-  </si>
-  <si>
-    <t>+91 9844869788</t>
-  </si>
-  <si>
-    <t>asmitakori67@gmail.com</t>
-  </si>
-  <si>
-    <t>Bhaskar V A</t>
-  </si>
-  <si>
-    <t>+91 8073742335</t>
-  </si>
-  <si>
-    <t>bhaskarva9686@gmail.com</t>
-  </si>
-  <si>
-    <t>Bindu K</t>
-  </si>
-  <si>
-    <t>+91 9008889609</t>
-  </si>
-  <si>
-    <t>bindubk9738@gmail.com</t>
-  </si>
-  <si>
-    <t>Bindu M N</t>
-  </si>
-  <si>
-    <t>+91 8310930733</t>
-  </si>
-  <si>
-    <t>bindumn97@gmail.com</t>
-  </si>
-  <si>
-    <t>Bitan Jyoti Ghosh</t>
-  </si>
-  <si>
-    <t>+91 8240489339</t>
-  </si>
-  <si>
-    <t>bitanjyoti29@gmail.com</t>
-  </si>
-  <si>
-    <t>Brijmohan Prajapati</t>
-  </si>
-  <si>
-    <t>+91 9884208912</t>
-  </si>
-  <si>
-    <t>briji.praj@gmail.com</t>
-  </si>
-  <si>
-    <t>Chilumkuri Hareesh</t>
-  </si>
-  <si>
-    <t>+91 7075877538</t>
-  </si>
-  <si>
-    <t>chilumkurihareesh98@gmail.com</t>
-  </si>
-  <si>
-    <t>Darshan C</t>
-  </si>
-  <si>
-    <t>+91 9060393906</t>
-  </si>
-  <si>
-    <t>darshan231097@gmail.com</t>
-  </si>
-  <si>
-    <t>Deepthi Raj</t>
-  </si>
-  <si>
-    <t>+91 9611772383</t>
-  </si>
-  <si>
-    <t>deepthiraju97@gmail.com</t>
-  </si>
-  <si>
-    <t>Harshavardhan H</t>
-  </si>
-  <si>
-    <t>+91 9449663635</t>
-  </si>
-  <si>
-    <t>harshabavimane12@gmail.com</t>
-  </si>
-  <si>
-    <t>J Arpitha</t>
-  </si>
-  <si>
-    <t>+91 8217081953</t>
-  </si>
-  <si>
-    <t>arpithajayaram007@gmail.com</t>
-  </si>
-  <si>
-    <t>Juveria Abutalib Nadaf</t>
-  </si>
-  <si>
-    <t>+91 8123988459</t>
-  </si>
-  <si>
-    <t>juverianadaf@gmail.com</t>
-  </si>
-  <si>
-    <t>Konkala Yashwanth Kumar Reddy</t>
-  </si>
-  <si>
-    <t>+91 6360717192</t>
-  </si>
-  <si>
-    <t>yashus.v.g.p@gmail.com</t>
-  </si>
-  <si>
-    <t>Kumari Richi</t>
-  </si>
-  <si>
-    <t>+91 9608604002</t>
-  </si>
-  <si>
-    <t>richi.rich2411@gmail.com</t>
-  </si>
-  <si>
-    <t>Madhavi Gangadasari</t>
-  </si>
-  <si>
-    <t>+91 9949102397</t>
-  </si>
-  <si>
-    <t>madhavireddy0432@gmail.com</t>
-  </si>
-  <si>
-    <t>Manjunath N</t>
-  </si>
-  <si>
-    <t>+91 9590740312</t>
-  </si>
-  <si>
-    <t>manjuask24@gmail.com</t>
-  </si>
-  <si>
-    <t>Md Tajdar Raza</t>
-  </si>
-  <si>
-    <t>+91 9535054231</t>
-  </si>
-  <si>
-    <t>tajdar.tr@gmail.com</t>
-  </si>
-  <si>
-    <t>Meghana B P</t>
-  </si>
-  <si>
-    <t>+91 9632496112</t>
-  </si>
-  <si>
-    <t>meghanaprakash1997@gmail.com</t>
-  </si>
-  <si>
-    <t>Mucheli Ramsai</t>
-  </si>
-  <si>
-    <t>+91 9494402290</t>
-  </si>
-  <si>
-    <t>ramsaim53@gmail.com</t>
-  </si>
-  <si>
-    <t>Nagesh Kumar L</t>
-  </si>
-  <si>
-    <t>+91 9108250667</t>
-  </si>
-  <si>
-    <t>kumarnagesh104@gmail.com</t>
-  </si>
-  <si>
-    <t>Nikita. G. Patil</t>
-  </si>
-  <si>
-    <t>+91 7090076057</t>
-  </si>
-  <si>
-    <t>nikitaggpatil@gmail.com</t>
-  </si>
-  <si>
-    <t>Nisha</t>
-  </si>
-  <si>
-    <t>+91 8548811530</t>
-  </si>
-  <si>
-    <t>nishasannidhi96@gmail.com</t>
-  </si>
-  <si>
-    <t>Nisha Ashok Naik</t>
-  </si>
-  <si>
-    <t>+91 9449476689</t>
-  </si>
-  <si>
-    <t>nishanaik199711@gmail.com</t>
-  </si>
-  <si>
-    <t>P Ankita Patra</t>
-  </si>
-  <si>
-    <t>+91 9692750796</t>
-  </si>
-  <si>
-    <t>ankitapatra237@gmail.com</t>
-  </si>
-  <si>
-    <t>Pooja M</t>
-  </si>
-  <si>
-    <t>+91 8310175992</t>
-  </si>
-  <si>
-    <t>pm6713560@gmail.com</t>
-  </si>
-  <si>
-    <t>Puligadda Harisairam</t>
-  </si>
-  <si>
-    <t>+91 8328031407</t>
-  </si>
-  <si>
-    <t>harisairampuligadda@gmail.com</t>
-  </si>
-  <si>
-    <t>R Vineesha Kumari</t>
-  </si>
-  <si>
-    <t>+91 9743096416</t>
-  </si>
-  <si>
-    <t>vineeshavinay162@gmail.com</t>
-  </si>
-  <si>
-    <t>R.Poojasree</t>
-  </si>
-  <si>
-    <t>+91 7780128441</t>
-  </si>
-  <si>
-    <t>poojaramisetty26@gmail.com</t>
-  </si>
-  <si>
-    <t>Rajbala Kumari</t>
-  </si>
-  <si>
-    <t>+91 7681800798</t>
-  </si>
-  <si>
-    <t>rajbalakumari64@gmail.com</t>
-  </si>
-  <si>
-    <t>Ranga Sai Mamilla</t>
-  </si>
-  <si>
-    <t>+91 9966006657</t>
-  </si>
-  <si>
-    <t>mamillarangasai1997@gmail.com</t>
-  </si>
-  <si>
-    <t>Ratakonda Pavani</t>
-  </si>
-  <si>
-    <t>+91 9502993543</t>
-  </si>
-  <si>
-    <t>pavanichowdary450@gmail.com</t>
-  </si>
-  <si>
-    <t>Ravitheja Hv</t>
-  </si>
-  <si>
-    <t>+91 9550342181</t>
-  </si>
-  <si>
-    <t>ravitheja319@gmail.com</t>
-  </si>
-  <si>
-    <t>Rohit Raj</t>
-  </si>
-  <si>
-    <t>+91 8553676355</t>
-  </si>
-  <si>
-    <t>rohit10111998@gmail.com</t>
-  </si>
-  <si>
-    <t>Sajeeda Begam Illuru</t>
-  </si>
-  <si>
-    <t>+91 9493652614</t>
-  </si>
-  <si>
-    <t>sajeedabegam5293@gmail.com</t>
-  </si>
-  <si>
-    <t>Sasmita Pani</t>
-  </si>
-  <si>
-    <t>+91 9798405278</t>
-  </si>
-  <si>
-    <t>mama.minati000@gmail.com</t>
-  </si>
-  <si>
-    <t>Shaik Karim Basha</t>
-  </si>
-  <si>
-    <t>+91 8328382546</t>
-  </si>
-  <si>
-    <t>karimbashashaik1998@gmail.com</t>
-  </si>
-  <si>
-    <t>Sharath B C</t>
-  </si>
-  <si>
-    <t>+91 9591354391</t>
-  </si>
-  <si>
-    <t>sharathbcgowda2@gmail.com</t>
-  </si>
-  <si>
-    <t>Shree Raksha R H</t>
-  </si>
-  <si>
-    <t>+91 9481282329</t>
-  </si>
-  <si>
-    <t>raksha.dvg@gmail.com</t>
-  </si>
-  <si>
-    <t>Shubham Singh</t>
-  </si>
-  <si>
-    <t>+91 7873881418</t>
-  </si>
-  <si>
-    <t>shubhamsingh1111996@gmail.com</t>
-  </si>
-  <si>
-    <t>Sinchana M</t>
-  </si>
-  <si>
-    <t>+91 8861603237</t>
-  </si>
-  <si>
-    <t>sinchanabanawath18@gmail.com</t>
-  </si>
-  <si>
-    <t>Soham Ghosh</t>
-  </si>
-  <si>
-    <t>+91 7547986781</t>
-  </si>
-  <si>
-    <t>isohamghosh@gmail.com</t>
-  </si>
-  <si>
-    <t>Souvik Tripathy</t>
-  </si>
-  <si>
-    <t>+91 9647499074</t>
-  </si>
-  <si>
-    <t>souvikstripathy@gmail.com</t>
-  </si>
-  <si>
-    <t>Supritha K M</t>
-  </si>
-  <si>
-    <t>+91 8660873513</t>
-  </si>
-  <si>
-    <t>suprithakm12@gmail.com</t>
-  </si>
-  <si>
-    <t>Supriya Madakasira</t>
-  </si>
-  <si>
-    <t>+91 8309838527</t>
-  </si>
-  <si>
-    <t>madakasirasupriya@gmail.com</t>
-  </si>
-  <si>
-    <t>Swarna Lekha Shibbala</t>
-  </si>
-  <si>
-    <t>+91 9502016145</t>
-  </si>
-  <si>
-    <t>abhi.lekhaswar@gmail.com</t>
-  </si>
-  <si>
-    <t>T.Bhagyasri</t>
-  </si>
-  <si>
-    <t>+91 8688556183</t>
-  </si>
-  <si>
-    <t>bhagyasiri07@gmail.com</t>
-  </si>
-  <si>
-    <t>Talanki Darshan</t>
-  </si>
-  <si>
-    <t>+91 7997516796</t>
-  </si>
-  <si>
-    <t>darshandarshu0545@gmail.com</t>
-  </si>
-  <si>
-    <t>Tania Deb</t>
-  </si>
-  <si>
-    <t>+91 7008270897</t>
-  </si>
-  <si>
-    <t>taniadeb12@gmail.com</t>
-  </si>
-  <si>
-    <t>Tanuja K</t>
-  </si>
-  <si>
-    <t>+91 9482193716</t>
-  </si>
-  <si>
-    <t>tanujak099@gmail.com</t>
-  </si>
-  <si>
-    <t>Tejaswini Harish</t>
-  </si>
-  <si>
-    <t>+91 8310271324</t>
-  </si>
-  <si>
-    <t>ashwiniec25@gmail.com</t>
-  </si>
-  <si>
-    <t>V. Deepthi</t>
-  </si>
-  <si>
-    <t>+91 8550801720</t>
-  </si>
-  <si>
-    <t>deepthiv0266@gmail.com</t>
-  </si>
-  <si>
-    <t>Vaanarasi Mahalakshmi</t>
-  </si>
-  <si>
-    <t>+91 9133842863</t>
-  </si>
-  <si>
-    <t>mahalakshmiv291@gmail.com</t>
-  </si>
-  <si>
-    <t>Veena Kumari</t>
-  </si>
-  <si>
-    <t>+91 9133085181</t>
-  </si>
-  <si>
-    <t>veenaraghava98@gmail.com</t>
-  </si>
-  <si>
-    <t>Yamini A Poojar</t>
-  </si>
-  <si>
-    <t>+91 9353240307</t>
-  </si>
-  <si>
-    <t>yaminipoojar97@gmail.com</t>
-  </si>
-  <si>
     <t>Ankit Kumar</t>
   </si>
   <si>
@@ -2150,72 +1618,6 @@
     <t>Dropout List</t>
   </si>
   <si>
-    <t>Abhijeet Halder</t>
-  </si>
-  <si>
-    <t>+91 7765049301</t>
-  </si>
-  <si>
-    <t>abhihalder343@gmail.com</t>
-  </si>
-  <si>
-    <t>Anusha Katta</t>
-  </si>
-  <si>
-    <t>+91 9849510165</t>
-  </si>
-  <si>
-    <t>suryathejakatta@gmail.com</t>
-  </si>
-  <si>
-    <t>B. Sahana Lakshmi</t>
-  </si>
-  <si>
-    <t>+91 9182372868</t>
-  </si>
-  <si>
-    <t>sahanalakshmi41@gmail.com</t>
-  </si>
-  <si>
-    <t>C Vinodhkumar</t>
-  </si>
-  <si>
-    <t>+91 7981349921</t>
-  </si>
-  <si>
-    <t>vinodhkumarc1202@gmail.com</t>
-  </si>
-  <si>
-    <t>Ibbani K R</t>
-  </si>
-  <si>
-    <t>+91 8762286884</t>
-  </si>
-  <si>
-    <t>ibbanikr14@gmail.com</t>
-  </si>
-  <si>
-    <t>Preethi Sk</t>
-  </si>
-  <si>
-    <t>+91 8277699533</t>
-  </si>
-  <si>
-    <t>preethikulkarni27@gmail.com</t>
-  </si>
-  <si>
-    <t>Priyanka P K</t>
-  </si>
-  <si>
-    <t>+91 7795351867</t>
-  </si>
-  <si>
-    <t>ppkamadhenu@gmail.com</t>
-  </si>
-  <si>
-    <t>Dropouts List</t>
-  </si>
-  <si>
     <t>Rohit</t>
   </si>
   <si>
@@ -2285,29 +1687,15 @@
     <t>To be Shared</t>
   </si>
   <si>
-    <t>Reviewed-Project Going On</t>
-  </si>
-  <si>
     <t>Parallel Project Name</t>
   </si>
   <si>
     <t>PLP Project Name</t>
   </si>
   <si>
-    <t>Bus Scheduling and Booking System</t>
-  </si>
-  <si>
-    <t>Library Management System</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
-    <t>Bharathi reviewed M1, M2 &amp; M3 papers &amp; results
-Bharathi reviewed Parallel Project
-Mohammed reviewed M4 &amp; PLP papers</t>
-  </si>
-  <si>
     <t>University Admission System</t>
   </si>
   <si>
@@ -2339,9 +1727,6 @@
   </si>
   <si>
     <t>Varsha has reviewd M1 MTT &amp; MPT on Thrusday 17th Oct 2019</t>
-  </si>
-  <si>
-    <t>Project Evaluated</t>
   </si>
   <si>
     <t>Servlet and Hibernate Started and Completed</t>
@@ -2359,7 +1744,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]dddd\,\ d\ mmmm\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2399,13 +1784,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Bahnschrift SemiLight"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2778,7 +2156,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2820,168 +2198,152 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2990,75 +2352,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b/>
@@ -4084,7 +3378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4093,88 +3387,88 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D3" s="36" t="s">
-        <v>732</v>
+      <c r="D3" s="32" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D4" s="36"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D5" s="36"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D6" s="36"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D7" s="36"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D8" s="36"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D9" s="36"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D10" s="36"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D11" s="36"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D12" s="36"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D13" s="36"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="15" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D15" s="36"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D16" s="36"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D17" s="36"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D18" s="36"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D19" s="36"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="36"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D21" s="36"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D22" s="36"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D23" s="36"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D24" s="36"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D25" s="36"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D26" s="36"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D27" s="36"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D28" s="36"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D29" s="36"/>
+      <c r="D29" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4240,11 +3534,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4290,28 +3584,28 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>734</v>
+        <v>535</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>733</v>
+        <v>534</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>739</v>
+        <v>540</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>744</v>
+        <v>545</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>745</v>
+        <v>546</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>735</v>
+        <v>536</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>20</v>
@@ -4348,15 +3642,15 @@
       <c r="I3" s="9">
         <v>43819</v>
       </c>
-      <c r="J3" s="35">
+      <c r="J3" s="31">
         <f>'Noida Batch Candidates'!D2</f>
         <v>52</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="30">
         <f>'Noida Batch Candidates'!D3</f>
         <v>29</v>
       </c>
-      <c r="L3" s="33">
+      <c r="L3" s="29">
         <f>'Noida Batch Candidates'!D4</f>
         <v>23</v>
       </c>
@@ -4364,13 +3658,13 @@
         <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>736</v>
+        <v>537</v>
       </c>
       <c r="O3" s="3">
         <v>8377841525</v>
       </c>
-      <c r="P3" s="56" t="s">
-        <v>773</v>
+      <c r="P3" s="50" t="s">
+        <v>569</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>13</v>
@@ -4402,15 +3696,15 @@
       <c r="I4" s="9">
         <v>43819</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="31">
         <f>'Bhuvaneswar Batch Candidates'!D2</f>
         <v>12</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="30">
         <f>'Bhuvaneswar Batch Candidates'!D3</f>
         <v>4</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="29">
         <f>'Bhuvaneswar Batch Candidates'!D4</f>
         <v>8</v>
       </c>
@@ -4418,13 +3712,13 @@
         <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>737</v>
+        <v>538</v>
       </c>
       <c r="O4" s="3">
         <v>8073098283</v>
       </c>
-      <c r="P4" s="56" t="s">
-        <v>773</v>
+      <c r="P4" s="50" t="s">
+        <v>569</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>13</v>
@@ -4456,15 +3750,15 @@
       <c r="I5" s="9">
         <v>43819</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="31">
         <f>'Bangalore Batch Candidates'!D2</f>
         <v>82</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="30">
         <f>'Bangalore Batch Candidates'!D3</f>
         <v>15</v>
       </c>
-      <c r="L5" s="33">
+      <c r="L5" s="29">
         <f>'Bangalore Batch Candidates'!D4</f>
         <v>67</v>
       </c>
@@ -4472,13 +3766,13 @@
         <v>11</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>738</v>
+        <v>539</v>
       </c>
       <c r="O5" s="3">
         <v>8762928822</v>
       </c>
-      <c r="P5" s="56" t="s">
-        <v>773</v>
+      <c r="P5" s="50" t="s">
+        <v>569</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>13</v>
@@ -4510,15 +3804,15 @@
       <c r="I6" s="9">
         <v>43843</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="31">
         <f>'Pune-Mumbai Batch Candidates'!D2</f>
         <v>43</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="30">
         <f>'Pune-Mumbai Batch Candidates'!D3</f>
         <v>5</v>
       </c>
-      <c r="L6" s="33">
+      <c r="L6" s="29">
         <f>'Pune-Mumbai Batch Candidates'!D4</f>
         <v>38</v>
       </c>
@@ -4526,13 +3820,13 @@
         <v>12</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>731</v>
+        <v>532</v>
       </c>
       <c r="O6" s="3">
         <v>9897145195</v>
       </c>
-      <c r="P6" s="56" t="s">
-        <v>774</v>
+      <c r="P6" s="50" t="s">
+        <v>570</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -4550,7 +3844,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R10"/>
+  <dimension ref="B2:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
@@ -4561,403 +3855,348 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.453125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="37" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" style="52" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" style="37" customWidth="1"/>
-    <col min="6" max="7" width="45.453125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="39" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="45.453125" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="33.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.1796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.1796875" style="51" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="42.7265625" style="48" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="23"/>
+    <col min="1" max="1" width="3.453125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="4.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="22.26953125" style="33" customWidth="1"/>
+    <col min="6" max="7" width="45.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.7265625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="40" style="19" customWidth="1"/>
+    <col min="10" max="11" width="39" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="45.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="33.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="42.7265625" style="42" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="s">
-        <v>769</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
-        <v>770</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
+      <c r="B2" s="51" t="s">
+        <v>566</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="52" t="s">
+        <v>567</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="2:18" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:18" s="30" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="66" t="s">
+    <row r="4" spans="2:18" s="26" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="66" t="str">
+      <c r="C4" s="60" t="str">
         <f>Summary!$D$2</f>
         <v>Batch Name</v>
       </c>
-      <c r="D4" s="64" t="str">
+      <c r="D4" s="58" t="str">
         <f>Summary!H2</f>
         <v>L1 Date</v>
       </c>
-      <c r="E4" s="66" t="str">
+      <c r="E4" s="60" t="str">
         <f>Summary!$M$2</f>
         <v>CG Mentor</v>
       </c>
-      <c r="F4" s="68" t="s">
-        <v>740</v>
-      </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="68" t="s">
-        <v>743</v>
-      </c>
-      <c r="I4" s="69"/>
-      <c r="J4" s="68" t="s">
-        <v>747</v>
-      </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="68" t="s">
-        <v>748</v>
-      </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="66" t="s">
-        <v>749</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>750</v>
-      </c>
-      <c r="P4" s="62" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q4" s="62" t="s">
-        <v>756</v>
-      </c>
-      <c r="R4" s="62" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" s="30" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="46" t="s">
-        <v>741</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="H5" s="46" t="s">
-        <v>741</v>
-      </c>
-      <c r="I5" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>741</v>
-      </c>
-      <c r="K5" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>741</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>742</v>
-      </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-    </row>
-    <row r="6" spans="2:18" ht="60" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C6" s="39" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="53" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E6" s="39" t="e">
-        <f>Summary!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="G6" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="M6" s="38" t="s">
-        <v>752</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>772</v>
-      </c>
-      <c r="O6" s="38" t="s">
-        <v>754</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>757</v>
-      </c>
-      <c r="Q6" s="50" t="s">
-        <v>758</v>
-      </c>
-      <c r="R6" s="49" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="43">
+      <c r="F4" s="62" t="s">
+        <v>541</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="62" t="s">
+        <v>544</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62" t="s">
+        <v>549</v>
+      </c>
+      <c r="M4" s="63"/>
+      <c r="N4" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="P4" s="56" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q4" s="56" t="s">
+        <v>556</v>
+      </c>
+      <c r="R4" s="56" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" s="26" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="M5" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="37">
         <f>Summary!B3</f>
         <v>1</v>
       </c>
-      <c r="C7" s="40" t="str">
+      <c r="C6" s="35" t="str">
         <f>Summary!D3</f>
         <v>Noida Batch</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D6" s="47">
         <f>Summary!H3</f>
         <v>43811</v>
       </c>
-      <c r="E7" s="40" t="str">
+      <c r="E6" s="35" t="str">
         <f>Summary!M3</f>
         <v xml:space="preserve">Mohammed </v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>765</v>
-      </c>
-      <c r="Q7" s="50" t="s">
-        <v>766</v>
-      </c>
-      <c r="R7" s="59" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="43">
+      <c r="F6" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="O6" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>562</v>
+      </c>
+      <c r="Q6" s="44" t="s">
+        <v>563</v>
+      </c>
+      <c r="R6" s="53" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B7" s="37">
         <f>Summary!B4</f>
         <v>2</v>
       </c>
-      <c r="C8" s="40" t="str">
+      <c r="C7" s="35" t="str">
         <f>Summary!D4</f>
         <v>Bhuvaneswar Batch</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D7" s="47">
         <f>Summary!H4</f>
         <v>43811</v>
       </c>
-      <c r="E8" s="40" t="str">
+      <c r="E7" s="35" t="str">
         <f>Summary!M4</f>
         <v>Sudheer</v>
       </c>
-      <c r="F8" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>762</v>
-      </c>
-      <c r="Q8" s="50" t="s">
-        <v>763</v>
-      </c>
-      <c r="R8" s="60"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="43">
+      <c r="F7" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="J7" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="L7" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="O7" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q7" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="R7" s="54"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="37">
         <f>Summary!B5</f>
         <v>3</v>
       </c>
-      <c r="C9" s="40" t="str">
+      <c r="C8" s="35" t="str">
         <f>Summary!D5</f>
         <v>Bangalore Batch</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D8" s="47">
         <f>Summary!H5</f>
         <v>43811</v>
       </c>
-      <c r="E9" s="40" t="str">
+      <c r="E8" s="35" t="str">
         <f>Summary!M5</f>
         <v>Varsha</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="K9" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="L9" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="M9" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="N9" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="O9" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q9" s="50" t="s">
-        <v>764</v>
-      </c>
-      <c r="R9" s="61"/>
-    </row>
-    <row r="10" spans="2:18" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44">
+      <c r="F8" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>553</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="R8" s="55"/>
+    </row>
+    <row r="9" spans="2:18" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="38">
         <f>Summary!B6</f>
         <v>4</v>
       </c>
-      <c r="C10" s="41" t="str">
+      <c r="C9" s="36" t="str">
         <f>Summary!D6</f>
         <v>Pune-Mumbai Batch</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D9" s="48">
         <f>Summary!H6</f>
         <v>43836</v>
       </c>
-      <c r="E10" s="41" t="str">
+      <c r="E9" s="36" t="str">
         <f>Summary!M6</f>
         <v>Sudheer</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>746</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="I10" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="J10" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>753</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="O10" s="38" t="s">
-        <v>751</v>
-      </c>
-      <c r="P10" s="50" t="s">
-        <v>767</v>
-      </c>
-      <c r="Q10" s="50" t="s">
-        <v>768</v>
-      </c>
-      <c r="R10" s="49"/>
+      <c r="F9" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>547</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>554</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="O9" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q9" s="44" t="s">
+        <v>565</v>
+      </c>
+      <c r="R9" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="R6:R8"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B4:B5"/>
@@ -4972,67 +4211,47 @@
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
   </mergeCells>
-  <conditionalFormatting sqref="S3:Y102 A3:O4 A5:C5 E5:O5 A6:O102">
-    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="Reviewed-Ready for Test">
+  <conditionalFormatting sqref="A3:O4 A5:C5 E5:O5 S3:Y101 A6:O101 P6:Q9 R6">
+    <cfRule type="containsText" dxfId="23" priority="49" operator="containsText" text="Reviewed-Ready for Test">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="50" operator="containsText" text="Reviewed-Project Going On">
+    <cfRule type="containsText" dxfId="22" priority="50" operator="containsText" text="Reviewed-Project Going On">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="51" operator="containsText" text="To be Shared">
+    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="To be Shared">
       <formula>NOT(ISERROR(SEARCH("To be Shared",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="52" operator="containsText" text="Test Conducted-Results to be Shared">
+    <cfRule type="containsText" dxfId="20" priority="52" operator="containsText" text="Test Conducted-Results to be Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="53" operator="containsText" text="Shared-Review Pending">
+    <cfRule type="containsText" dxfId="19" priority="53" operator="containsText" text="Shared-Review Pending">
       <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",A3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="54" operator="containsText" text="Test Conducted-Results Shared">
+    <cfRule type="containsText" dxfId="18" priority="54" operator="containsText" text="Test Conducted-Results Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:Q5 P11:Q102">
-    <cfRule type="containsText" dxfId="23" priority="43" operator="containsText" text="Reviewed-Ready for Test">
+  <conditionalFormatting sqref="P3:Q5 P10:Q101">
+    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="Reviewed-Ready for Test">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="44" operator="containsText" text="Reviewed-Project Going On">
+    <cfRule type="containsText" dxfId="16" priority="44" operator="containsText" text="Reviewed-Project Going On">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="45" operator="containsText" text="To be Shared">
+    <cfRule type="containsText" dxfId="15" priority="45" operator="containsText" text="To be Shared">
       <formula>NOT(ISERROR(SEARCH("To be Shared",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="46" operator="containsText" text="Test Conducted-Results to be Shared">
+    <cfRule type="containsText" dxfId="14" priority="46" operator="containsText" text="Test Conducted-Results to be Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="47" operator="containsText" text="Shared-Review Pending">
+    <cfRule type="containsText" dxfId="13" priority="47" operator="containsText" text="Shared-Review Pending">
       <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",P3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="48" operator="containsText" text="Test Conducted-Results Shared">
+    <cfRule type="containsText" dxfId="12" priority="48" operator="containsText" text="Test Conducted-Results Shared">
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",P3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:Q10">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="Reviewed-Ready for Test">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",P6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="Reviewed-Project Going On">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",P6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="39" operator="containsText" text="To be Shared">
-      <formula>NOT(ISERROR(SEARCH("To be Shared",P6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="40" operator="containsText" text="Test Conducted-Results to be Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",P6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="41" operator="containsText" text="Shared-Review Pending">
-      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",P6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="42" operator="containsText" text="Test Conducted-Results Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",P6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R5 R11:R102">
+  <conditionalFormatting sqref="R3:R5 R10:R101">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Reviewed-Ready for Test">
       <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",R3)))</formula>
     </cfRule>
@@ -5052,28 +4271,28 @@
       <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",R3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R7 R10">
+  <conditionalFormatting sqref="R9">
     <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="Reviewed-Ready for Test">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",R6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",R9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="26" operator="containsText" text="Reviewed-Project Going On">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",R6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",R9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="27" operator="containsText" text="To be Shared">
-      <formula>NOT(ISERROR(SEARCH("To be Shared",R6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("To be Shared",R9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="28" operator="containsText" text="Test Conducted-Results to be Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",R6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",R9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="29" operator="containsText" text="Shared-Review Pending">
-      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",R6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",R9)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="30" operator="containsText" text="Test Conducted-Results Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",R6)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",R9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:O10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:O9">
       <formula1>"NA,To be Shared,Shared-Review Pending,Review In-progress,Reviewed-Ready for Test,Reviewed-Project Going On,Project Done &amp; to be Evaluated,Project Evaluated,Test Conducted-Results to be Shared,Test Conducted-Results Shared"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5084,2209 +4303,938 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.1796875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="15"/>
-    <col min="8" max="8" width="4.26953125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.54296875" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="str">
-        <f>Summary!$J$2</f>
-        <v xml:space="preserve">Initial Batch Size </v>
-      </c>
-      <c r="D2" s="21">
-        <f>$D$4+$D$3</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="20" t="str">
-        <f>Summary!$K$2</f>
-        <v>Dropout/Absconded</v>
-      </c>
-      <c r="D3" s="21">
-        <f>COUNT($H$1:$H$100)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="20" t="str">
-        <f>Summary!$L$2</f>
-        <v>Current Batch Size</v>
-      </c>
-      <c r="D4" s="21">
-        <f>COUNT($B$1:$B$100)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="2:12" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="70" t="s">
-        <v>706</v>
-      </c>
-      <c r="C7" s="70"/>
-      <c r="H7" s="70" t="s">
-        <v>730</v>
-      </c>
-      <c r="I7" s="70"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>709</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="3">
-        <v>4</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <v>5</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="3">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <v>6</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
-        <v>7</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="3">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <v>8</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <v>10</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <v>11</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <v>13</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
-        <v>16</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <v>17</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
-        <v>19</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
-        <v>20</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
-        <v>21</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
-        <v>22</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="3">
-        <v>23</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="3">
-        <v>24</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
-        <v>25</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="3">
-        <v>26</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="3">
-        <v>27</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="3">
-        <v>28</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="3">
-        <v>29</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="3">
-        <v>30</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="3">
-        <v>31</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="3">
-        <v>32</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="3">
-        <v>33</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="3">
-        <v>34</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="3">
-        <v>35</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="3">
-        <v>36</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="3">
-        <v>37</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="3">
-        <v>38</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="3">
-        <v>39</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="3">
-        <v>40</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="3">
-        <v>41</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="3">
-        <v>42</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="3">
-        <v>43</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="3">
-        <v>44</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="3">
-        <v>45</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="3">
-        <v>46</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="3">
-        <v>47</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="3">
-        <v>48</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="3">
-        <v>49</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="3">
-        <v>50</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="3">
-        <v>51</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="3">
-        <v>52</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="3">
-        <v>53</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="3">
-        <v>54</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="3">
-        <v>55</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="3">
-        <v>56</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="3">
-        <v>57</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="3">
-        <v>58</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:I7"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F19" r:id="rId1" display="mailto:chilumkurihareesh98@gmail.com"/>
-    <hyperlink ref="F53" r:id="rId2" display="mailto:isohamghosh@gmail.com"/>
-    <hyperlink ref="F54" r:id="rId3" display="mailto:souvikstripathy@gmail.com"/>
-    <hyperlink ref="F46" r:id="rId4" display="mailto:sajeedabegam5293@gmail.com"/>
-    <hyperlink ref="F40" r:id="rId5" display="mailto:poojaramisetty26@gmail.com"/>
-    <hyperlink ref="F64" r:id="rId6" display="mailto:mahalakshmiv291@gmail.com"/>
-    <hyperlink ref="F59" r:id="rId7" display="mailto:darshandarshu0545@gmail.com"/>
-    <hyperlink ref="F47" r:id="rId8" display="mailto:mama.minati000@gmail.com"/>
-    <hyperlink ref="F25" r:id="rId9" display="mailto:yashus.v.g.p@gmail.com"/>
-    <hyperlink ref="F44" r:id="rId10" display="mailto:ravitheja319@gmail.com"/>
-    <hyperlink ref="F21" r:id="rId11" display="mailto:deepthiraju97@gmail.com"/>
-    <hyperlink ref="F66" r:id="rId12" display="mailto:yaminipoojar97@gmail.com"/>
-    <hyperlink ref="F62" r:id="rId13" display="mailto:ashwiniec25@gmail.com"/>
-    <hyperlink ref="F11" r:id="rId14" display="mailto:ashleyrevanth@gmail.com"/>
-    <hyperlink ref="F32" r:id="rId15" display="mailto:kumarnagesh104@gmail.com"/>
-    <hyperlink ref="F58" r:id="rId16" display="mailto:bhagyasiri07@gmail.com"/>
-    <hyperlink ref="F57" r:id="rId17" display="mailto:abhi.lekhaswar@gmail.com"/>
-    <hyperlink ref="F60" r:id="rId18" display="mailto:taniadeb12@gmail.com"/>
-    <hyperlink ref="F24" r:id="rId19" display="mailto:juverianadaf@gmail.com"/>
-    <hyperlink ref="F15" r:id="rId20" display="mailto:bindubk9738@gmail.com"/>
-    <hyperlink ref="F27" r:id="rId21" display="mailto:madhavireddy0432@gmail.com"/>
-    <hyperlink ref="F33" r:id="rId22" display="mailto:nikitaggpatil@gmail.com"/>
-    <hyperlink ref="F28" r:id="rId23" display="mailto:manjuask24@gmail.com"/>
-    <hyperlink ref="F23" r:id="rId24" display="mailto:arpithajayaram007@gmail.com"/>
-    <hyperlink ref="F30" r:id="rId25" display="mailto:meghanaprakash1997@gmail.com"/>
-    <hyperlink ref="F38" r:id="rId26" display="mailto:harisairampuligadda@gmail.com"/>
-    <hyperlink ref="F55" r:id="rId27" display="mailto:suprithakm12@gmail.com"/>
-    <hyperlink ref="F63" r:id="rId28" display="mailto:deepthiv0266@gmail.com"/>
-    <hyperlink ref="F36" r:id="rId29" display="mailto:ankitapatra237@gmail.com"/>
-    <hyperlink ref="F10" r:id="rId30" display="mailto:anupamanp1003@gmail.com"/>
-    <hyperlink ref="F61" r:id="rId31" display="mailto:tanujak099@gmail.com"/>
-    <hyperlink ref="F50" r:id="rId32" display="mailto:raksha.dvg@gmail.com"/>
-    <hyperlink ref="F29" r:id="rId33" display="mailto:tajdar.tr@gmail.com"/>
-    <hyperlink ref="F65" r:id="rId34" display="mailto:veenaraghava98@gmail.com"/>
-    <hyperlink ref="F35" r:id="rId35" display="mailto:nishanaik199711@gmail.com"/>
-    <hyperlink ref="F12" r:id="rId36" display="mailto:ashrithahdgowda@gmail.com"/>
-    <hyperlink ref="F13" r:id="rId37" display="mailto:asmitakori67@gmail.com"/>
-    <hyperlink ref="F22" r:id="rId38" display="mailto:harshabavimane12@gmail.com"/>
-    <hyperlink ref="F37" r:id="rId39" display="mailto:pm6713560@gmail.com"/>
-    <hyperlink ref="F42" r:id="rId40" display="mailto:mamillarangasai1997@gmail.com"/>
-    <hyperlink ref="F9" r:id="rId41" display="mailto:akshayc0470@gmail.com"/>
-    <hyperlink ref="F17" r:id="rId42" display="mailto:bitanjyoti29@gmail.com"/>
-    <hyperlink ref="F43" r:id="rId43" display="mailto:pavanichowdary450@gmail.com"/>
-    <hyperlink ref="F20" r:id="rId44" display="mailto:darshan231097@gmail.com"/>
-    <hyperlink ref="F14" r:id="rId45" display="mailto:bhaskarva9686@gmail.com"/>
-    <hyperlink ref="F34" r:id="rId46" display="mailto:nishasannidhi96@gmail.com"/>
-    <hyperlink ref="F16" r:id="rId47" display="mailto:bindumn97@gmail.com"/>
-    <hyperlink ref="F39" r:id="rId48" display="mailto:vineeshavinay162@gmail.com"/>
-    <hyperlink ref="F51" r:id="rId49" display="mailto:shubhamsingh1111996@gmail.com"/>
-    <hyperlink ref="F52" r:id="rId50" display="mailto:sinchanabanawath18@gmail.com"/>
-    <hyperlink ref="F26" r:id="rId51" display="mailto:richi.rich2411@gmail.com"/>
-    <hyperlink ref="F41" r:id="rId52" display="mailto:rajbalakumari64@gmail.com"/>
-    <hyperlink ref="F31" r:id="rId53" display="mailto:ramsaim53@gmail.com"/>
-    <hyperlink ref="F49" r:id="rId54" display="mailto:sharathbcgowda2@gmail.com"/>
-    <hyperlink ref="F45" r:id="rId55" display="mailto:rohit10111998@gmail.com"/>
-    <hyperlink ref="F18" r:id="rId56" display="mailto:briji.praj@gmail.com"/>
-    <hyperlink ref="F48" r:id="rId57" display="mailto:karimbashashaik1998@gmail.com"/>
-    <hyperlink ref="F56" r:id="rId58" display="mailto:madakasirasupriya@gmail.com"/>
-    <hyperlink ref="L9" r:id="rId59" display="mailto:abhihalder343@gmail.com"/>
-    <hyperlink ref="L10" r:id="rId60" display="mailto:suryathejakatta@gmail.com"/>
-    <hyperlink ref="L11" r:id="rId61" display="mailto:sahanalakshmi41@gmail.com"/>
-    <hyperlink ref="L12" r:id="rId62" display="mailto:vinodhkumarc1202@gmail.com"/>
-    <hyperlink ref="L13" r:id="rId63" display="mailto:ibbanikr14@gmail.com"/>
-    <hyperlink ref="L14" r:id="rId64" display="mailto:preethikulkarni27@gmail.com"/>
-    <hyperlink ref="L15" r:id="rId65" display="mailto:ppkamadhenu@gmail.com"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="23"/>
-    <col min="8" max="8" width="5.1796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.54296875" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="23"/>
+    <col min="1" max="1" width="3.1796875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="19"/>
+    <col min="8" max="8" width="5.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C2" s="20" t="str">
+      <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="17">
         <f>$D$4+$D$3</f>
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="20" t="str">
+      <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <f>COUNT($H$1:$H$100)</f>
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C4" s="20" t="str">
+      <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <f>COUNT($B$1:$B$100)</f>
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="D5" s="22"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:12" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
-        <v>706</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="H6" s="70" t="s">
-        <v>708</v>
-      </c>
-      <c r="I6" s="70"/>
+      <c r="B6" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="H6" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="I7" s="29" t="s">
+      <c r="D7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>487</v>
+      <c r="J7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="31">
+      <c r="B8" s="27">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="C8" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="22">
         <v>6394671596</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="H8" s="32">
+      <c r="F8" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="H8" s="28">
         <v>1</v>
       </c>
-      <c r="I8" s="27" t="s">
-        <v>542</v>
-      </c>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="27">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="22">
+        <v>8009311439</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9" s="28">
+        <v>2</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="27">
+        <v>3</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="22">
+        <v>9468247375</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" s="28">
+        <v>3</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="27">
+        <v>4</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="22">
+        <v>9872512451</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="28">
+        <v>4</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="27">
+        <v>5</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="22">
+        <v>9695676355</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="H12" s="28">
+        <v>5</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="27">
+        <v>6</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="22">
+        <v>8826679369</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="H13" s="28">
+        <v>6</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="27">
+        <v>7</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="22">
+        <v>8512097276</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="H14" s="28">
+        <v>7</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="27">
+        <v>8</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="22">
+        <v>8076728958</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="H15" s="28">
+        <v>8</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="27">
+        <v>9</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="22">
+        <v>7669604203</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" s="28">
+        <v>9</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="L16" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="27">
+        <v>10</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="22">
+        <v>8860817681</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="H17" s="28">
+        <v>10</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="27">
+        <v>11</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="22">
+        <v>9015270530</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H18" s="28">
+        <v>11</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L18" s="24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="27">
+        <v>12</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="22">
+        <v>7827327267</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="H19" s="28">
+        <v>12</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="27">
+        <v>13</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="22">
+        <v>8800709136</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="H20" s="28">
+        <v>13</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="27">
+        <v>14</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="22">
+        <v>9971884734</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="H21" s="28">
+        <v>14</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="27">
+        <v>15</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="22">
+        <v>7988643977</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" s="28">
+        <v>15</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="27">
+        <v>16</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="22">
+        <v>9910920931</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H23" s="28">
+        <v>16</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="L23" s="24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="27">
+        <v>17</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="22">
+        <v>7073862831</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="H24" s="28">
+        <v>17</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="27">
+        <v>18</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="22">
+        <v>9810943877</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H25" s="28">
+        <v>18</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="L25" s="24" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="27">
+        <v>19</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="22">
+        <v>9582848409</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H26" s="28">
+        <v>19</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="27">
+        <v>20</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="22">
+        <v>7065509255</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="H27" s="28">
+        <v>20</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="27">
+        <v>21</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="22">
+        <v>8218128166</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="H28" s="28">
+        <v>21</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="L28" s="24" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="27">
+        <v>22</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="22">
+        <v>8512856779</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="H29" s="28">
+        <v>22</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="27">
+        <v>23</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="22">
+        <v>9067472225</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="H30" s="28">
+        <v>23</v>
+      </c>
+      <c r="I30" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H31" s="28">
+        <v>24</v>
+      </c>
+      <c r="I31" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H32" s="28">
+        <v>25</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H33" s="27">
+        <v>26</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" s="22">
+        <v>9368519717</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H34" s="27">
+        <v>27</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="22">
+        <v>8115712543</v>
+      </c>
+      <c r="L34" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.3">
+      <c r="H35" s="27">
         <v>28</v>
       </c>
-      <c r="K8" s="27" t="s">
-        <v>543</v>
-      </c>
-      <c r="L8" s="28" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="31">
-        <v>2</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>490</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="26">
-        <v>8009311439</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="H9" s="32">
-        <v>2</v>
-      </c>
-      <c r="I9" s="27" t="s">
-        <v>545</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="27" t="s">
-        <v>546</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="31">
-        <v>3</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="26">
-        <v>9468247375</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="H10" s="32">
-        <v>3</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>548</v>
-      </c>
-      <c r="J10" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>549</v>
-      </c>
-      <c r="L10" s="28" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="31">
-        <v>4</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="26">
-        <v>9872512451</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="H11" s="32">
-        <v>4</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>551</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>552</v>
-      </c>
-      <c r="L11" s="28" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="31">
-        <v>5</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="26">
-        <v>9695676355</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="H12" s="32">
-        <v>5</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="L12" s="28" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="31">
-        <v>6</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="26">
-        <v>8826679369</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="H13" s="32">
-        <v>6</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>492</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>557</v>
-      </c>
-      <c r="L13" s="28" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="31">
-        <v>7</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="26">
-        <v>8512097276</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>505</v>
-      </c>
-      <c r="H14" s="32">
-        <v>7</v>
-      </c>
-      <c r="I14" s="27" t="s">
-        <v>559</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="L14" s="28" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="31">
-        <v>8</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="26">
-        <v>8076728958</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>507</v>
-      </c>
-      <c r="H15" s="32">
-        <v>8</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>562</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>563</v>
-      </c>
-      <c r="L15" s="28" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="31">
-        <v>9</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="26">
-        <v>7669604203</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="H16" s="32">
-        <v>9</v>
-      </c>
-      <c r="I16" s="27" t="s">
-        <v>565</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>566</v>
-      </c>
-      <c r="L16" s="28" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="31">
-        <v>10</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="26">
-        <v>8860817681</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="H17" s="32">
-        <v>10</v>
-      </c>
-      <c r="I17" s="27" t="s">
-        <v>568</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>569</v>
-      </c>
-      <c r="L17" s="28" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="31">
-        <v>11</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="26">
-        <v>9015270530</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="H18" s="32">
-        <v>11</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>571</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>572</v>
-      </c>
-      <c r="L18" s="28" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="31">
-        <v>12</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="26">
-        <v>7827327267</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="H19" s="32">
-        <v>12</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>574</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="31">
-        <v>13</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="26">
-        <v>8800709136</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="H20" s="32">
-        <v>13</v>
-      </c>
-      <c r="I20" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="L20" s="28" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="31">
-        <v>14</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>518</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="26">
-        <v>9971884734</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="H21" s="32">
-        <v>14</v>
-      </c>
-      <c r="I21" s="27" t="s">
-        <v>580</v>
-      </c>
-      <c r="J21" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>581</v>
-      </c>
-      <c r="L21" s="28" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="31">
-        <v>15</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="26">
-        <v>7988643977</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="H22" s="32">
-        <v>15</v>
-      </c>
-      <c r="I22" s="27" t="s">
-        <v>583</v>
-      </c>
-      <c r="J22" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>584</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="31">
-        <v>16</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="26">
-        <v>9910920931</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="H23" s="32">
-        <v>16</v>
-      </c>
-      <c r="I23" s="27" t="s">
-        <v>586</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="27" t="s">
-        <v>587</v>
-      </c>
-      <c r="L23" s="28" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="31">
-        <v>17</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="26">
-        <v>7073862831</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="H24" s="32">
-        <v>17</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>589</v>
-      </c>
-      <c r="J24" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>590</v>
-      </c>
-      <c r="L24" s="28" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="31">
-        <v>18</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="26">
-        <v>9810943877</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="H25" s="32">
-        <v>18</v>
-      </c>
-      <c r="I25" s="27" t="s">
-        <v>592</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>593</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="31">
-        <v>19</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="26">
-        <v>9582848409</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="H26" s="32">
-        <v>19</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>595</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>596</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="31">
-        <v>20</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="26">
-        <v>7065509255</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="H27" s="32">
-        <v>20</v>
-      </c>
-      <c r="I27" s="27" t="s">
-        <v>598</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>599</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="31">
-        <v>21</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="26">
-        <v>8218128166</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="H28" s="32">
-        <v>21</v>
-      </c>
-      <c r="I28" s="27" t="s">
-        <v>601</v>
-      </c>
-      <c r="J28" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>602</v>
-      </c>
-      <c r="L28" s="28" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="31">
-        <v>22</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="26">
-        <v>8512856779</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="H29" s="32">
-        <v>22</v>
-      </c>
-      <c r="I29" s="27" t="s">
-        <v>604</v>
-      </c>
-      <c r="J29" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>605</v>
-      </c>
-      <c r="L29" s="28" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="31">
-        <v>23</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="26">
-        <v>9067472225</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>539</v>
-      </c>
-      <c r="H30" s="32">
-        <v>23</v>
-      </c>
-      <c r="I30" s="27" t="s">
-        <v>607</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="27" t="s">
-        <v>608</v>
-      </c>
-      <c r="L30" s="28" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H31" s="32">
-        <v>24</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>610</v>
-      </c>
-      <c r="J31" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K31" s="27" t="s">
-        <v>611</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="H32" s="32">
-        <v>25</v>
-      </c>
-      <c r="I32" s="27" t="s">
-        <v>613</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>614</v>
-      </c>
-      <c r="L32" s="28" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H33" s="31">
-        <v>26</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="26">
-        <v>9368519717</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H34" s="31">
-        <v>27</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K34" s="26">
-        <v>8115712543</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H35" s="31">
-        <v>28</v>
-      </c>
-      <c r="I35" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K35" s="26">
+      <c r="I35" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="22">
         <v>9897133664</v>
       </c>
-      <c r="L35" s="24" t="s">
-        <v>533</v>
+      <c r="L35" s="20" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H36" s="31">
+      <c r="H36" s="27">
         <v>29</v>
       </c>
-      <c r="I36" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="J36" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K36" s="26">
+      <c r="I36" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="22">
         <v>8604793053</v>
       </c>
-      <c r="L36" s="24" t="s">
-        <v>541</v>
+      <c r="L36" s="20" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -7351,7 +5299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L15"/>
   <sheetViews>
@@ -7374,287 +5322,287 @@
     <col min="13" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B2" s="30"/>
-      <c r="C2" s="20" t="str">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="17">
         <f>$D$4+$D$3</f>
         <v>12</v>
       </c>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="20" t="str">
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <f>COUNT($H$1:$H$100)</f>
         <v>4</v>
       </c>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="20" t="str">
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <f>COUNT($B$1:$B$100)</f>
         <v>8</v>
       </c>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
-      <c r="D5" s="22"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="2:12" s="23" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
-        <v>706</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="H6" s="70" t="s">
-        <v>708</v>
-      </c>
-      <c r="I6" s="70"/>
-    </row>
-    <row r="7" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="D5" s="18"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="H6" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="64"/>
+    </row>
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="I7" s="29" t="s">
+      <c r="D7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>487</v>
+      <c r="J7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="31">
+      <c r="B8" s="27">
         <v>1</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" s="31">
+      <c r="H8" s="27">
         <v>1</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="27">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="27">
+        <v>2</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="27">
+        <v>3</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="31">
-        <v>2</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="H9" s="31">
-        <v>2</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="31">
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="27">
         <v>3</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="H10" s="31">
-        <v>3</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>235</v>
+      <c r="I10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="31">
+      <c r="B11" s="27">
         <v>4</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="H11" s="31">
+      <c r="C11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="27">
         <v>4</v>
       </c>
-      <c r="I11" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>238</v>
+      <c r="I11" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="31">
+      <c r="B12" s="27">
         <v>5</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>217</v>
+      <c r="C12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="31">
+      <c r="B13" s="27">
         <v>6</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>220</v>
+      <c r="C13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="31">
+      <c r="B14" s="27">
         <v>7</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>223</v>
+      <c r="C14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="31">
+      <c r="B15" s="27">
         <v>8</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>226</v>
+      <c r="C15" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7680,7 +5628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L74"/>
   <sheetViews>
@@ -7703,91 +5651,91 @@
     <col min="13" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B2" s="30"/>
-      <c r="C2" s="20" t="str">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="17">
         <f>$D$4+$D$3</f>
         <v>82</v>
       </c>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="20" t="str">
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <f>COUNT($H$1:$H$100)</f>
         <v>15</v>
       </c>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="20" t="str">
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <f>COUNT($B$1:$B$100)</f>
         <v>67</v>
       </c>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
-      <c r="D5" s="22"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="2:12" s="23" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
-        <v>706</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="H6" s="70" t="s">
-        <v>708</v>
-      </c>
-      <c r="I6" s="70"/>
-    </row>
-    <row r="7" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="D5" s="18"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="H6" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="64"/>
+    </row>
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="I7" s="29" t="s">
+      <c r="D7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>487</v>
+      <c r="J7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -7795,31 +5743,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>244</v>
+        <v>66</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>455</v>
+        <v>278</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>457</v>
+        <v>279</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
@@ -7827,31 +5775,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>245</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>247</v>
+        <v>69</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>458</v>
+        <v>281</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>460</v>
+        <v>282</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
@@ -7859,31 +5807,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>250</v>
+        <v>72</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>461</v>
+        <v>284</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>463</v>
+        <v>285</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
@@ -7891,31 +5839,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>256</v>
+        <v>78</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>464</v>
+        <v>287</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>466</v>
+        <v>288</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
@@ -7923,31 +5871,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>259</v>
+        <v>81</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>467</v>
+        <v>290</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>469</v>
+        <v>291</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
@@ -7955,31 +5903,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>260</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>262</v>
+        <v>84</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>470</v>
+        <v>293</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>472</v>
+        <v>294</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
@@ -7987,31 +5935,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>265</v>
+        <v>87</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="H14" s="3">
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>473</v>
+        <v>296</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>475</v>
+        <v>297</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
@@ -8019,31 +5967,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>269</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>271</v>
+        <v>93</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>476</v>
+        <v>299</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>478</v>
+        <v>300</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -8051,31 +5999,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>272</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>274</v>
+        <v>96</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>479</v>
+        <v>302</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>481</v>
+        <v>303</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
@@ -8083,31 +6031,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>277</v>
+        <v>99</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>482</v>
+        <v>305</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>484</v>
+        <v>306</v>
+      </c>
+      <c r="L17" s="15" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
@@ -8115,31 +6063,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>280</v>
+        <v>102</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="H18" s="3">
         <v>11</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>241</v>
+        <v>63</v>
+      </c>
+      <c r="L18" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
@@ -8147,31 +6095,31 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>283</v>
+        <v>105</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="H19" s="3">
         <v>12</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>266</v>
+        <v>89</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>268</v>
+        <v>90</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
@@ -8179,31 +6127,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>284</v>
+        <v>107</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>286</v>
+        <v>108</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="H20" s="3">
         <v>13</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>440</v>
+        <v>263</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>442</v>
+        <v>264</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
@@ -8211,31 +6159,31 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>287</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>289</v>
+        <v>111</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="H21" s="3">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>395</v>
+        <v>218</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>397</v>
+        <v>219</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
@@ -8243,31 +6191,31 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>290</v>
+        <v>113</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>292</v>
+        <v>114</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="H22" s="3">
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>253</v>
+        <v>75</v>
+      </c>
+      <c r="L22" s="15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
@@ -8275,16 +6223,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>295</v>
+        <v>117</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
@@ -8292,16 +6240,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>296</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>298</v>
+        <v>120</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
@@ -8309,16 +6257,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>299</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>301</v>
+        <v>123</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
@@ -8326,16 +6274,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>302</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>304</v>
+        <v>126</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
@@ -8343,16 +6291,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>305</v>
+        <v>128</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>307</v>
+        <v>129</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
@@ -8360,16 +6308,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>308</v>
+        <v>131</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>310</v>
+        <v>132</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
@@ -8377,16 +6325,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>311</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>313</v>
+        <v>135</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
@@ -8394,16 +6342,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>314</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>316</v>
+        <v>138</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
@@ -8411,16 +6359,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>317</v>
+        <v>140</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>319</v>
+        <v>141</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
@@ -8428,16 +6376,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>320</v>
+        <v>143</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>322</v>
+        <v>144</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
@@ -8445,16 +6393,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>323</v>
+        <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>325</v>
+        <v>147</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
@@ -8462,16 +6410,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>326</v>
+        <v>149</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>328</v>
+        <v>150</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
@@ -8479,16 +6427,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>329</v>
+        <v>152</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>331</v>
+        <v>153</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
@@ -8496,16 +6444,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>332</v>
+        <v>155</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>334</v>
+        <v>156</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
@@ -8513,16 +6461,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>335</v>
+        <v>158</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>337</v>
+        <v>159</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
@@ -8530,16 +6478,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>338</v>
+        <v>161</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>340</v>
+        <v>162</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
@@ -8547,16 +6495,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>341</v>
+        <v>164</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>343</v>
+        <v>165</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
@@ -8564,16 +6512,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>344</v>
+        <v>167</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>346</v>
+        <v>168</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
@@ -8581,16 +6529,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>347</v>
+        <v>170</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>349</v>
+        <v>171</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
@@ -8598,16 +6546,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>350</v>
+        <v>173</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>352</v>
+        <v>174</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
@@ -8615,16 +6563,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>353</v>
+        <v>176</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>355</v>
+        <v>177</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
@@ -8632,16 +6580,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>356</v>
+        <v>179</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F44" s="16" t="s">
-        <v>358</v>
+        <v>180</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
@@ -8649,16 +6597,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>359</v>
+        <v>182</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>361</v>
+        <v>183</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
@@ -8666,16 +6614,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>362</v>
+        <v>185</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>364</v>
+        <v>186</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
@@ -8683,16 +6631,16 @@
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>365</v>
+        <v>188</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>367</v>
+        <v>189</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.35">
@@ -8700,16 +6648,16 @@
         <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>368</v>
+        <v>191</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>370</v>
+        <v>192</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
@@ -8717,16 +6665,16 @@
         <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>371</v>
+        <v>194</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>373</v>
+        <v>195</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
@@ -8734,16 +6682,16 @@
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>374</v>
+        <v>197</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>376</v>
+        <v>198</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
@@ -8751,16 +6699,16 @@
         <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>377</v>
+        <v>200</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F51" s="16" t="s">
-        <v>379</v>
+        <v>201</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
@@ -8768,16 +6716,16 @@
         <v>45</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>380</v>
+        <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F52" s="16" t="s">
-        <v>382</v>
+        <v>204</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
@@ -8785,16 +6733,16 @@
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>383</v>
+        <v>206</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>385</v>
+        <v>207</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
@@ -8802,16 +6750,16 @@
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>386</v>
+        <v>209</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>388</v>
+        <v>210</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
@@ -8819,16 +6767,16 @@
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>389</v>
+        <v>212</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F55" s="16" t="s">
-        <v>391</v>
+        <v>213</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
@@ -8836,16 +6784,16 @@
         <v>49</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>392</v>
+        <v>215</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="F56" s="16" t="s">
-        <v>394</v>
+        <v>216</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
@@ -8853,16 +6801,16 @@
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>398</v>
+        <v>221</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F57" s="16" t="s">
-        <v>400</v>
+        <v>222</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
@@ -8870,16 +6818,16 @@
         <v>51</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>401</v>
+        <v>224</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>403</v>
+        <v>225</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
@@ -8887,16 +6835,16 @@
         <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>404</v>
+        <v>227</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>406</v>
+        <v>228</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.35">
@@ -8904,16 +6852,16 @@
         <v>53</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>407</v>
+        <v>230</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>409</v>
+        <v>231</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
@@ -8921,16 +6869,16 @@
         <v>54</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>410</v>
+        <v>233</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="F61" s="16" t="s">
-        <v>412</v>
+        <v>234</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.35">
@@ -8938,16 +6886,16 @@
         <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>413</v>
+        <v>236</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>415</v>
+        <v>237</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
@@ -8955,16 +6903,16 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>418</v>
+        <v>240</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
@@ -8972,16 +6920,16 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>419</v>
+        <v>242</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>421</v>
+        <v>243</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.35">
@@ -8989,16 +6937,16 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>422</v>
+        <v>245</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>424</v>
+        <v>246</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
@@ -9006,16 +6954,16 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>425</v>
+        <v>248</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>427</v>
+        <v>249</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
@@ -9023,16 +6971,16 @@
         <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>428</v>
+        <v>251</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="F67" s="16" t="s">
-        <v>430</v>
+        <v>252</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
@@ -9040,16 +6988,16 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>431</v>
+        <v>254</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F68" s="16" t="s">
-        <v>433</v>
+        <v>255</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
@@ -9057,16 +7005,16 @@
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>434</v>
+        <v>257</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F69" s="16" t="s">
-        <v>436</v>
+        <v>258</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
@@ -9074,16 +7022,16 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>437</v>
+        <v>260</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>439</v>
+        <v>261</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
@@ -9091,16 +7039,16 @@
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>443</v>
+        <v>266</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="F71" s="16" t="s">
-        <v>445</v>
+        <v>267</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
@@ -9108,16 +7056,16 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>446</v>
+        <v>269</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="F72" s="16" t="s">
-        <v>448</v>
+        <v>270</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.35">
@@ -9125,16 +7073,16 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>449</v>
+        <v>272</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>451</v>
+        <v>273</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.35">
@@ -9142,16 +7090,16 @@
         <v>67</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>452</v>
+        <v>275</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>454</v>
+        <v>276</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -9247,7 +7195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L45"/>
   <sheetViews>
@@ -9270,91 +7218,91 @@
     <col min="13" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B2" s="30"/>
-      <c r="C2" s="20" t="str">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="17">
         <f>$D$4+$D$3</f>
         <v>43</v>
       </c>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B3" s="30"/>
-      <c r="C3" s="20" t="str">
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="17">
         <f>COUNT($H$1:$H$100)</f>
         <v>5</v>
       </c>
-      <c r="H3" s="30"/>
-    </row>
-    <row r="4" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B4" s="30"/>
-      <c r="C4" s="20" t="str">
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="17">
         <f>COUNT($B$1:$B$100)</f>
         <v>38</v>
       </c>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B5" s="30"/>
-      <c r="D5" s="22"/>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="2:12" s="23" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
-        <v>706</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="H6" s="70" t="s">
-        <v>708</v>
-      </c>
-      <c r="I6" s="70"/>
-    </row>
-    <row r="7" spans="2:12" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="D5" s="18"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="H6" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="64"/>
+    </row>
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>707</v>
-      </c>
-      <c r="I7" s="29" t="s">
+      <c r="D7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>485</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>487</v>
+      <c r="J7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -9362,31 +7310,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>616</v>
+        <v>439</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5">
         <v>7558289080</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>617</v>
+      <c r="F8" s="15" t="s">
+        <v>440</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>694</v>
+        <v>517</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>696</v>
+        <v>518</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
@@ -9394,31 +7342,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>618</v>
+        <v>441</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5">
         <v>7387213425</v>
       </c>
-      <c r="F9" s="16" t="s">
-        <v>619</v>
+      <c r="F9" s="15" t="s">
+        <v>442</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>697</v>
+        <v>520</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>699</v>
+        <v>521</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
@@ -9426,31 +7374,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>620</v>
+        <v>443</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5">
         <v>9833446728</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>621</v>
+      <c r="F10" s="15" t="s">
+        <v>444</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>700</v>
+        <v>523</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>701</v>
+        <v>524</v>
       </c>
       <c r="K10" s="5">
         <v>9422115479</v>
       </c>
-      <c r="L10" s="16" t="s">
-        <v>702</v>
+      <c r="L10" s="15" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
@@ -9458,31 +7406,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>622</v>
+        <v>445</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5">
         <v>9763563987</v>
       </c>
-      <c r="F11" s="16" t="s">
-        <v>623</v>
+      <c r="F11" s="15" t="s">
+        <v>446</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>703</v>
+        <v>526</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>705</v>
+        <v>527</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
@@ -9490,31 +7438,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>624</v>
+        <v>447</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5">
         <v>7066705430</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>625</v>
+      <c r="F12" s="15" t="s">
+        <v>448</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>672</v>
+        <v>495</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="K12" s="5">
         <v>7743949634</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>673</v>
+      <c r="L12" s="15" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
@@ -9522,16 +7470,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>626</v>
+        <v>449</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5">
         <v>8237496955</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>627</v>
+      <c r="F13" s="15" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
@@ -9539,16 +7487,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>628</v>
+        <v>451</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5">
         <v>9049796915</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>629</v>
+      <c r="F14" s="15" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
@@ -9556,16 +7504,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>630</v>
+        <v>453</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5">
         <v>9987648115</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>631</v>
+      <c r="F15" s="15" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -9573,16 +7521,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>632</v>
+        <v>455</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5">
         <v>9820958424</v>
       </c>
-      <c r="F16" s="16" t="s">
-        <v>633</v>
+      <c r="F16" s="15" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -9590,16 +7538,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>634</v>
+        <v>457</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5">
         <v>7887669198</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>635</v>
+      <c r="F17" s="15" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -9607,16 +7555,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>636</v>
+        <v>459</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5">
         <v>7666038604</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>637</v>
+      <c r="F18" s="15" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -9624,16 +7572,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>638</v>
+        <v>461</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E19" s="5">
         <v>7303752979</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>639</v>
+      <c r="F19" s="15" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -9641,16 +7589,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>640</v>
+        <v>463</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5">
         <v>8857819155</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>641</v>
+      <c r="F20" s="15" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
@@ -9658,16 +7606,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>642</v>
+        <v>465</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E21" s="5">
         <v>8825054152</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>643</v>
+      <c r="F21" s="15" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -9675,16 +7623,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>644</v>
+        <v>467</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5">
         <v>9765914865</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>645</v>
+      <c r="F22" s="15" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -9692,16 +7640,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>646</v>
+        <v>469</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5">
         <v>7710859052</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>647</v>
+      <c r="F23" s="15" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
@@ -9709,16 +7657,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>648</v>
+        <v>471</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5">
         <v>8857863105</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>649</v>
+      <c r="F24" s="15" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -9726,16 +7674,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>650</v>
+        <v>473</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5">
         <v>9423561361</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>651</v>
+      <c r="F25" s="15" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
@@ -9743,16 +7691,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>652</v>
+        <v>475</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5">
         <v>8424956867</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>653</v>
+      <c r="F26" s="15" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
@@ -9760,16 +7708,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>654</v>
+        <v>477</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5">
         <v>8390700404</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>655</v>
+      <c r="F27" s="15" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
@@ -9777,16 +7725,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>656</v>
+        <v>479</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5">
         <v>8421163930</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>657</v>
+      <c r="F28" s="15" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
@@ -9794,16 +7742,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>658</v>
+        <v>481</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E29" s="5">
         <v>7083906951</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>659</v>
+      <c r="F29" s="15" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
@@ -9811,16 +7759,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>660</v>
+        <v>483</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E30" s="5">
         <v>8689929864</v>
       </c>
-      <c r="F30" s="16" t="s">
-        <v>661</v>
+      <c r="F30" s="15" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
@@ -9828,16 +7776,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>662</v>
+        <v>485</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5">
         <v>7362933380</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>663</v>
+      <c r="F31" s="15" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
@@ -9845,16 +7793,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>664</v>
+        <v>487</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E32" s="5">
         <v>7218583912</v>
       </c>
-      <c r="F32" s="16" t="s">
-        <v>665</v>
+      <c r="F32" s="15" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
@@ -9862,16 +7810,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>666</v>
+        <v>489</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E33" s="5">
         <v>8978213151</v>
       </c>
-      <c r="F33" s="16" t="s">
-        <v>667</v>
+      <c r="F33" s="15" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
@@ -9879,16 +7827,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>668</v>
+        <v>491</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E34" s="5">
         <v>9326855136</v>
       </c>
-      <c r="F34" s="16" t="s">
-        <v>669</v>
+      <c r="F34" s="15" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
@@ -9896,16 +7844,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>670</v>
+        <v>493</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E35" s="5">
         <v>9172029365</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>671</v>
+      <c r="F35" s="15" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
@@ -9913,16 +7861,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>674</v>
+        <v>497</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5">
         <v>8624039380</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>675</v>
+      <c r="F36" s="15" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
@@ -9930,16 +7878,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>676</v>
+        <v>499</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E37" s="5">
         <v>7218454570</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>677</v>
+      <c r="F37" s="15" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
@@ -9947,16 +7895,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>678</v>
+        <v>501</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E38" s="5">
         <v>9359467647</v>
       </c>
-      <c r="F38" s="16" t="s">
-        <v>679</v>
+      <c r="F38" s="15" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
@@ -9964,16 +7912,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>680</v>
+        <v>503</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E39" s="5">
         <v>8691942385</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>681</v>
+      <c r="F39" s="15" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
@@ -9981,16 +7929,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>682</v>
+        <v>505</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E40" s="5">
         <v>8850419292</v>
       </c>
-      <c r="F40" s="16" t="s">
-        <v>683</v>
+      <c r="F40" s="15" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
@@ -9998,16 +7946,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>684</v>
+        <v>507</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5">
         <v>9621029028</v>
       </c>
-      <c r="F41" s="16" t="s">
-        <v>685</v>
+      <c r="F41" s="15" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
@@ -10015,16 +7963,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>686</v>
+        <v>509</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E42" s="5">
         <v>7066020092</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>687</v>
+      <c r="F42" s="15" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
@@ -10032,16 +7980,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>688</v>
+        <v>511</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E43" s="5">
         <v>8349830798</v>
       </c>
-      <c r="F43" s="16" t="s">
-        <v>689</v>
+      <c r="F43" s="15" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
@@ -10049,16 +7997,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>690</v>
+        <v>513</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E44" s="5">
         <v>7225848488</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>691</v>
+      <c r="F44" s="15" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
@@ -10066,16 +8014,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>692</v>
+        <v>515</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5">
         <v>7719862298</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>693</v>
+      <c r="F45" s="15" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
-    <sheet name="MPT-MTT-ParallelProject-PLP" sheetId="10" r:id="rId3"/>
-    <sheet name="Noida Batch Candidates" sheetId="6" r:id="rId4"/>
-    <sheet name="Bhuvaneswar Batch Candidates" sheetId="7" r:id="rId5"/>
-    <sheet name="Bangalore Batch Candidates" sheetId="8" r:id="rId6"/>
-    <sheet name="Pune-Mumbai Batch Candidates" sheetId="9" r:id="rId7"/>
+    <sheet name="Noida Batch Candidates" sheetId="6" r:id="rId3"/>
+    <sheet name="Bhuvaneswar Batch Candidates" sheetId="7" r:id="rId4"/>
+    <sheet name="Bangalore Batch Candidates" sheetId="8" r:id="rId5"/>
+    <sheet name="Pune-Mumbai Batch Candidates" sheetId="9" r:id="rId6"/>
+    <sheet name="Bangalore Nov Batch Candidates" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="710">
   <si>
     <t>Batch Name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Sudheer</t>
   </si>
   <si>
-    <t xml:space="preserve">Veena / Nitish 24th September </t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -1645,96 +1642,517 @@
     <t>Dropout/Absconded</t>
   </si>
   <si>
-    <t>Module 1</t>
-  </si>
-  <si>
-    <t>MTT</t>
-  </si>
-  <si>
-    <t>MPT</t>
-  </si>
-  <si>
-    <t>Module 2</t>
-  </si>
-  <si>
     <t>CG Mentor</t>
   </si>
   <si>
     <t>TY Mentor</t>
   </si>
   <si>
-    <t>Test Conducted-Results to be Shared</t>
-  </si>
-  <si>
-    <t>Module 3</t>
-  </si>
-  <si>
-    <t>Module 4</t>
-  </si>
-  <si>
-    <t>Parallel Project</t>
-  </si>
-  <si>
-    <t>PLP Project</t>
-  </si>
-  <si>
-    <t>Shared-Review Pending</t>
-  </si>
-  <si>
-    <t>Test Conducted-Results Shared</t>
-  </si>
-  <si>
-    <t>To be Shared</t>
-  </si>
-  <si>
-    <t>Parallel Project Name</t>
-  </si>
-  <si>
-    <t>PLP Project Name</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>University Admission System</t>
-  </si>
-  <si>
-    <t>Asset Management System</t>
-  </si>
-  <si>
-    <t>Survey Management System</t>
-  </si>
-  <si>
-    <t>Feedback Management System</t>
-  </si>
-  <si>
-    <t>Banking System</t>
-  </si>
-  <si>
-    <t>Airline Reservation System</t>
-  </si>
-  <si>
-    <t>Online medical Booking Store Project</t>
-  </si>
-  <si>
-    <t>Hotel Bookings Management System</t>
-  </si>
-  <si>
-    <t>Git Repository URL where we can find all the documents related to HTD</t>
-  </si>
-  <si>
-    <t>https://github.com/Praveen-TestYantra/JSpiders-CG-HTDProgram</t>
-  </si>
-  <si>
-    <t>Varsha has reviewd M1 MTT &amp; MPT on Thrusday 17th Oct 2019</t>
-  </si>
-  <si>
-    <t>Servlet and Hibernate Started and Completed</t>
-  </si>
-  <si>
-    <t>HTML, CSS, Bootstrap Started and Completed
-JavaScript and TypeScript Started and Completed
-Angular Started</t>
+    <t>Bangalore Nov Batch</t>
+  </si>
+  <si>
+    <t>Spring Core and Spring MVC completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhaya Adarsh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhishek Kumar </t>
+  </si>
+  <si>
+    <t>Aishwarya Mudalagi</t>
+  </si>
+  <si>
+    <t>Akshaykumar R Agasanalli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aniket Kumar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animesh Arman </t>
+  </si>
+  <si>
+    <t>Anish Hegde</t>
+  </si>
+  <si>
+    <t>Ankita Panda</t>
+  </si>
+  <si>
+    <t>Aparnna K S</t>
+  </si>
+  <si>
+    <t>Arogya Mary Asha</t>
+  </si>
+  <si>
+    <t>Arpita Kundu</t>
+  </si>
+  <si>
+    <t>Ashwini R</t>
+  </si>
+  <si>
+    <t>Bhuvaneshwari Patil</t>
+  </si>
+  <si>
+    <t>Biswajit Sahu</t>
+  </si>
+  <si>
+    <t>Chaithra S</t>
+  </si>
+  <si>
+    <t>Deepa K</t>
+  </si>
+  <si>
+    <t>Devi Prasad Hota</t>
+  </si>
+  <si>
+    <t>Diksha Kumari</t>
+  </si>
+  <si>
+    <t>Dilip Kumar</t>
+  </si>
+  <si>
+    <t>Gayathri Gurramkonda</t>
+  </si>
+  <si>
+    <t>Gayathri M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopi R </t>
+  </si>
+  <si>
+    <t>Harshith Cr</t>
+  </si>
+  <si>
+    <t>Impana K Y</t>
+  </si>
+  <si>
+    <t>Magham Bhavana</t>
+  </si>
+  <si>
+    <t>Mamatha Manchala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansi Chauhan </t>
+  </si>
+  <si>
+    <t>Mayuri Godgeri</t>
+  </si>
+  <si>
+    <t>Megha</t>
+  </si>
+  <si>
+    <t>Megha Irappa Sangannavar</t>
+  </si>
+  <si>
+    <t>Mohammed Saif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Munagapati Hemalatha </t>
+  </si>
+  <si>
+    <t>Omkar Naik</t>
+  </si>
+  <si>
+    <t>Pallavi Gupta</t>
+  </si>
+  <si>
+    <t>Pallavi N Bharamagoudra</t>
+  </si>
+  <si>
+    <t>Pawan Kumar B R</t>
+  </si>
+  <si>
+    <t>Peddisetti Manikanta</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>Pooja C</t>
+  </si>
+  <si>
+    <t>Poornima B M</t>
+  </si>
+  <si>
+    <t>Pragati Y Gurani</t>
+  </si>
+  <si>
+    <t>Putti Venkata Pavan Kumar</t>
+  </si>
+  <si>
+    <t>Rajalaxmi Swain</t>
+  </si>
+  <si>
+    <t>Ramanagouda</t>
+  </si>
+  <si>
+    <t>Ranjana K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Dilli Rani </t>
+  </si>
+  <si>
+    <t xml:space="preserve">S Manju </t>
+  </si>
+  <si>
+    <t>S.Vaishna</t>
+  </si>
+  <si>
+    <t>Sai Pooja V</t>
+  </si>
+  <si>
+    <t>Sanjana K Raj</t>
+  </si>
+  <si>
+    <t>Santosh Kumar Padhy</t>
+  </si>
+  <si>
+    <t>Seema P Hosalli</t>
+  </si>
+  <si>
+    <t>Shafiya Jameela Ahmedi</t>
+  </si>
+  <si>
+    <t>Shaik Raziya Sultana</t>
+  </si>
+  <si>
+    <t>Shamail Siddiqha</t>
+  </si>
+  <si>
+    <t>Sharankumar Thippanna Haravi</t>
+  </si>
+  <si>
+    <t>Sharanyaa S</t>
+  </si>
+  <si>
+    <t>Shivani N S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrikanth Gowda </t>
+  </si>
+  <si>
+    <t>Shwetha Ps</t>
+  </si>
+  <si>
+    <t>Sivakumar V</t>
+  </si>
+  <si>
+    <t>Sivalakshmi.G</t>
+  </si>
+  <si>
+    <t>Sneha Alagouda Patil</t>
+  </si>
+  <si>
+    <t>Sowmya K</t>
+  </si>
+  <si>
+    <t>Subham Paul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suddanagunta Tejaswini </t>
+  </si>
+  <si>
+    <t>Sunil Biradar</t>
+  </si>
+  <si>
+    <t>Surajakhan Fakeerasab Pinjar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susmita Das </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susmita Sen </t>
+  </si>
+  <si>
+    <t>T Subhransu Patra</t>
+  </si>
+  <si>
+    <t>Tahareem Mulla</t>
+  </si>
+  <si>
+    <t>Vaishnavi A Kottari</t>
+  </si>
+  <si>
+    <t>Vidya S M</t>
+  </si>
+  <si>
+    <t>Vidyashree N P</t>
+  </si>
+  <si>
+    <t>Vineetha V</t>
+  </si>
+  <si>
+    <t>Vinutha S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivek Kumar </t>
+  </si>
+  <si>
+    <t>7090872758 ,7892108484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhaya.adarsh148@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhisheksjsj@gmail.com </t>
+  </si>
+  <si>
+    <t>aishmudalgi999@gmail.com</t>
+  </si>
+  <si>
+    <t>aagasanalli@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aniket.thaakur@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">armananimesh@gmail.com </t>
+  </si>
+  <si>
+    <t>anishhegde14@gmail.com</t>
+  </si>
+  <si>
+    <t>ankitapanda8642@gmail.com</t>
+  </si>
+  <si>
+    <t>apkallarackal12@gmail.com</t>
+  </si>
+  <si>
+    <t>ashaashu12D50:E706@gmail.com</t>
+  </si>
+  <si>
+    <t>arpitakunduak97@gmail.com</t>
+  </si>
+  <si>
+    <t>ashwinirao134@gmail.com</t>
+  </si>
+  <si>
+    <t>1997sonampatil@gmail.com</t>
+  </si>
+  <si>
+    <t>sahubiswajit430@gmail.com</t>
+  </si>
+  <si>
+    <t>chaithra1350@gmail.com</t>
+  </si>
+  <si>
+    <t>deepaa24k@gmail.com</t>
+  </si>
+  <si>
+    <t>spyziecyber@gmail.com</t>
+  </si>
+  <si>
+    <t>gtsdikshasingh@gmail.com</t>
+  </si>
+  <si>
+    <t>dilipraichur10@gmail.com</t>
+  </si>
+  <si>
+    <t>gayathrigurramkonda@gmail.com</t>
+  </si>
+  <si>
+    <t>gayathri.nayak.2120@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gopir1998@gmail.com </t>
+  </si>
+  <si>
+    <t>harshithcrrpt@gmail.com</t>
+  </si>
+  <si>
+    <t>impanaask97@gmail.com</t>
+  </si>
+  <si>
+    <t>bhavanamagham123@gmail.com</t>
+  </si>
+  <si>
+    <t>manchalakavitha559@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">himansichauhan8719@gmail.com </t>
+  </si>
+  <si>
+    <t>kiranbhojaya980@gmail.com</t>
+  </si>
+  <si>
+    <t>meghaa9797@gmail.com</t>
+  </si>
+  <si>
+    <t>meghasangannavar@gmail.com</t>
+  </si>
+  <si>
+    <t>ota.sa.97@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hemalathamunagapati98@gmail.com </t>
+  </si>
+  <si>
+    <t>omkarnaik571@gmail.com</t>
+  </si>
+  <si>
+    <t>pallavi.gupta7007@gmail.com</t>
+  </si>
+  <si>
+    <t>pallavinb1997@gmail.com</t>
+  </si>
+  <si>
+    <t>pavan.570818@gmail.com</t>
+  </si>
+  <si>
+    <t>peddisettim@gmail.com</t>
+  </si>
+  <si>
+    <t>Chirallipooja@gmail.com</t>
+  </si>
+  <si>
+    <t>poojachandu68@gmail.com</t>
+  </si>
+  <si>
+    <t>poornimabm2062@gmail.com</t>
+  </si>
+  <si>
+    <t>pragatigurani@gmail.com</t>
+  </si>
+  <si>
+    <t>venkatapavankumarputti@gmail.com</t>
+  </si>
+  <si>
+    <t>rajlaxmiswain.19@gmail.com</t>
+  </si>
+  <si>
+    <t>ramanagouda1001@gmail.com</t>
+  </si>
+  <si>
+    <t>ranjanashetty98@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samireddyranireddy@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manjus7498@gmail.com </t>
+  </si>
+  <si>
+    <t>vaishna1998@gmail.com</t>
+  </si>
+  <si>
+    <t>saipoojav1997@gmail.com</t>
+  </si>
+  <si>
+    <t>sanjana.rajj97@gmail.com</t>
+  </si>
+  <si>
+    <t>padhys79@gmail.com</t>
+  </si>
+  <si>
+    <t>seemahosalli1998@gmail.com</t>
+  </si>
+  <si>
+    <t>shafiyaja9@gmail.com</t>
+  </si>
+  <si>
+    <t>srsulthana1998@gmail.com</t>
+  </si>
+  <si>
+    <t>shamailsiddiqha@gmail.com</t>
+  </si>
+  <si>
+    <t>sharankumarh20@gmail.com</t>
+  </si>
+  <si>
+    <t>sharanshakthys@gmail.com</t>
+  </si>
+  <si>
+    <t>shivanishivakumar697@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shrikanth281@gmail.com </t>
+  </si>
+  <si>
+    <t>shwethaps366@gmail.com</t>
+  </si>
+  <si>
+    <t>sivavelu1297@gmail.com</t>
+  </si>
+  <si>
+    <t>gopavarapusivalakshmi1@gmail.com</t>
+  </si>
+  <si>
+    <t>9patilsneha@gmail.com</t>
+  </si>
+  <si>
+    <t>sowmyakprema@gmail.com</t>
+  </si>
+  <si>
+    <t>subhampaul2050@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sudanaguntatejaswini@gmail.com </t>
+  </si>
+  <si>
+    <t>sunilbiradar179@gmail.com</t>
+  </si>
+  <si>
+    <t>surajkhanpinjar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">susmitax47@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">susmitasen105@gmail.com </t>
+  </si>
+  <si>
+    <t>tsubhransupatra07@gmail.com</t>
+  </si>
+  <si>
+    <t>tahareem55@gmail.com</t>
+  </si>
+  <si>
+    <t>vaish1312@gmail.com</t>
+  </si>
+  <si>
+    <t>vidya.sm2497@gmail.com</t>
+  </si>
+  <si>
+    <t>vidyashreenp92@gmail.com</t>
+  </si>
+  <si>
+    <t>vineethav271@gmail.com</t>
+  </si>
+  <si>
+    <t>svinuthasureshbabu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivek3405@gmail.com </t>
+  </si>
+  <si>
+    <t>Anshul Kumar</t>
+  </si>
+  <si>
+    <t>anshuldhiman96@yahoo.com</t>
+  </si>
+  <si>
+    <t>Sowmya Bk</t>
+  </si>
+  <si>
+    <t>13sowmya97@gmail.com</t>
+  </si>
+  <si>
+    <t>Srikanth K V</t>
+  </si>
+  <si>
+    <t>srikanthkv36@gmail.com</t>
+  </si>
+  <si>
+    <t>Core Java Started
+Operaters and Methods completed
+Constructer completed</t>
+  </si>
+  <si>
+    <t>Angular completed
+Module 2 test conducted and Servlets started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veena / Nitish 24th October </t>
   </si>
 </sst>
 </file>
@@ -1824,7 +2242,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1858,12 +2276,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor rgb="FF8DB4E2"/>
       </patternFill>
     </fill>
@@ -1885,20 +2297,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1943,220 +2343,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2226,7 +2419,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2238,111 +2431,43 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2352,276 +2477,824 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="82">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3387,12 +4060,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D3" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="4:5" x14ac:dyDescent="0.35">
@@ -3566,10 +4239,10 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -3584,37 +4257,37 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="P2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R2" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="28" x14ac:dyDescent="0.35">
@@ -3625,7 +4298,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
@@ -3658,16 +4331,16 @@
         <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O3" s="3">
         <v>8377841525</v>
       </c>
-      <c r="P3" s="50" t="s">
-        <v>569</v>
+      <c r="P3" s="34" t="s">
+        <v>543</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>13</v>
+        <v>709</v>
       </c>
       <c r="R3" s="12"/>
     </row>
@@ -3679,7 +4352,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
@@ -3712,20 +4385,20 @@
         <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O4" s="3">
         <v>8073098283</v>
       </c>
-      <c r="P4" s="50" t="s">
-        <v>569</v>
+      <c r="P4" s="34" t="s">
+        <v>543</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>13</v>
+        <v>709</v>
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="2:18" ht="28" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -3733,7 +4406,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -3766,20 +4439,20 @@
         <v>11</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O5" s="3">
         <v>8762928822</v>
       </c>
-      <c r="P5" s="50" t="s">
-        <v>569</v>
+      <c r="P5" s="34" t="s">
+        <v>543</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>13</v>
+        <v>709</v>
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="2:18" ht="70" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -3787,7 +4460,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -3820,16 +4493,64 @@
         <v>12</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O6" s="3">
         <v>9897145195</v>
       </c>
-      <c r="P6" s="50" t="s">
-        <v>570</v>
-      </c>
-      <c r="Q6" s="12"/>
+      <c r="P6" s="34" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>709</v>
+      </c>
       <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="2:18" ht="56" x14ac:dyDescent="0.35">
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="9">
+        <v>43780</v>
+      </c>
+      <c r="H7" s="9">
+        <v>43872</v>
+      </c>
+      <c r="I7" s="9">
+        <v>43879</v>
+      </c>
+      <c r="J7" s="31">
+        <f>'Bangalore Nov Batch Candidates'!D2</f>
+        <v>81</v>
+      </c>
+      <c r="K7" s="30">
+        <f>'Bangalore Nov Batch Candidates'!D3</f>
+        <v>14</v>
+      </c>
+      <c r="L7" s="29">
+        <f>'Bangalore Nov Batch Candidates'!D4</f>
+        <v>67</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="34" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G8" s="8" t="s">
@@ -3843,465 +4564,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.453125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.54296875" style="33" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" style="33" customWidth="1"/>
-    <col min="6" max="7" width="45.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.7265625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="40" style="19" customWidth="1"/>
-    <col min="10" max="11" width="39" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="45.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="33.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.1796875" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.1796875" style="45" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="42.7265625" style="42" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.1796875" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
-        <v>566</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="52" t="s">
-        <v>567</v>
-      </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-    </row>
-    <row r="3" spans="2:18" ht="15.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:18" s="26" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="60" t="str">
-        <f>Summary!$D$2</f>
-        <v>Batch Name</v>
-      </c>
-      <c r="D4" s="58" t="str">
-        <f>Summary!H2</f>
-        <v>L1 Date</v>
-      </c>
-      <c r="E4" s="60" t="str">
-        <f>Summary!$M$2</f>
-        <v>CG Mentor</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>541</v>
-      </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="62" t="s">
-        <v>544</v>
-      </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="62" t="s">
-        <v>548</v>
-      </c>
-      <c r="K4" s="63"/>
-      <c r="L4" s="62" t="s">
-        <v>549</v>
-      </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="60" t="s">
-        <v>550</v>
-      </c>
-      <c r="O4" s="60" t="s">
-        <v>551</v>
-      </c>
-      <c r="P4" s="56" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>556</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" s="26" customFormat="1" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>543</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>543</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>543</v>
-      </c>
-      <c r="L5" s="40" t="s">
-        <v>542</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>543</v>
-      </c>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
-        <f>Summary!B3</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="35" t="str">
-        <f>Summary!D3</f>
-        <v>Noida Batch</v>
-      </c>
-      <c r="D6" s="47">
-        <f>Summary!H3</f>
-        <v>43811</v>
-      </c>
-      <c r="E6" s="35" t="str">
-        <f>Summary!M3</f>
-        <v xml:space="preserve">Mohammed </v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="M6" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="N6" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="O6" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="P6" s="44" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q6" s="44" t="s">
-        <v>563</v>
-      </c>
-      <c r="R6" s="53" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="37">
-        <f>Summary!B4</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="35" t="str">
-        <f>Summary!D4</f>
-        <v>Bhuvaneswar Batch</v>
-      </c>
-      <c r="D7" s="47">
-        <f>Summary!H4</f>
-        <v>43811</v>
-      </c>
-      <c r="E7" s="35" t="str">
-        <f>Summary!M4</f>
-        <v>Sudheer</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="M7" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="N7" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="O7" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="P7" s="44" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q7" s="44" t="s">
-        <v>560</v>
-      </c>
-      <c r="R7" s="54"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="37">
-        <f>Summary!B5</f>
-        <v>3</v>
-      </c>
-      <c r="C8" s="35" t="str">
-        <f>Summary!D5</f>
-        <v>Bangalore Batch</v>
-      </c>
-      <c r="D8" s="47">
-        <f>Summary!H5</f>
-        <v>43811</v>
-      </c>
-      <c r="E8" s="35" t="str">
-        <f>Summary!M5</f>
-        <v>Varsha</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="P8" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q8" s="44" t="s">
-        <v>561</v>
-      </c>
-      <c r="R8" s="55"/>
-    </row>
-    <row r="9" spans="2:18" ht="30.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="38">
-        <f>Summary!B6</f>
-        <v>4</v>
-      </c>
-      <c r="C9" s="36" t="str">
-        <f>Summary!D6</f>
-        <v>Pune-Mumbai Batch</v>
-      </c>
-      <c r="D9" s="48">
-        <f>Summary!H6</f>
-        <v>43836</v>
-      </c>
-      <c r="E9" s="36" t="str">
-        <f>Summary!M6</f>
-        <v>Sudheer</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="G9" s="34" t="s">
-        <v>547</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="O9" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="P9" s="44" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q9" s="44" t="s">
-        <v>565</v>
-      </c>
-      <c r="R9" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A3:O4 A5:C5 E5:O5 S3:Y101 A6:O101 P6:Q9 R6">
-    <cfRule type="containsText" dxfId="23" priority="49" operator="containsText" text="Reviewed-Ready for Test">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",A3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="50" operator="containsText" text="Reviewed-Project Going On">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",A3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="51" operator="containsText" text="To be Shared">
-      <formula>NOT(ISERROR(SEARCH("To be Shared",A3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="52" operator="containsText" text="Test Conducted-Results to be Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",A3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="53" operator="containsText" text="Shared-Review Pending">
-      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",A3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="54" operator="containsText" text="Test Conducted-Results Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:Q5 P10:Q101">
-    <cfRule type="containsText" dxfId="17" priority="43" operator="containsText" text="Reviewed-Ready for Test">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",P3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="44" operator="containsText" text="Reviewed-Project Going On">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",P3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="45" operator="containsText" text="To be Shared">
-      <formula>NOT(ISERROR(SEARCH("To be Shared",P3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="46" operator="containsText" text="Test Conducted-Results to be Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",P3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="47" operator="containsText" text="Shared-Review Pending">
-      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",P3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="48" operator="containsText" text="Test Conducted-Results Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",P3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R5 R10:R101">
-    <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Reviewed-Ready for Test">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",R3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="32" operator="containsText" text="Reviewed-Project Going On">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",R3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="33" operator="containsText" text="To be Shared">
-      <formula>NOT(ISERROR(SEARCH("To be Shared",R3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="34" operator="containsText" text="Test Conducted-Results to be Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",R3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="35" operator="containsText" text="Shared-Review Pending">
-      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",R3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="Test Conducted-Results Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",R3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="containsText" dxfId="5" priority="25" operator="containsText" text="Reviewed-Ready for Test">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Ready for Test",R9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="26" operator="containsText" text="Reviewed-Project Going On">
-      <formula>NOT(ISERROR(SEARCH("Reviewed-Project Going On",R9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="27" operator="containsText" text="To be Shared">
-      <formula>NOT(ISERROR(SEARCH("To be Shared",R9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="28" operator="containsText" text="Test Conducted-Results to be Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results to be Shared",R9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="29" operator="containsText" text="Shared-Review Pending">
-      <formula>NOT(ISERROR(SEARCH("Shared-Review Pending",R9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="30" operator="containsText" text="Test Conducted-Results Shared">
-      <formula>NOT(ISERROR(SEARCH("Test Conducted-Results Shared",R9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:O9">
-      <formula1>"NA,To be Shared,Shared-Review Pending,Review In-progress,Reviewed-Ready for Test,Reviewed-Project Going On,Project Done &amp; to be Evaluated,Project Evaluated,Test Conducted-Results to be Shared,Test Conducted-Results Shared"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L36"/>
   <sheetViews>
@@ -4358,45 +4620,45 @@
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:12" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
-        <v>529</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="H6" s="64" t="s">
-        <v>531</v>
-      </c>
-      <c r="I6" s="64"/>
+      <c r="B6" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="H6" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="H7" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="L7" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
@@ -4404,31 +4666,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="22">
         <v>6394671596</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H8" s="28">
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="23" t="s">
         <v>365</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="23" t="s">
+      <c r="L8" s="24" t="s">
         <v>366</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
@@ -4436,31 +4698,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="22">
         <v>8009311439</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H9" s="28">
         <v>2</v>
       </c>
       <c r="I9" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="J9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="23" t="s">
+      <c r="L9" s="24" t="s">
         <v>369</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
@@ -4468,31 +4730,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="22">
         <v>9468247375</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H10" s="28">
         <v>3</v>
       </c>
       <c r="I10" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>371</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="23" t="s">
+      <c r="L10" s="24" t="s">
         <v>372</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
@@ -4500,31 +4762,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="22">
         <v>9872512451</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H11" s="28">
         <v>4</v>
       </c>
       <c r="I11" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>374</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="L11" s="24" t="s">
         <v>375</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
@@ -4532,31 +4794,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="22">
         <v>9695676355</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H12" s="28">
         <v>5</v>
       </c>
       <c r="I12" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="L12" s="24" t="s">
         <v>378</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
@@ -4564,31 +4826,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="22">
         <v>8826679369</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H13" s="28">
         <v>6</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="L13" s="24" t="s">
         <v>380</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -4596,31 +4858,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="22">
         <v>8512097276</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H14" s="28">
         <v>7</v>
       </c>
       <c r="I14" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="23" t="s">
+      <c r="L14" s="24" t="s">
         <v>383</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
@@ -4628,31 +4890,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="22">
         <v>8076728958</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H15" s="28">
         <v>8</v>
       </c>
       <c r="I15" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="J15" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="23" t="s">
+      <c r="L15" s="24" t="s">
         <v>386</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
@@ -4660,31 +4922,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="22">
         <v>7669604203</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H16" s="28">
         <v>9</v>
       </c>
       <c r="I16" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="J16" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="23" t="s">
+      <c r="L16" s="24" t="s">
         <v>389</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
@@ -4692,31 +4954,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="22">
         <v>8860817681</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H17" s="28">
         <v>10</v>
       </c>
       <c r="I17" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="J17" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="23" t="s">
+      <c r="L17" s="24" t="s">
         <v>392</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
@@ -4724,31 +4986,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="22">
         <v>9015270530</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H18" s="28">
         <v>11</v>
       </c>
       <c r="I18" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="J18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="23" t="s">
+      <c r="L18" s="24" t="s">
         <v>395</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
@@ -4756,31 +5018,31 @@
         <v>12</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="22">
         <v>7827327267</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H19" s="28">
         <v>12</v>
       </c>
       <c r="I19" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="J19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="23" t="s">
+      <c r="L19" s="24" t="s">
         <v>398</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
@@ -4788,31 +5050,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="22">
         <v>8800709136</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H20" s="28">
         <v>13</v>
       </c>
       <c r="I20" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="23" t="s">
         <v>400</v>
       </c>
-      <c r="J20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="23" t="s">
+      <c r="L20" s="24" t="s">
         <v>401</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
@@ -4820,31 +5082,31 @@
         <v>14</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="22">
         <v>9971884734</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H21" s="28">
         <v>14</v>
       </c>
       <c r="I21" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="23" t="s">
         <v>403</v>
       </c>
-      <c r="J21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="23" t="s">
+      <c r="L21" s="24" t="s">
         <v>404</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
@@ -4852,31 +5114,31 @@
         <v>15</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="22">
         <v>7988643977</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H22" s="28">
         <v>15</v>
       </c>
       <c r="I22" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="23" t="s">
         <v>406</v>
       </c>
-      <c r="J22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="23" t="s">
+      <c r="L22" s="24" t="s">
         <v>407</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
@@ -4884,31 +5146,31 @@
         <v>16</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="22">
         <v>9910920931</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H23" s="28">
         <v>16</v>
       </c>
       <c r="I23" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="J23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="23" t="s">
+      <c r="L23" s="24" t="s">
         <v>410</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
@@ -4916,31 +5178,31 @@
         <v>17</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="22">
         <v>7073862831</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H24" s="28">
         <v>17</v>
       </c>
       <c r="I24" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="J24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="23" t="s">
+      <c r="L24" s="24" t="s">
         <v>413</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
@@ -4948,31 +5210,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="22">
         <v>9810943877</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H25" s="28">
         <v>18</v>
       </c>
       <c r="I25" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="J25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="23" t="s">
+      <c r="L25" s="24" t="s">
         <v>416</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -4980,31 +5242,31 @@
         <v>19</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="22">
         <v>9582848409</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H26" s="28">
         <v>19</v>
       </c>
       <c r="I26" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="J26" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="23" t="s">
+      <c r="L26" s="24" t="s">
         <v>419</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
@@ -5012,31 +5274,31 @@
         <v>20</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="22">
         <v>7065509255</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H27" s="28">
         <v>20</v>
       </c>
       <c r="I27" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="J27" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K27" s="23" t="s">
+      <c r="L27" s="24" t="s">
         <v>422</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -5044,31 +5306,31 @@
         <v>21</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="22">
         <v>8218128166</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H28" s="28">
         <v>21</v>
       </c>
       <c r="I28" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="23" t="s">
         <v>424</v>
       </c>
-      <c r="J28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="23" t="s">
+      <c r="L28" s="24" t="s">
         <v>425</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
@@ -5076,31 +5338,31 @@
         <v>22</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="22">
         <v>8512856779</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H29" s="28">
         <v>22</v>
       </c>
       <c r="I29" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="J29" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K29" s="23" t="s">
+      <c r="L29" s="24" t="s">
         <v>428</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
@@ -5108,31 +5370,31 @@
         <v>23</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="22">
         <v>9067472225</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H30" s="28">
         <v>23</v>
       </c>
       <c r="I30" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="J30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="23" t="s">
+      <c r="L30" s="24" t="s">
         <v>431</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
@@ -5140,16 +5402,16 @@
         <v>24</v>
       </c>
       <c r="I31" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="J31" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="23" t="s">
+      <c r="L31" s="24" t="s">
         <v>434</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
@@ -5157,16 +5419,16 @@
         <v>25</v>
       </c>
       <c r="I32" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="J32" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" s="23" t="s">
+      <c r="L32" s="24" t="s">
         <v>437</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.3">
@@ -5174,16 +5436,16 @@
         <v>26</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K33" s="22">
         <v>9368519717</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.3">
@@ -5191,16 +5453,16 @@
         <v>27</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K34" s="22">
         <v>8115712543</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="8:12" x14ac:dyDescent="0.3">
@@ -5208,16 +5470,16 @@
         <v>28</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K35" s="22">
         <v>9897133664</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.3">
@@ -5225,16 +5487,16 @@
         <v>29</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K36" s="22">
         <v>8604793053</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5299,7 +5561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L15"/>
   <sheetViews>
@@ -5368,45 +5630,45 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
-        <v>529</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="H6" s="64" t="s">
-        <v>531</v>
-      </c>
-      <c r="I6" s="64"/>
+      <c r="B6" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="H6" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="H7" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="L7" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -5414,31 +5676,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="H8" s="27">
         <v>1</v>
       </c>
       <c r="I8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="22" t="s">
+      <c r="L8" s="20" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -5446,31 +5708,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="H9" s="27">
         <v>2</v>
       </c>
       <c r="I9" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="22" t="s">
+      <c r="L9" s="20" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -5478,31 +5740,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="H10" s="27">
         <v>3</v>
       </c>
       <c r="I10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="22" t="s">
+      <c r="L10" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="L10" s="20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -5510,31 +5772,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>36</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="H11" s="27">
         <v>4</v>
       </c>
       <c r="I11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="22" t="s">
+      <c r="L11" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="L11" s="20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -5542,16 +5804,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -5559,16 +5821,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -5576,16 +5838,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -5593,16 +5855,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5628,7 +5890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L74"/>
   <sheetViews>
@@ -5697,45 +5959,45 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
-        <v>529</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="H6" s="64" t="s">
-        <v>531</v>
-      </c>
-      <c r="I6" s="64"/>
+      <c r="B6" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="H6" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="H7" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="L7" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -5743,31 +6005,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="15" t="s">
         <v>279</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
@@ -5775,31 +6037,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
@@ -5807,31 +6069,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="15" t="s">
         <v>285</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
@@ -5839,31 +6101,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="15" t="s">
         <v>288</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
@@ -5871,31 +6133,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
@@ -5903,31 +6165,31 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="5" t="s">
+      <c r="L13" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
@@ -5935,31 +6197,31 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="15" t="s">
         <v>87</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="H14" s="3">
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
@@ -5967,31 +6229,31 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
       </c>
       <c r="I15" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="L15" s="15" t="s">
         <v>300</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -5999,31 +6261,31 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="L16" s="15" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
@@ -6031,31 +6293,31 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="L17" s="15" t="s">
         <v>306</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
@@ -6063,31 +6325,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="H18" s="3">
         <v>11</v>
       </c>
       <c r="I18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="5" t="s">
+      <c r="L18" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
@@ -6095,31 +6357,31 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="15" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="3">
         <v>12</v>
       </c>
       <c r="I19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="L19" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
@@ -6127,31 +6389,31 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="H20" s="3">
         <v>13</v>
       </c>
       <c r="I20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="5" t="s">
+      <c r="L20" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
@@ -6159,31 +6421,31 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="H21" s="3">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="5" t="s">
+      <c r="L21" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
@@ -6191,31 +6453,31 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="3">
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="5" t="s">
+      <c r="L22" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="L22" s="15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
@@ -6223,16 +6485,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="15" t="s">
         <v>117</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
@@ -6240,16 +6502,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="15" t="s">
         <v>120</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
@@ -6257,16 +6519,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
@@ -6274,16 +6536,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
@@ -6291,16 +6553,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
@@ -6308,16 +6570,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
@@ -6325,16 +6587,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
@@ -6342,16 +6604,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
@@ -6359,16 +6621,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
@@ -6376,16 +6638,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="15" t="s">
         <v>144</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
@@ -6393,16 +6655,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
@@ -6410,16 +6672,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="F34" s="15" t="s">
         <v>150</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
@@ -6427,16 +6689,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
@@ -6444,16 +6706,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="F36" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
@@ -6461,16 +6723,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
@@ -6478,16 +6740,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
@@ -6495,16 +6757,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
@@ -6512,16 +6774,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="F40" s="15" t="s">
         <v>168</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
@@ -6529,16 +6791,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="15" t="s">
         <v>171</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
@@ -6546,16 +6808,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
@@ -6563,16 +6825,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
@@ -6580,16 +6842,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
@@ -6597,16 +6859,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.35">
@@ -6614,16 +6876,16 @@
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.35">
@@ -6631,16 +6893,16 @@
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.35">
@@ -6648,16 +6910,16 @@
         <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="15" t="s">
         <v>192</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.35">
@@ -6665,16 +6927,16 @@
         <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="15" t="s">
         <v>195</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.35">
@@ -6682,16 +6944,16 @@
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.35">
@@ -6699,16 +6961,16 @@
         <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.35">
@@ -6716,16 +6978,16 @@
         <v>45</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.35">
@@ -6733,16 +6995,16 @@
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="F53" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.35">
@@ -6750,16 +7012,16 @@
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.35">
@@ -6767,16 +7029,16 @@
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.35">
@@ -6784,16 +7046,16 @@
         <v>49</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="5" t="s">
+      <c r="F56" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.35">
@@ -6801,16 +7063,16 @@
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.35">
@@ -6818,16 +7080,16 @@
         <v>51</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.35">
@@ -6835,16 +7097,16 @@
         <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="F59" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.35">
@@ -6852,16 +7114,16 @@
         <v>53</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.35">
@@ -6869,16 +7131,16 @@
         <v>54</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="F61" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.35">
@@ -6886,16 +7148,16 @@
         <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.35">
@@ -6903,16 +7165,16 @@
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D63" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="5" t="s">
+      <c r="F63" s="15" t="s">
         <v>240</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.35">
@@ -6920,16 +7182,16 @@
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="15" t="s">
         <v>243</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.35">
@@ -6937,16 +7199,16 @@
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.35">
@@ -6954,16 +7216,16 @@
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="5" t="s">
+      <c r="F66" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.35">
@@ -6971,16 +7233,16 @@
         <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.35">
@@ -6988,16 +7250,16 @@
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" s="5" t="s">
+      <c r="F68" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.35">
@@ -7005,16 +7267,16 @@
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E69" s="5" t="s">
+      <c r="F69" s="15" t="s">
         <v>258</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.35">
@@ -7022,16 +7284,16 @@
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="5" t="s">
+      <c r="F70" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.35">
@@ -7039,16 +7301,16 @@
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="15" t="s">
         <v>267</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.35">
@@ -7056,16 +7318,16 @@
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E72" s="5" t="s">
+      <c r="F72" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.35">
@@ -7073,16 +7335,16 @@
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="15" t="s">
         <v>273</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.35">
@@ -7090,16 +7352,16 @@
         <v>67</v>
       </c>
       <c r="C74" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="5" t="s">
+      <c r="F74" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +7457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L45"/>
   <sheetViews>
@@ -7264,45 +7526,45 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
-        <v>529</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="H6" s="64" t="s">
-        <v>531</v>
-      </c>
-      <c r="I6" s="64"/>
+      <c r="B6" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="H6" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="F7" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="H7" s="25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="L7" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.35">
@@ -7310,31 +7572,31 @@
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5">
         <v>7558289080</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="15" t="s">
         <v>518</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.35">
@@ -7342,31 +7604,31 @@
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5">
         <v>7387213425</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="15" t="s">
         <v>521</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.35">
@@ -7374,31 +7636,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>9833446728</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="K10" s="5">
         <v>9422115479</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.35">
@@ -7406,31 +7668,31 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5">
         <v>9763563987</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="15" t="s">
         <v>527</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.35">
@@ -7438,31 +7700,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="5">
         <v>7066705430</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12" s="5">
         <v>7743949634</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.35">
@@ -7470,16 +7732,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5">
         <v>8237496955</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.35">
@@ -7487,16 +7749,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="5">
         <v>9049796915</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.35">
@@ -7504,16 +7766,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="5">
         <v>9987648115</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.35">
@@ -7521,16 +7783,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="5">
         <v>9820958424</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
@@ -7538,16 +7800,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="5">
         <v>7887669198</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
@@ -7555,16 +7817,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5">
         <v>7666038604</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.35">
@@ -7572,16 +7834,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="5">
         <v>7303752979</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
@@ -7589,16 +7851,16 @@
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5">
         <v>8857819155</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
@@ -7606,16 +7868,16 @@
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="5">
         <v>8825054152</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
@@ -7623,16 +7885,16 @@
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="5">
         <v>9765914865</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
@@ -7640,16 +7902,16 @@
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="5">
         <v>7710859052</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
@@ -7657,16 +7919,16 @@
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E24" s="5">
         <v>8857863105</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
@@ -7674,16 +7936,16 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25" s="5">
         <v>9423561361</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
@@ -7691,16 +7953,16 @@
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" s="5">
         <v>8424956867</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
@@ -7708,16 +7970,16 @@
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E27" s="5">
         <v>8390700404</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
@@ -7725,16 +7987,16 @@
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="5">
         <v>8421163930</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
@@ -7742,16 +8004,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="5">
         <v>7083906951</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
@@ -7759,16 +8021,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="5">
         <v>8689929864</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
@@ -7776,16 +8038,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="5">
         <v>7362933380</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
@@ -7793,16 +8055,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5">
         <v>7218583912</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
@@ -7810,16 +8072,16 @@
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="5">
         <v>8978213151</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.35">
@@ -7827,16 +8089,16 @@
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="5">
         <v>9326855136</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.35">
@@ -7844,16 +8106,16 @@
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="5">
         <v>9172029365</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.35">
@@ -7861,16 +8123,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="5">
         <v>8624039380</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.35">
@@ -7878,16 +8140,16 @@
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="5">
         <v>7218454570</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.35">
@@ -7895,16 +8157,16 @@
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="5">
         <v>9359467647</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.35">
@@ -7912,16 +8174,16 @@
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="5">
         <v>8691942385</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.35">
@@ -7929,16 +8191,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="5">
         <v>8850419292</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.35">
@@ -7946,16 +8208,16 @@
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E41" s="5">
         <v>9621029028</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.35">
@@ -7963,16 +8225,16 @@
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="5">
         <v>7066020092</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.35">
@@ -7980,16 +8242,16 @@
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E43" s="5">
         <v>8349830798</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.35">
@@ -7997,16 +8259,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E44" s="5">
         <v>7225848488</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.35">
@@ -8014,16 +8276,16 @@
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E45" s="5">
         <v>7719862298</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -8078,4 +8340,1808 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B2" s="26"/>
+      <c r="C2" s="16" t="str">
+        <f>Summary!$J$2</f>
+        <v xml:space="preserve">Initial Batch Size </v>
+      </c>
+      <c r="D2" s="17">
+        <f>$D$4+$D$3</f>
+        <v>81</v>
+      </c>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B3" s="26"/>
+      <c r="C3" s="16" t="str">
+        <f>Summary!$K$2</f>
+        <v>Dropout/Absconded</v>
+      </c>
+      <c r="D3" s="17">
+        <f>COUNT($H$1:$H$87)</f>
+        <v>14</v>
+      </c>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="16" t="str">
+        <f>Summary!$L$2</f>
+        <v>Current Batch Size</v>
+      </c>
+      <c r="D4" s="17">
+        <f>COUNT($B$1:$B$89)</f>
+        <v>67</v>
+      </c>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="D5" s="18"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
+        <v>528</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="H6" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="35">
+        <v>7903517993</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="37">
+        <v>7022190814</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="35">
+        <v>8809533270</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>624</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="37">
+        <v>9902495591</v>
+      </c>
+      <c r="L9" s="40" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>3</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="35">
+        <v>9606535481</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="37">
+        <v>8217816055</v>
+      </c>
+      <c r="L10" s="40" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="36">
+        <v>8147464093</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="35">
+        <v>8917508099</v>
+      </c>
+      <c r="L11" s="39" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="35">
+        <v>7076417867</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="36">
+        <v>8334886173</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="3">
+        <v>6</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="35">
+        <v>7813054321</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="H13" s="3">
+        <v>6</v>
+      </c>
+      <c r="I13" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="35">
+        <v>7019175327</v>
+      </c>
+      <c r="L13" s="35" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="36">
+        <v>7381929325</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>630</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="35">
+        <v>8886325991</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="3">
+        <v>8</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="36">
+        <v>9072082223</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>631</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="36">
+        <v>7483325727</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="3">
+        <v>9</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="36">
+        <v>9845258050</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>632</v>
+      </c>
+      <c r="H16" s="3">
+        <v>9</v>
+      </c>
+      <c r="I16" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="35">
+        <v>6360125482</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>555</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="36">
+        <v>9731296131</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>634</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="36">
+        <v>7022209112</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" s="3">
+        <v>11</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>556</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="36">
+        <v>8217546865</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>635</v>
+      </c>
+      <c r="H18" s="3">
+        <v>11</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="36">
+        <v>9480560066</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B19" s="3">
+        <v>12</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>557</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="35">
+        <v>8763455966</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>636</v>
+      </c>
+      <c r="H19" s="3">
+        <v>12</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="36">
+        <v>8660145501</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="3">
+        <v>13</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="36">
+        <v>8892227116</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="H20" s="3">
+        <v>13</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="35">
+        <v>8977511126</v>
+      </c>
+      <c r="L20" s="39" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="36">
+        <v>7353647630</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="36">
+        <v>7684841402</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B22" s="3">
+        <v>15</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="35">
+        <v>8249093695</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B23" s="3">
+        <v>16</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="36">
+        <v>7873663423</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="3">
+        <v>17</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="37">
+        <v>9019267075</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="3">
+        <v>18</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="36">
+        <v>9700310911</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B26" s="3">
+        <v>19</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="36">
+        <v>9113044577</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B27" s="3">
+        <v>20</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>565</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="35">
+        <v>9035908159</v>
+      </c>
+      <c r="F27" s="39" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="3">
+        <v>21</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>566</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="35">
+        <v>7829067527</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" s="3">
+        <v>22</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="36">
+        <v>7981028759</v>
+      </c>
+      <c r="F29" s="40" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="3">
+        <v>23</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="36">
+        <v>7097792978</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B31" s="3">
+        <v>24</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="35">
+        <v>7000384881</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B32" s="3">
+        <v>25</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="36">
+        <v>9008412572</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="3">
+        <v>26</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="36">
+        <v>7406654166</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="3">
+        <v>27</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="36">
+        <v>8867413437</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="3">
+        <v>28</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="37">
+        <v>9700143501</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="3">
+        <v>29</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>575</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="35">
+        <v>7989967960</v>
+      </c>
+      <c r="F36" s="39" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="3">
+        <v>30</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="37">
+        <v>7008435826</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="3">
+        <v>31</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>577</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="36">
+        <v>7483029057</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="3">
+        <v>32</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>578</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="36">
+        <v>7406771982</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="3">
+        <v>33</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="37">
+        <v>8951512519</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="3">
+        <v>34</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>582</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="35">
+        <v>6360556728</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="3">
+        <v>35</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>584</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="36">
+        <v>7411377032</v>
+      </c>
+      <c r="F42" s="40" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="3">
+        <v>36</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="37">
+        <v>9492208119</v>
+      </c>
+      <c r="F43" s="40" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="3">
+        <v>37</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="36">
+        <v>8249001505</v>
+      </c>
+      <c r="F44" s="40" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="3">
+        <v>38</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="36">
+        <v>8618427272</v>
+      </c>
+      <c r="F45" s="40" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="3">
+        <v>39</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="35">
+        <v>8746075033</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="3">
+        <v>40</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>589</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="35">
+        <v>9121503770</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="3">
+        <v>41</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>590</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="35">
+        <v>9550316616</v>
+      </c>
+      <c r="F48" s="39" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="3">
+        <v>42</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>591</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="36">
+        <v>7406971376</v>
+      </c>
+      <c r="F49" s="40" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="3">
+        <v>43</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="36">
+        <v>7483284262</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="3">
+        <v>44</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="35">
+        <v>9040077448</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="3">
+        <v>45</v>
+      </c>
+      <c r="C52" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="37">
+        <v>6360683726</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="3">
+        <v>46</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="36">
+        <v>9945718244</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="3">
+        <v>47</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>597</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="36">
+        <v>7780660126</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="3">
+        <v>48</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>598</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="36">
+        <v>8660346353</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="3">
+        <v>49</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>600</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="36">
+        <v>8682031807</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="3">
+        <v>50</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>601</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="36">
+        <v>8197206751</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="3">
+        <v>51</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>602</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="35">
+        <v>7022513325</v>
+      </c>
+      <c r="F58" s="39" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="3">
+        <v>52</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>603</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="36">
+        <v>9108616263</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="3">
+        <v>53</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="37">
+        <v>6379575272</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="3">
+        <v>54</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="37">
+        <v>7396436165</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="3">
+        <v>55</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="36">
+        <v>8310086774</v>
+      </c>
+      <c r="F62" s="40" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="3">
+        <v>56</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="36">
+        <v>9741974627</v>
+      </c>
+      <c r="F63" s="40" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="3">
+        <v>57</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="37">
+        <v>9448011412</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="3">
+        <v>58</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="37">
+        <v>7353181715</v>
+      </c>
+      <c r="F65" s="40" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="3">
+        <v>59</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="35">
+        <v>8617838183</v>
+      </c>
+      <c r="F66" s="39" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="3">
+        <v>60</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>613</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="35">
+        <v>7980173705</v>
+      </c>
+      <c r="F67" s="39" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="3">
+        <v>61</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="37">
+        <v>9611596727</v>
+      </c>
+      <c r="F68" s="40" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="3">
+        <v>62</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="37">
+        <v>9535059533</v>
+      </c>
+      <c r="F69" s="40" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="3">
+        <v>63</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>617</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="F70" s="35" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" s="3">
+        <v>64</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>618</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="36">
+        <v>8722570919</v>
+      </c>
+      <c r="F71" s="40" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" s="3">
+        <v>65</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="36">
+        <v>7899118522</v>
+      </c>
+      <c r="F72" s="40" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73" s="3">
+        <v>66</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="37">
+        <v>9686553854</v>
+      </c>
+      <c r="F73" s="40" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="3">
+        <v>67</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>621</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="35">
+        <v>9734534062</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>700</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:I6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="duplicateValues" dxfId="81" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="duplicateValues" dxfId="80" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="duplicateValues" dxfId="79" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="duplicateValues" dxfId="78" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="duplicateValues" dxfId="77" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="duplicateValues" dxfId="76" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="duplicateValues" dxfId="75" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="duplicateValues" dxfId="74" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="duplicateValues" dxfId="73" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="duplicateValues" dxfId="72" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="duplicateValues" dxfId="71" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="duplicateValues" dxfId="70" priority="84"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="duplicateValues" dxfId="69" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="duplicateValues" dxfId="68" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="duplicateValues" dxfId="67" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="duplicateValues" dxfId="66" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="duplicateValues" dxfId="65" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="duplicateValues" dxfId="64" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="duplicateValues" dxfId="63" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="duplicateValues" dxfId="62" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="duplicateValues" dxfId="61" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="duplicateValues" dxfId="60" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="duplicateValues" dxfId="59" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="duplicateValues" dxfId="58" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="duplicateValues" dxfId="57" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="duplicateValues" dxfId="56" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="duplicateValues" dxfId="55" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="duplicateValues" dxfId="54" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57">
+    <cfRule type="duplicateValues" dxfId="53" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E58">
+    <cfRule type="duplicateValues" dxfId="52" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63">
+    <cfRule type="duplicateValues" dxfId="51" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="duplicateValues" dxfId="50" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E67">
+    <cfRule type="duplicateValues" dxfId="49" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E66">
+    <cfRule type="duplicateValues" dxfId="48" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70">
+    <cfRule type="duplicateValues" dxfId="47" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="duplicateValues" dxfId="46" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="duplicateValues" dxfId="45" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="duplicateValues" dxfId="44" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68:F69 F64:F65 F53:F56 F49:F50 F59:F61 F73">
+    <cfRule type="duplicateValues" dxfId="43" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="duplicateValues" dxfId="42" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="duplicateValues" dxfId="41" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="duplicateValues" dxfId="39" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="duplicateValues" dxfId="38" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="duplicateValues" dxfId="37" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="duplicateValues" dxfId="36" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="duplicateValues" dxfId="35" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="duplicateValues" dxfId="34" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="duplicateValues" dxfId="33" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" location="field-total-scheduled-enq-add-more-wrapper" display="Abhaya Adarsh"/>
+    <hyperlink ref="C9" r:id="rId2" location="field-total-scheduled-enq-add-more-wrapper" display="Abhishek Kumar"/>
+    <hyperlink ref="C12" r:id="rId3" location="field-total-scheduled-enq-add-more-wrapper" display="Aniket Kumar"/>
+    <hyperlink ref="C27" r:id="rId4" location="field-total-scheduled-enq-add-more-wrapper" display="Gopi R"/>
+    <hyperlink ref="C36" r:id="rId5" location="field-total-scheduled-enq-add-more-wrapper" display="Munagapati Hemalatha"/>
+    <hyperlink ref="C31" r:id="rId6" location="field-total-scheduled-enq-add-more-wrapper" display="Mansi Chauhan"/>
+    <hyperlink ref="C48" r:id="rId7" location="field-total-scheduled-enq-add-more-wrapper" display="S Manju"/>
+    <hyperlink ref="C47" r:id="rId8" location="field-total-scheduled-enq-add-more-wrapper" display="S Dilli Rani"/>
+    <hyperlink ref="C58" r:id="rId9" location="field-total-scheduled-enq-add-more-wrapper" display="Shrikanth Gowda"/>
+    <hyperlink ref="C67" r:id="rId10" location="field-total-scheduled-enq-add-more-wrapper" display="Susmita Sen"/>
+    <hyperlink ref="C66" r:id="rId11" location="field-total-scheduled-enq-add-more-wrapper" display="Susmita Das"/>
+    <hyperlink ref="C74" r:id="rId12" location="field-total-scheduled-enq-add-more-wrapper" display="Vivek Kumar"/>
+    <hyperlink ref="F16" r:id="rId13" display="mailto:ashaashu126@gmail.com"/>
+    <hyperlink ref="F17" r:id="rId14" display="mailto:ashwinirao134@gmail.com"/>
+    <hyperlink ref="F20" r:id="rId15" display="mailto:chaithra1350@gmail.com"/>
+    <hyperlink ref="F24" r:id="rId16" display="mailto:dilipraichur10@gmail.com"/>
+    <hyperlink ref="F26" r:id="rId17" display="mailto:gayathri.nayak.2120@gmail.com"/>
+    <hyperlink ref="F29" r:id="rId18" display="mailto:bhavanamagham123@gmail.com"/>
+    <hyperlink ref="F33" r:id="rId19" display="mailto:meghaa9797@gmail.com"/>
+    <hyperlink ref="F34" r:id="rId20" display="mailto:meghasangannavar@gmail.com"/>
+    <hyperlink ref="F35" r:id="rId21" display="mailto:ota.sa.97@gmail.com"/>
+    <hyperlink ref="F37" r:id="rId22" display="mailto:omkarnaik571@gmail.com"/>
+    <hyperlink ref="F38" r:id="rId23" display="mailto:pallavi.gupta7007@gmail.com"/>
+    <hyperlink ref="F39" r:id="rId24" display="mailto:pallavinb1997@gmail.com"/>
+    <hyperlink ref="F40" r:id="rId25" display="mailto:pavan.570818@gmail.com"/>
+    <hyperlink ref="F42" r:id="rId26" display="mailto:pragatigurani@gmail.com"/>
+    <hyperlink ref="F43" r:id="rId27" display="mailto:venkatapavankumarputti@gmail.com"/>
+    <hyperlink ref="F49" r:id="rId28" display="mailto:vaishna1998@gmail.com"/>
+    <hyperlink ref="F50" r:id="rId29" display="mailto:saipoojav1997@gmail.com"/>
+    <hyperlink ref="F53" r:id="rId30" display="mailto:shafiyaja9@gmail.com"/>
+    <hyperlink ref="F54" r:id="rId31" display="mailto:srsulthana1998@gmail.com"/>
+    <hyperlink ref="F55" r:id="rId32" display="mailto:shamailsiddiqha@gmail.com"/>
+    <hyperlink ref="F56" r:id="rId33" display="mailto:sharanshakthys@gmail.com"/>
+    <hyperlink ref="F59" r:id="rId34" display="mailto:shwethaps366@gmail.com"/>
+    <hyperlink ref="F60" r:id="rId35" display="mailto:sivavelu1297@gmail.com"/>
+    <hyperlink ref="F61" r:id="rId36" display="mailto:gopavarapusivalakshmi1@gmail.com"/>
+    <hyperlink ref="F64" r:id="rId37" display="mailto:sunilbiradar179@gmail.com"/>
+    <hyperlink ref="F65" r:id="rId38" display="mailto:surajkhanpinjar@gmail.com"/>
+    <hyperlink ref="F68" r:id="rId39" display="mailto:tahareem55@gmail.com"/>
+    <hyperlink ref="F69" r:id="rId40" display="mailto:vaish1312@gmail.com"/>
+    <hyperlink ref="F73" r:id="rId41" display="mailto:svinuthasureshbabu@gmail.com"/>
+    <hyperlink ref="F44" r:id="rId42" display="mailto:rajlaxmiswain.19@gmail.com"/>
+    <hyperlink ref="F18" r:id="rId43" display="mailto:1997sonampatil@gmail.com"/>
+    <hyperlink ref="F62" r:id="rId44" display="mailto:9patilsneha@gmail.com"/>
+    <hyperlink ref="F11" r:id="rId45" display="mailto:aagasanalli@gmail.com"/>
+    <hyperlink ref="F8" r:id="rId46" display="abhaya.adarsh148@gmail.com"/>
+    <hyperlink ref="F9" r:id="rId47" display="abhisheksjsj@gmail.com"/>
+    <hyperlink ref="F12" r:id="rId48" display="aniket.thaakur@gmail.com"/>
+    <hyperlink ref="F14" r:id="rId49" display="mailto:ankitapanda8642@gmail.com"/>
+    <hyperlink ref="F15" r:id="rId50" display="mailto:apkallarackal12@gmail.com"/>
+    <hyperlink ref="F21" r:id="rId51" display="mailto:deepaa24k@gmail.com"/>
+    <hyperlink ref="F25" r:id="rId52" display="mailto:gayathrigurramkonda@gmail.com"/>
+    <hyperlink ref="F27" r:id="rId53" display="gopir1998@gmail.com"/>
+    <hyperlink ref="F23" r:id="rId54" display="mailto:gtsdikshasingh@gmail.com"/>
+    <hyperlink ref="F36" r:id="rId55" display="hemalathamunagapati98@gmail.com"/>
+    <hyperlink ref="F31" r:id="rId56" display="himansichauhan8719@gmail.com"/>
+    <hyperlink ref="F32" r:id="rId57" display="mailto:kiranbhojaya980@gmail.com"/>
+    <hyperlink ref="F30" r:id="rId58" display="mailto:manchalakavitha559@gmail.com"/>
+    <hyperlink ref="F48" r:id="rId59" display="manjus7498@gmail.com"/>
+    <hyperlink ref="F51" r:id="rId60" display="mailto:padhys79@gmail.com"/>
+    <hyperlink ref="F45" r:id="rId61" display="mailto:ramanagouda1001@gmail.com"/>
+    <hyperlink ref="F19" r:id="rId62" display="mailto:sahubiswajit430@gmail.com"/>
+    <hyperlink ref="F47" r:id="rId63" display="samireddyranireddy@gmail.com"/>
+    <hyperlink ref="F52" r:id="rId64" display="mailto:seemahosalli1998@gmail.com"/>
+    <hyperlink ref="F57" r:id="rId65" display="mailto:shivanishivakumar697@gmail.com"/>
+    <hyperlink ref="F58" r:id="rId66" display="shrikanth281@gmail.com"/>
+    <hyperlink ref="F63" r:id="rId67" display="mailto:sowmyakprema@gmail.com"/>
+    <hyperlink ref="F22" r:id="rId68" display="mailto:spyziecyber@gmail.com"/>
+    <hyperlink ref="F67" r:id="rId69" display="susmitasen105@gmail.com"/>
+    <hyperlink ref="F66" r:id="rId70" display="susmitax47@gmail.com"/>
+    <hyperlink ref="F71" r:id="rId71" display="mailto:vidyashreenp92@gmail.com"/>
+    <hyperlink ref="F72" r:id="rId72" display="mailto:vineethav271@gmail.com"/>
+    <hyperlink ref="F74" r:id="rId73" display="vivek3405@gmail.com"/>
+    <hyperlink ref="L8" r:id="rId74" display="mailto:anshuldhiman96@yahoo.com"/>
+    <hyperlink ref="L9" r:id="rId75" display="mailto:13sowmya97@gmail.com"/>
+    <hyperlink ref="L10" r:id="rId76" display="mailto:srikanthkv36@gmail.com"/>
+    <hyperlink ref="I11" r:id="rId77" location="field-total-scheduled-enq-add-more-wrapper" display="Animesh Arman"/>
+    <hyperlink ref="L11" r:id="rId78" display="armananimesh@gmail.com"/>
+    <hyperlink ref="L12" r:id="rId79" display="mailto:arpitakunduak97@gmail.com"/>
+    <hyperlink ref="L14" r:id="rId80" display="mailto:peddisettim@gmail.com"/>
+    <hyperlink ref="L15" r:id="rId81" display="mailto:Chirallipooja@gmail.com"/>
+    <hyperlink ref="L17" r:id="rId82" display="mailto:sanjana.rajj97@gmail.com"/>
+    <hyperlink ref="L18" r:id="rId83" display="mailto:sharankumarh20@gmail.com"/>
+    <hyperlink ref="L19" r:id="rId84" display="mailto:subhampaul2050@gmail.com"/>
+    <hyperlink ref="I20" r:id="rId85" location="field-total-scheduled-enq-add-more-wrapper" display="Suddanagunta Tejaswini"/>
+    <hyperlink ref="L20" r:id="rId86" display="sudanaguntatejaswini@gmail.com"/>
+    <hyperlink ref="L21" r:id="rId87" display="mailto:tsubhransupatra07@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId88"/>
+</worksheet>
 </file>
--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="710">
   <si>
     <t>Batch Name</t>
   </si>
@@ -3609,15 +3609,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>412750</xdr:colOff>
+          <xdr:colOff>411480</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3663,13 +3663,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>205740</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4051,96 +4051,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="14"/>
+    <col min="1" max="1" width="2.77734375" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9.21875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D3" s="32" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D13" s="32"/>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" s="32"/>
     </row>
   </sheetData>
@@ -4156,15 +4156,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>412750</xdr:colOff>
+                <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:colOff>289560</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:rowOff>53340</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4183,13 +4183,13 @@
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
+                <xdr:rowOff>167640</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>203200</xdr:colOff>
+                <xdr:colOff>205740</xdr:colOff>
                 <xdr:row>26</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
+                <xdr:rowOff>167640</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4207,37 +4207,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.26953125" style="4"/>
+    <col min="12" max="12" width="21.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="28" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="2:18" ht="28" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -4398,7 +4398,7 @@
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="2:18" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="2:18" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18" ht="56" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -4543,16 +4543,22 @@
         <f>'Bangalore Nov Batch Candidates'!D4</f>
         <v>67</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="3"/>
+      <c r="M7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="O7" s="3">
+        <v>8377841525</v>
+      </c>
       <c r="P7" s="34" t="s">
         <v>707</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
@@ -4569,24 +4575,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="19"/>
-    <col min="8" max="8" width="5.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="19"/>
+    <col min="7" max="7" width="9.21875" style="19"/>
+    <col min="8" max="8" width="5.21875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.21875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
@@ -4596,7 +4602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
@@ -4606,7 +4612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
@@ -4616,10 +4622,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="2:12" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>528</v>
       </c>
@@ -4629,7 +4635,7 @@
       </c>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>529</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <v>1</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>2</v>
       </c>
@@ -4725,7 +4731,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>3</v>
       </c>
@@ -4757,7 +4763,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>4</v>
       </c>
@@ -4789,7 +4795,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>5</v>
       </c>
@@ -4821,7 +4827,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>6</v>
       </c>
@@ -4853,7 +4859,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>7</v>
       </c>
@@ -4885,7 +4891,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>8</v>
       </c>
@@ -4917,7 +4923,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>9</v>
       </c>
@@ -4949,7 +4955,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <v>10</v>
       </c>
@@ -4981,7 +4987,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <v>11</v>
       </c>
@@ -5013,7 +5019,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>12</v>
       </c>
@@ -5045,7 +5051,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <v>13</v>
       </c>
@@ -5077,7 +5083,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <v>14</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <v>15</v>
       </c>
@@ -5141,7 +5147,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <v>16</v>
       </c>
@@ -5173,7 +5179,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>17</v>
       </c>
@@ -5205,7 +5211,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>18</v>
       </c>
@@ -5237,7 +5243,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <v>19</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <v>20</v>
       </c>
@@ -5301,7 +5307,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <v>21</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <v>22</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <v>23</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H31" s="28">
         <v>24</v>
       </c>
@@ -5414,7 +5420,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H32" s="28">
         <v>25</v>
       </c>
@@ -5431,7 +5437,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H33" s="27">
         <v>26</v>
       </c>
@@ -5448,7 +5454,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H34" s="27">
         <v>27</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H35" s="27">
         <v>28</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H36" s="27">
         <v>29</v>
       </c>
@@ -5567,28 +5573,28 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="14"/>
-    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="14"/>
+    <col min="4" max="4" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="14"/>
+    <col min="8" max="8" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.21875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -5600,7 +5606,7 @@
       </c>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -5612,7 +5618,7 @@
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -5624,12 +5630,12 @@
       </c>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="D5" s="18"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>528</v>
       </c>
@@ -5639,7 +5645,7 @@
       </c>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>529</v>
       </c>
@@ -5671,7 +5677,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="27">
         <v>1</v>
       </c>
@@ -5703,7 +5709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
         <v>2</v>
       </c>
@@ -5735,7 +5741,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="27">
         <v>3</v>
       </c>
@@ -5767,7 +5773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="27">
         <v>4</v>
       </c>
@@ -5799,7 +5805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="27">
         <v>5</v>
       </c>
@@ -5816,7 +5822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="27">
         <v>6</v>
       </c>
@@ -5833,7 +5839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <v>7</v>
       </c>
@@ -5850,7 +5856,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="27">
         <v>8</v>
       </c>
@@ -5894,30 +5900,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="14"/>
-    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="14"/>
+    <col min="1" max="1" width="3.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="14"/>
+    <col min="8" max="8" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.21875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -5929,7 +5937,7 @@
       </c>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -5941,7 +5949,7 @@
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -5953,12 +5961,12 @@
       </c>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="D5" s="18"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>528</v>
       </c>
@@ -5968,7 +5976,7 @@
       </c>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>529</v>
       </c>
@@ -6000,7 +6008,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -6032,7 +6040,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -6064,7 +6072,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -6128,7 +6136,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -6160,7 +6168,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -6192,7 +6200,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -6224,7 +6232,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -6256,7 +6264,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -6288,7 +6296,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -6320,7 +6328,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -6352,7 +6360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -6384,7 +6392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -6416,7 +6424,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -6448,7 +6456,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -6480,7 +6488,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -6497,7 +6505,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -6514,7 +6522,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -6531,7 +6539,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -6548,7 +6556,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -6565,7 +6573,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -6582,7 +6590,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -6599,7 +6607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -6616,7 +6624,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -6633,7 +6641,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -6650,7 +6658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -6667,7 +6675,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -6684,7 +6692,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -6701,7 +6709,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -6718,7 +6726,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -6735,7 +6743,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -6752,7 +6760,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>32</v>
       </c>
@@ -6769,7 +6777,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>33</v>
       </c>
@@ -6786,7 +6794,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>34</v>
       </c>
@@ -6803,7 +6811,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>35</v>
       </c>
@@ -6820,7 +6828,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>36</v>
       </c>
@@ -6837,7 +6845,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>37</v>
       </c>
@@ -6854,7 +6862,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>38</v>
       </c>
@@ -6871,7 +6879,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>39</v>
       </c>
@@ -6888,7 +6896,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>40</v>
       </c>
@@ -6905,7 +6913,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>41</v>
       </c>
@@ -6922,7 +6930,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>42</v>
       </c>
@@ -6939,7 +6947,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>43</v>
       </c>
@@ -6956,7 +6964,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>44</v>
       </c>
@@ -6973,7 +6981,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>45</v>
       </c>
@@ -6990,7 +6998,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>46</v>
       </c>
@@ -7007,7 +7015,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>47</v>
       </c>
@@ -7024,7 +7032,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>48</v>
       </c>
@@ -7041,7 +7049,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>49</v>
       </c>
@@ -7058,7 +7066,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>50</v>
       </c>
@@ -7075,7 +7083,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>51</v>
       </c>
@@ -7092,7 +7100,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>52</v>
       </c>
@@ -7109,7 +7117,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>53</v>
       </c>
@@ -7126,7 +7134,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>54</v>
       </c>
@@ -7143,7 +7151,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>55</v>
       </c>
@@ -7160,7 +7168,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>56</v>
       </c>
@@ -7177,7 +7185,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
         <v>57</v>
       </c>
@@ -7194,7 +7202,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>58</v>
       </c>
@@ -7211,7 +7219,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <v>59</v>
       </c>
@@ -7228,7 +7236,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
         <v>60</v>
       </c>
@@ -7245,7 +7253,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
         <v>61</v>
       </c>
@@ -7262,7 +7270,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
         <v>62</v>
       </c>
@@ -7279,7 +7287,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <v>63</v>
       </c>
@@ -7296,7 +7304,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <v>64</v>
       </c>
@@ -7313,7 +7321,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>65</v>
       </c>
@@ -7330,7 +7338,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <v>66</v>
       </c>
@@ -7347,7 +7355,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
         <v>67</v>
       </c>
@@ -7461,30 +7469,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -7496,7 +7506,7 @@
       </c>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -7508,7 +7518,7 @@
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -7520,12 +7530,12 @@
       </c>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="D5" s="18"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>528</v>
       </c>
@@ -7535,7 +7545,7 @@
       </c>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>529</v>
       </c>
@@ -7567,7 +7577,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -7599,7 +7609,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -7631,7 +7641,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -7663,7 +7673,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -7695,7 +7705,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -7727,7 +7737,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -7744,7 +7754,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -7761,7 +7771,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -7778,7 +7788,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -7795,7 +7805,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -7812,7 +7822,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -7829,7 +7839,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -7846,7 +7856,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -7863,7 +7873,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -7880,7 +7890,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -7897,7 +7907,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -7914,7 +7924,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -7931,7 +7941,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -7948,7 +7958,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -7965,7 +7975,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -7982,7 +7992,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -7999,7 +8009,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -8016,7 +8026,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -8033,7 +8043,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -8050,7 +8060,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -8067,7 +8077,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -8084,7 +8094,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -8101,7 +8111,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -8118,7 +8128,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -8135,7 +8145,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -8152,7 +8162,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -8169,7 +8179,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>32</v>
       </c>
@@ -8186,7 +8196,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>33</v>
       </c>
@@ -8203,7 +8213,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>34</v>
       </c>
@@ -8220,7 +8230,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>35</v>
       </c>
@@ -8237,7 +8247,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>36</v>
       </c>
@@ -8254,7 +8264,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>37</v>
       </c>
@@ -8271,7 +8281,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>38</v>
       </c>
@@ -8346,30 +8356,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -8381,7 +8393,7 @@
       </c>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -8393,7 +8405,7 @@
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -8405,12 +8417,12 @@
       </c>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="D5" s="18"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>528</v>
       </c>
@@ -8420,7 +8432,7 @@
       </c>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>529</v>
       </c>
@@ -8452,7 +8464,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -8484,7 +8496,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -8516,7 +8528,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -8548,7 +8560,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -8580,7 +8592,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -8612,7 +8624,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -8644,7 +8656,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -8676,7 +8688,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -8708,7 +8720,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -8740,7 +8752,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -8772,7 +8784,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -8804,7 +8816,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -8836,7 +8848,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -8868,7 +8880,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -8900,7 +8912,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -8917,7 +8929,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -8934,7 +8946,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -8951,7 +8963,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -8968,7 +8980,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -8985,7 +8997,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -9002,7 +9014,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -9019,7 +9031,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -9036,7 +9048,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -9053,7 +9065,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -9070,7 +9082,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -9087,7 +9099,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -9104,7 +9116,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -9121,7 +9133,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -9138,7 +9150,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -9155,7 +9167,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -9172,7 +9184,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -9189,7 +9201,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>32</v>
       </c>
@@ -9206,7 +9218,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>33</v>
       </c>
@@ -9223,7 +9235,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>34</v>
       </c>
@@ -9240,7 +9252,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>35</v>
       </c>
@@ -9257,7 +9269,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>36</v>
       </c>
@@ -9274,7 +9286,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>37</v>
       </c>
@@ -9291,7 +9303,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>38</v>
       </c>
@@ -9308,7 +9320,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>39</v>
       </c>
@@ -9325,7 +9337,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>40</v>
       </c>
@@ -9342,7 +9354,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>41</v>
       </c>
@@ -9359,7 +9371,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>42</v>
       </c>
@@ -9376,7 +9388,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>43</v>
       </c>
@@ -9393,7 +9405,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>44</v>
       </c>
@@ -9410,7 +9422,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>45</v>
       </c>
@@ -9427,7 +9439,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>46</v>
       </c>
@@ -9444,7 +9456,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>47</v>
       </c>
@@ -9461,7 +9473,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>48</v>
       </c>
@@ -9478,7 +9490,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>49</v>
       </c>
@@ -9495,7 +9507,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>50</v>
       </c>
@@ -9512,7 +9524,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>51</v>
       </c>
@@ -9529,7 +9541,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>52</v>
       </c>
@@ -9546,7 +9558,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>53</v>
       </c>
@@ -9563,7 +9575,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>54</v>
       </c>
@@ -9580,7 +9592,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>55</v>
       </c>
@@ -9597,7 +9609,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>56</v>
       </c>
@@ -9614,7 +9626,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
         <v>57</v>
       </c>
@@ -9631,7 +9643,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>58</v>
       </c>
@@ -9648,7 +9660,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <v>59</v>
       </c>
@@ -9665,7 +9677,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
         <v>60</v>
       </c>
@@ -9682,7 +9694,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
         <v>61</v>
       </c>
@@ -9699,7 +9711,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
         <v>62</v>
       </c>
@@ -9716,7 +9728,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <v>63</v>
       </c>
@@ -9733,7 +9745,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <v>64</v>
       </c>
@@ -9750,7 +9762,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>65</v>
       </c>
@@ -9767,7 +9779,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <v>66</v>
       </c>
@@ -9784,7 +9796,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
         <v>67</v>
       </c>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="710">
   <si>
     <t>Batch Name</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Sudheer</t>
   </si>
   <si>
+    <t xml:space="preserve">Veena / Nitish 24th September </t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -1651,9 +1654,6 @@
     <t>Bangalore Nov Batch</t>
   </si>
   <si>
-    <t>Spring Core and Spring MVC completed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abhaya Adarsh </t>
   </si>
   <si>
@@ -2143,16 +2143,13 @@
     <t>srikanthkv36@gmail.com</t>
   </si>
   <si>
-    <t>Core Java Started
-Operaters and Methods completed
-Constructer completed</t>
-  </si>
-  <si>
-    <t>Angular completed
-Module 2 test conducted and Servlets started</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veena / Nitish 24th October </t>
+    <t>Hibernate with jpa completed</t>
+  </si>
+  <si>
+    <t>Spring 5.0(Rest, Boot) Completed, Module test conducted</t>
+  </si>
+  <si>
+    <t>Core java going on</t>
   </si>
 </sst>
 </file>
@@ -3609,15 +3606,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>411480</xdr:colOff>
+          <xdr:colOff>412750</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>289560</xdr:colOff>
+          <xdr:colOff>285750</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>53340</xdr:rowOff>
+          <xdr:rowOff>50800</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3663,13 +3660,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>205740</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>167640</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4051,96 +4048,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="14"/>
+    <col min="1" max="1" width="2.81640625" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D3" s="32" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D13" s="32"/>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29" s="32"/>
     </row>
   </sheetData>
@@ -4156,15 +4153,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>411480</xdr:colOff>
+                <xdr:colOff>412750</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>289560</xdr:colOff>
+                <xdr:colOff>285750</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>53340</xdr:rowOff>
+                <xdr:rowOff>50800</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4183,13 +4180,13 @@
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>167640</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>205740</xdr:colOff>
+                <xdr:colOff>203200</xdr:colOff>
                 <xdr:row>26</xdr:row>
-                <xdr:rowOff>167640</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -4207,42 +4204,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.5546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.77734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.21875" style="4"/>
+    <col min="12" max="12" width="21.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.26953125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -4257,40 +4254,40 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="27.6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
@@ -4331,20 +4328,20 @@
         <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O3" s="3">
         <v>8377841525</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>543</v>
+        <v>708</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>709</v>
+        <v>13</v>
       </c>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="2:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -4352,7 +4349,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>6</v>
@@ -4385,20 +4382,20 @@
         <v>12</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O4" s="3">
         <v>8073098283</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>543</v>
+        <v>708</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>709</v>
+        <v>13</v>
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="2:18" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -4406,7 +4403,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>6</v>
@@ -4439,20 +4436,20 @@
         <v>11</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O5" s="3">
         <v>8762928822</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>543</v>
+        <v>708</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>709</v>
+        <v>13</v>
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="2:18" ht="44.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -4493,20 +4490,18 @@
         <v>12</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O6" s="3">
         <v>9897145195</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>709</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -4514,7 +4509,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>6</v>
@@ -4537,28 +4532,26 @@
       </c>
       <c r="K7" s="30">
         <f>'Bangalore Nov Batch Candidates'!D3</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="29">
         <f>'Bangalore Nov Batch Candidates'!D4</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>536</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="N7" s="1"/>
       <c r="O7" s="3">
-        <v>8377841525</v>
+        <v>9897145195</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
@@ -4575,24 +4568,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.21875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="19"/>
-    <col min="8" max="8" width="5.21875" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.5546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.21875" style="19"/>
+    <col min="7" max="7" width="9.1796875" style="19"/>
+    <col min="8" max="8" width="5.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.54296875" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
@@ -4602,7 +4595,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
@@ -4612,7 +4605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
@@ -4622,887 +4615,887 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D5" s="18"/>
     </row>
-    <row r="6" spans="2:12" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C6" s="42"/>
       <c r="H6" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>529</v>
-      </c>
       <c r="C7" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="K7" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>308</v>
-      </c>
       <c r="L7" s="25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="27">
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="22">
         <v>6394671596</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H8" s="28">
         <v>1</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="22">
         <v>8009311439</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H9" s="28">
         <v>2</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="27">
         <v>3</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="22">
         <v>9468247375</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H10" s="28">
         <v>3</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L10" s="24" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="27">
         <v>4</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="22">
         <v>9872512451</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H11" s="28">
         <v>4</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L11" s="24" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="27">
         <v>5</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="22">
         <v>9695676355</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H12" s="28">
         <v>5</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="27">
         <v>6</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="22">
         <v>8826679369</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H13" s="28">
         <v>6</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L13" s="24" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <v>7</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="22">
         <v>8512097276</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H14" s="28">
         <v>7</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="J14" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L14" s="24" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="27">
         <v>8</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="22">
         <v>8076728958</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H15" s="28">
         <v>8</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L15" s="24" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="27">
         <v>9</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="22">
         <v>7669604203</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H16" s="28">
         <v>9</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L16" s="24" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <v>10</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="22">
         <v>8860817681</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H17" s="28">
         <v>10</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J17" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" s="23" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="27">
         <v>11</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="22">
         <v>9015270530</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H18" s="28">
         <v>11</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="27">
         <v>12</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="22">
         <v>7827327267</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H19" s="28">
         <v>12</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L19" s="24" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="27">
         <v>13</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" s="22">
         <v>8800709136</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H20" s="28">
         <v>13</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L20" s="24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="27">
         <v>14</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" s="22">
         <v>9971884734</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H21" s="28">
         <v>14</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="27">
         <v>15</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" s="22">
         <v>7988643977</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H22" s="28">
         <v>15</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L22" s="24" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="27">
         <v>16</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E23" s="22">
         <v>9910920931</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H23" s="28">
         <v>16</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J23" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="27">
         <v>17</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="22">
         <v>7073862831</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H24" s="28">
         <v>17</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J24" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L24" s="24" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="27">
         <v>18</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="22">
         <v>9810943877</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H25" s="28">
         <v>18</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="J25" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L25" s="24" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="27">
         <v>19</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" s="22">
         <v>9582848409</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H26" s="28">
         <v>19</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J26" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="27">
         <v>20</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27" s="22">
         <v>7065509255</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H27" s="28">
         <v>20</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="27">
         <v>21</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" s="22">
         <v>8218128166</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H28" s="28">
         <v>21</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L28" s="24" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="27">
         <v>22</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" s="22">
         <v>8512856779</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H29" s="28">
         <v>22</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L29" s="24" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="27">
         <v>23</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" s="22">
         <v>9067472225</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H30" s="28">
         <v>23</v>
       </c>
       <c r="I30" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H31" s="28">
         <v>24</v>
       </c>
       <c r="I31" s="23" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H32" s="28">
         <v>25</v>
       </c>
       <c r="I32" s="23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J32" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H33" s="27">
         <v>26</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K33" s="22">
         <v>9368519717</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H34" s="27">
         <v>27</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K34" s="22">
         <v>8115712543</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H35" s="27">
         <v>28</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J35" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K35" s="22">
         <v>9897133664</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H36" s="27">
         <v>29</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="J36" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K36" s="22">
         <v>8604793053</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5573,28 +5566,28 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.81640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="14"/>
-    <col min="8" max="8" width="5.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.21875" style="14"/>
+    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="14"/>
+    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -5606,7 +5599,7 @@
       </c>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -5618,7 +5611,7 @@
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -5630,247 +5623,247 @@
       </c>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="26"/>
       <c r="D5" s="18"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C6" s="42"/>
       <c r="H6" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>529</v>
-      </c>
       <c r="C7" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="K7" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>308</v>
-      </c>
       <c r="L7" s="25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="27">
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" s="27">
         <v>1</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="27">
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" s="27">
         <v>2</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="27">
         <v>3</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10" s="27">
         <v>3</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="27">
         <v>4</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H11" s="27">
         <v>4</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B12" s="27">
         <v>5</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B13" s="27">
         <v>6</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B14" s="27">
         <v>7</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="27">
         <v>8</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5900,32 +5893,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" style="14"/>
-    <col min="8" max="8" width="5.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.21875" style="14"/>
+    <col min="1" max="1" width="3.54296875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" style="14"/>
+    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -5937,7 +5928,7 @@
       </c>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -5949,7 +5940,7 @@
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -5961,1415 +5952,1415 @@
       </c>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="26"/>
       <c r="D5" s="18"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C6" s="42"/>
       <c r="H6" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>529</v>
-      </c>
       <c r="C7" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="K7" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>308</v>
-      </c>
       <c r="L7" s="25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3">
         <v>6</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" s="3">
         <v>7</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H15" s="3">
         <v>8</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="3">
         <v>9</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>10</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H18" s="3">
         <v>11</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H19" s="3">
         <v>12</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H20" s="3">
         <v>13</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H21" s="3">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="3">
         <v>15</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>45</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>49</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>51</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>53</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>54</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <v>65</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>66</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <v>67</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -7469,32 +7460,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="5.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.1796875" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -7506,7 +7495,7 @@
       </c>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -7518,7 +7507,7 @@
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -7530,772 +7519,772 @@
       </c>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="26"/>
       <c r="D5" s="18"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C6" s="42"/>
       <c r="H6" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>529</v>
-      </c>
       <c r="C7" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="K7" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>308</v>
-      </c>
       <c r="L7" s="25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5">
         <v>7558289080</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5">
         <v>7387213425</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5">
         <v>9833446728</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="K10" s="5">
         <v>9422115479</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5">
         <v>9763563987</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H11" s="3">
         <v>4</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5">
         <v>7066705430</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H12" s="3">
         <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" s="5">
         <v>7743949634</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5">
         <v>8237496955</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5">
         <v>9049796915</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5">
         <v>9987648115</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="5">
         <v>9820958424</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="5">
         <v>7887669198</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5">
         <v>7666038604</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="5">
         <v>7303752979</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20" s="5">
         <v>8857819155</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="5">
         <v>8825054152</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5">
         <v>9765914865</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5">
         <v>7710859052</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5">
         <v>8857863105</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5">
         <v>9423561361</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5">
         <v>8424956867</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5">
         <v>8390700404</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5">
         <v>8421163930</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29" s="5">
         <v>7083906951</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E30" s="5">
         <v>8689929864</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5">
         <v>7362933380</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32" s="5">
         <v>7218583912</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33" s="5">
         <v>8978213151</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34" s="5">
         <v>9326855136</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E35" s="5">
         <v>9172029365</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5">
         <v>8624039380</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37" s="5">
         <v>7218454570</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E38" s="5">
         <v>9359467647</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" s="5">
         <v>8691942385</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" s="5">
         <v>8850419292</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41" s="5">
         <v>9621029028</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E42" s="5">
         <v>7066020092</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="5">
         <v>8349830798</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E44" s="5">
         <v>7225848488</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E45" s="5">
         <v>7719862298</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -8354,34 +8343,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:L74"/>
+  <dimension ref="B1:L75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="8" width="5.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.1796875" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B1" s="26"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -8393,19 +8380,19 @@
       </c>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
       </c>
       <c r="D3" s="17">
-        <f>COUNT($H$1:$H$87)</f>
-        <v>14</v>
+        <f>COUNT($H$1:$H$86)</f>
+        <v>13</v>
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -8413,58 +8400,58 @@
       </c>
       <c r="D4" s="17">
         <f>COUNT($B$1:$B$89)</f>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" s="26"/>
       <c r="D5" s="18"/>
       <c r="H5" s="26"/>
     </row>
-    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C6" s="42"/>
       <c r="H6" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>529</v>
-      </c>
       <c r="C7" s="25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="K7" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="H7" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>308</v>
-      </c>
       <c r="L7" s="25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -8472,7 +8459,7 @@
         <v>544</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="35">
         <v>7903517993</v>
@@ -8487,7 +8474,7 @@
         <v>701</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="37">
         <v>7022190814</v>
@@ -8496,7 +8483,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>2</v>
       </c>
@@ -8504,7 +8491,7 @@
         <v>545</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="35">
         <v>8809533270</v>
@@ -8519,7 +8506,7 @@
         <v>703</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="37">
         <v>9902495591</v>
@@ -8528,7 +8515,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>3</v>
       </c>
@@ -8536,7 +8523,7 @@
         <v>546</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="35">
         <v>9606535481</v>
@@ -8551,7 +8538,7 @@
         <v>705</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" s="37">
         <v>8217816055</v>
@@ -8560,7 +8547,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>4</v>
       </c>
@@ -8568,7 +8555,7 @@
         <v>547</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" s="36">
         <v>8147464093</v>
@@ -8583,7 +8570,7 @@
         <v>549</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="35">
         <v>8917508099</v>
@@ -8592,7 +8579,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>5</v>
       </c>
@@ -8600,7 +8587,7 @@
         <v>548</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="35">
         <v>7076417867</v>
@@ -8615,7 +8602,7 @@
         <v>554</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" s="36">
         <v>8334886173</v>
@@ -8624,7 +8611,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>6</v>
       </c>
@@ -8632,7 +8619,7 @@
         <v>550</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="35">
         <v>7813054321</v>
@@ -8647,7 +8634,7 @@
         <v>567</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13" s="35">
         <v>7019175327</v>
@@ -8656,7 +8643,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>7</v>
       </c>
@@ -8664,7 +8651,7 @@
         <v>551</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="36">
         <v>7381929325</v>
@@ -8679,7 +8666,7 @@
         <v>580</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" s="35">
         <v>8886325991</v>
@@ -8688,7 +8675,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -8696,7 +8683,7 @@
         <v>552</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="36">
         <v>9072082223</v>
@@ -8707,20 +8694,20 @@
       <c r="H15" s="3">
         <v>8</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>581</v>
+      <c r="I15" s="38" t="s">
+        <v>583</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="36">
-        <v>7483325727</v>
-      </c>
-      <c r="L15" s="40" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="K15" s="35">
+        <v>6360125482</v>
+      </c>
+      <c r="L15" s="35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>9</v>
       </c>
@@ -8728,7 +8715,7 @@
         <v>553</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="36">
         <v>9845258050</v>
@@ -8739,20 +8726,20 @@
       <c r="H16" s="3">
         <v>9</v>
       </c>
-      <c r="I16" s="38" t="s">
-        <v>583</v>
+      <c r="I16" s="1" t="s">
+        <v>593</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="35">
-        <v>6360125482</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="K16" s="36">
+        <v>7022209112</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>10</v>
       </c>
@@ -8760,7 +8747,7 @@
         <v>555</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="36">
         <v>9731296131</v>
@@ -8772,19 +8759,19 @@
         <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K17" s="36">
-        <v>7022209112</v>
+        <v>9480560066</v>
       </c>
       <c r="L17" s="40" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>11</v>
       </c>
@@ -8792,7 +8779,7 @@
         <v>556</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="36">
         <v>8217546865</v>
@@ -8804,19 +8791,19 @@
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" s="36">
-        <v>9480560066</v>
+        <v>8660145501</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>12</v>
       </c>
@@ -8824,7 +8811,7 @@
         <v>557</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19" s="35">
         <v>8763455966</v>
@@ -8835,20 +8822,20 @@
       <c r="H19" s="3">
         <v>12</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>608</v>
+      <c r="I19" s="38" t="s">
+        <v>609</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="36">
-        <v>8660145501</v>
-      </c>
-      <c r="L19" s="40" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="K19" s="35">
+        <v>8977511126</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>13</v>
       </c>
@@ -8856,7 +8843,7 @@
         <v>558</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E20" s="36">
         <v>8892227116</v>
@@ -8867,20 +8854,20 @@
       <c r="H20" s="3">
         <v>13</v>
       </c>
-      <c r="I20" s="38" t="s">
-        <v>609</v>
+      <c r="I20" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="35">
-        <v>8977511126</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K20" s="36">
+        <v>7684841402</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>14</v>
       </c>
@@ -8888,7 +8875,7 @@
         <v>559</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" s="36">
         <v>7353647630</v>
@@ -8896,23 +8883,8 @@
       <c r="F21" s="40" t="s">
         <v>638</v>
       </c>
-      <c r="H21" s="3">
-        <v>14</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="36">
-        <v>7684841402</v>
-      </c>
-      <c r="L21" s="40" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="3">
         <v>15</v>
       </c>
@@ -8920,7 +8892,7 @@
         <v>560</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E22" s="35">
         <v>8249093695</v>
@@ -8929,7 +8901,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>16</v>
       </c>
@@ -8937,7 +8909,7 @@
         <v>561</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E23" s="36">
         <v>7873663423</v>
@@ -8946,7 +8918,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="3">
         <v>17</v>
       </c>
@@ -8954,7 +8926,7 @@
         <v>562</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="37">
         <v>9019267075</v>
@@ -8963,7 +8935,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="3">
         <v>18</v>
       </c>
@@ -8971,7 +8943,7 @@
         <v>563</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="36">
         <v>9700310911</v>
@@ -8980,7 +8952,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>19</v>
       </c>
@@ -8988,7 +8960,7 @@
         <v>564</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26" s="36">
         <v>9113044577</v>
@@ -8997,7 +8969,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>20</v>
       </c>
@@ -9005,7 +8977,7 @@
         <v>565</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E27" s="35">
         <v>9035908159</v>
@@ -9014,7 +8986,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>21</v>
       </c>
@@ -9022,7 +8994,7 @@
         <v>566</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" s="35">
         <v>7829067527</v>
@@ -9031,7 +9003,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>22</v>
       </c>
@@ -9039,7 +9011,7 @@
         <v>568</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E29" s="36">
         <v>7981028759</v>
@@ -9048,7 +9020,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>23</v>
       </c>
@@ -9056,7 +9028,7 @@
         <v>569</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E30" s="36">
         <v>7097792978</v>
@@ -9065,7 +9037,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -9073,7 +9045,7 @@
         <v>570</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31" s="35">
         <v>7000384881</v>
@@ -9082,7 +9054,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>25</v>
       </c>
@@ -9090,7 +9062,7 @@
         <v>571</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32" s="36">
         <v>9008412572</v>
@@ -9099,7 +9071,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>26</v>
       </c>
@@ -9107,7 +9079,7 @@
         <v>572</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E33" s="36">
         <v>7406654166</v>
@@ -9116,7 +9088,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="3">
         <v>27</v>
       </c>
@@ -9124,7 +9096,7 @@
         <v>573</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E34" s="36">
         <v>8867413437</v>
@@ -9133,7 +9105,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="3">
         <v>28</v>
       </c>
@@ -9141,7 +9113,7 @@
         <v>574</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="37">
         <v>9700143501</v>
@@ -9150,7 +9122,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="3">
         <v>29</v>
       </c>
@@ -9158,7 +9130,7 @@
         <v>575</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E36" s="35">
         <v>7989967960</v>
@@ -9167,7 +9139,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="3">
         <v>30</v>
       </c>
@@ -9175,7 +9147,7 @@
         <v>576</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37" s="37">
         <v>7008435826</v>
@@ -9184,7 +9156,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>31</v>
       </c>
@@ -9192,7 +9164,7 @@
         <v>577</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E38" s="36">
         <v>7483029057</v>
@@ -9201,7 +9173,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>32</v>
       </c>
@@ -9209,7 +9181,7 @@
         <v>578</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" s="36">
         <v>7406771982</v>
@@ -9218,7 +9190,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>33</v>
       </c>
@@ -9226,7 +9198,7 @@
         <v>579</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" s="37">
         <v>8951512519</v>
@@ -9235,7 +9207,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>34</v>
       </c>
@@ -9243,7 +9215,7 @@
         <v>582</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41" s="35">
         <v>6360556728</v>
@@ -9252,7 +9224,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>35</v>
       </c>
@@ -9260,7 +9232,7 @@
         <v>584</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E42" s="36">
         <v>7411377032</v>
@@ -9269,7 +9241,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>36</v>
       </c>
@@ -9277,7 +9249,7 @@
         <v>585</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="37">
         <v>9492208119</v>
@@ -9286,7 +9258,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>37</v>
       </c>
@@ -9294,7 +9266,7 @@
         <v>586</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E44" s="36">
         <v>8249001505</v>
@@ -9303,7 +9275,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>38</v>
       </c>
@@ -9311,7 +9283,7 @@
         <v>587</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E45" s="36">
         <v>8618427272</v>
@@ -9320,7 +9292,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="3">
         <v>39</v>
       </c>
@@ -9328,7 +9300,7 @@
         <v>588</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E46" s="35">
         <v>8746075033</v>
@@ -9337,7 +9309,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="3">
         <v>40</v>
       </c>
@@ -9345,7 +9317,7 @@
         <v>589</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E47" s="35">
         <v>9121503770</v>
@@ -9354,7 +9326,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="3">
         <v>41</v>
       </c>
@@ -9362,7 +9334,7 @@
         <v>590</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E48" s="35">
         <v>9550316616</v>
@@ -9371,7 +9343,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="3">
         <v>42</v>
       </c>
@@ -9379,7 +9351,7 @@
         <v>591</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E49" s="36">
         <v>7406971376</v>
@@ -9388,7 +9360,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="3">
         <v>43</v>
       </c>
@@ -9396,7 +9368,7 @@
         <v>592</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E50" s="36">
         <v>7483284262</v>
@@ -9405,7 +9377,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="3">
         <v>44</v>
       </c>
@@ -9413,7 +9385,7 @@
         <v>594</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E51" s="35">
         <v>9040077448</v>
@@ -9422,7 +9394,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>45</v>
       </c>
@@ -9430,7 +9402,7 @@
         <v>595</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E52" s="37">
         <v>6360683726</v>
@@ -9439,7 +9411,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="3">
         <v>46</v>
       </c>
@@ -9447,7 +9419,7 @@
         <v>596</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E53" s="36">
         <v>9945718244</v>
@@ -9456,7 +9428,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="3">
         <v>47</v>
       </c>
@@ -9464,7 +9436,7 @@
         <v>597</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E54" s="36">
         <v>7780660126</v>
@@ -9473,7 +9445,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="3">
         <v>48</v>
       </c>
@@ -9481,7 +9453,7 @@
         <v>598</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E55" s="36">
         <v>8660346353</v>
@@ -9490,7 +9462,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="3">
         <v>49</v>
       </c>
@@ -9498,7 +9470,7 @@
         <v>600</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E56" s="36">
         <v>8682031807</v>
@@ -9507,7 +9479,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="3">
         <v>50</v>
       </c>
@@ -9515,7 +9487,7 @@
         <v>601</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E57" s="36">
         <v>8197206751</v>
@@ -9524,7 +9496,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="3">
         <v>51</v>
       </c>
@@ -9532,7 +9504,7 @@
         <v>602</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E58" s="35">
         <v>7022513325</v>
@@ -9541,7 +9513,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="3">
         <v>52</v>
       </c>
@@ -9549,7 +9521,7 @@
         <v>603</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E59" s="36">
         <v>9108616263</v>
@@ -9558,7 +9530,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="3">
         <v>53</v>
       </c>
@@ -9566,7 +9538,7 @@
         <v>604</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E60" s="37">
         <v>6379575272</v>
@@ -9575,7 +9547,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="3">
         <v>54</v>
       </c>
@@ -9583,7 +9555,7 @@
         <v>605</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E61" s="37">
         <v>7396436165</v>
@@ -9592,7 +9564,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="3">
         <v>55</v>
       </c>
@@ -9600,7 +9572,7 @@
         <v>606</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E62" s="36">
         <v>8310086774</v>
@@ -9609,7 +9581,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="3">
         <v>56</v>
       </c>
@@ -9617,7 +9589,7 @@
         <v>607</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E63" s="36">
         <v>9741974627</v>
@@ -9626,7 +9598,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="3">
         <v>57</v>
       </c>
@@ -9634,7 +9606,7 @@
         <v>610</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E64" s="37">
         <v>9448011412</v>
@@ -9643,7 +9615,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="3">
         <v>58</v>
       </c>
@@ -9651,7 +9623,7 @@
         <v>611</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E65" s="37">
         <v>7353181715</v>
@@ -9660,7 +9632,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="3">
         <v>59</v>
       </c>
@@ -9668,7 +9640,7 @@
         <v>612</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E66" s="35">
         <v>8617838183</v>
@@ -9677,7 +9649,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="3">
         <v>60</v>
       </c>
@@ -9685,7 +9657,7 @@
         <v>613</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E67" s="35">
         <v>7980173705</v>
@@ -9694,7 +9666,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="3">
         <v>61</v>
       </c>
@@ -9702,7 +9674,7 @@
         <v>615</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E68" s="37">
         <v>9611596727</v>
@@ -9711,7 +9683,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="3">
         <v>62</v>
       </c>
@@ -9719,7 +9691,7 @@
         <v>616</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E69" s="37">
         <v>9535059533</v>
@@ -9728,7 +9700,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="3">
         <v>63</v>
       </c>
@@ -9736,7 +9708,7 @@
         <v>617</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E70" s="35" t="s">
         <v>622</v>
@@ -9745,7 +9717,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="3">
         <v>64</v>
       </c>
@@ -9753,7 +9725,7 @@
         <v>618</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E71" s="36">
         <v>8722570919</v>
@@ -9762,7 +9734,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="3">
         <v>65</v>
       </c>
@@ -9770,7 +9742,7 @@
         <v>619</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E72" s="36">
         <v>7899118522</v>
@@ -9779,7 +9751,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="3">
         <v>66</v>
       </c>
@@ -9787,7 +9759,7 @@
         <v>620</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E73" s="37">
         <v>9686553854</v>
@@ -9796,7 +9768,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="3">
         <v>67</v>
       </c>
@@ -9804,13 +9776,30 @@
         <v>621</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E74" s="35">
         <v>9734534062</v>
       </c>
       <c r="F74" s="39" t="s">
         <v>700</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="3">
+        <v>68</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="36">
+        <v>7483325727</v>
+      </c>
+      <c r="F75" s="40" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -9819,223 +9808,223 @@
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <conditionalFormatting sqref="E45">
-    <cfRule type="duplicateValues" dxfId="81" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="duplicateValues" dxfId="80" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62">
-    <cfRule type="duplicateValues" dxfId="79" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="duplicateValues" dxfId="78" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="77" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="95"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="duplicateValues" dxfId="76" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="94"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="duplicateValues" dxfId="75" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="74" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="73" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="duplicateValues" dxfId="72" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="90"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="duplicateValues" dxfId="71" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="89"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="duplicateValues" dxfId="70" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="duplicateValues" dxfId="69" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="duplicateValues" dxfId="68" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="duplicateValues" dxfId="67" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="duplicateValues" dxfId="66" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="duplicateValues" dxfId="65" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="duplicateValues" dxfId="64" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="duplicateValues" dxfId="63" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="62" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="77"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="duplicateValues" dxfId="61" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="duplicateValues" dxfId="60" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="75"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="duplicateValues" dxfId="59" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="duplicateValues" dxfId="58" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="duplicateValues" dxfId="57" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="56" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="duplicateValues" dxfId="55" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="duplicateValues" dxfId="54" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="duplicateValues" dxfId="53" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="duplicateValues" dxfId="52" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="duplicateValues" dxfId="51" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="duplicateValues" dxfId="50" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E67">
-    <cfRule type="duplicateValues" dxfId="49" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66">
-    <cfRule type="duplicateValues" dxfId="48" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="duplicateValues" dxfId="47" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="duplicateValues" dxfId="46" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="duplicateValues" dxfId="45" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="duplicateValues" dxfId="44" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F69 F64:F65 F53:F56 F49:F50 F59:F61 F73">
-    <cfRule type="duplicateValues" dxfId="43" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="duplicateValues" dxfId="42" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="duplicateValues" dxfId="41" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="49"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="duplicateValues" dxfId="39" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="duplicateValues" dxfId="38" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="37" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="duplicateValues" dxfId="36" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="duplicateValues" dxfId="35" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="duplicateValues" dxfId="34" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="duplicateValues" dxfId="33" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="duplicateValues" dxfId="32" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="duplicateValues" dxfId="31" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="duplicateValues" dxfId="29" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="duplicateValues" dxfId="27" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="duplicateValues" dxfId="26" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="duplicateValues" dxfId="24" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="duplicateValues" dxfId="23" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
@@ -10046,22 +10035,22 @@
   <conditionalFormatting sqref="K16">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
+  <conditionalFormatting sqref="K17">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
+  <conditionalFormatting sqref="K18">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="K19">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
+  <conditionalFormatting sqref="K20">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
+  <conditionalFormatting sqref="E75">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
+  <conditionalFormatting sqref="F75">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
@@ -10145,13 +10134,13 @@
     <hyperlink ref="L11" r:id="rId78" display="armananimesh@gmail.com"/>
     <hyperlink ref="L12" r:id="rId79" display="mailto:arpitakunduak97@gmail.com"/>
     <hyperlink ref="L14" r:id="rId80" display="mailto:peddisettim@gmail.com"/>
-    <hyperlink ref="L15" r:id="rId81" display="mailto:Chirallipooja@gmail.com"/>
-    <hyperlink ref="L17" r:id="rId82" display="mailto:sanjana.rajj97@gmail.com"/>
-    <hyperlink ref="L18" r:id="rId83" display="mailto:sharankumarh20@gmail.com"/>
-    <hyperlink ref="L19" r:id="rId84" display="mailto:subhampaul2050@gmail.com"/>
-    <hyperlink ref="I20" r:id="rId85" location="field-total-scheduled-enq-add-more-wrapper" display="Suddanagunta Tejaswini"/>
-    <hyperlink ref="L20" r:id="rId86" display="sudanaguntatejaswini@gmail.com"/>
-    <hyperlink ref="L21" r:id="rId87" display="mailto:tsubhransupatra07@gmail.com"/>
+    <hyperlink ref="L16" r:id="rId81" display="mailto:sanjana.rajj97@gmail.com"/>
+    <hyperlink ref="L17" r:id="rId82" display="mailto:sharankumarh20@gmail.com"/>
+    <hyperlink ref="L18" r:id="rId83" display="mailto:subhampaul2050@gmail.com"/>
+    <hyperlink ref="I19" r:id="rId84" location="field-total-scheduled-enq-add-more-wrapper" display="Suddanagunta Tejaswini"/>
+    <hyperlink ref="L19" r:id="rId85" display="sudanaguntatejaswini@gmail.com"/>
+    <hyperlink ref="L20" r:id="rId86" display="mailto:tsubhransupatra07@gmail.com"/>
+    <hyperlink ref="F75" r:id="rId87" display="mailto:Chirallipooja@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId88"/>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="710">
   <si>
     <t>Batch Name</t>
   </si>
@@ -4048,7 +4048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4204,11 +4204,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4539,9 +4539,11 @@
         <v>68</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>537</v>
+      </c>
       <c r="O7" s="3">
         <v>9897145195</v>
       </c>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -2346,7 +2346,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2465,6 +2465,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4048,7 +4060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4204,11 +4216,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4492,7 +4504,7 @@
       <c r="N6" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="44">
         <v>9897145195</v>
       </c>
       <c r="P6" s="34" t="s">
@@ -4538,14 +4550,14 @@
         <f>'Bangalore Nov Batch Candidates'!D4</f>
         <v>68</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="O7" s="3">
-        <v>9897145195</v>
+      <c r="O7" s="45">
+        <v>8377841525</v>
       </c>
       <c r="P7" s="34" t="s">
         <v>709</v>
@@ -4621,14 +4633,14 @@
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:12" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="H6" s="42" t="s">
+      <c r="C6" s="46"/>
+      <c r="H6" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5631,14 +5643,14 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="H6" s="42" t="s">
+      <c r="C6" s="46"/>
+      <c r="H6" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -5960,14 +5972,14 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="H6" s="42" t="s">
+      <c r="C6" s="46"/>
+      <c r="H6" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -7527,14 +7539,14 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="H6" s="42" t="s">
+      <c r="C6" s="46"/>
+      <c r="H6" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
@@ -8412,14 +8424,14 @@
       <c r="H5" s="26"/>
     </row>
     <row r="6" spans="2:12" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="H6" s="42" t="s">
+      <c r="C6" s="46"/>
+      <c r="H6" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="46"/>
     </row>
     <row r="7" spans="2:12" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Onboarding  Date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Initial Batch Size </t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Noida Batch</t>
   </si>
   <si>
-    <t>Bhuvaneswar Batch</t>
-  </si>
-  <si>
     <t>Pune-Mumbai Batch</t>
   </si>
   <si>
@@ -1639,9 +1633,6 @@
     <t>Priyanka</t>
   </si>
   <si>
-    <t>Giridhar</t>
-  </si>
-  <si>
     <t>Dropout/Absconded</t>
   </si>
   <si>
@@ -3157,10 +3148,21 @@
     <t>BDD completed</t>
   </si>
   <si>
-    <t xml:space="preserve">Java Completed                           SQL Completed                          </t>
-  </si>
-  <si>
     <t>Spring Core Completed                Spring MVC Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Completed                           
+SQL Completed                 
+JDBC In-Progress         </t>
+  </si>
+  <si>
+    <t>On boarding  Date</t>
+  </si>
+  <si>
+    <t>Bhubaneshwar Batch</t>
+  </si>
+  <si>
+    <t>Giridhara</t>
   </si>
 </sst>
 </file>
@@ -4689,15 +4691,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>412750</xdr:colOff>
+          <xdr:colOff>411480</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>15</xdr:col>
-          <xdr:colOff>285750</xdr:colOff>
+          <xdr:colOff>289560</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>53340</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4743,13 +4745,13 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>205740</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
+          <xdr:rowOff>167640</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5131,96 +5133,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="14"/>
+    <col min="1" max="1" width="2.77734375" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9.21875" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D3" s="32" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.35">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D4" s="32"/>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D6" s="32"/>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D7" s="32"/>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D8" s="32"/>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D9" s="32"/>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D10" s="32"/>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D11" s="32"/>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D12" s="32"/>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D13" s="32"/>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D15" s="32"/>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D16" s="32"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="32"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="32"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="32"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="32"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" s="32"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" s="32"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28" s="32"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" s="32"/>
     </row>
   </sheetData>
@@ -5236,15 +5238,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>412750</xdr:colOff>
+                <xdr:colOff>411480</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>285750</xdr:colOff>
+                <xdr:colOff>289560</xdr:colOff>
                 <xdr:row>21</xdr:row>
-                <xdr:rowOff>50800</xdr:rowOff>
+                <xdr:rowOff>53340</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5263,13 +5265,13 @@
                 <xdr:col>8</xdr:col>
                 <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
+                <xdr:rowOff>167640</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>203200</xdr:colOff>
+                <xdr:colOff>205740</xdr:colOff>
                 <xdr:row>26</xdr:row>
-                <xdr:rowOff>165100</xdr:rowOff>
+                <xdr:rowOff>167640</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5287,42 +5289,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="4.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="4.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.54296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.26953125" style="4"/>
+    <col min="12" max="12" width="21.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.21875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -5334,57 +5336,57 @@
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="P2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="G3" s="9">
         <v>43726</v>
@@ -5408,37 +5410,37 @@
         <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O3" s="3">
         <v>8377841525</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="2:18" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>18</v>
+        <v>1045</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="9">
         <v>43731</v>
@@ -5462,37 +5464,37 @@
         <v>8</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="O4" s="3">
         <v>8073098283</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="2:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G5" s="9">
         <v>43731</v>
@@ -5516,37 +5518,37 @@
         <v>64</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>539</v>
+        <v>1046</v>
       </c>
       <c r="O5" s="3">
         <v>8762928822</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="2:18" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G6" s="9">
         <v>43738</v>
@@ -5570,35 +5572,35 @@
         <v>36</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O6" s="44">
         <v>9897145195</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="G7" s="9">
         <v>43780</v>
@@ -5622,23 +5624,23 @@
         <v>67</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N7" s="43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="O7" s="45">
         <v>8377841525</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5653,25 +5655,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.21875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="25" style="19" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="19"/>
-    <col min="10" max="10" width="5.1796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.54296875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="39.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="19"/>
+    <col min="9" max="9" width="9.21875" style="19"/>
+    <col min="10" max="10" width="5.21875" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.5546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.77734375" style="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.21875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
         <v xml:space="preserve">Initial Batch Size </v>
@@ -5681,7 +5683,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
         <v>Dropout/Absconded</v>
@@ -5691,7 +5693,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
         <v>Current Batch Size</v>
@@ -5701,1031 +5703,1031 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="2:14" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C6" s="52"/>
       <c r="J6" s="52" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="J7" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="N7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="22">
         <v>6394671596</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J8" s="28">
         <v>1</v>
       </c>
       <c r="K8" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="N8" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="L8" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="22">
         <v>8009311439</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J9" s="28">
         <v>2</v>
       </c>
       <c r="K9" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="N9" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="L9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>3</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="22">
         <v>9468247375</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J10" s="28">
         <v>3</v>
       </c>
       <c r="K10" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="N10" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="L10" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>4</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="22">
         <v>9872512451</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J11" s="28">
         <v>4</v>
       </c>
       <c r="K11" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="N11" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>5</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="22">
         <v>9695676355</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J12" s="28">
         <v>5</v>
       </c>
       <c r="K12" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="N12" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>6</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="22">
         <v>8826679369</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J13" s="28">
         <v>6</v>
       </c>
       <c r="K13" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>7</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="22">
         <v>8512097276</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J14" s="28">
         <v>7</v>
       </c>
       <c r="K14" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="N14" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="L14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>8</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D15" s="46" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="22">
         <v>8076728958</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J15" s="28">
         <v>8</v>
       </c>
       <c r="K15" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="N15" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="L15" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>9</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16" s="22">
         <v>7669604203</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J16" s="28">
         <v>9</v>
       </c>
       <c r="K16" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="N16" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="L16" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <v>10</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" s="22">
         <v>8860817681</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J17" s="28">
         <v>10</v>
       </c>
       <c r="K17" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="N17" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="L17" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <v>11</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="22">
         <v>9015270530</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J18" s="28">
         <v>11</v>
       </c>
       <c r="K18" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="N18" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="L18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>12</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="22">
         <v>7827327267</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J19" s="28">
         <v>12</v>
       </c>
       <c r="K19" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="N19" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="L19" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <v>13</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" s="22">
         <v>8800709136</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J20" s="28">
         <v>13</v>
       </c>
       <c r="K20" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="N20" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="L20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="N20" s="24" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <v>14</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G21" s="22">
         <v>9971884734</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J21" s="28">
         <v>14</v>
       </c>
       <c r="K21" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="N21" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="L21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <v>15</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G22" s="22">
         <v>7988643977</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J22" s="28">
         <v>15</v>
       </c>
       <c r="K22" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="N22" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="L22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <v>16</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="22">
         <v>9910920931</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J23" s="28">
         <v>16</v>
       </c>
       <c r="K23" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="N23" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>17</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" s="22">
         <v>7073862831</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J24" s="28">
         <v>17</v>
       </c>
       <c r="K24" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="N24" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="L24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="N24" s="24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>18</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G25" s="22">
         <v>9810943877</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J25" s="28">
         <v>18</v>
       </c>
       <c r="K25" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="N25" s="24" t="s">
         <v>415</v>
       </c>
-      <c r="L25" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <v>19</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E26" s="46" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="22">
         <v>9582848409</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="J26" s="28">
         <v>19</v>
       </c>
       <c r="K26" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="N26" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="L26" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <v>20</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G27" s="22">
         <v>7065509255</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J27" s="28">
         <v>20</v>
       </c>
       <c r="K27" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="N27" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="L27" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="N27" s="24" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <v>21</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="22">
         <v>8218128166</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J28" s="28">
         <v>21</v>
       </c>
       <c r="K28" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="N28" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="L28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <v>22</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G29" s="22">
         <v>8512856779</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J29" s="28">
         <v>22</v>
       </c>
       <c r="K29" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="N29" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="L29" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M29" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="N29" s="24" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <v>23</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E30" s="46" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30" s="22">
         <v>9067472225</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J30" s="28">
         <v>23</v>
       </c>
       <c r="K30" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="N30" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="L30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="N30" s="24" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J31" s="28">
         <v>24</v>
       </c>
       <c r="K31" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="N31" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="L31" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="N31" s="24" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J32" s="28">
         <v>25</v>
       </c>
       <c r="K32" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="N32" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="L32" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="33" spans="10:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J33" s="27">
         <v>26</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M33" s="22">
         <v>9368519717</v>
       </c>
       <c r="N33" s="20" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="34" spans="10:14" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J34" s="27">
         <v>27</v>
       </c>
       <c r="K34" s="20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M34" s="22">
         <v>8115712543</v>
       </c>
       <c r="N34" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="35" spans="10:14" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J35" s="27">
         <v>28</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M35" s="22">
         <v>9897133664</v>
       </c>
       <c r="N35" s="20" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="36" spans="10:14" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14" x14ac:dyDescent="0.25">
       <c r="J36" s="27">
         <v>29</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M36" s="22">
         <v>8604793053</v>
       </c>
       <c r="N36" s="20" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6797,29 +6799,29 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="27" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="14"/>
-    <col min="10" max="10" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="14"/>
+    <col min="6" max="6" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="14"/>
+    <col min="10" max="10" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.21875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -6831,7 +6833,7 @@
       </c>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -6843,7 +6845,7 @@
       </c>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -6855,301 +6857,301 @@
       </c>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="F5" s="18"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="2:14" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C6" s="52"/>
       <c r="J6" s="52" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="J7" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="N7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="27">
         <v>1</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>712</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="49" t="s">
-        <v>715</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>718</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="J8" s="27">
         <v>1</v>
       </c>
       <c r="K8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
         <v>2</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>744</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>745</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="D9" s="49" t="s">
-        <v>747</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>748</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>31</v>
       </c>
       <c r="J9" s="27">
         <v>2</v>
       </c>
       <c r="K9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="27">
         <v>3</v>
       </c>
       <c r="C10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>746</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>747</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>749</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>750</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>34</v>
       </c>
       <c r="J10" s="27">
         <v>3</v>
       </c>
       <c r="K10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="27">
         <v>4</v>
       </c>
       <c r="C11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>748</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>749</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>751</v>
-      </c>
-      <c r="E11" s="49" t="s">
-        <v>752</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>37</v>
       </c>
       <c r="J11" s="27">
         <v>4</v>
       </c>
       <c r="K11" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="27">
         <v>5</v>
       </c>
       <c r="C12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>750</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>751</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>753</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="27">
         <v>6</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>752</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>753</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="49" t="s">
-        <v>755</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>756</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <v>7</v>
       </c>
       <c r="C14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>754</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>755</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>757</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>758</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="27">
         <v>8</v>
       </c>
       <c r="C15" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>757</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="D15" s="49" t="s">
-        <v>759</v>
-      </c>
-      <c r="E15" s="49" t="s">
-        <v>760</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7181,29 +7183,29 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.54296875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.1796875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="14"/>
-    <col min="10" max="10" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="14"/>
+    <col min="1" max="1" width="3.5546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.21875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="14"/>
+    <col min="10" max="10" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.21875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -7215,7 +7217,7 @@
       </c>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -7227,7 +7229,7 @@
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -7239,1810 +7241,1810 @@
       </c>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="F5" s="18"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="2:14" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C6" s="52"/>
       <c r="J6" s="52" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="J7" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="N7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>934</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>906</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>937</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>909</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="45">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>935</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>936</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>938</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>939</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="J9" s="45">
         <v>2</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="N9" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="45">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>937</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>938</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>940</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>941</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="J10" s="45">
         <v>3</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="45">
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>939</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>940</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>942</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>943</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="J11" s="45">
         <v>4</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="N11" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="45">
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>941</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>942</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>80</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>944</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>945</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="J12" s="45">
         <v>5</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N12" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="45">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>943</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>944</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="51" t="s">
-        <v>946</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>947</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="J13" s="45">
         <v>6</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="N13" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="N13" s="15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="45">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>945</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>946</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="D14" s="51" t="s">
-        <v>948</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>949</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>88</v>
       </c>
       <c r="J14" s="45">
         <v>7</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="N14" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="N14" s="15" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="45">
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>947</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>948</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" s="51" t="s">
-        <v>950</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>951</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>94</v>
       </c>
       <c r="J15" s="45">
         <v>8</v>
       </c>
       <c r="K15" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="N15" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="45">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>949</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>838</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>95</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>952</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>841</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>97</v>
       </c>
       <c r="J16" s="45">
         <v>9</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="N16" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="45">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>950</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>951</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>953</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>954</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>100</v>
       </c>
       <c r="J17" s="45">
         <v>10</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="N17" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="N17" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="45">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="51" t="s">
+        <v>952</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>953</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="D18" s="51" t="s">
-        <v>955</v>
-      </c>
-      <c r="E18" s="51" t="s">
-        <v>956</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>103</v>
       </c>
       <c r="J18" s="45">
         <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="45">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="51" t="s">
+        <v>954</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>955</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>957</v>
-      </c>
-      <c r="E19" s="51" t="s">
-        <v>958</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>109</v>
       </c>
       <c r="J19" s="45">
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="45">
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>956</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>957</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>959</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>960</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="J20" s="45">
         <v>13</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="N20" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="45">
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="51" t="s">
+        <v>958</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>959</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="D21" s="51" t="s">
-        <v>961</v>
-      </c>
-      <c r="E21" s="51" t="s">
-        <v>962</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>115</v>
       </c>
       <c r="J21" s="45">
         <v>14</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="N21" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="45">
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="51" t="s">
+        <v>960</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>850</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>963</v>
-      </c>
-      <c r="E22" s="51" t="s">
-        <v>853</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>118</v>
       </c>
       <c r="J22" s="45">
         <v>15</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N22" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="45">
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="51" t="s">
+        <v>961</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>962</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="D23" s="51" t="s">
-        <v>964</v>
-      </c>
-      <c r="E23" s="51" t="s">
-        <v>965</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>121</v>
       </c>
       <c r="J23" s="45">
         <v>16</v>
       </c>
       <c r="K23" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="N23" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="L23" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="45">
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>963</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>964</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>122</v>
-      </c>
-      <c r="D24" s="51" t="s">
-        <v>966</v>
-      </c>
-      <c r="E24" s="51" t="s">
-        <v>967</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>124</v>
       </c>
       <c r="J24" s="45">
         <v>17</v>
       </c>
       <c r="K24" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="L24" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="L24" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="45">
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J25" s="45">
         <v>18</v>
       </c>
       <c r="K25" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="45">
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>965</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>803</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="D26" s="51" t="s">
-        <v>968</v>
-      </c>
-      <c r="E26" s="51" t="s">
-        <v>806</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="J26" s="45">
         <v>19</v>
       </c>
       <c r="K26" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="N26" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="L26" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="45">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>966</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>967</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="51" t="s">
-        <v>969</v>
-      </c>
-      <c r="E27" s="51" t="s">
-        <v>970</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="45">
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>968</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>969</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="51" t="s">
-        <v>971</v>
-      </c>
-      <c r="E28" s="51" t="s">
-        <v>972</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="45">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>970</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>971</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D29" s="51" t="s">
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="45">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>972</v>
+      </c>
+      <c r="E30" s="51" t="s">
         <v>973</v>
       </c>
-      <c r="E29" s="51" t="s">
-        <v>974</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="15" t="s">
+      <c r="F30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B30" s="45">
-        <v>23</v>
-      </c>
-      <c r="C30" s="7" t="s">
+      <c r="H30" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="51" t="s">
-        <v>975</v>
-      </c>
-      <c r="E30" s="51" t="s">
-        <v>976</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="45">
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>974</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>975</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="51" t="s">
-        <v>977</v>
-      </c>
-      <c r="E31" s="51" t="s">
-        <v>978</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="45">
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>976</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>977</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="51" t="s">
-        <v>979</v>
-      </c>
-      <c r="E32" s="51" t="s">
-        <v>980</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="45">
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>978</v>
+      </c>
+      <c r="E33" s="51" t="s">
+        <v>979</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="51" t="s">
-        <v>981</v>
-      </c>
-      <c r="E33" s="51" t="s">
-        <v>982</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="45">
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>980</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>872</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="50" t="s">
-        <v>983</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>875</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="45">
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>981</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>928</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="51" t="s">
-        <v>984</v>
-      </c>
-      <c r="E35" s="51" t="s">
-        <v>931</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="45">
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="51" t="s">
+        <v>982</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>983</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="51" t="s">
-        <v>985</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>986</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="45">
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>984</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>985</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="51" t="s">
-        <v>987</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>988</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="45">
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>986</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>987</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="D38" s="51" t="s">
-        <v>989</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>990</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="45">
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>988</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>844</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="51" t="s">
-        <v>991</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>847</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="45">
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>989</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>990</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="51" t="s">
-        <v>992</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>993</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="45">
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>991</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>992</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="51" t="s">
-        <v>994</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>995</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="45">
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>821</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>783</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D42" s="51" t="s">
-        <v>824</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>786</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="45">
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>993</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>994</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="51" t="s">
-        <v>996</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>997</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="45">
         <v>37</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>995</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>996</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D44" s="51" t="s">
-        <v>998</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>999</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="45">
         <v>38</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="51" t="s">
+        <v>997</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>844</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="51" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>847</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="45">
         <v>39</v>
       </c>
       <c r="C46" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>998</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>999</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D46" s="51" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E46" s="50" t="s">
-        <v>1002</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="45">
         <v>40</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D47" s="51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E47" s="51"/>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="45">
         <v>41</v>
       </c>
       <c r="C48" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="D48" s="51" t="s">
-        <v>1003</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>1004</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="45">
         <v>42</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="51" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E49" s="51" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D49" s="51" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E49" s="51" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="45">
         <v>43</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="51" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D50" s="51" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E50" s="51" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="45">
         <v>44</v>
       </c>
       <c r="C51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E51" s="51" t="s">
+        <v>814</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H51" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="51" t="s">
-        <v>1009</v>
-      </c>
-      <c r="E51" s="51" t="s">
-        <v>817</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="45">
         <v>45</v>
       </c>
       <c r="C52" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="51" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H52" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="D52" s="51" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E52" s="51" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="45">
         <v>46</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="51" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H53" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D53" s="51" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E53" s="51" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="45">
         <v>47</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="51" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D54" s="51" t="s">
-        <v>1014</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="45">
         <v>48</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D55" s="51" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E55" s="51" t="s">
+        <v>803</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D55" s="51" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E55" s="51" t="s">
-        <v>806</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="45">
         <v>49</v>
       </c>
       <c r="C56" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>843</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="H56" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D56" s="51" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>846</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="45">
         <v>50</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D57" s="51" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="H57" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="D57" s="51" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E57" s="51" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="45">
         <v>51</v>
       </c>
       <c r="C58" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="D58" s="51" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E58" s="51" t="s">
-        <v>1021</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="45">
         <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" s="51" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H59" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="D59" s="51" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E59" s="51" t="s">
-        <v>1023</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="45">
         <v>53</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60" s="51" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="D60" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E60" s="51" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="45">
         <v>54</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D61" s="51" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E61" s="51" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="45">
         <v>55</v>
       </c>
       <c r="C62" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="51" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="H62" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D62" s="51" t="s">
-        <v>1027</v>
-      </c>
-      <c r="E62" s="51" t="s">
-        <v>1028</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="45">
         <v>56</v>
       </c>
       <c r="C63" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E63" s="51" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H63" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="D63" s="51" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E63" s="51" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="45">
         <v>57</v>
       </c>
       <c r="C64" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" s="51" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="D64" s="51" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E64" s="51" t="s">
-        <v>1032</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="45">
         <v>58</v>
       </c>
       <c r="C65" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="51" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>783</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H65" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="D65" s="51" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E65" s="51" t="s">
-        <v>786</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="45">
         <v>59</v>
       </c>
       <c r="C66" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H66" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="D66" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="45">
         <v>60</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D67" s="51" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E67" s="51" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H67" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="D67" s="51" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E67" s="51" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="45">
         <v>61</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D68" s="51" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H68" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="D68" s="51" t="s">
-        <v>1036</v>
-      </c>
-      <c r="E68" s="51" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="45">
         <v>62</v>
       </c>
       <c r="C69" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="51" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E69" s="51" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H69" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="D69" s="51" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E69" s="51" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="45">
         <v>63</v>
       </c>
       <c r="C70" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E70" s="51" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="H70" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D70" s="51" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E70" s="51" t="s">
-        <v>1041</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="45">
         <v>64</v>
       </c>
       <c r="C71" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" s="51" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H71" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="D71" s="51" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E71" s="51" t="s">
-        <v>1043</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -9146,29 +9148,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="31.54296875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="31.5546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="14"/>
-    <col min="10" max="10" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -9180,7 +9182,7 @@
       </c>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -9192,7 +9194,7 @@
       </c>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -9204,990 +9206,990 @@
       </c>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="F5" s="18"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="2:14" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C6" s="52"/>
       <c r="J6" s="52" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="J7" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="N7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="5">
         <v>7558289080</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="N8" s="15" t="s">
         <v>517</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" s="45">
         <v>2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" s="5">
         <v>7387213425</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J9" s="45">
         <v>2</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="N9" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="L9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" s="45">
         <v>3</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D10" s="48" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="5">
         <v>9833446728</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J10" s="45">
         <v>3</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M10" s="5">
         <v>9422115479</v>
       </c>
       <c r="N10" s="15" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B11" s="45">
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G11" s="5">
         <v>9763563987</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="J11" s="45">
         <v>4</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="N11" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B12" s="45">
         <v>5</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E12" s="48" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="5">
         <v>7066705430</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J12" s="45">
         <v>5</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M12" s="5">
         <v>7743949634</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15" x14ac:dyDescent="0.35">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B13" s="45">
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5">
         <v>8237496955</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J13" s="45">
         <v>6</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L13" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M13" s="5">
         <v>7218583912</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B14" s="45">
         <v>7</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="5">
         <v>9049796915</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="J14" s="45">
         <v>7</v>
       </c>
       <c r="K14" s="50" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L14" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M14" s="5">
         <v>7719862298</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="15" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B15" s="45">
         <v>8</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E15" s="48" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="5">
         <v>9987648115</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="15" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="15" x14ac:dyDescent="0.3">
       <c r="B16" s="45">
         <v>9</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16" s="5">
         <v>9820958424</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B17" s="45">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" s="5">
         <v>7887669198</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B18" s="45">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E18" s="48" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="5">
         <v>7666038604</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B19" s="45">
         <v>12</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="5">
         <v>7303752979</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B20" s="45">
         <v>13</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="5">
         <v>8857819155</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B21" s="45">
         <v>14</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E21" s="48" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="5">
         <v>8825054152</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B22" s="45">
         <v>15</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G22" s="5">
         <v>9765914865</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B23" s="45">
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E23" s="48" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G23" s="5">
         <v>7710859052</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B24" s="45">
         <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" s="5">
         <v>8857863105</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B25" s="45">
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E25" s="48" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G25" s="5">
         <v>9423561361</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B26" s="45">
         <v>19</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G26" s="5">
         <v>8424956867</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B27" s="45">
         <v>20</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G27" s="5">
         <v>8390700404</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B28" s="45">
         <v>21</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="5">
         <v>8421163930</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B29" s="45">
         <v>22</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E29" s="48" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="5">
         <v>7083906951</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B30" s="45">
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G30" s="5">
         <v>8689929864</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B31" s="45">
         <v>24</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D31" s="48" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E31" s="48" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" s="5">
         <v>7362933380</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B32" s="45">
         <v>25</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G32" s="5">
         <v>8978213151</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B33" s="45">
         <v>26</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G33" s="5">
         <v>9326855136</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B34" s="45">
         <v>27</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G34" s="5">
         <v>9172029365</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B35" s="45">
         <v>28</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E35" s="48" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G35" s="5">
         <v>8624039380</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B36" s="45">
         <v>29</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G36" s="5">
         <v>7218454570</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B37" s="45">
         <v>30</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="E37" s="48" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G37" s="5">
         <v>9359467647</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B38" s="45">
         <v>31</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E38" s="48" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G38" s="5">
         <v>8691942385</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B39" s="45">
         <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D39" s="48" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E39" s="48" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G39" s="5">
         <v>8850419292</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B40" s="45">
         <v>33</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G40" s="5">
         <v>9621029028</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B41" s="45">
         <v>34</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E41" s="48" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G41" s="5">
         <v>7066020092</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B42" s="45">
         <v>35</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="E42" s="48" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G42" s="5">
         <v>8349830798</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="15" x14ac:dyDescent="0.35">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B43" s="45">
         <v>36</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E43" s="48" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G43" s="5">
         <v>7225848488</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -10250,29 +10252,29 @@
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" style="14" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="31.54296875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="31.5546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="14"/>
-    <col min="10" max="10" width="5.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.1796875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="26"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="26"/>
       <c r="C2" s="16" t="str">
         <f>Summary!$J$2</f>
@@ -10284,7 +10286,7 @@
       </c>
       <c r="J2" s="26"/>
     </row>
-    <row r="3" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="26"/>
       <c r="C3" s="16" t="str">
         <f>Summary!$K$2</f>
@@ -10296,7 +10298,7 @@
       </c>
       <c r="J3" s="26"/>
     </row>
-    <row r="4" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="26"/>
       <c r="C4" s="16" t="str">
         <f>Summary!$L$2</f>
@@ -10308,1806 +10310,1806 @@
       </c>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="26"/>
       <c r="F5" s="18"/>
       <c r="J5" s="26"/>
     </row>
-    <row r="6" spans="2:14" s="19" customFormat="1" ht="17.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" s="19" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C6" s="52"/>
       <c r="J6" s="52" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="H7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="G7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="J7" s="25" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="N7" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>309</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>1</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="35">
         <v>7903517993</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M8" s="37">
         <v>7022190814</v>
       </c>
       <c r="N8" s="40" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="45">
         <v>2</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="35">
         <v>8809533270</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="J9" s="45">
         <v>2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M9" s="37">
         <v>9902495591</v>
       </c>
       <c r="N9" s="40" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="45">
         <v>3</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="35">
         <v>9606535481</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J10" s="45">
         <v>3</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M10" s="37">
         <v>8217816055</v>
       </c>
       <c r="N10" s="40" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="45">
         <v>4</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="36">
         <v>8147464093</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J11" s="45">
         <v>4</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M11" s="35">
         <v>8917508099</v>
       </c>
       <c r="N11" s="39" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="45">
         <v>5</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="35">
         <v>7076417867</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="J12" s="45">
         <v>5</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M12" s="36">
         <v>8334886173</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="45">
         <v>6</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="35">
         <v>7813054321</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="J13" s="45">
         <v>6</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M13" s="35">
         <v>7019175327</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="45">
         <v>7</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" s="36">
         <v>7381929325</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J14" s="45">
         <v>7</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M14" s="35">
         <v>8886325991</v>
       </c>
       <c r="N14" s="40" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="45">
         <v>8</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="36">
         <v>9072082223</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J15" s="45">
         <v>8</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M15" s="35">
         <v>6360125482</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="45">
         <v>9</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="36">
         <v>9845258050</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J16" s="45">
         <v>9</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M16" s="36">
         <v>7022209112</v>
       </c>
       <c r="N16" s="40" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="45">
         <v>10</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G17" s="36">
         <v>9731296131</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="J17" s="45">
         <v>10</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M17" s="36">
         <v>9480560066</v>
       </c>
       <c r="N17" s="40" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="45">
         <v>11</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D18" s="39" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G18" s="36">
         <v>8217546865</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J18" s="45">
         <v>11</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M18" s="36">
         <v>8660145501</v>
       </c>
       <c r="N18" s="40" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="45">
         <v>12</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="35">
         <v>8763455966</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J19" s="45">
         <v>12</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M19" s="35">
         <v>8977511126</v>
       </c>
       <c r="N19" s="39" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="45">
         <v>13</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D20" s="39" t="s">
+        <v>841</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>844</v>
       </c>
-      <c r="E20" s="39" t="s">
-        <v>847</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G20" s="36">
         <v>7353647630</v>
       </c>
       <c r="H20" s="40" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="J20" s="45">
         <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M20" s="36">
         <v>7684841402</v>
       </c>
       <c r="N20" s="40" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="45">
         <v>14</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="35">
         <v>8249093695</v>
       </c>
       <c r="H21" s="40" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="J21" s="45">
         <v>14</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L21" s="43" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M21" s="36">
         <v>8892227116</v>
       </c>
       <c r="N21" s="40" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="45">
         <v>15</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G22" s="36">
         <v>7873663423</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="45">
         <v>16</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="37">
         <v>9019267075</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="45">
         <v>17</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" s="36">
         <v>9700310911</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="45">
         <v>18</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G25" s="36">
         <v>9113044577</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="45">
         <v>19</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" s="35">
         <v>9035908159</v>
       </c>
       <c r="H26" s="39" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="45">
         <v>20</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E27" s="37" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G27" s="35">
         <v>7829067527</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="45">
         <v>21</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="36">
         <v>7981028759</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="45">
         <v>22</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G29" s="36">
         <v>7097792978</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="45">
         <v>23</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G30" s="35">
         <v>7000384881</v>
       </c>
       <c r="H30" s="39" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="45">
         <v>24</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" s="36">
         <v>9008412572</v>
       </c>
       <c r="H31" s="40" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="45">
         <v>25</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G32" s="36">
         <v>7406654166</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="45">
         <v>26</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E33" s="37" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G33" s="36">
         <v>8867413437</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="45">
         <v>27</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G34" s="37">
         <v>9700143501</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="45">
         <v>28</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G35" s="35">
         <v>7989967960</v>
       </c>
       <c r="H35" s="39" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="45">
         <v>29</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G36" s="37">
         <v>7008435826</v>
       </c>
       <c r="H36" s="40" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="45">
         <v>30</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G37" s="36">
         <v>7483029057</v>
       </c>
       <c r="H37" s="40" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="45">
         <v>31</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G38" s="36">
         <v>7406771982</v>
       </c>
       <c r="H38" s="40" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="45">
         <v>32</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G39" s="37">
         <v>8951512519</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="45">
         <v>33</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F40" s="41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G40" s="35">
         <v>6360556728</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="45">
         <v>34</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D41" s="37" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G41" s="36">
         <v>7411377032</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="45">
         <v>35</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G42" s="37">
         <v>9492208119</v>
       </c>
       <c r="H42" s="40" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="45">
         <v>36</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G43" s="36">
         <v>8249001505</v>
       </c>
       <c r="H43" s="40" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="45">
         <v>37</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D44" s="37" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G44" s="36">
         <v>8618427272</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="45">
         <v>38</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G45" s="35">
         <v>8746075033</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="45">
         <v>39</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D46" s="37" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G46" s="35">
         <v>9121503770</v>
       </c>
       <c r="H46" s="39" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="45">
         <v>40</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D47" s="37" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G47" s="35">
         <v>9550316616</v>
       </c>
       <c r="H47" s="39" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="45">
         <v>41</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G48" s="36">
         <v>7406971376</v>
       </c>
       <c r="H48" s="40" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="45">
         <v>42</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G49" s="36">
         <v>7483284262</v>
       </c>
       <c r="H49" s="40" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="45">
         <v>43</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G50" s="35">
         <v>9040077448</v>
       </c>
       <c r="H50" s="40" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="45">
         <v>44</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D51" s="37" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G51" s="37">
         <v>6360683726</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="45">
         <v>45</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D52" s="37" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G52" s="36">
         <v>9945718244</v>
       </c>
       <c r="H52" s="40" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="45">
         <v>46</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G53" s="36">
         <v>7780660126</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="45">
         <v>47</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D54" s="37" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G54" s="36">
         <v>8660346353</v>
       </c>
       <c r="H54" s="40" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="45">
         <v>48</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D55" s="37" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G55" s="36">
         <v>8682031807</v>
       </c>
       <c r="H55" s="40" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="45">
         <v>49</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G56" s="36">
         <v>8197206751</v>
       </c>
       <c r="H56" s="40" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="45">
         <v>50</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G57" s="35">
         <v>7022513325</v>
       </c>
       <c r="H57" s="39" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="45">
         <v>51</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G58" s="36">
         <v>9108616263</v>
       </c>
       <c r="H58" s="40" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="45">
         <v>52</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G59" s="37">
         <v>6379575272</v>
       </c>
       <c r="H59" s="40" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" s="45">
         <v>53</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G60" s="37">
         <v>7396436165</v>
       </c>
       <c r="H60" s="40" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" s="45">
         <v>54</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G61" s="36">
         <v>8310086774</v>
       </c>
       <c r="H61" s="40" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" s="45">
         <v>55</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E62" s="37" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G62" s="36">
         <v>9741974627</v>
       </c>
       <c r="H62" s="40" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" s="45">
         <v>56</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E63" s="37" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G63" s="37">
         <v>9448011412</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" s="45">
         <v>57</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G64" s="37">
         <v>7353181715</v>
       </c>
       <c r="H64" s="40" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" s="45">
         <v>58</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G65" s="35">
         <v>8617838183</v>
       </c>
       <c r="H65" s="39" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" s="45">
         <v>59</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D66" s="38" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G66" s="35">
         <v>7980173705</v>
       </c>
       <c r="H66" s="39" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" s="45">
         <v>60</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G67" s="37">
         <v>9611596727</v>
       </c>
       <c r="H67" s="40" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" s="45">
         <v>61</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G68" s="37">
         <v>9535059533</v>
       </c>
       <c r="H68" s="40" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" s="45">
         <v>62</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E69" s="37" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="H69" s="35" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" s="45">
         <v>63</v>
       </c>
       <c r="C70" s="36" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E70" s="37" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G70" s="36">
         <v>8722570919</v>
       </c>
       <c r="H70" s="40" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="45">
         <v>64</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G71" s="36">
         <v>7899118522</v>
       </c>
       <c r="H71" s="40" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="45">
         <v>65</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E72" s="37" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G72" s="37">
         <v>9686553854</v>
       </c>
       <c r="H72" s="40" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="45">
         <v>66</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D73" s="37" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E73" s="37" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G73" s="35">
         <v>9734534062</v>
       </c>
       <c r="H73" s="39" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="45">
         <v>67</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D74" s="43" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G74" s="36">
         <v>7483325727</v>
       </c>
       <c r="H74" s="40" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -3154,13 +3154,14 @@
     <t>Varaga</t>
   </si>
   <si>
-    <t>BDD completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java Completed                           SQL Completed                          </t>
-  </si>
-  <si>
-    <t>Spring Core Completed                Spring MVC Completed</t>
+    <t>Parallel Project Evaluation completed
+PLP on going</t>
+  </si>
+  <si>
+    <t>Spring 5.0 Completed</t>
+  </si>
+  <si>
+    <t>Core Java, SQL and JDBC completed</t>
   </si>
 </sst>
 </file>
@@ -5291,7 +5292,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5370,7 +5371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -5579,7 +5580,7 @@
         <v>9897145195</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
@@ -5631,7 +5632,7 @@
         <v>8377841525</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -3154,14 +3154,13 @@
     <t>Varaga</t>
   </si>
   <si>
-    <t>Parallel Project Evaluation completed
-PLP on going</t>
-  </si>
-  <si>
-    <t>Spring 5.0 Completed</t>
-  </si>
-  <si>
-    <t>Core Java, SQL and JDBC completed</t>
+    <t>BDD on going</t>
+  </si>
+  <si>
+    <t>HTML, CSS, BootStrap, Javascript, TypeScript Completed, Angular started</t>
+  </si>
+  <si>
+    <t>Retest</t>
   </si>
 </sst>
 </file>
@@ -5292,7 +5291,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5371,7 +5370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>8377841525</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>13</v>
@@ -5472,7 +5471,7 @@
         <v>8073098283</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>13</v>
@@ -5526,7 +5525,7 @@
         <v>8762928822</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>13</v>
@@ -5580,12 +5579,12 @@
         <v>9897145195</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>8377841525</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>

--- a/HTD Programs-Weekly Status Report for Capgemini.xlsx
+++ b/HTD Programs-Weekly Status Report for Capgemini.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1039">
   <si>
     <t>Batch Name</t>
   </si>
@@ -2317,12 +2317,6 @@
     <t>Surve</t>
   </si>
   <si>
-    <t>Aishwarya Pralhad</t>
-  </si>
-  <si>
-    <t>Narwade</t>
-  </si>
-  <si>
     <t>Aishwarya Vitthal</t>
   </si>
   <si>
@@ -2416,15 +2410,6 @@
     <t>Mrunalini Ajit</t>
   </si>
   <si>
-    <t>Pooja  Achchhelal</t>
-  </si>
-  <si>
-    <t>Vishwakarma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pooja </t>
-  </si>
-  <si>
     <t>Pournima Balasaheb</t>
   </si>
   <si>
@@ -2437,9 +2422,6 @@
     <t>Banik</t>
   </si>
   <si>
-    <t>Tabassum Banu</t>
-  </si>
-  <si>
     <t>Shaik</t>
   </si>
   <si>
@@ -2452,12 +2434,6 @@
     <t>Shital Satish</t>
   </si>
   <si>
-    <t>Shruti sanjay</t>
-  </si>
-  <si>
-    <t>Kolte</t>
-  </si>
-  <si>
     <t>Shubham Sharad</t>
   </si>
   <si>
@@ -3154,13 +3130,14 @@
     <t>Varaga</t>
   </si>
   <si>
-    <t>BDD on going</t>
-  </si>
-  <si>
-    <t>HTML, CSS, BootStrap, Javascript, TypeScript Completed, Angular started</t>
-  </si>
-  <si>
     <t>Retest</t>
+  </si>
+  <si>
+    <t>PLP Going on</t>
+  </si>
+  <si>
+    <t>Angular Completed
+Servlets started</t>
   </si>
 </sst>
 </file>
@@ -3376,7 +3353,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3522,6 +3499,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5131,7 +5111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5287,11 +5267,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R8"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="9" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5417,7 +5397,7 @@
         <v>8377841525</v>
       </c>
       <c r="P3" s="34" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>13</v>
@@ -5471,7 +5451,7 @@
         <v>8073098283</v>
       </c>
       <c r="P4" s="34" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>13</v>
@@ -5525,7 +5505,7 @@
         <v>8762928822</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>13</v>
@@ -5563,11 +5543,11 @@
       </c>
       <c r="K6" s="30">
         <f>'Pune-Mumbai Batch Candidates'!D3</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="L6" s="29">
         <f>'Pune-Mumbai Batch Candidates'!D4</f>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>12</v>
@@ -5579,12 +5559,12 @@
         <v>9897145195</v>
       </c>
       <c r="P6" s="34" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
     </row>
-    <row r="7" spans="2:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" ht="28" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -5631,7 +5611,7 @@
         <v>8377841525</v>
       </c>
       <c r="P7" s="34" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
@@ -7300,10 +7280,10 @@
         <v>65</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
@@ -7338,10 +7318,10 @@
         <v>68</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -7376,10 +7356,10 @@
         <v>71</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>25</v>
@@ -7414,10 +7394,10 @@
         <v>77</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -7452,10 +7432,10 @@
         <v>80</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>25</v>
@@ -7490,10 +7470,10 @@
         <v>83</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -7528,10 +7508,10 @@
         <v>86</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>25</v>
@@ -7566,10 +7546,10 @@
         <v>92</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>25</v>
@@ -7604,10 +7584,10 @@
         <v>95</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -7642,10 +7622,10 @@
         <v>98</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>25</v>
@@ -7680,10 +7660,10 @@
         <v>101</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="E18" s="51" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -7718,10 +7698,10 @@
         <v>107</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>24</v>
@@ -7756,10 +7736,10 @@
         <v>110</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>25</v>
@@ -7794,10 +7774,10 @@
         <v>113</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
@@ -7832,10 +7812,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>25</v>
@@ -7870,10 +7850,10 @@
         <v>119</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>25</v>
@@ -7908,10 +7888,10 @@
         <v>122</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>25</v>
@@ -7982,10 +7962,10 @@
         <v>131</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>25</v>
@@ -8020,10 +8000,10 @@
         <v>134</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="E27" s="51" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>24</v>
@@ -8043,10 +8023,10 @@
         <v>137</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="E28" s="51" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>24</v>
@@ -8066,10 +8046,10 @@
         <v>140</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="E29" s="51" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>25</v>
@@ -8089,10 +8069,10 @@
         <v>143</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>24</v>
@@ -8112,10 +8092,10 @@
         <v>146</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="E31" s="51" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>24</v>
@@ -8135,10 +8115,10 @@
         <v>149</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="E32" s="51" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>25</v>
@@ -8158,10 +8138,10 @@
         <v>152</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="E33" s="51" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>25</v>
@@ -8181,10 +8161,10 @@
         <v>155</v>
       </c>
       <c r="D34" s="50" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="E34" s="51" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>25</v>
@@ -8204,10 +8184,10 @@
         <v>158</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>25</v>
@@ -8227,10 +8207,10 @@
         <v>161</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>24</v>
@@ -8250,10 +8230,10 @@
         <v>164</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>25</v>
@@ -8273,10 +8253,10 @@
         <v>167</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>25</v>
@@ -8296,10 +8276,10 @@
         <v>170</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>24</v>
@@ -8319,10 +8299,10 @@
         <v>173</v>
       </c>
       <c r="D40" s="51" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>25</v>
@@ -8342,10 +8322,10 @@
         <v>176</v>
       </c>
       <c r="D41" s="51" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>25</v>
@@ -8365,10 +8345,10 @@
         <v>179</v>
       </c>
       <c r="D42" s="51" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>25</v>
@@ -8388,10 +8368,10 @@
         <v>182</v>
       </c>
       <c r="D43" s="51" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>24</v>
@@ -8411,10 +8391,10 @@
         <v>185</v>
       </c>
       <c r="D44" s="51" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>25</v>
@@ -8434,10 +8414,10 @@
         <v>188</v>
       </c>
       <c r="D45" s="51" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="E45"